--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF68338-981E-488C-A5AC-9C7205AA5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF597DB7-E3F3-41E6-B89D-903776708920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1503,7 +1503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1513,6 +1513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,7 +1551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1573,6 +1579,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1892,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1997,7 +2006,7 @@
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2011,7 +2020,7 @@
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2025,7 +2034,7 @@
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2137,7 +2146,7 @@
       <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF597DB7-E3F3-41E6-B89D-903776708920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ED9A56-5554-4B88-9745-A0A6D1BA9E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1502,8 +1502,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,6 +1526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,7 +1564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,6 +1595,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1901,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2048,7 +2067,7 @@
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2062,7 +2081,7 @@
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2090,7 +2109,7 @@
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2118,7 +2137,7 @@
       <c r="C18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="16" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ED9A56-5554-4B88-9745-A0A6D1BA9E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DDBE5E-6D1E-49AD-A0A1-D2DD7939475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2514,7 +2514,7 @@
       <c r="C46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DDBE5E-6D1E-49AD-A0A1-D2DD7939475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7B94F2-93D6-4AAE-AD01-97EF6E0D7630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1921,7 +1921,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2528,7 +2528,7 @@
       <c r="C47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7B94F2-93D6-4AAE-AD01-97EF6E0D7630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C6A743-4920-4A1B-B73A-48B3031A48EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1510,7 +1510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1532,6 +1532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1601,6 +1607,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1920,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2598,7 +2607,7 @@
       <c r="C52" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="18" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C6A743-4920-4A1B-B73A-48B3031A48EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA53788-7267-4C81-B53F-CE9E9CF6AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3755,7 +3755,7 @@
       <c r="C139" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA53788-7267-4C81-B53F-CE9E9CF6AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4418254F-0441-4C08-BBD0-5C887899219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3769,7 +3769,7 @@
       <c r="C140" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       <c r="C146" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D146" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4418254F-0441-4C08-BBD0-5C887899219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E78D9B-8555-4C88-9FF8-EA2F3DAF8322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3951,7 +3951,7 @@
       <c r="C153" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E78D9B-8555-4C88-9FF8-EA2F3DAF8322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17243768-D234-456C-B4AD-9F03C0800C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3923,7 +3923,7 @@
       <c r="C151" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="D151" s="18" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17243768-D234-456C-B4AD-9F03C0800C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34942AC4-3AC4-46BF-8B26-B6F679E39D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1538,6 +1541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,6 +1619,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1929,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4105,8 +4117,8 @@
       <c r="C164" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D164" s="13" t="s">
-        <v>4</v>
+      <c r="D164" s="14" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4133,7 +4145,7 @@
       <c r="C166" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D166" s="13" t="s">
+      <c r="D166" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4147,7 +4159,7 @@
       <c r="C167" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4189,7 +4201,7 @@
       <c r="C170" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34942AC4-3AC4-46BF-8B26-B6F679E39D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7C3CAC-0976-40DC-8421-62EF6E2F6A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -564,12 +564,6 @@
     <t>Mirror of a tree</t>
   </si>
   <si>
-    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
     <t>Postorder Traversal of a tree both using recursion and Iteration</t>
   </si>
   <si>
@@ -1429,13 +1423,45 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inorder Traversal of a tree both using recursion and </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iteration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Preorder Traversal of a tree both using recursion and </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iteration</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1508,6 +1534,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1941,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1964,7 +1998,7 @@
     </row>
     <row r="4" spans="1:5" ht="21">
       <c r="A4" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -4118,7 +4152,7 @@
         <v>160</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4215,7 +4249,7 @@
       <c r="C171" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D171" s="13" t="s">
+      <c r="D171" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4229,7 +4263,7 @@
       <c r="C172" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4275,7 +4309,7 @@
       <c r="C177" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D177" s="13" t="s">
+      <c r="D177" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4289,7 +4323,7 @@
       <c r="C178" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D178" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4303,7 +4337,7 @@
       <c r="C179" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D179" s="13" t="s">
+      <c r="D179" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4317,7 +4351,7 @@
       <c r="C180" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="D180" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4331,7 +4365,7 @@
       <c r="C181" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="D181" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4343,9 +4377,9 @@
         <v>171</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D182" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D182" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4357,9 +4391,9 @@
         <v>171</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D183" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D183" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4371,7 +4405,7 @@
         <v>171</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>4</v>
@@ -4385,7 +4419,7 @@
         <v>171</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D185" s="13" t="s">
         <v>4</v>
@@ -4399,7 +4433,7 @@
         <v>171</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D186" s="13" t="s">
         <v>4</v>
@@ -4413,7 +4447,7 @@
         <v>171</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>4</v>
@@ -4427,7 +4461,7 @@
         <v>171</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D188" s="13" t="s">
         <v>4</v>
@@ -4441,7 +4475,7 @@
         <v>171</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D189" s="13" t="s">
         <v>4</v>
@@ -4455,7 +4489,7 @@
         <v>171</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D190" s="13" t="s">
         <v>4</v>
@@ -4469,7 +4503,7 @@
         <v>171</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>4</v>
@@ -4483,7 +4517,7 @@
         <v>171</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>4</v>
@@ -4497,7 +4531,7 @@
         <v>171</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>4</v>
@@ -4511,7 +4545,7 @@
         <v>171</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>4</v>
@@ -4525,7 +4559,7 @@
         <v>171</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>4</v>
@@ -4539,7 +4573,7 @@
         <v>171</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D196" s="13" t="s">
         <v>4</v>
@@ -4553,7 +4587,7 @@
         <v>171</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>4</v>
@@ -4567,7 +4601,7 @@
         <v>171</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D198" s="13" t="s">
         <v>4</v>
@@ -4581,7 +4615,7 @@
         <v>171</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>4</v>
@@ -4595,7 +4629,7 @@
         <v>171</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>4</v>
@@ -4609,7 +4643,7 @@
         <v>171</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D201" s="13" t="s">
         <v>4</v>
@@ -4623,7 +4657,7 @@
         <v>171</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D202" s="13" t="s">
         <v>4</v>
@@ -4637,7 +4671,7 @@
         <v>171</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>4</v>
@@ -4651,7 +4685,7 @@
         <v>171</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D204" s="13" t="s">
         <v>4</v>
@@ -4665,7 +4699,7 @@
         <v>171</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D205" s="13" t="s">
         <v>4</v>
@@ -4679,7 +4713,7 @@
         <v>171</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D206" s="13" t="s">
         <v>4</v>
@@ -4693,7 +4727,7 @@
         <v>171</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>4</v>
@@ -4707,7 +4741,7 @@
         <v>171</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>4</v>
@@ -4721,7 +4755,7 @@
         <v>171</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>4</v>
@@ -4735,7 +4769,7 @@
         <v>171</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D210" s="13" t="s">
         <v>4</v>
@@ -4749,7 +4783,7 @@
         <v>171</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D211" s="13" t="s">
         <v>4</v>
@@ -4770,10 +4804,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D214" s="13" t="s">
         <v>4</v>
@@ -4784,10 +4818,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="D215" s="13" t="s">
         <v>4</v>
@@ -4798,10 +4832,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D216" s="13" t="s">
         <v>4</v>
@@ -4812,10 +4846,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D217" s="13" t="s">
         <v>4</v>
@@ -4826,10 +4860,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D218" s="13" t="s">
         <v>4</v>
@@ -4840,10 +4874,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>4</v>
@@ -4854,10 +4888,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D220" s="13" t="s">
         <v>4</v>
@@ -4868,10 +4902,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D221" s="13" t="s">
         <v>4</v>
@@ -4882,10 +4916,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D222" s="13" t="s">
         <v>4</v>
@@ -4896,10 +4930,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D223" s="13" t="s">
         <v>4</v>
@@ -4910,10 +4944,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D224" s="13" t="s">
         <v>4</v>
@@ -4924,10 +4958,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D225" s="13" t="s">
         <v>4</v>
@@ -4938,10 +4972,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D226" s="13" t="s">
         <v>4</v>
@@ -4952,10 +4986,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D227" s="13" t="s">
         <v>4</v>
@@ -4966,10 +5000,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D228" s="13" t="s">
         <v>4</v>
@@ -4980,10 +5014,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D229" s="13" t="s">
         <v>4</v>
@@ -4994,10 +5028,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D230" s="13" t="s">
         <v>4</v>
@@ -5008,10 +5042,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D231" s="13" t="s">
         <v>4</v>
@@ -5022,10 +5056,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>4</v>
@@ -5036,10 +5070,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D233" s="13" t="s">
         <v>4</v>
@@ -5050,10 +5084,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D234" s="13" t="s">
         <v>4</v>
@@ -5064,10 +5098,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D235" s="13" t="s">
         <v>4</v>
@@ -5086,10 +5120,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D238" s="13" t="s">
         <v>4</v>
@@ -5100,10 +5134,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="D239" s="13" t="s">
         <v>4</v>
@@ -5114,10 +5148,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D240" s="13" t="s">
         <v>4</v>
@@ -5128,10 +5162,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D241" s="13" t="s">
         <v>4</v>
@@ -5142,10 +5176,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D242" s="13" t="s">
         <v>4</v>
@@ -5156,10 +5190,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D243" s="13" t="s">
         <v>4</v>
@@ -5170,10 +5204,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D244" s="13" t="s">
         <v>4</v>
@@ -5184,10 +5218,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D245" s="13" t="s">
         <v>4</v>
@@ -5198,10 +5232,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D246" s="13" t="s">
         <v>4</v>
@@ -5212,10 +5246,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D247" s="13" t="s">
         <v>4</v>
@@ -5226,10 +5260,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D248" s="13" t="s">
         <v>4</v>
@@ -5240,10 +5274,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D249" s="13" t="s">
         <v>4</v>
@@ -5254,10 +5288,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D250" s="13" t="s">
         <v>4</v>
@@ -5268,10 +5302,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D251" s="13" t="s">
         <v>4</v>
@@ -5282,10 +5316,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D252" s="13" t="s">
         <v>4</v>
@@ -5296,10 +5330,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D253" s="13" t="s">
         <v>4</v>
@@ -5310,10 +5344,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D254" s="13" t="s">
         <v>4</v>
@@ -5324,10 +5358,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D255" s="13" t="s">
         <v>4</v>
@@ -5338,10 +5372,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D256" s="13" t="s">
         <v>4</v>
@@ -5352,10 +5386,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D257" s="13" t="s">
         <v>4</v>
@@ -5366,10 +5400,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D258" s="13" t="s">
         <v>4</v>
@@ -5380,10 +5414,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D259" s="13" t="s">
         <v>4</v>
@@ -5394,10 +5428,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D260" s="13" t="s">
         <v>4</v>
@@ -5408,10 +5442,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D261" s="13" t="s">
         <v>4</v>
@@ -5422,10 +5456,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D262" s="13" t="s">
         <v>4</v>
@@ -5436,10 +5470,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D263" s="13" t="s">
         <v>4</v>
@@ -5450,10 +5484,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D264" s="13" t="s">
         <v>4</v>
@@ -5464,10 +5498,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D265" s="13" t="s">
         <v>4</v>
@@ -5478,10 +5512,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D266" s="13" t="s">
         <v>4</v>
@@ -5492,10 +5526,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D267" s="13" t="s">
         <v>4</v>
@@ -5506,10 +5540,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D268" s="13" t="s">
         <v>4</v>
@@ -5520,10 +5554,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D269" s="13" t="s">
         <v>4</v>
@@ -5534,10 +5568,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>4</v>
@@ -5548,7 +5582,7 @@
         <v>252</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>87</v>
@@ -5562,10 +5596,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>4</v>
@@ -5584,10 +5618,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D275" s="13" t="s">
         <v>4</v>
@@ -5598,10 +5632,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="D276" s="13" t="s">
         <v>4</v>
@@ -5612,10 +5646,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D277" s="13" t="s">
         <v>4</v>
@@ -5626,10 +5660,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D278" s="13" t="s">
         <v>4</v>
@@ -5640,10 +5674,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D279" s="13" t="s">
         <v>4</v>
@@ -5654,10 +5688,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D280" s="13" t="s">
         <v>4</v>
@@ -5668,10 +5702,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D281" s="13" t="s">
         <v>4</v>
@@ -5682,10 +5716,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D282" s="13" t="s">
         <v>4</v>
@@ -5696,10 +5730,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D283" s="13" t="s">
         <v>4</v>
@@ -5710,10 +5744,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>4</v>
@@ -5724,10 +5758,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D285" s="13" t="s">
         <v>4</v>
@@ -5738,10 +5772,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D286" s="13" t="s">
         <v>4</v>
@@ -5752,10 +5786,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D287" s="13" t="s">
         <v>4</v>
@@ -5766,10 +5800,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>4</v>
@@ -5780,10 +5814,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D289" s="13" t="s">
         <v>4</v>
@@ -5794,10 +5828,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D290" s="13" t="s">
         <v>4</v>
@@ -5808,10 +5842,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D291" s="13" t="s">
         <v>4</v>
@@ -5822,10 +5856,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D292" s="13" t="s">
         <v>4</v>
@@ -5836,10 +5870,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>4</v>
@@ -5858,10 +5892,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D296" s="13" t="s">
         <v>4</v>
@@ -5872,10 +5906,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="D297" s="13" t="s">
         <v>4</v>
@@ -5886,10 +5920,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D298" s="13" t="s">
         <v>4</v>
@@ -5900,10 +5934,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D299" s="13" t="s">
         <v>4</v>
@@ -5914,10 +5948,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D300" s="13" t="s">
         <v>4</v>
@@ -5928,10 +5962,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D301" s="13" t="s">
         <v>4</v>
@@ -5942,10 +5976,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D302" s="13" t="s">
         <v>4</v>
@@ -5956,10 +5990,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>4</v>
@@ -5970,10 +6004,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>4</v>
@@ -5984,10 +6018,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D305" s="13" t="s">
         <v>4</v>
@@ -5998,10 +6032,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>4</v>
@@ -6012,10 +6046,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D307" s="13" t="s">
         <v>4</v>
@@ -6026,10 +6060,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D308" s="13" t="s">
         <v>4</v>
@@ -6040,10 +6074,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D309" s="13" t="s">
         <v>4</v>
@@ -6054,10 +6088,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D310" s="13" t="s">
         <v>4</v>
@@ -6068,10 +6102,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D311" s="13" t="s">
         <v>4</v>
@@ -6082,10 +6116,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D312" s="13" t="s">
         <v>4</v>
@@ -6096,10 +6130,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D313" s="13" t="s">
         <v>4</v>
@@ -6110,10 +6144,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D314" s="13" t="s">
         <v>4</v>
@@ -6124,10 +6158,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D315" s="13" t="s">
         <v>4</v>
@@ -6138,10 +6172,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D316" s="13" t="s">
         <v>4</v>
@@ -6152,10 +6186,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D317" s="13" t="s">
         <v>4</v>
@@ -6166,10 +6200,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>4</v>
@@ -6180,10 +6214,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D319" s="13" t="s">
         <v>4</v>
@@ -6194,10 +6228,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>4</v>
@@ -6208,10 +6242,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D321" s="13" t="s">
         <v>4</v>
@@ -6222,10 +6256,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D322" s="13" t="s">
         <v>4</v>
@@ -6236,10 +6270,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D323" s="13" t="s">
         <v>4</v>
@@ -6250,10 +6284,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D324" s="13" t="s">
         <v>4</v>
@@ -6264,10 +6298,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>4</v>
@@ -6278,10 +6312,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D326" s="13" t="s">
         <v>4</v>
@@ -6292,10 +6326,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D327" s="13" t="s">
         <v>4</v>
@@ -6306,10 +6340,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>4</v>
@@ -6320,10 +6354,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>4</v>
@@ -6334,10 +6368,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>4</v>
@@ -6348,10 +6382,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D331" s="13" t="s">
         <v>4</v>
@@ -6362,10 +6396,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D332" s="13" t="s">
         <v>4</v>
@@ -6376,10 +6410,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D333" s="13" t="s">
         <v>4</v>
@@ -6398,10 +6432,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D336" s="13" t="s">
         <v>4</v>
@@ -6412,10 +6446,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C337" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>4</v>
@@ -6426,10 +6460,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D338" s="13" t="s">
         <v>4</v>
@@ -6440,10 +6474,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D339" s="13" t="s">
         <v>4</v>
@@ -6454,10 +6488,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D340" s="13" t="s">
         <v>4</v>
@@ -6468,10 +6502,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D341" s="13" t="s">
         <v>4</v>
@@ -6482,10 +6516,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>4</v>
@@ -6496,10 +6530,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D343" s="13" t="s">
         <v>4</v>
@@ -6510,10 +6544,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D344" s="13" t="s">
         <v>4</v>
@@ -6524,10 +6558,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D345" s="13" t="s">
         <v>4</v>
@@ -6538,10 +6572,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D346" s="13" t="s">
         <v>4</v>
@@ -6552,10 +6586,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D347" s="13" t="s">
         <v>4</v>
@@ -6566,10 +6600,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D348" s="13" t="s">
         <v>4</v>
@@ -6580,10 +6614,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D349" s="13" t="s">
         <v>4</v>
@@ -6594,10 +6628,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D350" s="13" t="s">
         <v>4</v>
@@ -6608,10 +6642,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D351" s="13" t="s">
         <v>4</v>
@@ -6622,10 +6656,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D352" s="13" t="s">
         <v>4</v>
@@ -6636,10 +6670,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D353" s="13" t="s">
         <v>4</v>
@@ -6658,10 +6692,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D356" s="13" t="s">
         <v>4</v>
@@ -6672,10 +6706,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C357" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="D357" s="13" t="s">
         <v>4</v>
@@ -6686,10 +6720,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D358" s="13" t="s">
         <v>4</v>
@@ -6700,10 +6734,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D359" s="13" t="s">
         <v>4</v>
@@ -6714,10 +6748,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D360" s="13" t="s">
         <v>4</v>
@@ -6728,10 +6762,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D361" s="13" t="s">
         <v>4</v>
@@ -6742,10 +6776,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D362" s="13" t="s">
         <v>4</v>
@@ -6756,10 +6790,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D363" s="13" t="s">
         <v>4</v>
@@ -6770,10 +6804,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D364" s="13" t="s">
         <v>4</v>
@@ -6784,10 +6818,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D365" s="13" t="s">
         <v>4</v>
@@ -6798,10 +6832,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D366" s="13" t="s">
         <v>4</v>
@@ -6812,10 +6846,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D367" s="13" t="s">
         <v>4</v>
@@ -6826,10 +6860,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D368" s="13" t="s">
         <v>4</v>
@@ -6840,10 +6874,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D369" s="13" t="s">
         <v>4</v>
@@ -6854,10 +6888,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D370" s="13" t="s">
         <v>4</v>
@@ -6868,10 +6902,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D371" s="13" t="s">
         <v>4</v>
@@ -6882,10 +6916,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D372" s="13" t="s">
         <v>4</v>
@@ -6896,10 +6930,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D373" s="13" t="s">
         <v>4</v>
@@ -6910,10 +6944,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D374" s="13" t="s">
         <v>4</v>
@@ -6924,10 +6958,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D375" s="13" t="s">
         <v>4</v>
@@ -6938,10 +6972,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D376" s="13" t="s">
         <v>4</v>
@@ -6952,10 +6986,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D377" s="13" t="s">
         <v>4</v>
@@ -6966,10 +7000,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D378" s="13" t="s">
         <v>4</v>
@@ -6980,10 +7014,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D379" s="13" t="s">
         <v>4</v>
@@ -6994,10 +7028,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D380" s="13" t="s">
         <v>4</v>
@@ -7008,10 +7042,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D381" s="13" t="s">
         <v>4</v>
@@ -7022,10 +7056,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D382" s="13" t="s">
         <v>4</v>
@@ -7036,10 +7070,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D383" s="13" t="s">
         <v>4</v>
@@ -7050,10 +7084,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D384" s="13" t="s">
         <v>4</v>
@@ -7064,10 +7098,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D385" s="13" t="s">
         <v>4</v>
@@ -7078,10 +7112,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D386" s="13" t="s">
         <v>4</v>
@@ -7092,10 +7126,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D387" s="13" t="s">
         <v>4</v>
@@ -7106,10 +7140,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D388" s="13" t="s">
         <v>4</v>
@@ -7120,10 +7154,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D389" s="13" t="s">
         <v>4</v>
@@ -7134,10 +7168,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D390" s="13" t="s">
         <v>4</v>
@@ -7148,10 +7182,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D391" s="13" t="s">
         <v>4</v>
@@ -7162,10 +7196,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D392" s="13" t="s">
         <v>4</v>
@@ -7176,10 +7210,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D393" s="13" t="s">
         <v>4</v>
@@ -7190,10 +7224,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D394" s="13" t="s">
         <v>4</v>
@@ -7204,10 +7238,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D395" s="13" t="s">
         <v>4</v>
@@ -7218,10 +7252,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D396" s="13" t="s">
         <v>4</v>
@@ -7232,10 +7266,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D397" s="13" t="s">
         <v>4</v>
@@ -7246,10 +7280,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D398" s="13" t="s">
         <v>4</v>
@@ -7260,10 +7294,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D399" s="13" t="s">
         <v>4</v>
@@ -7282,10 +7316,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D402" s="13" t="s">
         <v>4</v>
@@ -7296,10 +7330,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C403" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="D403" s="13" t="s">
         <v>4</v>
@@ -7310,10 +7344,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D404" s="13" t="s">
         <v>4</v>
@@ -7324,7 +7358,7 @@
         <v>376</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>89</v>
@@ -7338,10 +7372,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D406" s="13" t="s">
         <v>4</v>
@@ -7352,10 +7386,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D407" s="13" t="s">
         <v>4</v>
@@ -7374,10 +7408,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D410" s="13" t="s">
         <v>4</v>
@@ -7388,10 +7422,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C411" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="C411" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="D411" s="13" t="s">
         <v>4</v>
@@ -7402,10 +7436,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D412" s="13" t="s">
         <v>4</v>
@@ -7416,10 +7450,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D413" s="13" t="s">
         <v>4</v>
@@ -7430,10 +7464,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D414" s="13" t="s">
         <v>4</v>
@@ -7444,10 +7478,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D415" s="13" t="s">
         <v>4</v>
@@ -7458,10 +7492,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D416" s="13" t="s">
         <v>4</v>
@@ -7472,10 +7506,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D417" s="13" t="s">
         <v>4</v>
@@ -7486,10 +7520,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D418" s="13" t="s">
         <v>4</v>
@@ -7500,10 +7534,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D419" s="13" t="s">
         <v>4</v>
@@ -7514,10 +7548,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D420" s="13" t="s">
         <v>4</v>
@@ -7528,10 +7562,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D421" s="13" t="s">
         <v>4</v>
@@ -7542,10 +7576,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D422" s="13" t="s">
         <v>4</v>
@@ -7556,10 +7590,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D423" s="13" t="s">
         <v>4</v>
@@ -7570,10 +7604,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D424" s="13" t="s">
         <v>4</v>
@@ -7584,10 +7618,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D425" s="13" t="s">
         <v>4</v>
@@ -7598,10 +7632,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D426" s="13" t="s">
         <v>4</v>
@@ -7612,10 +7646,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D427" s="13" t="s">
         <v>4</v>
@@ -7626,10 +7660,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D428" s="13" t="s">
         <v>4</v>
@@ -7640,10 +7674,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D429" s="13" t="s">
         <v>4</v>
@@ -7654,10 +7688,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D430" s="13" t="s">
         <v>4</v>
@@ -7668,10 +7702,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D431" s="13" t="s">
         <v>4</v>
@@ -7682,10 +7716,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D432" s="13" t="s">
         <v>4</v>
@@ -7696,10 +7730,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D433" s="13" t="s">
         <v>4</v>
@@ -7710,10 +7744,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D434" s="13" t="s">
         <v>4</v>
@@ -7724,10 +7758,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D435" s="13" t="s">
         <v>4</v>
@@ -7738,10 +7772,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D436" s="13" t="s">
         <v>4</v>
@@ -7752,10 +7786,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D437" s="13" t="s">
         <v>4</v>
@@ -7766,10 +7800,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D438" s="13" t="s">
         <v>4</v>
@@ -7780,10 +7814,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D439" s="13" t="s">
         <v>4</v>
@@ -7794,10 +7828,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D440" s="13" t="s">
         <v>4</v>
@@ -7808,10 +7842,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D441" s="13" t="s">
         <v>4</v>
@@ -7822,10 +7856,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D442" s="13" t="s">
         <v>4</v>
@@ -7836,10 +7870,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D443" s="13" t="s">
         <v>4</v>
@@ -7850,10 +7884,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D444" s="13" t="s">
         <v>4</v>
@@ -7864,10 +7898,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D445" s="13" t="s">
         <v>4</v>
@@ -7878,10 +7912,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D446" s="13" t="s">
         <v>4</v>
@@ -7892,10 +7926,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D447" s="13" t="s">
         <v>4</v>
@@ -7906,10 +7940,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D448" s="13" t="s">
         <v>4</v>
@@ -7920,10 +7954,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D449" s="13" t="s">
         <v>4</v>
@@ -7934,10 +7968,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D450" s="13" t="s">
         <v>4</v>
@@ -7948,10 +7982,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D451" s="13" t="s">
         <v>4</v>
@@ -7962,10 +7996,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D452" s="13" t="s">
         <v>4</v>
@@ -7976,10 +8010,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D453" s="13" t="s">
         <v>4</v>
@@ -7990,10 +8024,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D454" s="13" t="s">
         <v>4</v>
@@ -8004,10 +8038,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D455" s="13" t="s">
         <v>4</v>
@@ -8018,10 +8052,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D456" s="13" t="s">
         <v>4</v>
@@ -8032,10 +8066,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D457" s="13" t="s">
         <v>4</v>
@@ -8046,10 +8080,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D458" s="13" t="s">
         <v>4</v>
@@ -8060,10 +8094,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D459" s="13" t="s">
         <v>4</v>
@@ -8074,10 +8108,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D460" s="13" t="s">
         <v>4</v>
@@ -8088,10 +8122,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D461" s="13" t="s">
         <v>4</v>
@@ -8102,10 +8136,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D462" s="13" t="s">
         <v>4</v>
@@ -8116,10 +8150,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D463" s="13" t="s">
         <v>4</v>
@@ -8130,10 +8164,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D464" s="13" t="s">
         <v>4</v>
@@ -8144,10 +8178,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D465" s="13" t="s">
         <v>4</v>
@@ -8158,10 +8192,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D466" s="13" t="s">
         <v>4</v>
@@ -8172,10 +8206,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D467" s="13" t="s">
         <v>4</v>
@@ -8186,10 +8220,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D468" s="13" t="s">
         <v>4</v>
@@ -8200,10 +8234,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D469" s="13" t="s">
         <v>4</v>
@@ -8223,10 +8257,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D472" s="13" t="s">
         <v>4</v>
@@ -8237,10 +8271,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C473" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="C473" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="D473" s="13" t="s">
         <v>4</v>
@@ -8251,10 +8285,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D474" s="13" t="s">
         <v>4</v>
@@ -8265,10 +8299,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D475" s="13" t="s">
         <v>4</v>
@@ -8279,10 +8313,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D476" s="13" t="s">
         <v>4</v>
@@ -8293,10 +8327,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D477" s="13" t="s">
         <v>4</v>
@@ -8307,10 +8341,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D478" s="13" t="s">
         <v>4</v>
@@ -8321,10 +8355,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D479" s="13" t="s">
         <v>4</v>
@@ -8335,10 +8369,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D480" s="13" t="s">
         <v>4</v>
@@ -8349,10 +8383,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D481" s="13" t="s">
         <v>4</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7C3CAC-0976-40DC-8421-62EF6E2F6A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E3D297-7F2F-4E93-A200-0F94765C5937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4393,7 +4393,7 @@
       <c r="C183" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       <c r="C184" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D184" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       <c r="C185" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D185" s="13" t="s">
+      <c r="D185" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       <c r="C186" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D186" s="13" t="s">
+      <c r="D186" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       <c r="C187" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D187" s="13" t="s">
+      <c r="D187" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       <c r="C188" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="D188" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E3D297-7F2F-4E93-A200-0F94765C5937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D411C-DE32-4BEA-BDA4-488C9BDA1C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4477,7 +4477,7 @@
       <c r="C189" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D189" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       <c r="C190" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D190" s="13" t="s">
+      <c r="D190" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       <c r="C195" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="D195" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="C202" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D202" s="13" t="s">
+      <c r="D202" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       <c r="C204" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D204" s="13" t="s">
+      <c r="D204" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D411C-DE32-4BEA-BDA4-488C9BDA1C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89297863-A9B8-4D1A-BF77-4BAD921089EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="5052" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1547,7 +1547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,6 +1584,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1613,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1656,6 +1662,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1975,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2686,7 +2695,7 @@
       <c r="C56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2700,7 +2709,7 @@
       <c r="C57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2714,7 +2723,7 @@
       <c r="C58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="20" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89297863-A9B8-4D1A-BF77-4BAD921089EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB20780C-C854-4A30-AE5D-9287D261C6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1547,7 +1547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,12 +1584,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1619,7 +1613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1662,9 +1656,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1984,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2723,7 +2714,7 @@
       <c r="C58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB20780C-C854-4A30-AE5D-9287D261C6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC4FE6-A869-46DD-B596-D59008877445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1976,7 +1976,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2728,7 +2728,7 @@
       <c r="C59" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       <c r="C60" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC4FE6-A869-46DD-B596-D59008877445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B67396-4667-400D-86CB-A00117CCBF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1976,7 +1976,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2770,7 +2770,7 @@
       <c r="C62" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="15" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B67396-4667-400D-86CB-A00117CCBF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B61F803-E159-4DDA-AB84-9EEC124A9A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1547,7 +1547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,6 +1584,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1613,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1656,6 +1662,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1976,7 +1985,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2784,7 +2793,7 @@
       <c r="C63" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="20" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B61F803-E159-4DDA-AB84-9EEC124A9A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D30370-85D9-4561-98A5-B8D566485D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1547,7 +1547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,12 +1584,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1619,7 +1613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1662,9 +1656,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1984,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2793,7 +2784,7 @@
       <c r="C63" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2849,7 +2840,7 @@
       <c r="C67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D30370-85D9-4561-98A5-B8D566485D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A628CB-257B-4579-A53C-D2878BD4B95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1976,7 +1976,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2812,7 +2812,7 @@
       <c r="C65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A628CB-257B-4579-A53C-D2878BD4B95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD82A0-F145-4719-A96E-9030D1E62A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -216,12 +216,6 @@
     <t>Count and Say problem</t>
   </si>
   <si>
-    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t>Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
     <t>Print all Subsequences of a string.</t>
   </si>
   <si>
@@ -1455,6 +1449,12 @@
       </rPr>
       <t>Iteration</t>
     </r>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String (_DP_)</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1976,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="4" spans="1:5" ht="21">
       <c r="A4" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>53</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>61</v>
+        <v>465</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>4</v>
@@ -2796,7 +2796,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>62</v>
+        <v>464</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>4</v>
@@ -2810,7 +2810,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>4</v>
@@ -2824,7 +2824,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>4</v>
@@ -2838,7 +2838,7 @@
         <v>53</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>4</v>
@@ -2852,7 +2852,7 @@
         <v>53</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>4</v>
@@ -2866,7 +2866,7 @@
         <v>53</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>4</v>
@@ -2880,7 +2880,7 @@
         <v>53</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>4</v>
@@ -2894,7 +2894,7 @@
         <v>53</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>4</v>
@@ -2908,7 +2908,7 @@
         <v>53</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>4</v>
@@ -2922,7 +2922,7 @@
         <v>53</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>4</v>
@@ -2936,7 +2936,7 @@
         <v>53</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>4</v>
@@ -2950,9 +2950,9 @@
         <v>53</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2964,9 +2964,9 @@
         <v>53</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
         <v>53</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>4</v>
@@ -2992,7 +2992,7 @@
         <v>53</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>4</v>
@@ -3006,7 +3006,7 @@
         <v>53</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>4</v>
@@ -3020,7 +3020,7 @@
         <v>53</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>4</v>
@@ -3034,7 +3034,7 @@
         <v>53</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>4</v>
@@ -3048,7 +3048,7 @@
         <v>53</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>4</v>
@@ -3062,7 +3062,7 @@
         <v>53</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>4</v>
@@ -3076,7 +3076,7 @@
         <v>53</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>4</v>
@@ -3090,7 +3090,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>4</v>
@@ -3104,7 +3104,7 @@
         <v>53</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>4</v>
@@ -3118,7 +3118,7 @@
         <v>53</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>4</v>
@@ -3132,7 +3132,7 @@
         <v>53</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>4</v>
@@ -3146,7 +3146,7 @@
         <v>53</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>4</v>
@@ -3160,7 +3160,7 @@
         <v>53</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>4</v>
@@ -3174,7 +3174,7 @@
         <v>53</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>4</v>
@@ -3188,7 +3188,7 @@
         <v>53</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>4</v>
@@ -3202,7 +3202,7 @@
         <v>53</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>4</v>
@@ -3216,7 +3216,7 @@
         <v>53</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>4</v>
@@ -3230,7 +3230,7 @@
         <v>53</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>4</v>
@@ -3244,7 +3244,7 @@
         <v>53</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D96" s="13" t="s">
         <v>4</v>
@@ -3258,7 +3258,7 @@
         <v>53</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D97" s="13" t="s">
         <v>4</v>
@@ -3272,7 +3272,7 @@
         <v>53</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D98" s="13" t="s">
         <v>4</v>
@@ -3288,10 +3288,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>4</v>
@@ -3302,10 +3302,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>4</v>
@@ -3316,10 +3316,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>4</v>
@@ -3330,10 +3330,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>4</v>
@@ -3344,10 +3344,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>4</v>
@@ -3358,10 +3358,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>4</v>
@@ -3372,10 +3372,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>4</v>
@@ -3386,10 +3386,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>4</v>
@@ -3400,10 +3400,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>4</v>
@@ -3414,10 +3414,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>4</v>
@@ -3428,10 +3428,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>4</v>
@@ -3442,10 +3442,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>4</v>
@@ -3456,10 +3456,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>4</v>
@@ -3470,10 +3470,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>4</v>
@@ -3484,10 +3484,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>4</v>
@@ -3498,10 +3498,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>4</v>
@@ -3512,10 +3512,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>4</v>
@@ -3526,10 +3526,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>4</v>
@@ -3540,10 +3540,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>4</v>
@@ -3554,10 +3554,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>4</v>
@@ -3568,10 +3568,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>4</v>
@@ -3582,10 +3582,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>4</v>
@@ -3596,10 +3596,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>4</v>
@@ -3610,10 +3610,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>4</v>
@@ -3624,10 +3624,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D125" s="13" t="s">
         <v>4</v>
@@ -3638,10 +3638,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>4</v>
@@ -3652,10 +3652,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>4</v>
@@ -3666,10 +3666,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>4</v>
@@ -3680,10 +3680,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>4</v>
@@ -3694,10 +3694,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>4</v>
@@ -3708,10 +3708,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D131" s="13" t="s">
         <v>4</v>
@@ -3722,10 +3722,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>4</v>
@@ -3736,10 +3736,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>4</v>
@@ -3750,10 +3750,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D134" s="13" t="s">
         <v>4</v>
@@ -3764,10 +3764,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>4</v>
@@ -3778,10 +3778,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>4</v>
@@ -3796,10 +3796,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>4</v>
@@ -3810,10 +3810,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>4</v>
@@ -3824,10 +3824,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D141" s="13" t="s">
         <v>4</v>
@@ -3838,10 +3838,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>4</v>
@@ -3852,10 +3852,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>4</v>
@@ -3866,10 +3866,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D144" s="13" t="s">
         <v>4</v>
@@ -3880,10 +3880,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D145" s="13" t="s">
         <v>4</v>
@@ -3894,10 +3894,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>4</v>
@@ -3908,10 +3908,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>4</v>
@@ -3922,10 +3922,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>4</v>
@@ -3936,10 +3936,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D149" s="13" t="s">
         <v>4</v>
@@ -3950,10 +3950,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>4</v>
@@ -3964,10 +3964,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>4</v>
@@ -3978,10 +3978,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>4</v>
@@ -3992,10 +3992,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D153" s="14" t="s">
         <v>4</v>
@@ -4006,10 +4006,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>4</v>
@@ -4020,10 +4020,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>4</v>
@@ -4034,10 +4034,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D156" s="13" t="s">
         <v>4</v>
@@ -4048,10 +4048,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>4</v>
@@ -4062,10 +4062,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D158" s="13" t="s">
         <v>4</v>
@@ -4076,10 +4076,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D159" s="13" t="s">
         <v>4</v>
@@ -4090,10 +4090,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D160" s="13" t="s">
         <v>4</v>
@@ -4104,10 +4104,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D161" s="13" t="s">
         <v>4</v>
@@ -4118,10 +4118,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>4</v>
@@ -4132,10 +4132,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D163" s="13" t="s">
         <v>4</v>
@@ -4146,13 +4146,13 @@
         <v>151</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4160,10 +4160,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D165" s="13" t="s">
         <v>4</v>
@@ -4174,10 +4174,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D166" s="19" t="s">
         <v>4</v>
@@ -4188,10 +4188,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>4</v>
@@ -4202,10 +4202,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D168" s="13" t="s">
         <v>4</v>
@@ -4216,10 +4216,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D169" s="13" t="s">
         <v>4</v>
@@ -4230,10 +4230,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D170" s="14" t="s">
         <v>4</v>
@@ -4244,10 +4244,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>4</v>
@@ -4258,10 +4258,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>4</v>
@@ -4272,10 +4272,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D173" s="13" t="s">
         <v>4</v>
@@ -4286,10 +4286,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>4</v>
@@ -4304,10 +4304,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>4</v>
@@ -4318,10 +4318,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D178" s="14" t="s">
         <v>4</v>
@@ -4332,10 +4332,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D179" s="14" t="s">
         <v>4</v>
@@ -4346,10 +4346,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>4</v>
@@ -4360,10 +4360,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D181" s="14" t="s">
         <v>4</v>
@@ -4374,10 +4374,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>4</v>
@@ -4388,10 +4388,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>4</v>
@@ -4402,10 +4402,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>4</v>
@@ -4416,10 +4416,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D185" s="14" t="s">
         <v>4</v>
@@ -4430,10 +4430,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D186" s="14" t="s">
         <v>4</v>
@@ -4444,10 +4444,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>4</v>
@@ -4458,10 +4458,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D188" s="14" t="s">
         <v>4</v>
@@ -4472,10 +4472,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D189" s="14" t="s">
         <v>4</v>
@@ -4486,10 +4486,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D190" s="14" t="s">
         <v>4</v>
@@ -4500,10 +4500,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>4</v>
@@ -4514,10 +4514,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>4</v>
@@ -4528,10 +4528,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>4</v>
@@ -4542,10 +4542,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>4</v>
@@ -4556,10 +4556,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D195" s="14" t="s">
         <v>4</v>
@@ -4570,10 +4570,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D196" s="13" t="s">
         <v>4</v>
@@ -4584,10 +4584,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>4</v>
@@ -4598,10 +4598,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D198" s="13" t="s">
         <v>4</v>
@@ -4612,10 +4612,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>4</v>
@@ -4626,10 +4626,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>4</v>
@@ -4640,10 +4640,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D201" s="13" t="s">
         <v>4</v>
@@ -4654,10 +4654,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D202" s="14" t="s">
         <v>4</v>
@@ -4668,10 +4668,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>4</v>
@@ -4682,10 +4682,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D204" s="14" t="s">
         <v>4</v>
@@ -4696,10 +4696,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D205" s="13" t="s">
         <v>4</v>
@@ -4710,10 +4710,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D206" s="13" t="s">
         <v>4</v>
@@ -4724,10 +4724,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>4</v>
@@ -4738,10 +4738,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>4</v>
@@ -4752,10 +4752,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>4</v>
@@ -4766,10 +4766,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D210" s="13" t="s">
         <v>4</v>
@@ -4780,10 +4780,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D211" s="13" t="s">
         <v>4</v>
@@ -4804,10 +4804,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D214" s="13" t="s">
         <v>4</v>
@@ -4818,10 +4818,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D215" s="13" t="s">
         <v>4</v>
@@ -4832,10 +4832,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D216" s="13" t="s">
         <v>4</v>
@@ -4846,10 +4846,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D217" s="13" t="s">
         <v>4</v>
@@ -4860,10 +4860,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D218" s="13" t="s">
         <v>4</v>
@@ -4874,10 +4874,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>4</v>
@@ -4888,10 +4888,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D220" s="13" t="s">
         <v>4</v>
@@ -4902,10 +4902,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D221" s="13" t="s">
         <v>4</v>
@@ -4916,10 +4916,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D222" s="13" t="s">
         <v>4</v>
@@ -4930,10 +4930,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D223" s="13" t="s">
         <v>4</v>
@@ -4944,10 +4944,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D224" s="13" t="s">
         <v>4</v>
@@ -4958,10 +4958,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D225" s="13" t="s">
         <v>4</v>
@@ -4972,10 +4972,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D226" s="13" t="s">
         <v>4</v>
@@ -4986,10 +4986,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D227" s="13" t="s">
         <v>4</v>
@@ -5000,10 +5000,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D228" s="13" t="s">
         <v>4</v>
@@ -5014,10 +5014,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D229" s="13" t="s">
         <v>4</v>
@@ -5028,10 +5028,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D230" s="13" t="s">
         <v>4</v>
@@ -5042,10 +5042,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D231" s="13" t="s">
         <v>4</v>
@@ -5056,10 +5056,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>4</v>
@@ -5070,10 +5070,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D233" s="13" t="s">
         <v>4</v>
@@ -5084,10 +5084,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D234" s="13" t="s">
         <v>4</v>
@@ -5098,10 +5098,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D235" s="13" t="s">
         <v>4</v>
@@ -5120,10 +5120,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D238" s="13" t="s">
         <v>4</v>
@@ -5134,10 +5134,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="D239" s="13" t="s">
         <v>4</v>
@@ -5148,10 +5148,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D240" s="13" t="s">
         <v>4</v>
@@ -5162,10 +5162,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D241" s="13" t="s">
         <v>4</v>
@@ -5176,10 +5176,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D242" s="13" t="s">
         <v>4</v>
@@ -5190,10 +5190,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D243" s="13" t="s">
         <v>4</v>
@@ -5204,10 +5204,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D244" s="13" t="s">
         <v>4</v>
@@ -5218,10 +5218,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D245" s="13" t="s">
         <v>4</v>
@@ -5232,10 +5232,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D246" s="13" t="s">
         <v>4</v>
@@ -5246,10 +5246,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D247" s="13" t="s">
         <v>4</v>
@@ -5260,10 +5260,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D248" s="13" t="s">
         <v>4</v>
@@ -5274,10 +5274,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D249" s="13" t="s">
         <v>4</v>
@@ -5288,10 +5288,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D250" s="13" t="s">
         <v>4</v>
@@ -5302,10 +5302,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D251" s="13" t="s">
         <v>4</v>
@@ -5316,10 +5316,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D252" s="13" t="s">
         <v>4</v>
@@ -5330,10 +5330,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D253" s="13" t="s">
         <v>4</v>
@@ -5344,10 +5344,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D254" s="13" t="s">
         <v>4</v>
@@ -5358,10 +5358,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D255" s="13" t="s">
         <v>4</v>
@@ -5372,10 +5372,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D256" s="13" t="s">
         <v>4</v>
@@ -5386,10 +5386,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D257" s="13" t="s">
         <v>4</v>
@@ -5400,10 +5400,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D258" s="13" t="s">
         <v>4</v>
@@ -5414,10 +5414,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D259" s="13" t="s">
         <v>4</v>
@@ -5428,10 +5428,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D260" s="13" t="s">
         <v>4</v>
@@ -5442,10 +5442,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D261" s="13" t="s">
         <v>4</v>
@@ -5456,10 +5456,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D262" s="13" t="s">
         <v>4</v>
@@ -5470,10 +5470,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D263" s="13" t="s">
         <v>4</v>
@@ -5484,10 +5484,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D264" s="13" t="s">
         <v>4</v>
@@ -5498,10 +5498,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D265" s="13" t="s">
         <v>4</v>
@@ -5512,10 +5512,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D266" s="13" t="s">
         <v>4</v>
@@ -5526,10 +5526,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D267" s="13" t="s">
         <v>4</v>
@@ -5540,10 +5540,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D268" s="13" t="s">
         <v>4</v>
@@ -5554,10 +5554,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D269" s="13" t="s">
         <v>4</v>
@@ -5568,10 +5568,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>4</v>
@@ -5582,10 +5582,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D271" s="13" t="s">
         <v>4</v>
@@ -5596,10 +5596,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>4</v>
@@ -5618,10 +5618,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D275" s="13" t="s">
         <v>4</v>
@@ -5632,10 +5632,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="D276" s="13" t="s">
         <v>4</v>
@@ -5646,10 +5646,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D277" s="13" t="s">
         <v>4</v>
@@ -5660,10 +5660,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D278" s="13" t="s">
         <v>4</v>
@@ -5674,10 +5674,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D279" s="13" t="s">
         <v>4</v>
@@ -5688,10 +5688,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D280" s="13" t="s">
         <v>4</v>
@@ -5702,10 +5702,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D281" s="13" t="s">
         <v>4</v>
@@ -5716,10 +5716,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D282" s="13" t="s">
         <v>4</v>
@@ -5730,10 +5730,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D283" s="13" t="s">
         <v>4</v>
@@ -5744,10 +5744,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>4</v>
@@ -5758,10 +5758,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D285" s="13" t="s">
         <v>4</v>
@@ -5772,10 +5772,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D286" s="13" t="s">
         <v>4</v>
@@ -5786,10 +5786,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D287" s="13" t="s">
         <v>4</v>
@@ -5800,10 +5800,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>4</v>
@@ -5814,10 +5814,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D289" s="13" t="s">
         <v>4</v>
@@ -5828,10 +5828,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D290" s="13" t="s">
         <v>4</v>
@@ -5842,10 +5842,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D291" s="13" t="s">
         <v>4</v>
@@ -5856,10 +5856,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D292" s="13" t="s">
         <v>4</v>
@@ -5870,10 +5870,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>4</v>
@@ -5892,10 +5892,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D296" s="13" t="s">
         <v>4</v>
@@ -5906,10 +5906,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="D297" s="13" t="s">
         <v>4</v>
@@ -5920,10 +5920,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D298" s="13" t="s">
         <v>4</v>
@@ -5934,10 +5934,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D299" s="13" t="s">
         <v>4</v>
@@ -5948,10 +5948,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D300" s="13" t="s">
         <v>4</v>
@@ -5962,10 +5962,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D301" s="13" t="s">
         <v>4</v>
@@ -5976,10 +5976,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D302" s="13" t="s">
         <v>4</v>
@@ -5990,10 +5990,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>4</v>
@@ -6004,10 +6004,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>4</v>
@@ -6018,10 +6018,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D305" s="13" t="s">
         <v>4</v>
@@ -6032,10 +6032,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>4</v>
@@ -6046,10 +6046,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D307" s="13" t="s">
         <v>4</v>
@@ -6060,10 +6060,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D308" s="13" t="s">
         <v>4</v>
@@ -6074,10 +6074,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D309" s="13" t="s">
         <v>4</v>
@@ -6088,10 +6088,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D310" s="13" t="s">
         <v>4</v>
@@ -6102,10 +6102,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D311" s="13" t="s">
         <v>4</v>
@@ -6116,10 +6116,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D312" s="13" t="s">
         <v>4</v>
@@ -6130,10 +6130,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D313" s="13" t="s">
         <v>4</v>
@@ -6144,10 +6144,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D314" s="13" t="s">
         <v>4</v>
@@ -6158,10 +6158,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D315" s="13" t="s">
         <v>4</v>
@@ -6172,10 +6172,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D316" s="13" t="s">
         <v>4</v>
@@ -6186,10 +6186,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D317" s="13" t="s">
         <v>4</v>
@@ -6200,10 +6200,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>4</v>
@@ -6214,10 +6214,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D319" s="13" t="s">
         <v>4</v>
@@ -6228,10 +6228,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>4</v>
@@ -6242,10 +6242,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D321" s="13" t="s">
         <v>4</v>
@@ -6256,10 +6256,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D322" s="13" t="s">
         <v>4</v>
@@ -6270,10 +6270,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D323" s="13" t="s">
         <v>4</v>
@@ -6284,10 +6284,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D324" s="13" t="s">
         <v>4</v>
@@ -6298,10 +6298,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>4</v>
@@ -6312,10 +6312,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D326" s="13" t="s">
         <v>4</v>
@@ -6326,10 +6326,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D327" s="13" t="s">
         <v>4</v>
@@ -6340,10 +6340,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>4</v>
@@ -6354,10 +6354,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>4</v>
@@ -6368,10 +6368,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>4</v>
@@ -6382,10 +6382,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D331" s="13" t="s">
         <v>4</v>
@@ -6396,10 +6396,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D332" s="13" t="s">
         <v>4</v>
@@ -6410,10 +6410,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D333" s="13" t="s">
         <v>4</v>
@@ -6432,10 +6432,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D336" s="13" t="s">
         <v>4</v>
@@ -6446,10 +6446,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C337" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>4</v>
@@ -6460,10 +6460,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D338" s="13" t="s">
         <v>4</v>
@@ -6474,10 +6474,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D339" s="13" t="s">
         <v>4</v>
@@ -6488,10 +6488,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D340" s="13" t="s">
         <v>4</v>
@@ -6502,10 +6502,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D341" s="13" t="s">
         <v>4</v>
@@ -6516,10 +6516,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D342" s="13" t="s">
         <v>4</v>
@@ -6530,10 +6530,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D343" s="13" t="s">
         <v>4</v>
@@ -6544,10 +6544,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D344" s="13" t="s">
         <v>4</v>
@@ -6558,10 +6558,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D345" s="13" t="s">
         <v>4</v>
@@ -6572,10 +6572,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D346" s="13" t="s">
         <v>4</v>
@@ -6586,10 +6586,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D347" s="13" t="s">
         <v>4</v>
@@ -6600,10 +6600,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D348" s="13" t="s">
         <v>4</v>
@@ -6614,10 +6614,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D349" s="13" t="s">
         <v>4</v>
@@ -6628,10 +6628,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D350" s="13" t="s">
         <v>4</v>
@@ -6642,10 +6642,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D351" s="13" t="s">
         <v>4</v>
@@ -6656,10 +6656,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D352" s="13" t="s">
         <v>4</v>
@@ -6670,10 +6670,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D353" s="13" t="s">
         <v>4</v>
@@ -6692,10 +6692,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D356" s="13" t="s">
         <v>4</v>
@@ -6706,10 +6706,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C357" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="D357" s="13" t="s">
         <v>4</v>
@@ -6720,10 +6720,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D358" s="13" t="s">
         <v>4</v>
@@ -6734,10 +6734,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D359" s="13" t="s">
         <v>4</v>
@@ -6748,10 +6748,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D360" s="13" t="s">
         <v>4</v>
@@ -6762,10 +6762,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D361" s="13" t="s">
         <v>4</v>
@@ -6776,10 +6776,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D362" s="13" t="s">
         <v>4</v>
@@ -6790,10 +6790,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D363" s="13" t="s">
         <v>4</v>
@@ -6804,10 +6804,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D364" s="13" t="s">
         <v>4</v>
@@ -6818,10 +6818,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D365" s="13" t="s">
         <v>4</v>
@@ -6832,10 +6832,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D366" s="13" t="s">
         <v>4</v>
@@ -6846,10 +6846,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D367" s="13" t="s">
         <v>4</v>
@@ -6860,10 +6860,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D368" s="13" t="s">
         <v>4</v>
@@ -6874,10 +6874,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D369" s="13" t="s">
         <v>4</v>
@@ -6888,10 +6888,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D370" s="13" t="s">
         <v>4</v>
@@ -6902,10 +6902,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D371" s="13" t="s">
         <v>4</v>
@@ -6916,10 +6916,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D372" s="13" t="s">
         <v>4</v>
@@ -6930,10 +6930,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D373" s="13" t="s">
         <v>4</v>
@@ -6944,10 +6944,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D374" s="13" t="s">
         <v>4</v>
@@ -6958,10 +6958,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D375" s="13" t="s">
         <v>4</v>
@@ -6972,10 +6972,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D376" s="13" t="s">
         <v>4</v>
@@ -6986,10 +6986,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D377" s="13" t="s">
         <v>4</v>
@@ -7000,10 +7000,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D378" s="13" t="s">
         <v>4</v>
@@ -7014,10 +7014,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D379" s="13" t="s">
         <v>4</v>
@@ -7028,10 +7028,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D380" s="13" t="s">
         <v>4</v>
@@ -7042,10 +7042,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D381" s="13" t="s">
         <v>4</v>
@@ -7056,10 +7056,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D382" s="13" t="s">
         <v>4</v>
@@ -7070,10 +7070,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D383" s="13" t="s">
         <v>4</v>
@@ -7084,10 +7084,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D384" s="13" t="s">
         <v>4</v>
@@ -7098,10 +7098,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D385" s="13" t="s">
         <v>4</v>
@@ -7112,10 +7112,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D386" s="13" t="s">
         <v>4</v>
@@ -7126,10 +7126,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D387" s="13" t="s">
         <v>4</v>
@@ -7140,10 +7140,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D388" s="13" t="s">
         <v>4</v>
@@ -7154,10 +7154,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D389" s="13" t="s">
         <v>4</v>
@@ -7168,10 +7168,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D390" s="13" t="s">
         <v>4</v>
@@ -7182,10 +7182,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D391" s="13" t="s">
         <v>4</v>
@@ -7196,10 +7196,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D392" s="13" t="s">
         <v>4</v>
@@ -7210,10 +7210,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D393" s="13" t="s">
         <v>4</v>
@@ -7224,10 +7224,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D394" s="13" t="s">
         <v>4</v>
@@ -7238,10 +7238,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D395" s="13" t="s">
         <v>4</v>
@@ -7252,10 +7252,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D396" s="13" t="s">
         <v>4</v>
@@ -7266,10 +7266,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D397" s="13" t="s">
         <v>4</v>
@@ -7280,10 +7280,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D398" s="13" t="s">
         <v>4</v>
@@ -7294,10 +7294,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D399" s="13" t="s">
         <v>4</v>
@@ -7316,10 +7316,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D402" s="13" t="s">
         <v>4</v>
@@ -7330,10 +7330,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C403" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="D403" s="13" t="s">
         <v>4</v>
@@ -7344,10 +7344,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D404" s="13" t="s">
         <v>4</v>
@@ -7358,10 +7358,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D405" s="13" t="s">
         <v>4</v>
@@ -7372,10 +7372,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D406" s="13" t="s">
         <v>4</v>
@@ -7386,10 +7386,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D407" s="13" t="s">
         <v>4</v>
@@ -7408,10 +7408,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D410" s="13" t="s">
         <v>4</v>
@@ -7422,10 +7422,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C411" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="C411" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="D411" s="13" t="s">
         <v>4</v>
@@ -7436,10 +7436,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D412" s="13" t="s">
         <v>4</v>
@@ -7450,10 +7450,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D413" s="13" t="s">
         <v>4</v>
@@ -7464,10 +7464,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D414" s="13" t="s">
         <v>4</v>
@@ -7478,10 +7478,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D415" s="13" t="s">
         <v>4</v>
@@ -7492,10 +7492,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D416" s="13" t="s">
         <v>4</v>
@@ -7506,10 +7506,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D417" s="13" t="s">
         <v>4</v>
@@ -7520,10 +7520,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D418" s="13" t="s">
         <v>4</v>
@@ -7534,10 +7534,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D419" s="13" t="s">
         <v>4</v>
@@ -7548,10 +7548,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D420" s="13" t="s">
         <v>4</v>
@@ -7562,10 +7562,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D421" s="13" t="s">
         <v>4</v>
@@ -7576,10 +7576,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D422" s="13" t="s">
         <v>4</v>
@@ -7590,10 +7590,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D423" s="13" t="s">
         <v>4</v>
@@ -7604,10 +7604,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D424" s="13" t="s">
         <v>4</v>
@@ -7618,10 +7618,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D425" s="13" t="s">
         <v>4</v>
@@ -7632,10 +7632,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D426" s="13" t="s">
         <v>4</v>
@@ -7646,10 +7646,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D427" s="13" t="s">
         <v>4</v>
@@ -7660,10 +7660,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D428" s="13" t="s">
         <v>4</v>
@@ -7674,10 +7674,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D429" s="13" t="s">
         <v>4</v>
@@ -7688,10 +7688,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D430" s="13" t="s">
         <v>4</v>
@@ -7702,10 +7702,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D431" s="13" t="s">
         <v>4</v>
@@ -7716,10 +7716,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D432" s="13" t="s">
         <v>4</v>
@@ -7730,10 +7730,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D433" s="13" t="s">
         <v>4</v>
@@ -7744,10 +7744,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D434" s="13" t="s">
         <v>4</v>
@@ -7758,10 +7758,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D435" s="13" t="s">
         <v>4</v>
@@ -7772,10 +7772,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D436" s="13" t="s">
         <v>4</v>
@@ -7786,10 +7786,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D437" s="13" t="s">
         <v>4</v>
@@ -7800,10 +7800,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D438" s="13" t="s">
         <v>4</v>
@@ -7814,10 +7814,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D439" s="13" t="s">
         <v>4</v>
@@ -7828,10 +7828,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D440" s="13" t="s">
         <v>4</v>
@@ -7842,10 +7842,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D441" s="13" t="s">
         <v>4</v>
@@ -7856,10 +7856,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D442" s="13" t="s">
         <v>4</v>
@@ -7870,10 +7870,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D443" s="13" t="s">
         <v>4</v>
@@ -7884,10 +7884,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D444" s="13" t="s">
         <v>4</v>
@@ -7898,10 +7898,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D445" s="13" t="s">
         <v>4</v>
@@ -7912,10 +7912,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D446" s="13" t="s">
         <v>4</v>
@@ -7926,10 +7926,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D447" s="13" t="s">
         <v>4</v>
@@ -7940,10 +7940,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D448" s="13" t="s">
         <v>4</v>
@@ -7954,10 +7954,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D449" s="13" t="s">
         <v>4</v>
@@ -7968,10 +7968,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D450" s="13" t="s">
         <v>4</v>
@@ -7982,10 +7982,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D451" s="13" t="s">
         <v>4</v>
@@ -7996,10 +7996,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D452" s="13" t="s">
         <v>4</v>
@@ -8010,10 +8010,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D453" s="13" t="s">
         <v>4</v>
@@ -8024,10 +8024,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D454" s="13" t="s">
         <v>4</v>
@@ -8038,10 +8038,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D455" s="13" t="s">
         <v>4</v>
@@ -8052,10 +8052,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D456" s="13" t="s">
         <v>4</v>
@@ -8066,10 +8066,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D457" s="13" t="s">
         <v>4</v>
@@ -8080,10 +8080,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D458" s="13" t="s">
         <v>4</v>
@@ -8094,10 +8094,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D459" s="13" t="s">
         <v>4</v>
@@ -8108,10 +8108,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D460" s="13" t="s">
         <v>4</v>
@@ -8122,10 +8122,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D461" s="13" t="s">
         <v>4</v>
@@ -8136,10 +8136,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D462" s="13" t="s">
         <v>4</v>
@@ -8150,10 +8150,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D463" s="13" t="s">
         <v>4</v>
@@ -8164,10 +8164,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D464" s="13" t="s">
         <v>4</v>
@@ -8178,10 +8178,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D465" s="13" t="s">
         <v>4</v>
@@ -8192,10 +8192,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D466" s="13" t="s">
         <v>4</v>
@@ -8206,10 +8206,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D467" s="13" t="s">
         <v>4</v>
@@ -8220,10 +8220,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D468" s="13" t="s">
         <v>4</v>
@@ -8234,10 +8234,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D469" s="13" t="s">
         <v>4</v>
@@ -8257,10 +8257,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D472" s="13" t="s">
         <v>4</v>
@@ -8271,10 +8271,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C473" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="C473" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="D473" s="13" t="s">
         <v>4</v>
@@ -8285,10 +8285,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D474" s="13" t="s">
         <v>4</v>
@@ -8299,10 +8299,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D475" s="13" t="s">
         <v>4</v>
@@ -8313,10 +8313,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D476" s="13" t="s">
         <v>4</v>
@@ -8327,10 +8327,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D477" s="13" t="s">
         <v>4</v>
@@ -8341,10 +8341,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D478" s="13" t="s">
         <v>4</v>
@@ -8355,10 +8355,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D479" s="13" t="s">
         <v>4</v>
@@ -8369,10 +8369,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D480" s="13" t="s">
         <v>4</v>
@@ -8383,10 +8383,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D481" s="13" t="s">
         <v>4</v>
@@ -8446,8 +8446,8 @@
     <hyperlink ref="C60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
     <hyperlink ref="C61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
     <hyperlink ref="C62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C63" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C64" r:id="rId54" display="Find Longest Recurring Subsequence in String" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
     <hyperlink ref="C65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
     <hyperlink ref="C66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
     <hyperlink ref="C67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aryan\Work\DSA &amp; CP\DSA 450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD82A0-F145-4719-A96E-9030D1E62A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98430BF0-A679-4125-89C1-B6055B289415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2248,7 +2248,7 @@
       <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       <c r="C81" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       <c r="C444" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D444" s="13" t="s">
+      <c r="D444" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1760,10 +1760,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
+      <selection pane="topLeft" activeCell="D143" activeCellId="0" sqref="D143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -3641,7 +3641,7 @@
       <c r="C143" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1760,10 +1760,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D143" activeCellId="0" sqref="D143"/>
+      <selection pane="topLeft" activeCell="D144" activeCellId="0" sqref="D144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -3655,7 +3655,7 @@
       <c r="C144" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1760,10 +1760,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D144" activeCellId="0" sqref="D144"/>
+      <selection pane="topLeft" activeCell="D145" activeCellId="0" sqref="D145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -3669,7 +3669,7 @@
       <c r="C145" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1760,10 +1760,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D145" activeCellId="0" sqref="D145"/>
+      <selection pane="topLeft" activeCell="C131" activeCellId="0" sqref="C131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -3501,7 +3501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>121</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="C148" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1514,7 +1514,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1524,7 +1524,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF00A933"/>
       </patternFill>
     </fill>
     <fill>
@@ -1555,6 +1555,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
   </fills>
@@ -1602,7 +1608,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1675,6 +1681,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1700,7 +1710,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1759,11 +1769,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C131" activeCellId="0" sqref="C131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B151" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D168" activeCellId="0" sqref="D168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4061,7 +4071,7 @@
       <c r="C173" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4674,7 +4684,7 @@
       <c r="B220" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D220" s="8" t="s">
@@ -5860,7 +5870,7 @@
       <c r="B309" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C309" s="18" t="s">
+      <c r="C309" s="19" t="s">
         <v>301</v>
       </c>
       <c r="D309" s="8" t="s">
@@ -6330,7 +6340,7 @@
       <c r="B344" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="C344" s="19" t="s">
         <v>335</v>
       </c>
       <c r="D344" s="8" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1514,7 +1514,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,13 +1554,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
@@ -1608,7 +1614,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1685,6 +1691,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1753,7 +1763,7 @@
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1769,13 +1779,13 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B151" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D168" activeCellId="0" sqref="D168"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D154" activeCellId="0" sqref="D154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="27.5"/>
@@ -3805,7 +3815,7 @@
       <c r="C154" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4085,7 +4095,7 @@
       <c r="C174" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4684,7 +4694,7 @@
       <c r="B220" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C220" s="19" t="s">
+      <c r="C220" s="20" t="s">
         <v>216</v>
       </c>
       <c r="D220" s="8" t="s">
@@ -5870,7 +5880,7 @@
       <c r="B309" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C309" s="19" t="s">
+      <c r="C309" s="20" t="s">
         <v>301</v>
       </c>
       <c r="D309" s="8" t="s">
@@ -6340,7 +6350,7 @@
       <c r="B344" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C344" s="19" t="s">
+      <c r="C344" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D344" s="8" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D154" activeCellId="0" sqref="D154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D149" activeCellId="0" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -3745,7 +3745,7 @@
       <c r="C149" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1780,10 +1780,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D149" activeCellId="0" sqref="D149"/>
+      <selection pane="topLeft" activeCell="D155" activeCellId="0" sqref="D155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -3829,7 +3829,7 @@
       <c r="C155" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D155" activeCellId="0" sqref="D155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D150" activeCellId="0" sqref="D150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -3759,7 +3759,7 @@
       <c r="C150" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1780,10 +1780,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D150" activeCellId="0" sqref="D150"/>
+      <selection pane="topLeft" activeCell="D157" activeCellId="0" sqref="D157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -3857,7 +3857,7 @@
       <c r="C157" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D157" activeCellId="0" sqref="D157"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D199" activeCellId="0" sqref="D199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4421,7 +4421,7 @@
       <c r="C199" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="18" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D199" activeCellId="0" sqref="D199"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C204" activeCellId="0" sqref="C204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4551,7 +4551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>194</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="C209" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D209" s="11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C204" activeCellId="0" sqref="C204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C203" activeCellId="0" sqref="C203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4533,7 +4533,7 @@
       <c r="C207" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C203" activeCellId="0" sqref="C203"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D198" activeCellId="0" sqref="D198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4407,7 +4407,7 @@
       <c r="C198" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D198" activeCellId="0" sqref="D198"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D218" activeCellId="0" sqref="D218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4669,7 +4669,7 @@
       <c r="C218" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D218" activeCellId="0" sqref="D218"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D220" activeCellId="0" sqref="D220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4697,7 +4697,7 @@
       <c r="C220" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D220" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1779,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D220" activeCellId="0" sqref="D220"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C221" activeCellId="0" sqref="C221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4711,7 +4711,7 @@
       <c r="C221" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1780,10 +1780,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C221" activeCellId="0" sqref="C221"/>
+      <selection pane="topLeft" activeCell="D225" activeCellId="0" sqref="D225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -4767,7 +4767,7 @@
       <c r="C225" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D225" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       <c r="C226" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D226" s="14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1805,11 +1805,11 @@
   </sheetPr>
   <dimension ref="A1:E483"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="472">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Substring Without Repeating Characters</t>
   </si>
   <si>
     <t xml:space="preserve">Matrix</t>
@@ -1632,7 +1638,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1694,6 +1700,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1803,13 +1817,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E483"/>
+  <dimension ref="A1:E484"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2348,42 +2362,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="16"/>
-      <c r="D42" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="42" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="10"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>44</v>
-      </c>
+    <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>7</v>
@@ -2391,27 +2403,27 @@
     </row>
     <row r="46" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>7</v>
@@ -2419,27 +2431,27 @@
     </row>
     <row r="48" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>7</v>
@@ -2447,13 +2459,13 @@
     </row>
     <row r="50" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>7</v>
@@ -2461,13 +2473,13 @@
     </row>
     <row r="51" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>7</v>
@@ -2475,13 +2487,13 @@
     </row>
     <row r="52" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="C52" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>7</v>
@@ -2489,29 +2501,29 @@
     </row>
     <row r="53" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="B54" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2520,7 +2532,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>57</v>
@@ -2530,38 +2542,38 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="10"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="10"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>7</v>
@@ -2569,41 +2581,41 @@
     </row>
     <row r="60" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="B61" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>51</v>
-      </c>
       <c r="B62" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>7</v>
@@ -2611,125 +2623,125 @@
     </row>
     <row r="63" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="C71" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>7</v>
@@ -2737,13 +2749,13 @@
     </row>
     <row r="72" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>7</v>
@@ -2751,13 +2763,13 @@
     </row>
     <row r="73" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>7</v>
@@ -2765,13 +2777,13 @@
     </row>
     <row r="74" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>7</v>
@@ -2779,13 +2791,13 @@
     </row>
     <row r="75" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>7</v>
@@ -2793,13 +2805,13 @@
     </row>
     <row r="76" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>7</v>
@@ -2807,55 +2819,55 @@
     </row>
     <row r="77" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>7</v>
@@ -2863,13 +2875,13 @@
     </row>
     <row r="81" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>7</v>
@@ -2877,13 +2889,13 @@
     </row>
     <row r="82" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>7</v>
@@ -2891,41 +2903,41 @@
     </row>
     <row r="83" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>7</v>
@@ -2933,13 +2945,13 @@
     </row>
     <row r="86" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>7</v>
@@ -2947,13 +2959,13 @@
     </row>
     <row r="87" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>7</v>
@@ -2961,13 +2973,13 @@
     </row>
     <row r="88" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>7</v>
@@ -2975,13 +2987,13 @@
     </row>
     <row r="89" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>7</v>
@@ -2989,13 +3001,13 @@
     </row>
     <row r="90" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>7</v>
@@ -3003,13 +3015,13 @@
     </row>
     <row r="91" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>7</v>
@@ -3017,13 +3029,13 @@
     </row>
     <row r="92" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>7</v>
@@ -3031,13 +3043,13 @@
     </row>
     <row r="93" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>7</v>
@@ -3045,13 +3057,13 @@
     </row>
     <row r="94" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>7</v>
@@ -3059,13 +3071,13 @@
     </row>
     <row r="95" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>7</v>
@@ -3073,13 +3085,13 @@
     </row>
     <row r="96" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>7</v>
@@ -3087,13 +3099,13 @@
     </row>
     <row r="97" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>7</v>
@@ -3101,13 +3113,13 @@
     </row>
     <row r="98" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>7</v>
@@ -3115,13 +3127,13 @@
     </row>
     <row r="99" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>7</v>
@@ -3129,46 +3141,46 @@
     </row>
     <row r="100" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="10"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="9"/>
-    </row>
-    <row r="103" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C103" s="11" t="s">
+      <c r="B101" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D101" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="10"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>7</v>
@@ -3176,13 +3188,13 @@
     </row>
     <row r="105" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>7</v>
@@ -3190,13 +3202,13 @@
     </row>
     <row r="106" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>7</v>
@@ -3204,13 +3216,13 @@
     </row>
     <row r="107" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>7</v>
@@ -3218,13 +3230,13 @@
     </row>
     <row r="108" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>7</v>
@@ -3232,13 +3244,13 @@
     </row>
     <row r="109" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>7</v>
@@ -3246,13 +3258,13 @@
     </row>
     <row r="110" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>7</v>
@@ -3260,13 +3272,13 @@
     </row>
     <row r="111" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>7</v>
@@ -3274,13 +3286,13 @@
     </row>
     <row r="112" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>7</v>
@@ -3288,13 +3300,13 @@
     </row>
     <row r="113" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>7</v>
@@ -3302,13 +3314,13 @@
     </row>
     <row r="114" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>7</v>
@@ -3316,13 +3328,13 @@
     </row>
     <row r="115" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>7</v>
@@ -3330,13 +3342,13 @@
     </row>
     <row r="116" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>7</v>
@@ -3344,13 +3356,13 @@
     </row>
     <row r="117" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="C117" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>7</v>
@@ -3358,13 +3370,13 @@
     </row>
     <row r="118" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>7</v>
@@ -3372,13 +3384,13 @@
     </row>
     <row r="119" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>7</v>
@@ -3386,13 +3398,13 @@
     </row>
     <row r="120" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>7</v>
@@ -3400,13 +3412,13 @@
     </row>
     <row r="121" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>7</v>
@@ -3414,13 +3426,13 @@
     </row>
     <row r="122" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>7</v>
@@ -3428,13 +3440,13 @@
     </row>
     <row r="123" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>7</v>
@@ -3442,13 +3454,13 @@
     </row>
     <row r="124" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>7</v>
@@ -3456,13 +3468,13 @@
     </row>
     <row r="125" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>7</v>
@@ -3470,13 +3482,13 @@
     </row>
     <row r="126" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>7</v>
@@ -3484,13 +3496,13 @@
     </row>
     <row r="127" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>7</v>
@@ -3498,13 +3510,13 @@
     </row>
     <row r="128" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>7</v>
@@ -3512,13 +3524,13 @@
     </row>
     <row r="129" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>7</v>
@@ -3526,13 +3538,13 @@
     </row>
     <row r="130" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>7</v>
@@ -3540,13 +3552,13 @@
     </row>
     <row r="131" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>7</v>
@@ -3554,13 +3566,13 @@
     </row>
     <row r="132" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>7</v>
@@ -3568,13 +3580,13 @@
     </row>
     <row r="133" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>7</v>
@@ -3582,13 +3594,13 @@
     </row>
     <row r="134" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>7</v>
@@ -3596,13 +3608,13 @@
     </row>
     <row r="135" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>7</v>
@@ -3610,13 +3622,13 @@
     </row>
     <row r="136" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>7</v>
@@ -3624,13 +3636,13 @@
     </row>
     <row r="137" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>7</v>
@@ -3638,73 +3650,73 @@
     </row>
     <row r="138" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="16"/>
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" s="11" t="s">
+      <c r="B139" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D139" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="18"/>
+      <c r="D141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D142" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D143" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>7</v>
@@ -3712,13 +3724,13 @@
     </row>
     <row r="145" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>7</v>
@@ -3726,13 +3738,13 @@
     </row>
     <row r="146" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>7</v>
@@ -3740,13 +3752,13 @@
     </row>
     <row r="147" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>7</v>
@@ -3754,41 +3766,41 @@
     </row>
     <row r="148" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D148" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D148" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D149" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D149" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>7</v>
@@ -3796,27 +3808,27 @@
     </row>
     <row r="151" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D151" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D151" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>7</v>
@@ -3824,69 +3836,69 @@
     </row>
     <row r="153" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D153" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D153" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D154" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D155" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D155" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B156" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="C156" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D156" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D156" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>7</v>
@@ -3894,55 +3906,55 @@
     </row>
     <row r="158" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D158" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D158" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D159" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D159" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D160" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D160" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>7</v>
@@ -3950,13 +3962,13 @@
     </row>
     <row r="162" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>7</v>
@@ -3964,13 +3976,13 @@
     </row>
     <row r="163" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>7</v>
@@ -3978,13 +3990,13 @@
     </row>
     <row r="164" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>7</v>
@@ -3992,97 +4004,97 @@
     </row>
     <row r="165" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
-        <v>151</v>
-      </c>
       <c r="B166" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D166" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>166</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
-        <v>153</v>
-      </c>
       <c r="B168" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D168" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D169" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D170" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>7</v>
@@ -4090,27 +4102,27 @@
     </row>
     <row r="172" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D172" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>7</v>
@@ -4118,13 +4130,13 @@
     </row>
     <row r="174" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>7</v>
@@ -4132,73 +4144,73 @@
     </row>
     <row r="175" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D175" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D175" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B176" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="16"/>
-      <c r="D178" s="9"/>
-    </row>
-    <row r="179" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C179" s="11" t="s">
+      <c r="B177" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D179" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="D177" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="18"/>
+      <c r="D179" s="9"/>
     </row>
     <row r="180" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D180" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D180" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>7</v>
@@ -4206,55 +4218,55 @@
     </row>
     <row r="182" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D182" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D182" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D183" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D183" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D184" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D184" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D185" s="13" t="s">
         <v>7</v>
@@ -4262,13 +4274,13 @@
     </row>
     <row r="186" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D186" s="13" t="s">
         <v>7</v>
@@ -4276,27 +4288,27 @@
     </row>
     <row r="187" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D187" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>7</v>
@@ -4304,41 +4316,41 @@
     </row>
     <row r="189" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D189" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D189" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D190" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D190" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>7</v>
@@ -4346,13 +4358,13 @@
     </row>
     <row r="192" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>7</v>
@@ -4360,27 +4372,27 @@
     </row>
     <row r="193" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D193" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D193" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>7</v>
@@ -4388,13 +4400,13 @@
     </row>
     <row r="195" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>7</v>
@@ -4402,13 +4414,13 @@
     </row>
     <row r="196" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B196" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B196" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="C196" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>7</v>
@@ -4416,41 +4428,41 @@
     </row>
     <row r="197" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D197" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D197" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D198" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D198" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>7</v>
@@ -4458,55 +4470,55 @@
     </row>
     <row r="200" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D200" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D200" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D201" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D201" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D202" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D202" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>7</v>
@@ -4514,69 +4526,69 @@
     </row>
     <row r="204" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D204" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D205" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D205" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D206" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D207" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D207" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>7</v>
@@ -4584,107 +4596,107 @@
     </row>
     <row r="209" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D209" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D210" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D210" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D211" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D211" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D212" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D212" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B213" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="10"/>
-      <c r="C214" s="16"/>
-      <c r="D214" s="9"/>
+      <c r="B214" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="10"/>
-      <c r="C215" s="16"/>
+      <c r="C215" s="18"/>
       <c r="D215" s="9"/>
     </row>
-    <row r="216" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B216" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="216" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="10"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="9"/>
     </row>
     <row r="217" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>7</v>
@@ -4692,13 +4704,13 @@
     </row>
     <row r="218" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>7</v>
@@ -4706,13 +4718,13 @@
     </row>
     <row r="219" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>7</v>
@@ -4720,55 +4732,55 @@
     </row>
     <row r="220" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D220" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D220" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D221" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D221" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D222" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D222" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>222</v>
       </c>
       <c r="D223" s="13" t="s">
         <v>7</v>
@@ -4776,27 +4788,27 @@
     </row>
     <row r="224" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D224" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D224" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>7</v>
@@ -4804,13 +4816,13 @@
     </row>
     <row r="226" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>7</v>
@@ -4818,27 +4830,27 @@
     </row>
     <row r="227" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D227" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D228" s="15" t="s">
         <v>7</v>
@@ -4846,27 +4858,27 @@
     </row>
     <row r="229" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D229" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D229" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>7</v>
@@ -4874,13 +4886,13 @@
     </row>
     <row r="231" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>7</v>
@@ -4888,13 +4900,13 @@
     </row>
     <row r="232" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>7</v>
@@ -4902,13 +4914,13 @@
     </row>
     <row r="233" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>7</v>
@@ -4916,13 +4928,13 @@
     </row>
     <row r="234" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B234" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B234" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="C234" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>7</v>
@@ -4930,13 +4942,13 @@
     </row>
     <row r="235" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>7</v>
@@ -4944,13 +4956,13 @@
     </row>
     <row r="236" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>7</v>
@@ -4958,49 +4970,49 @@
     </row>
     <row r="237" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B237" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="16"/>
-      <c r="D238" s="9"/>
+      <c r="B238" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="16"/>
+      <c r="C239" s="18"/>
       <c r="D239" s="9"/>
     </row>
-    <row r="240" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B240" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="240" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="18"/>
+      <c r="D240" s="9"/>
     </row>
     <row r="241" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>7</v>
@@ -5008,13 +5020,13 @@
     </row>
     <row r="242" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>7</v>
@@ -5022,13 +5034,13 @@
     </row>
     <row r="243" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>7</v>
@@ -5036,13 +5048,13 @@
     </row>
     <row r="244" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>7</v>
@@ -5050,13 +5062,13 @@
     </row>
     <row r="245" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>7</v>
@@ -5064,13 +5076,13 @@
     </row>
     <row r="246" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>7</v>
@@ -5078,13 +5090,13 @@
     </row>
     <row r="247" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>7</v>
@@ -5092,13 +5104,13 @@
     </row>
     <row r="248" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>7</v>
@@ -5106,13 +5118,13 @@
     </row>
     <row r="249" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>7</v>
@@ -5120,13 +5132,13 @@
     </row>
     <row r="250" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>7</v>
@@ -5134,13 +5146,13 @@
     </row>
     <row r="251" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>7</v>
@@ -5148,13 +5160,13 @@
     </row>
     <row r="252" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>7</v>
@@ -5162,13 +5174,13 @@
     </row>
     <row r="253" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>7</v>
@@ -5176,13 +5188,13 @@
     </row>
     <row r="254" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>7</v>
@@ -5190,13 +5202,13 @@
     </row>
     <row r="255" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>7</v>
@@ -5204,13 +5216,13 @@
     </row>
     <row r="256" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>7</v>
@@ -5218,13 +5230,13 @@
     </row>
     <row r="257" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>7</v>
@@ -5232,13 +5244,13 @@
     </row>
     <row r="258" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>7</v>
@@ -5246,13 +5258,13 @@
     </row>
     <row r="259" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B259" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B259" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="C259" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>7</v>
@@ -5260,13 +5272,13 @@
     </row>
     <row r="260" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>7</v>
@@ -5274,13 +5286,13 @@
     </row>
     <row r="261" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>7</v>
@@ -5288,13 +5300,13 @@
     </row>
     <row r="262" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>7</v>
@@ -5302,13 +5314,13 @@
     </row>
     <row r="263" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>7</v>
@@ -5316,13 +5328,13 @@
     </row>
     <row r="264" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>7</v>
@@ -5330,13 +5342,13 @@
     </row>
     <row r="265" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>7</v>
@@ -5344,13 +5356,13 @@
     </row>
     <row r="266" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>7</v>
@@ -5358,13 +5370,13 @@
     </row>
     <row r="267" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>7</v>
@@ -5372,13 +5384,13 @@
     </row>
     <row r="268" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>7</v>
@@ -5386,13 +5398,13 @@
     </row>
     <row r="269" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>7</v>
@@ -5400,13 +5412,13 @@
     </row>
     <row r="270" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>7</v>
@@ -5414,13 +5426,13 @@
     </row>
     <row r="271" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>7</v>
@@ -5428,13 +5440,13 @@
     </row>
     <row r="272" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>7</v>
@@ -5442,13 +5454,13 @@
     </row>
     <row r="273" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>7</v>
@@ -5456,49 +5468,49 @@
     </row>
     <row r="274" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B274" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C274" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D274" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="16"/>
-      <c r="D275" s="9"/>
+      <c r="B275" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="16"/>
+      <c r="C276" s="18"/>
       <c r="D276" s="9"/>
     </row>
-    <row r="277" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D277" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="277" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="18"/>
+      <c r="D277" s="9"/>
     </row>
     <row r="278" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>7</v>
@@ -5506,13 +5518,13 @@
     </row>
     <row r="279" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>7</v>
@@ -5520,13 +5532,13 @@
     </row>
     <row r="280" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>7</v>
@@ -5534,13 +5546,13 @@
     </row>
     <row r="281" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>7</v>
@@ -5548,13 +5560,13 @@
     </row>
     <row r="282" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>7</v>
@@ -5562,13 +5574,13 @@
     </row>
     <row r="283" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>7</v>
@@ -5576,13 +5588,13 @@
     </row>
     <row r="284" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>7</v>
@@ -5590,13 +5602,13 @@
     </row>
     <row r="285" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>7</v>
@@ -5604,13 +5616,13 @@
     </row>
     <row r="286" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>7</v>
@@ -5618,13 +5630,13 @@
     </row>
     <row r="287" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>7</v>
@@ -5632,13 +5644,13 @@
     </row>
     <row r="288" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>7</v>
@@ -5646,13 +5658,13 @@
     </row>
     <row r="289" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>7</v>
@@ -5660,13 +5672,13 @@
     </row>
     <row r="290" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
@@ -5674,13 +5686,13 @@
     </row>
     <row r="291" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
@@ -5688,13 +5700,13 @@
     </row>
     <row r="292" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
@@ -5702,13 +5714,13 @@
     </row>
     <row r="293" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
@@ -5716,13 +5728,13 @@
     </row>
     <row r="294" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
@@ -5730,49 +5742,49 @@
     </row>
     <row r="295" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B295" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C295" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D295" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="16"/>
-      <c r="D296" s="9"/>
+      <c r="B296" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="16"/>
+      <c r="C297" s="18"/>
       <c r="D297" s="9"/>
     </row>
-    <row r="298" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B298" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C298" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D298" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="298" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C298" s="18"/>
+      <c r="D298" s="9"/>
     </row>
     <row r="299" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>7</v>
@@ -5780,13 +5792,13 @@
     </row>
     <row r="300" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>7</v>
@@ -5794,13 +5806,13 @@
     </row>
     <row r="301" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>7</v>
@@ -5808,13 +5820,13 @@
     </row>
     <row r="302" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>7</v>
@@ -5822,13 +5834,13 @@
     </row>
     <row r="303" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>7</v>
@@ -5836,13 +5848,13 @@
     </row>
     <row r="304" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>7</v>
@@ -5850,13 +5862,13 @@
     </row>
     <row r="305" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>7</v>
@@ -5864,13 +5876,13 @@
     </row>
     <row r="306" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>7</v>
@@ -5878,13 +5890,13 @@
     </row>
     <row r="307" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>7</v>
@@ -5892,13 +5904,13 @@
     </row>
     <row r="308" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>7</v>
@@ -5906,13 +5918,13 @@
     </row>
     <row r="309" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>7</v>
@@ -5920,13 +5932,13 @@
     </row>
     <row r="310" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>7</v>
@@ -5934,13 +5946,13 @@
     </row>
     <row r="311" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C311" s="22" t="s">
-        <v>305</v>
+        <v>293</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>7</v>
@@ -5948,13 +5960,13 @@
     </row>
     <row r="312" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C312" s="11" t="s">
-        <v>306</v>
+        <v>293</v>
+      </c>
+      <c r="C312" s="24" t="s">
+        <v>307</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>7</v>
@@ -5962,13 +5974,13 @@
     </row>
     <row r="313" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>7</v>
@@ -5976,13 +5988,13 @@
     </row>
     <row r="314" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>7</v>
@@ -5990,13 +6002,13 @@
     </row>
     <row r="315" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>7</v>
@@ -6004,13 +6016,13 @@
     </row>
     <row r="316" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>7</v>
@@ -6018,13 +6030,13 @@
     </row>
     <row r="317" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>7</v>
@@ -6032,13 +6044,13 @@
     </row>
     <row r="318" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B318" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B318" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="C318" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>7</v>
@@ -6046,13 +6058,13 @@
     </row>
     <row r="319" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>7</v>
@@ -6060,13 +6072,13 @@
     </row>
     <row r="320" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>7</v>
@@ -6074,13 +6086,13 @@
     </row>
     <row r="321" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>7</v>
@@ -6088,13 +6100,13 @@
     </row>
     <row r="322" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>7</v>
@@ -6102,13 +6114,13 @@
     </row>
     <row r="323" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>7</v>
@@ -6116,13 +6128,13 @@
     </row>
     <row r="324" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>7</v>
@@ -6130,13 +6142,13 @@
     </row>
     <row r="325" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>7</v>
@@ -6144,13 +6156,13 @@
     </row>
     <row r="326" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>7</v>
@@ -6158,13 +6170,13 @@
     </row>
     <row r="327" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>7</v>
@@ -6172,13 +6184,13 @@
     </row>
     <row r="328" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>7</v>
@@ -6186,13 +6198,13 @@
     </row>
     <row r="329" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>7</v>
@@ -6200,13 +6212,13 @@
     </row>
     <row r="330" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>7</v>
@@ -6214,13 +6226,13 @@
     </row>
     <row r="331" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>7</v>
@@ -6228,13 +6240,13 @@
     </row>
     <row r="332" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>7</v>
@@ -6242,13 +6254,13 @@
     </row>
     <row r="333" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>7</v>
@@ -6256,13 +6268,13 @@
     </row>
     <row r="334" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>7</v>
@@ -6270,49 +6282,49 @@
     </row>
     <row r="335" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B335" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C335" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D335" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="16"/>
-      <c r="D336" s="9"/>
+      <c r="B336" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="16"/>
+      <c r="C337" s="18"/>
       <c r="D337" s="9"/>
     </row>
-    <row r="338" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B338" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C338" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D338" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="338" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C338" s="18"/>
+      <c r="D338" s="9"/>
     </row>
     <row r="339" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>7</v>
@@ -6320,13 +6332,13 @@
     </row>
     <row r="340" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>7</v>
@@ -6334,13 +6346,13 @@
     </row>
     <row r="341" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>7</v>
@@ -6348,13 +6360,13 @@
     </row>
     <row r="342" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>7</v>
@@ -6362,13 +6374,13 @@
     </row>
     <row r="343" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>7</v>
@@ -6376,13 +6388,13 @@
     </row>
     <row r="344" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>7</v>
@@ -6390,13 +6402,13 @@
     </row>
     <row r="345" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>7</v>
@@ -6404,13 +6416,13 @@
     </row>
     <row r="346" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C346" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
+      </c>
+      <c r="C346" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>7</v>
@@ -6418,13 +6430,13 @@
     </row>
     <row r="347" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C347" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
+      </c>
+      <c r="C347" s="24" t="s">
+        <v>341</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>7</v>
@@ -6432,13 +6444,13 @@
     </row>
     <row r="348" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>7</v>
@@ -6446,13 +6458,13 @@
     </row>
     <row r="349" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>7</v>
@@ -6460,13 +6472,13 @@
     </row>
     <row r="350" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>7</v>
@@ -6474,13 +6486,13 @@
     </row>
     <row r="351" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>7</v>
@@ -6488,13 +6500,13 @@
     </row>
     <row r="352" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>7</v>
@@ -6502,13 +6514,13 @@
     </row>
     <row r="353" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>7</v>
@@ -6516,13 +6528,13 @@
     </row>
     <row r="354" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>7</v>
@@ -6530,49 +6542,49 @@
     </row>
     <row r="355" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B355" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C355" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D355" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="16"/>
-      <c r="D356" s="9"/>
+      <c r="B356" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="16"/>
+      <c r="C357" s="18"/>
       <c r="D357" s="9"/>
     </row>
-    <row r="358" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B358" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C358" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D358" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="358" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="18"/>
+      <c r="D358" s="9"/>
     </row>
     <row r="359" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>7</v>
@@ -6580,13 +6592,13 @@
     </row>
     <row r="360" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -6594,13 +6606,13 @@
     </row>
     <row r="361" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>7</v>
@@ -6608,13 +6620,13 @@
     </row>
     <row r="362" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D362" s="9" t="s">
         <v>7</v>
@@ -6622,13 +6634,13 @@
     </row>
     <row r="363" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>7</v>
@@ -6636,13 +6648,13 @@
     </row>
     <row r="364" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>7</v>
@@ -6650,13 +6662,13 @@
     </row>
     <row r="365" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>7</v>
@@ -6664,13 +6676,13 @@
     </row>
     <row r="366" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>7</v>
@@ -6678,13 +6690,13 @@
     </row>
     <row r="367" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>7</v>
@@ -6692,13 +6704,13 @@
     </row>
     <row r="368" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>7</v>
@@ -6706,13 +6718,13 @@
     </row>
     <row r="369" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>7</v>
@@ -6720,13 +6732,13 @@
     </row>
     <row r="370" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>7</v>
@@ -6734,13 +6746,13 @@
     </row>
     <row r="371" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>7</v>
@@ -6748,13 +6760,13 @@
     </row>
     <row r="372" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>7</v>
@@ -6762,13 +6774,13 @@
     </row>
     <row r="373" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>7</v>
@@ -6776,13 +6788,13 @@
     </row>
     <row r="374" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>7</v>
@@ -6790,13 +6802,13 @@
     </row>
     <row r="375" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>7</v>
@@ -6804,13 +6816,13 @@
     </row>
     <row r="376" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>7</v>
@@ -6818,13 +6830,13 @@
     </row>
     <row r="377" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>7</v>
@@ -6832,13 +6844,13 @@
     </row>
     <row r="378" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>7</v>
@@ -6846,13 +6858,13 @@
     </row>
     <row r="379" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>7</v>
@@ -6860,13 +6872,13 @@
     </row>
     <row r="380" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B380" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B380" s="10" t="s">
-        <v>349</v>
-      </c>
       <c r="C380" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>7</v>
@@ -6874,13 +6886,13 @@
     </row>
     <row r="381" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>7</v>
@@ -6888,13 +6900,13 @@
     </row>
     <row r="382" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>7</v>
@@ -6902,13 +6914,13 @@
     </row>
     <row r="383" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>7</v>
@@ -6916,13 +6928,13 @@
     </row>
     <row r="384" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>7</v>
@@ -6930,13 +6942,13 @@
     </row>
     <row r="385" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>7</v>
@@ -6944,13 +6956,13 @@
     </row>
     <row r="386" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>7</v>
@@ -6958,13 +6970,13 @@
     </row>
     <row r="387" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>7</v>
@@ -6972,13 +6984,13 @@
     </row>
     <row r="388" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>7</v>
@@ -6986,13 +6998,13 @@
     </row>
     <row r="389" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>7</v>
@@ -7000,13 +7012,13 @@
     </row>
     <row r="390" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>7</v>
@@ -7014,13 +7026,13 @@
     </row>
     <row r="391" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>7</v>
@@ -7028,13 +7040,13 @@
     </row>
     <row r="392" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>7</v>
@@ -7042,13 +7054,13 @@
     </row>
     <row r="393" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>7</v>
@@ -7056,13 +7068,13 @@
     </row>
     <row r="394" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>7</v>
@@ -7070,13 +7082,13 @@
     </row>
     <row r="395" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>7</v>
@@ -7084,13 +7096,13 @@
     </row>
     <row r="396" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>7</v>
@@ -7098,13 +7110,13 @@
     </row>
     <row r="397" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>7</v>
@@ -7112,13 +7124,13 @@
     </row>
     <row r="398" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>7</v>
@@ -7126,13 +7138,13 @@
     </row>
     <row r="399" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>7</v>
@@ -7140,13 +7152,13 @@
     </row>
     <row r="400" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>7</v>
@@ -7154,49 +7166,49 @@
     </row>
     <row r="401" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B401" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C401" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D401" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="16"/>
-      <c r="D402" s="9"/>
+      <c r="B402" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D402" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="16"/>
+      <c r="C403" s="18"/>
       <c r="D403" s="9"/>
     </row>
-    <row r="404" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B404" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C404" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D404" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="404" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C404" s="18"/>
+      <c r="D404" s="9"/>
     </row>
     <row r="405" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>7</v>
@@ -7204,13 +7216,13 @@
     </row>
     <row r="406" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>7</v>
@@ -7218,13 +7230,13 @@
     </row>
     <row r="407" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>94</v>
+        <v>398</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>7</v>
@@ -7232,13 +7244,13 @@
     </row>
     <row r="408" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>397</v>
+        <v>96</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>7</v>
@@ -7246,49 +7258,49 @@
     </row>
     <row r="409" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B409" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C409" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D409" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="16"/>
-      <c r="D410" s="9"/>
+      <c r="B410" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="16"/>
+      <c r="C411" s="18"/>
       <c r="D411" s="9"/>
     </row>
-    <row r="412" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C412" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D412" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="412" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C412" s="18"/>
+      <c r="D412" s="9"/>
     </row>
     <row r="413" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>7</v>
@@ -7296,13 +7308,13 @@
     </row>
     <row r="414" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>7</v>
@@ -7310,13 +7322,13 @@
     </row>
     <row r="415" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>7</v>
@@ -7324,13 +7336,13 @@
     </row>
     <row r="416" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D416" s="9" t="s">
         <v>7</v>
@@ -7338,13 +7350,13 @@
     </row>
     <row r="417" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>7</v>
@@ -7352,13 +7364,13 @@
     </row>
     <row r="418" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>7</v>
@@ -7366,13 +7378,13 @@
     </row>
     <row r="419" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>279</v>
+        <v>408</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>7</v>
@@ -7380,13 +7392,13 @@
     </row>
     <row r="420" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>407</v>
+        <v>281</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>7</v>
@@ -7394,13 +7406,13 @@
     </row>
     <row r="421" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>7</v>
@@ -7408,13 +7420,13 @@
     </row>
     <row r="422" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>7</v>
@@ -7422,13 +7434,13 @@
     </row>
     <row r="423" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>7</v>
@@ -7436,13 +7448,13 @@
     </row>
     <row r="424" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>7</v>
@@ -7450,13 +7462,13 @@
     </row>
     <row r="425" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>7</v>
@@ -7464,13 +7476,13 @@
     </row>
     <row r="426" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>7</v>
@@ -7478,13 +7490,13 @@
     </row>
     <row r="427" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>7</v>
@@ -7492,13 +7504,13 @@
     </row>
     <row r="428" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>7</v>
@@ -7506,13 +7518,13 @@
     </row>
     <row r="429" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>7</v>
@@ -7520,13 +7532,13 @@
     </row>
     <row r="430" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>7</v>
@@ -7534,13 +7546,13 @@
     </row>
     <row r="431" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>7</v>
@@ -7548,13 +7560,13 @@
     </row>
     <row r="432" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>7</v>
@@ -7562,13 +7574,13 @@
     </row>
     <row r="433" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>7</v>
@@ -7576,13 +7588,13 @@
     </row>
     <row r="434" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B434" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B434" s="10" t="s">
-        <v>399</v>
-      </c>
       <c r="C434" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>7</v>
@@ -7590,13 +7602,13 @@
     </row>
     <row r="435" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>7</v>
@@ -7604,13 +7616,13 @@
     </row>
     <row r="436" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>7</v>
@@ -7618,13 +7630,13 @@
     </row>
     <row r="437" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>7</v>
@@ -7632,13 +7644,13 @@
     </row>
     <row r="438" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>7</v>
@@ -7646,13 +7658,13 @@
     </row>
     <row r="439" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>7</v>
@@ -7660,13 +7672,13 @@
     </row>
     <row r="440" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>7</v>
@@ -7674,13 +7686,13 @@
     </row>
     <row r="441" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>7</v>
@@ -7688,13 +7700,13 @@
     </row>
     <row r="442" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>7</v>
@@ -7702,13 +7714,13 @@
     </row>
     <row r="443" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>7</v>
@@ -7716,13 +7728,13 @@
     </row>
     <row r="444" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>7</v>
@@ -7730,13 +7742,13 @@
     </row>
     <row r="445" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>7</v>
@@ -7744,41 +7756,41 @@
     </row>
     <row r="446" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="D446" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D446" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D447" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D447" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>7</v>
@@ -7786,13 +7798,13 @@
     </row>
     <row r="449" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>7</v>
@@ -7800,13 +7812,13 @@
     </row>
     <row r="450" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>7</v>
@@ -7814,13 +7826,13 @@
     </row>
     <row r="451" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D451" s="9" t="s">
         <v>7</v>
@@ -7828,13 +7840,13 @@
     </row>
     <row r="452" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>7</v>
@@ -7842,13 +7854,13 @@
     </row>
     <row r="453" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>7</v>
@@ -7856,13 +7868,13 @@
     </row>
     <row r="454" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>7</v>
@@ -7870,13 +7882,13 @@
     </row>
     <row r="455" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>7</v>
@@ -7884,13 +7896,13 @@
     </row>
     <row r="456" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>7</v>
@@ -7898,13 +7910,13 @@
     </row>
     <row r="457" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>7</v>
@@ -7912,13 +7924,13 @@
     </row>
     <row r="458" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>7</v>
@@ -7926,13 +7938,13 @@
     </row>
     <row r="459" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>7</v>
@@ -7940,13 +7952,13 @@
     </row>
     <row r="460" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>7</v>
@@ -7954,13 +7966,13 @@
     </row>
     <row r="461" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>7</v>
@@ -7968,13 +7980,13 @@
     </row>
     <row r="462" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>7</v>
@@ -7982,13 +7994,13 @@
     </row>
     <row r="463" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>7</v>
@@ -7996,13 +8008,13 @@
     </row>
     <row r="464" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>7</v>
@@ -8010,13 +8022,13 @@
     </row>
     <row r="465" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>7</v>
@@ -8024,13 +8036,13 @@
     </row>
     <row r="466" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>7</v>
@@ -8038,13 +8050,13 @@
     </row>
     <row r="467" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>7</v>
@@ -8052,13 +8064,13 @@
     </row>
     <row r="468" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>7</v>
@@ -8066,13 +8078,13 @@
     </row>
     <row r="469" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>7</v>
@@ -8080,13 +8092,13 @@
     </row>
     <row r="470" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C470" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>7</v>
@@ -8094,50 +8106,50 @@
     </row>
     <row r="471" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B471" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C471" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D471" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="n">
         <v>438</v>
       </c>
-      <c r="B471" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C471" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D471" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="16"/>
-      <c r="D472" s="9"/>
+      <c r="B472" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D472" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="473" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="10"/>
-      <c r="C473" s="16"/>
+      <c r="C473" s="18"/>
       <c r="D473" s="9"/>
     </row>
-    <row r="474" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B474" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C474" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="D474" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="474" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B474" s="10"/>
+      <c r="C474" s="18"/>
+      <c r="D474" s="9"/>
     </row>
     <row r="475" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>7</v>
@@ -8145,13 +8157,13 @@
     </row>
     <row r="476" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C476" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>7</v>
@@ -8159,13 +8171,13 @@
     </row>
     <row r="477" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C477" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D477" s="9" t="s">
         <v>7</v>
@@ -8173,13 +8185,13 @@
     </row>
     <row r="478" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C478" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D478" s="9" t="s">
         <v>7</v>
@@ -8187,13 +8199,13 @@
     </row>
     <row r="479" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D479" s="9" t="s">
         <v>7</v>
@@ -8201,13 +8213,13 @@
     </row>
     <row r="480" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>7</v>
@@ -8215,13 +8227,13 @@
     </row>
     <row r="481" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>7</v>
@@ -8229,13 +8241,13 @@
     </row>
     <row r="482" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>7</v>
@@ -8243,15 +8255,29 @@
     </row>
     <row r="483" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C483" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D483" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="B483" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C483" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D483" s="9" t="s">
+      <c r="B484" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C484" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D484" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8293,415 +8319,415 @@
     <hyperlink ref="C39" r:id="rId34" display="Minimum no. of operations required to make an array palindrome"/>
     <hyperlink ref="C40" r:id="rId35" display="Median of 2 sorted arrays of equal size"/>
     <hyperlink ref="C41" r:id="rId36" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="C44" r:id="rId37" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="C45" r:id="rId38" display="Search an element in a matriix"/>
-    <hyperlink ref="C46" r:id="rId39" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="C47" r:id="rId40" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C48" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="C49" r:id="rId42" display="Maximum size rectangle"/>
-    <hyperlink ref="C50" r:id="rId43" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C51" r:id="rId44" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="C52" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C53" r:id="rId46" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C58" r:id="rId47" display="Reverse a String"/>
-    <hyperlink ref="C59" r:id="rId48" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C60" r:id="rId49" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C62" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C63" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C64" r:id="rId52" display="Count and Say problem"/>
-    <hyperlink ref="C65" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
-    <hyperlink ref="C66" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
-    <hyperlink ref="C67" r:id="rId55" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C68" r:id="rId56" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C69" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C70" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C71" r:id="rId59" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C72" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C73" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C74" r:id="rId62" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C75" r:id="rId63" display="Rabin Karp Algo"/>
-    <hyperlink ref="C76" r:id="rId64" display="KMP Algo"/>
-    <hyperlink ref="C77" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C78" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C79" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C80" r:id="rId68" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C81" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C82" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C83" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C84" r:id="rId72" display="Longest Common Prefix"/>
-    <hyperlink ref="C85" r:id="rId73" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C86" r:id="rId74" display="Find the first repeated word in string."/>
-    <hyperlink ref="C87" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C88" r:id="rId76" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C89" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C90" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C91" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C92" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C93" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C94" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C95" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C96" r:id="rId84" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C97" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C98" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C99" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C100" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C103" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C104" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C105" r:id="rId91" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C106" r:id="rId92" display="square root of an integer"/>
-    <hyperlink ref="C107" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C108" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C109" r:id="rId95" display="Find the repeating and the missing"/>
-    <hyperlink ref="C110" r:id="rId96" display="find majority element"/>
-    <hyperlink ref="C111" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C112" r:id="rId98" display="find a pair with a given difference"/>
-    <hyperlink ref="C113" r:id="rId99" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C114" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C115" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C116" r:id="rId102" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C117" r:id="rId103" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C118" r:id="rId104" display="Product array Puzzle"/>
-    <hyperlink ref="C119" r:id="rId105" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C120" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C121" r:id="rId107" display="Bishu and Soldiers"/>
-    <hyperlink ref="C122" r:id="rId108" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C123" r:id="rId109" display="Kth smallest number again"/>
-    <hyperlink ref="C124" r:id="rId110" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C125" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C126" r:id="rId112" display="Aggressive cows"/>
-    <hyperlink ref="C127" r:id="rId113" display="Book Allocation Problem"/>
-    <hyperlink ref="C128" r:id="rId114" display="EKOSPOJ:"/>
-    <hyperlink ref="C129" r:id="rId115" display="Job Scheduling Algo"/>
-    <hyperlink ref="C130" r:id="rId116" display="Missing Number in AP"/>
-    <hyperlink ref="C131" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C132" r:id="rId118" display="Painters Partition Problem:"/>
-    <hyperlink ref="C133" r:id="rId119" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C134" r:id="rId120" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C135" r:id="rId121" display="Subset Sums"/>
-    <hyperlink ref="C136" r:id="rId122" display="Findthe inversion count"/>
-    <hyperlink ref="C137" r:id="rId123" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C138" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C141" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C142" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C143" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C144" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C145" r:id="rId129" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C146" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C147" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C148" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C149" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C150" r:id="rId134" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C151" r:id="rId135" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C152" r:id="rId136" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C153" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C154" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C155" r:id="rId139" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C156" r:id="rId140" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C157" r:id="rId141" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C158" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C159" r:id="rId143" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C160" r:id="rId144" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C161" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C162" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C163" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C164" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C165" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C168" r:id="rId150" display="Flatten a Linked List"/>
-    <hyperlink ref="C169" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C170" r:id="rId152" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C171" r:id="rId153" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C172" r:id="rId154" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C173" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C174" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C175" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C176" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C179" r:id="rId159" display="level order traversal"/>
-    <hyperlink ref="C180" r:id="rId160" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C181" r:id="rId161" display="Height of a tree"/>
-    <hyperlink ref="C182" r:id="rId162" display="Diameter of a tree"/>
-    <hyperlink ref="C183" r:id="rId163" display="Mirror of a tree"/>
-    <hyperlink ref="C184" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C185" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C186" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C187" r:id="rId167" display="Left View of a tree"/>
-    <hyperlink ref="C188" r:id="rId168" display="Right View of Tree"/>
-    <hyperlink ref="C189" r:id="rId169" display="Top View of a tree"/>
-    <hyperlink ref="C190" r:id="rId170" display="Bottom View of a tree"/>
-    <hyperlink ref="C191" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C192" r:id="rId172" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C193" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C194" r:id="rId174" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C195" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C196" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C197" r:id="rId177" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C198" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C199" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C200" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C201" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C202" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C203" r:id="rId183" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C204" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C205" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C206" r:id="rId186" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C207" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C208" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C209" r:id="rId189" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C210" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C211" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C212" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C213" r:id="rId193" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C216" r:id="rId194" display="Fina a value in a BST"/>
-    <hyperlink ref="C217" r:id="rId195" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C218" r:id="rId196" display="Find min and max value in a BST"/>
-    <hyperlink ref="C219" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C220" r:id="rId198" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C221" r:id="rId199" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C222" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C223" r:id="rId201" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C224" r:id="rId202" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C225" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C226" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C227" r:id="rId205" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C228" r:id="rId206" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C229" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C230" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C231" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C232" r:id="rId210" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C233" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C234" r:id="rId212" display="Check preorder is valid or not"/>
-    <hyperlink ref="C235" r:id="rId213" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C236" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C237" r:id="rId215" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C240" r:id="rId216" display="Activity Selection Problem"/>
-    <hyperlink ref="C241" r:id="rId217" display="Job SequencingProblem"/>
-    <hyperlink ref="C242" r:id="rId218" display="Huffman Coding"/>
-    <hyperlink ref="C243" r:id="rId219" display="Water Connection Problem"/>
-    <hyperlink ref="C244" r:id="rId220" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C245" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C246" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C247" r:id="rId223" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C248" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C249" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C250" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C251" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C252" r:id="rId228" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C253" r:id="rId229" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C254" r:id="rId230" display="Maximum product subset of an array"/>
-    <hyperlink ref="C255" r:id="rId231" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C256" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C257" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C258" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C259" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C260" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C261" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C262" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C263" r:id="rId239" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C264" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C265" r:id="rId241" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C266" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C267" r:id="rId243" display="Picking Up Chicks"/>
-    <hyperlink ref="C268" r:id="rId244" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C269" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C270" r:id="rId246" display="K Centers Problem"/>
-    <hyperlink ref="C271" r:id="rId247" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C272" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C273" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C274" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C277" r:id="rId251" display="Rat in a maze Problem"/>
-    <hyperlink ref="C278" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C279" r:id="rId253" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C280" r:id="rId254" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C281" r:id="rId255" display="Sudoku Solver"/>
-    <hyperlink ref="C282" r:id="rId256" display="m Coloring Problem"/>
-    <hyperlink ref="C283" r:id="rId257" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C284" r:id="rId258" display="Subset Sum Problem"/>
-    <hyperlink ref="C285" r:id="rId259" display="The Knight’s tour problem"/>
-    <hyperlink ref="C286" r:id="rId260" display="Tug of War"/>
-    <hyperlink ref="C287" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C288" r:id="rId262" display="Combinational Sum"/>
-    <hyperlink ref="C289" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C290" r:id="rId264" display="Print all permutations of a string "/>
-    <hyperlink ref="C291" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C292" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C293" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C294" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C295" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C298" r:id="rId270" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C299" r:id="rId271" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C300" r:id="rId272" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C301" r:id="rId273" display="find the middle element of a stack"/>
-    <hyperlink ref="C302" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C303" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C304" r:id="rId276" display="Reverse a String using Stack"/>
-    <hyperlink ref="C305" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C306" r:id="rId278" display="Find the next Greater element"/>
-    <hyperlink ref="C307" r:id="rId279" display="The celebrity Problem"/>
-    <hyperlink ref="C308" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C309" r:id="rId281" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C310" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C311" r:id="rId283" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C312" r:id="rId284" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C313" r:id="rId285" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C314" r:id="rId286" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C315" r:id="rId287" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C316" r:id="rId288" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C317" r:id="rId289" display="Implement Stack using Queue"/>
-    <hyperlink ref="C318" r:id="rId290" display="Implement Stack using Deque"/>
-    <hyperlink ref="C319" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C320" r:id="rId292" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C321" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C322" r:id="rId294" display="Implement a Circular queue"/>
-    <hyperlink ref="C323" r:id="rId295" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C324" r:id="rId296" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C325" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C326" r:id="rId298" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C327" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C328" r:id="rId300" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C329" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C330" r:id="rId302" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C331" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C332" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C333" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C334" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C335" r:id="rId307" display="Next Smaller Element"/>
-    <hyperlink ref="C338" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C339" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C340" r:id="rId310" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C341" r:id="rId311" display="“k” largest element in an array"/>
-    <hyperlink ref="C342" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C343" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C344" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C345" r:id="rId315" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C346" r:id="rId316" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C347" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C348" r:id="rId318" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C349" r:id="rId319" display="Median in a stream of Integers"/>
-    <hyperlink ref="C350" r:id="rId320" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C351" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C352" r:id="rId322" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C353" r:id="rId323" display="Convert min heap to max heap"/>
-    <hyperlink ref="C354" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C355" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C358" r:id="rId326" display="Create a Graph, print it"/>
-    <hyperlink ref="C359" r:id="rId327" display="Implement BFS algorithm "/>
-    <hyperlink ref="C360" r:id="rId328" display="Implement DFS Algo "/>
-    <hyperlink ref="C361" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C362" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C363" r:id="rId331" display="Search in a Maze"/>
-    <hyperlink ref="C364" r:id="rId332" display="Minimum Step by Knight"/>
-    <hyperlink ref="C365" r:id="rId333" display="flood fill algo"/>
-    <hyperlink ref="C366" r:id="rId334" display="Clone a graph"/>
-    <hyperlink ref="C367" r:id="rId335" display="Making wired Connections"/>
-    <hyperlink ref="C368" r:id="rId336" display="word Ladder "/>
-    <hyperlink ref="C369" r:id="rId337" display="Dijkstra algo"/>
-    <hyperlink ref="C370" r:id="rId338" display="Implement Topological Sort "/>
-    <hyperlink ref="C371" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C372" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C373" r:id="rId341" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C374" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C375" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C376" r:id="rId344" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C377" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C378" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C379" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C380" r:id="rId348" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C381" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C382" r:id="rId350" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C383" r:id="rId351" display="Find bridge in a graph"/>
-    <hyperlink ref="C384" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C385" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C386" r:id="rId354" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C387" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C388" r:id="rId356" display="Journey to the Moon"/>
-    <hyperlink ref="C389" r:id="rId357" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C390" r:id="rId358" display="Oliver and the Game"/>
-    <hyperlink ref="C391" r:id="rId359" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C392" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C393" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C394" r:id="rId362" display="M-ColouringProblem"/>
-    <hyperlink ref="C395" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C396" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C397" r:id="rId365" display="Vertex Cover Problem"/>
-    <hyperlink ref="C398" r:id="rId366" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C399" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C400" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C401" r:id="rId369" display="Two Clique Problem"/>
-    <hyperlink ref="C404" r:id="rId370" display="Construct a trie from scratch"/>
-    <hyperlink ref="C405" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C406" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C407" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C408" r:id="rId374" display="Implement a Phone Directory"/>
-    <hyperlink ref="C409" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C412" r:id="rId376" display="Coin ChangeProblem"/>
-    <hyperlink ref="C413" r:id="rId377" display="Knapsack Problem"/>
-    <hyperlink ref="C414" r:id="rId378" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C415" r:id="rId379" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C416" r:id="rId380" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C417" r:id="rId381" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C418" r:id="rId382" display="Edit Distance"/>
-    <hyperlink ref="C419" r:id="rId383" display="Subset Sum Problem"/>
-    <hyperlink ref="C420" r:id="rId384" display="Friends Pairing Problem"/>
-    <hyperlink ref="C421" r:id="rId385" display="Gold Mine Problem"/>
-    <hyperlink ref="C422" r:id="rId386" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C423" r:id="rId387" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C424" r:id="rId388" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C425" r:id="rId389" display="Longest Common Subsequence"/>
-    <hyperlink ref="C426" r:id="rId390" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C427" r:id="rId391" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C428" r:id="rId392" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C429" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C430" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C431" r:id="rId395" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C432" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C433" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C434" r:id="rId398" display="Egg Dropping Problem"/>
-    <hyperlink ref="C435" r:id="rId399" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C436" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C437" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C438" r:id="rId402" display="Min Cost PathProblem"/>
-    <hyperlink ref="C439" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C440" r:id="rId404" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C441" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C442" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C443" r:id="rId407" display="Longest Common Substring"/>
-    <hyperlink ref="C444" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C445" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C446" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C447" r:id="rId411" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C448" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C449" r:id="rId413" display="Word Break Problem"/>
-    <hyperlink ref="C450" r:id="rId414" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C451" r:id="rId415" display="Partition problem"/>
-    <hyperlink ref="C452" r:id="rId416" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C453" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C454" r:id="rId418" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C455" r:id="rId419" display="Longest alternating subsequence"/>
-    <hyperlink ref="C456" r:id="rId420" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C457" r:id="rId421" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C458" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C459" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C460" r:id="rId424" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C461" r:id="rId425" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C462" r:id="rId426" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C463" r:id="rId427" display="Word Wrap Problem"/>
-    <hyperlink ref="C464" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C465" r:id="rId429" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C466" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C467" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C468" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C469" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C470" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C471" r:id="rId435" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C474" r:id="rId436" display="Count set bits in an integer"/>
-    <hyperlink ref="C475" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C476" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C477" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C478" r:id="rId440" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C479" r:id="rId441" display="Find position of the only set bit"/>
-    <hyperlink ref="C480" r:id="rId442" display="Copy set bits in a range"/>
-    <hyperlink ref="C481" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C482" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C483" r:id="rId445" display="Power Set"/>
+    <hyperlink ref="C45" r:id="rId37" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="C46" r:id="rId38" display="Search an element in a matriix"/>
+    <hyperlink ref="C47" r:id="rId39" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="C48" r:id="rId40" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="C49" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C50" r:id="rId42" display="Maximum size rectangle"/>
+    <hyperlink ref="C51" r:id="rId43" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C52" r:id="rId44" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="C53" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="C54" r:id="rId46" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C59" r:id="rId47" display="Reverse a String"/>
+    <hyperlink ref="C60" r:id="rId48" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C61" r:id="rId49" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C63" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C64" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C65" r:id="rId52" display="Count and Say problem"/>
+    <hyperlink ref="C66" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
+    <hyperlink ref="C67" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
+    <hyperlink ref="C68" r:id="rId55" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C69" r:id="rId56" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C70" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C71" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C72" r:id="rId59" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C73" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C74" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C75" r:id="rId62" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C76" r:id="rId63" display="Rabin Karp Algo"/>
+    <hyperlink ref="C77" r:id="rId64" display="KMP Algo"/>
+    <hyperlink ref="C78" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C79" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C80" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C81" r:id="rId68" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C82" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C83" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C84" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C85" r:id="rId72" display="Longest Common Prefix"/>
+    <hyperlink ref="C86" r:id="rId73" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C87" r:id="rId74" display="Find the first repeated word in string."/>
+    <hyperlink ref="C88" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C89" r:id="rId76" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C90" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C91" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C92" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C93" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C94" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C95" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C96" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C97" r:id="rId84" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C98" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C99" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C100" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C101" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C104" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C105" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C106" r:id="rId91" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C107" r:id="rId92" display="square root of an integer"/>
+    <hyperlink ref="C108" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C109" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C110" r:id="rId95" display="Find the repeating and the missing"/>
+    <hyperlink ref="C111" r:id="rId96" display="find majority element"/>
+    <hyperlink ref="C112" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C113" r:id="rId98" display="find a pair with a given difference"/>
+    <hyperlink ref="C114" r:id="rId99" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C115" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C116" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C117" r:id="rId102" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C118" r:id="rId103" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C119" r:id="rId104" display="Product array Puzzle"/>
+    <hyperlink ref="C120" r:id="rId105" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C121" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C122" r:id="rId107" display="Bishu and Soldiers"/>
+    <hyperlink ref="C123" r:id="rId108" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C124" r:id="rId109" display="Kth smallest number again"/>
+    <hyperlink ref="C125" r:id="rId110" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C126" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C127" r:id="rId112" display="Aggressive cows"/>
+    <hyperlink ref="C128" r:id="rId113" display="Book Allocation Problem"/>
+    <hyperlink ref="C129" r:id="rId114" display="EKOSPOJ:"/>
+    <hyperlink ref="C130" r:id="rId115" display="Job Scheduling Algo"/>
+    <hyperlink ref="C131" r:id="rId116" display="Missing Number in AP"/>
+    <hyperlink ref="C132" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C133" r:id="rId118" display="Painters Partition Problem:"/>
+    <hyperlink ref="C134" r:id="rId119" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C135" r:id="rId120" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C136" r:id="rId121" display="Subset Sums"/>
+    <hyperlink ref="C137" r:id="rId122" display="Findthe inversion count"/>
+    <hyperlink ref="C138" r:id="rId123" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C139" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C142" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C143" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C144" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C145" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C146" r:id="rId129" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C147" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C148" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C149" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C150" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C151" r:id="rId134" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C152" r:id="rId135" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C153" r:id="rId136" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C154" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C155" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C156" r:id="rId139" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C157" r:id="rId140" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C158" r:id="rId141" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C159" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C160" r:id="rId143" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C161" r:id="rId144" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C162" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C163" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C164" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C165" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C166" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C169" r:id="rId150" display="Flatten a Linked List"/>
+    <hyperlink ref="C170" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C171" r:id="rId152" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C172" r:id="rId153" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C173" r:id="rId154" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C174" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C175" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C176" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C177" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C180" r:id="rId159" display="level order traversal"/>
+    <hyperlink ref="C181" r:id="rId160" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C182" r:id="rId161" display="Height of a tree"/>
+    <hyperlink ref="C183" r:id="rId162" display="Diameter of a tree"/>
+    <hyperlink ref="C184" r:id="rId163" display="Mirror of a tree"/>
+    <hyperlink ref="C185" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C186" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C187" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C188" r:id="rId167" display="Left View of a tree"/>
+    <hyperlink ref="C189" r:id="rId168" display="Right View of Tree"/>
+    <hyperlink ref="C190" r:id="rId169" display="Top View of a tree"/>
+    <hyperlink ref="C191" r:id="rId170" display="Bottom View of a tree"/>
+    <hyperlink ref="C192" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C193" r:id="rId172" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C194" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C195" r:id="rId174" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C196" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C197" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C198" r:id="rId177" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C199" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C200" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C201" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C202" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C203" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C204" r:id="rId183" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C205" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C206" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C207" r:id="rId186" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C208" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C209" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C210" r:id="rId189" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C211" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C212" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C213" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C214" r:id="rId193" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C217" r:id="rId194" display="Fina a value in a BST"/>
+    <hyperlink ref="C218" r:id="rId195" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C219" r:id="rId196" display="Find min and max value in a BST"/>
+    <hyperlink ref="C220" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C221" r:id="rId198" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C222" r:id="rId199" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C223" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C224" r:id="rId201" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C225" r:id="rId202" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C226" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C227" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C228" r:id="rId205" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C229" r:id="rId206" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C230" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C231" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C232" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C233" r:id="rId210" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C234" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C235" r:id="rId212" display="Check preorder is valid or not"/>
+    <hyperlink ref="C236" r:id="rId213" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C237" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C238" r:id="rId215" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C241" r:id="rId216" display="Activity Selection Problem"/>
+    <hyperlink ref="C242" r:id="rId217" display="Job SequencingProblem"/>
+    <hyperlink ref="C243" r:id="rId218" display="Huffman Coding"/>
+    <hyperlink ref="C244" r:id="rId219" display="Water Connection Problem"/>
+    <hyperlink ref="C245" r:id="rId220" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C246" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C247" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C248" r:id="rId223" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C249" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C250" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C251" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C252" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C253" r:id="rId228" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C254" r:id="rId229" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C255" r:id="rId230" display="Maximum product subset of an array"/>
+    <hyperlink ref="C256" r:id="rId231" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C257" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C258" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C259" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C260" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C261" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C262" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C263" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C264" r:id="rId239" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C265" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C266" r:id="rId241" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C267" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C268" r:id="rId243" display="Picking Up Chicks"/>
+    <hyperlink ref="C269" r:id="rId244" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C270" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C271" r:id="rId246" display="K Centers Problem"/>
+    <hyperlink ref="C272" r:id="rId247" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C273" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C274" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C275" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C278" r:id="rId251" display="Rat in a maze Problem"/>
+    <hyperlink ref="C279" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C280" r:id="rId253" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C281" r:id="rId254" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C282" r:id="rId255" display="Sudoku Solver"/>
+    <hyperlink ref="C283" r:id="rId256" display="m Coloring Problem"/>
+    <hyperlink ref="C284" r:id="rId257" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C285" r:id="rId258" display="Subset Sum Problem"/>
+    <hyperlink ref="C286" r:id="rId259" display="The Knight’s tour problem"/>
+    <hyperlink ref="C287" r:id="rId260" display="Tug of War"/>
+    <hyperlink ref="C288" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C289" r:id="rId262" display="Combinational Sum"/>
+    <hyperlink ref="C290" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C291" r:id="rId264" display="Print all permutations of a string "/>
+    <hyperlink ref="C292" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C293" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C294" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C295" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C296" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C299" r:id="rId270" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C300" r:id="rId271" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C301" r:id="rId272" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C302" r:id="rId273" display="find the middle element of a stack"/>
+    <hyperlink ref="C303" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C304" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C305" r:id="rId276" display="Reverse a String using Stack"/>
+    <hyperlink ref="C306" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C307" r:id="rId278" display="Find the next Greater element"/>
+    <hyperlink ref="C308" r:id="rId279" display="The celebrity Problem"/>
+    <hyperlink ref="C309" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C310" r:id="rId281" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C311" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C312" r:id="rId283" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C313" r:id="rId284" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C314" r:id="rId285" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C315" r:id="rId286" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C316" r:id="rId287" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C317" r:id="rId288" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C318" r:id="rId289" display="Implement Stack using Queue"/>
+    <hyperlink ref="C319" r:id="rId290" display="Implement Stack using Deque"/>
+    <hyperlink ref="C320" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C321" r:id="rId292" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C322" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C323" r:id="rId294" display="Implement a Circular queue"/>
+    <hyperlink ref="C324" r:id="rId295" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C325" r:id="rId296" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C326" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C327" r:id="rId298" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C328" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C329" r:id="rId300" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C330" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C331" r:id="rId302" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C332" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C333" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C334" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C335" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C336" r:id="rId307" display="Next Smaller Element"/>
+    <hyperlink ref="C339" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C340" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C341" r:id="rId310" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C342" r:id="rId311" display="“k” largest element in an array"/>
+    <hyperlink ref="C343" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C344" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C345" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C346" r:id="rId315" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C347" r:id="rId316" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C348" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C349" r:id="rId318" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C350" r:id="rId319" display="Median in a stream of Integers"/>
+    <hyperlink ref="C351" r:id="rId320" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C352" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C353" r:id="rId322" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C354" r:id="rId323" display="Convert min heap to max heap"/>
+    <hyperlink ref="C355" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C356" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C359" r:id="rId326" display="Create a Graph, print it"/>
+    <hyperlink ref="C360" r:id="rId327" display="Implement BFS algorithm "/>
+    <hyperlink ref="C361" r:id="rId328" display="Implement DFS Algo "/>
+    <hyperlink ref="C362" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C363" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C364" r:id="rId331" display="Search in a Maze"/>
+    <hyperlink ref="C365" r:id="rId332" display="Minimum Step by Knight"/>
+    <hyperlink ref="C366" r:id="rId333" display="flood fill algo"/>
+    <hyperlink ref="C367" r:id="rId334" display="Clone a graph"/>
+    <hyperlink ref="C368" r:id="rId335" display="Making wired Connections"/>
+    <hyperlink ref="C369" r:id="rId336" display="word Ladder "/>
+    <hyperlink ref="C370" r:id="rId337" display="Dijkstra algo"/>
+    <hyperlink ref="C371" r:id="rId338" display="Implement Topological Sort "/>
+    <hyperlink ref="C372" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C373" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C374" r:id="rId341" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C375" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C376" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C377" r:id="rId344" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C378" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C379" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C380" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C381" r:id="rId348" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C382" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C383" r:id="rId350" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C384" r:id="rId351" display="Find bridge in a graph"/>
+    <hyperlink ref="C385" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C386" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C387" r:id="rId354" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C388" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C389" r:id="rId356" display="Journey to the Moon"/>
+    <hyperlink ref="C390" r:id="rId357" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C391" r:id="rId358" display="Oliver and the Game"/>
+    <hyperlink ref="C392" r:id="rId359" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C393" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C394" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C395" r:id="rId362" display="M-ColouringProblem"/>
+    <hyperlink ref="C396" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C397" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C398" r:id="rId365" display="Vertex Cover Problem"/>
+    <hyperlink ref="C399" r:id="rId366" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C400" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C401" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C402" r:id="rId369" display="Two Clique Problem"/>
+    <hyperlink ref="C405" r:id="rId370" display="Construct a trie from scratch"/>
+    <hyperlink ref="C406" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C407" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C408" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C409" r:id="rId374" display="Implement a Phone Directory"/>
+    <hyperlink ref="C410" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C413" r:id="rId376" display="Coin ChangeProblem"/>
+    <hyperlink ref="C414" r:id="rId377" display="Knapsack Problem"/>
+    <hyperlink ref="C415" r:id="rId378" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C416" r:id="rId379" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C417" r:id="rId380" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C418" r:id="rId381" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C419" r:id="rId382" display="Edit Distance"/>
+    <hyperlink ref="C420" r:id="rId383" display="Subset Sum Problem"/>
+    <hyperlink ref="C421" r:id="rId384" display="Friends Pairing Problem"/>
+    <hyperlink ref="C422" r:id="rId385" display="Gold Mine Problem"/>
+    <hyperlink ref="C423" r:id="rId386" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C424" r:id="rId387" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C425" r:id="rId388" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C426" r:id="rId389" display="Longest Common Subsequence"/>
+    <hyperlink ref="C427" r:id="rId390" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C428" r:id="rId391" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C429" r:id="rId392" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C430" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C431" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C432" r:id="rId395" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C433" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C434" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C435" r:id="rId398" display="Egg Dropping Problem"/>
+    <hyperlink ref="C436" r:id="rId399" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C437" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C438" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C439" r:id="rId402" display="Min Cost PathProblem"/>
+    <hyperlink ref="C440" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C441" r:id="rId404" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C442" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C443" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C444" r:id="rId407" display="Longest Common Substring"/>
+    <hyperlink ref="C445" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C446" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C447" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C448" r:id="rId411" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C449" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C450" r:id="rId413" display="Word Break Problem"/>
+    <hyperlink ref="C451" r:id="rId414" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C452" r:id="rId415" display="Partition problem"/>
+    <hyperlink ref="C453" r:id="rId416" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C454" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C455" r:id="rId418" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C456" r:id="rId419" display="Longest alternating subsequence"/>
+    <hyperlink ref="C457" r:id="rId420" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C458" r:id="rId421" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C459" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C460" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C461" r:id="rId424" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C462" r:id="rId425" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C463" r:id="rId426" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C464" r:id="rId427" display="Word Wrap Problem"/>
+    <hyperlink ref="C465" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C466" r:id="rId429" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C467" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C468" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C469" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C470" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C471" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C472" r:id="rId435" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C475" r:id="rId436" display="Count set bits in an integer"/>
+    <hyperlink ref="C476" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C477" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C478" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C479" r:id="rId440" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C480" r:id="rId441" display="Find position of the only set bit"/>
+    <hyperlink ref="C481" r:id="rId442" display="Copy set bits in a range"/>
+    <hyperlink ref="C482" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C483" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C484" r:id="rId445" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="474">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t xml:space="preserve">Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC1658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Operations to Reduce X to Zero (PREFIX SUM)</t>
   </si>
   <si>
     <t xml:space="preserve">Matrix</t>
@@ -1638,7 +1644,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1703,11 +1709,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1817,13 +1827,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E485"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2374,42 +2384,40 @@
       </c>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="18"/>
-      <c r="D43" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="43" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="10"/>
-      <c r="C44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>46</v>
-      </c>
+    <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>7</v>
@@ -2417,27 +2425,27 @@
     </row>
     <row r="47" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>7</v>
@@ -2445,27 +2453,27 @@
     </row>
     <row r="49" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>7</v>
@@ -2473,13 +2481,13 @@
     </row>
     <row r="51" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>7</v>
@@ -2487,57 +2495,57 @@
     </row>
     <row r="52" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="B55" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2546,7 +2554,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>59</v>
@@ -2556,38 +2564,38 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="20"/>
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="10"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>7</v>
@@ -2595,41 +2603,41 @@
     </row>
     <row r="61" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="B62" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>51</v>
-      </c>
       <c r="B63" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>7</v>
@@ -2637,125 +2645,125 @@
     </row>
     <row r="64" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>7</v>
@@ -2763,13 +2771,13 @@
     </row>
     <row r="73" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>7</v>
@@ -2777,13 +2785,13 @@
     </row>
     <row r="74" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="C74" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>7</v>
@@ -2791,13 +2799,13 @@
     </row>
     <row r="75" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>7</v>
@@ -2805,13 +2813,13 @@
     </row>
     <row r="76" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>7</v>
@@ -2819,13 +2827,13 @@
     </row>
     <row r="77" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>7</v>
@@ -2833,55 +2841,55 @@
     </row>
     <row r="78" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>7</v>
@@ -2889,13 +2897,13 @@
     </row>
     <row r="82" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>7</v>
@@ -2903,13 +2911,13 @@
     </row>
     <row r="83" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>7</v>
@@ -2917,41 +2925,41 @@
     </row>
     <row r="84" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>7</v>
@@ -2959,13 +2967,13 @@
     </row>
     <row r="87" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>7</v>
@@ -2973,13 +2981,13 @@
     </row>
     <row r="88" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>7</v>
@@ -2987,13 +2995,13 @@
     </row>
     <row r="89" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>7</v>
@@ -3001,13 +3009,13 @@
     </row>
     <row r="90" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>7</v>
@@ -3015,13 +3023,13 @@
     </row>
     <row r="91" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>7</v>
@@ -3029,13 +3037,13 @@
     </row>
     <row r="92" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>7</v>
@@ -3043,13 +3051,13 @@
     </row>
     <row r="93" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>7</v>
@@ -3057,13 +3065,13 @@
     </row>
     <row r="94" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>7</v>
@@ -3071,13 +3079,13 @@
     </row>
     <row r="95" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>7</v>
@@ -3085,13 +3093,13 @@
     </row>
     <row r="96" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>7</v>
@@ -3099,13 +3107,13 @@
     </row>
     <row r="97" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>7</v>
@@ -3113,13 +3121,13 @@
     </row>
     <row r="98" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>7</v>
@@ -3127,13 +3135,13 @@
     </row>
     <row r="99" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>7</v>
@@ -3141,13 +3149,13 @@
     </row>
     <row r="100" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>7</v>
@@ -3155,46 +3163,46 @@
     </row>
     <row r="101" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="10"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="9"/>
-    </row>
-    <row r="104" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="11" t="s">
+      <c r="B102" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D102" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="10"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="9"/>
     </row>
     <row r="105" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>7</v>
@@ -3202,13 +3210,13 @@
     </row>
     <row r="106" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>7</v>
@@ -3216,13 +3224,13 @@
     </row>
     <row r="107" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>7</v>
@@ -3230,13 +3238,13 @@
     </row>
     <row r="108" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>7</v>
@@ -3244,13 +3252,13 @@
     </row>
     <row r="109" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>7</v>
@@ -3258,13 +3266,13 @@
     </row>
     <row r="110" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>7</v>
@@ -3272,13 +3280,13 @@
     </row>
     <row r="111" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>7</v>
@@ -3286,13 +3294,13 @@
     </row>
     <row r="112" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>7</v>
@@ -3300,13 +3308,13 @@
     </row>
     <row r="113" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>7</v>
@@ -3314,13 +3322,13 @@
     </row>
     <row r="114" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>7</v>
@@ -3328,13 +3336,13 @@
     </row>
     <row r="115" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>7</v>
@@ -3342,13 +3350,13 @@
     </row>
     <row r="116" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>7</v>
@@ -3356,13 +3364,13 @@
     </row>
     <row r="117" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>7</v>
@@ -3370,13 +3378,13 @@
     </row>
     <row r="118" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>7</v>
@@ -3384,13 +3392,13 @@
     </row>
     <row r="119" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>7</v>
@@ -3398,13 +3406,13 @@
     </row>
     <row r="120" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="C120" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>7</v>
@@ -3412,13 +3420,13 @@
     </row>
     <row r="121" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>7</v>
@@ -3426,13 +3434,13 @@
     </row>
     <row r="122" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>7</v>
@@ -3440,13 +3448,13 @@
     </row>
     <row r="123" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>7</v>
@@ -3454,13 +3462,13 @@
     </row>
     <row r="124" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>7</v>
@@ -3468,13 +3476,13 @@
     </row>
     <row r="125" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>7</v>
@@ -3482,13 +3490,13 @@
     </row>
     <row r="126" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>7</v>
@@ -3496,13 +3504,13 @@
     </row>
     <row r="127" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>7</v>
@@ -3510,13 +3518,13 @@
     </row>
     <row r="128" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>7</v>
@@ -3524,13 +3532,13 @@
     </row>
     <row r="129" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>7</v>
@@ -3538,13 +3546,13 @@
     </row>
     <row r="130" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>7</v>
@@ -3552,13 +3560,13 @@
     </row>
     <row r="131" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>7</v>
@@ -3566,13 +3574,13 @@
     </row>
     <row r="132" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>7</v>
@@ -3580,13 +3588,13 @@
     </row>
     <row r="133" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>7</v>
@@ -3594,13 +3602,13 @@
     </row>
     <row r="134" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>7</v>
@@ -3608,13 +3616,13 @@
     </row>
     <row r="135" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>7</v>
@@ -3622,13 +3630,13 @@
     </row>
     <row r="136" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>7</v>
@@ -3636,13 +3644,13 @@
     </row>
     <row r="137" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>7</v>
@@ -3650,13 +3658,13 @@
     </row>
     <row r="138" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>7</v>
@@ -3664,73 +3672,73 @@
     </row>
     <row r="139" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="18"/>
-      <c r="D141" s="9"/>
-    </row>
-    <row r="142" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" s="11" t="s">
+      <c r="B140" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D142" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D140" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="19"/>
+      <c r="D142" s="9"/>
     </row>
     <row r="143" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D143" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D144" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>7</v>
@@ -3738,13 +3746,13 @@
     </row>
     <row r="146" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>7</v>
@@ -3752,13 +3760,13 @@
     </row>
     <row r="147" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>7</v>
@@ -3766,13 +3774,13 @@
     </row>
     <row r="148" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>7</v>
@@ -3780,41 +3788,41 @@
     </row>
     <row r="149" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D149" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D149" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D150" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>7</v>
@@ -3822,27 +3830,27 @@
     </row>
     <row r="152" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D152" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D153" s="13" t="s">
         <v>7</v>
@@ -3850,69 +3858,69 @@
     </row>
     <row r="154" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D154" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D154" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D155" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D156" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D157" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D157" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>7</v>
@@ -3920,55 +3928,55 @@
     </row>
     <row r="159" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C159" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D159" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D160" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D160" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D161" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>7</v>
@@ -3976,13 +3984,13 @@
     </row>
     <row r="163" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>7</v>
@@ -3990,13 +3998,13 @@
     </row>
     <row r="164" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>7</v>
@@ -4004,13 +4012,13 @@
     </row>
     <row r="165" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>7</v>
@@ -4018,97 +4026,97 @@
     </row>
     <row r="166" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
-        <v>151</v>
-      </c>
       <c r="B167" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D167" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C167" s="11" t="s">
         <v>168</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <v>153</v>
-      </c>
       <c r="B169" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D169" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D169" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D170" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D171" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>7</v>
@@ -4116,27 +4124,27 @@
     </row>
     <row r="173" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D173" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>7</v>
@@ -4144,13 +4152,13 @@
     </row>
     <row r="175" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D175" s="12" t="s">
         <v>7</v>
@@ -4158,73 +4166,73 @@
     </row>
     <row r="176" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D176" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B177" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="18"/>
-      <c r="D179" s="9"/>
-    </row>
-    <row r="180" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C180" s="11" t="s">
+      <c r="B178" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D180" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="D178" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="19"/>
+      <c r="D180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D181" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>7</v>
@@ -4232,55 +4240,55 @@
     </row>
     <row r="183" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D183" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D184" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D185" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D186" s="13" t="s">
         <v>7</v>
@@ -4288,13 +4296,13 @@
     </row>
     <row r="187" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>7</v>
@@ -4302,27 +4310,27 @@
     </row>
     <row r="188" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D188" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>7</v>
@@ -4330,41 +4338,41 @@
     </row>
     <row r="190" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D190" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D191" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>7</v>
@@ -4372,13 +4380,13 @@
     </row>
     <row r="193" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>7</v>
@@ -4386,27 +4394,27 @@
     </row>
     <row r="194" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D194" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>7</v>
@@ -4414,13 +4422,13 @@
     </row>
     <row r="196" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>7</v>
@@ -4428,13 +4436,13 @@
     </row>
     <row r="197" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>7</v>
@@ -4442,41 +4450,41 @@
     </row>
     <row r="198" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D198" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D198" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B199" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B199" s="10" t="s">
-        <v>179</v>
-      </c>
       <c r="C199" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D199" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D199" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>7</v>
@@ -4484,55 +4492,55 @@
     </row>
     <row r="201" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D201" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D202" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D203" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D203" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>7</v>
@@ -4540,69 +4548,69 @@
     </row>
     <row r="205" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D205" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D206" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D207" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D208" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D208" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>7</v>
@@ -4610,107 +4618,107 @@
     </row>
     <row r="210" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D210" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D211" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D211" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D212" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D213" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B214" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="10"/>
-      <c r="C215" s="18"/>
-      <c r="D215" s="9"/>
+      <c r="B215" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="10"/>
-      <c r="C216" s="18"/>
+      <c r="C216" s="19"/>
       <c r="D216" s="9"/>
     </row>
-    <row r="217" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B217" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="217" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="10"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="9"/>
     </row>
     <row r="218" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>7</v>
@@ -4718,13 +4726,13 @@
     </row>
     <row r="219" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>7</v>
@@ -4732,13 +4740,13 @@
     </row>
     <row r="220" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>7</v>
@@ -4746,55 +4754,55 @@
     </row>
     <row r="221" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D221" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D221" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D222" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D222" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C223" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="D223" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D223" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="C224" s="25" t="s">
+        <v>224</v>
       </c>
       <c r="D224" s="13" t="s">
         <v>7</v>
@@ -4802,27 +4810,27 @@
     </row>
     <row r="225" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D225" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D225" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>7</v>
@@ -4830,13 +4838,13 @@
     </row>
     <row r="227" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>7</v>
@@ -4844,27 +4852,27 @@
     </row>
     <row r="228" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D228" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D228" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D229" s="15" t="s">
         <v>7</v>
@@ -4872,27 +4880,27 @@
     </row>
     <row r="230" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D230" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D230" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>7</v>
@@ -4900,13 +4908,13 @@
     </row>
     <row r="232" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>7</v>
@@ -4914,13 +4922,13 @@
     </row>
     <row r="233" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>7</v>
@@ -4928,13 +4936,13 @@
     </row>
     <row r="234" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>7</v>
@@ -4942,13 +4950,13 @@
     </row>
     <row r="235" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>7</v>
@@ -4956,13 +4964,13 @@
     </row>
     <row r="236" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>7</v>
@@ -4970,13 +4978,13 @@
     </row>
     <row r="237" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B237" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B237" s="10" t="s">
-        <v>215</v>
-      </c>
       <c r="C237" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>7</v>
@@ -4984,49 +4992,49 @@
     </row>
     <row r="238" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B238" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="18"/>
-      <c r="D239" s="9"/>
+      <c r="B239" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="18"/>
+      <c r="C240" s="19"/>
       <c r="D240" s="9"/>
     </row>
-    <row r="241" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="241" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C241" s="19"/>
+      <c r="D241" s="9"/>
     </row>
     <row r="242" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>7</v>
@@ -5034,13 +5042,13 @@
     </row>
     <row r="243" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>7</v>
@@ -5048,13 +5056,13 @@
     </row>
     <row r="244" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>7</v>
@@ -5062,13 +5070,13 @@
     </row>
     <row r="245" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>7</v>
@@ -5076,13 +5084,13 @@
     </row>
     <row r="246" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>7</v>
@@ -5090,13 +5098,13 @@
     </row>
     <row r="247" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>7</v>
@@ -5104,13 +5112,13 @@
     </row>
     <row r="248" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>7</v>
@@ -5118,13 +5126,13 @@
     </row>
     <row r="249" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>7</v>
@@ -5132,13 +5140,13 @@
     </row>
     <row r="250" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>7</v>
@@ -5146,13 +5154,13 @@
     </row>
     <row r="251" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>7</v>
@@ -5160,13 +5168,13 @@
     </row>
     <row r="252" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>7</v>
@@ -5174,13 +5182,13 @@
     </row>
     <row r="253" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>7</v>
@@ -5188,13 +5196,13 @@
     </row>
     <row r="254" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>7</v>
@@ -5202,13 +5210,13 @@
     </row>
     <row r="255" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>7</v>
@@ -5216,13 +5224,13 @@
     </row>
     <row r="256" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>7</v>
@@ -5230,13 +5238,13 @@
     </row>
     <row r="257" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>7</v>
@@ -5244,13 +5252,13 @@
     </row>
     <row r="258" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>7</v>
@@ -5258,13 +5266,13 @@
     </row>
     <row r="259" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>7</v>
@@ -5272,13 +5280,13 @@
     </row>
     <row r="260" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>7</v>
@@ -5286,13 +5294,13 @@
     </row>
     <row r="261" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>7</v>
@@ -5300,13 +5308,13 @@
     </row>
     <row r="262" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B262" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="C262" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>7</v>
@@ -5314,13 +5322,13 @@
     </row>
     <row r="263" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>7</v>
@@ -5328,13 +5336,13 @@
     </row>
     <row r="264" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>7</v>
@@ -5342,13 +5350,13 @@
     </row>
     <row r="265" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>7</v>
@@ -5356,13 +5364,13 @@
     </row>
     <row r="266" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>7</v>
@@ -5370,13 +5378,13 @@
     </row>
     <row r="267" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>7</v>
@@ -5384,13 +5392,13 @@
     </row>
     <row r="268" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>7</v>
@@ -5398,13 +5406,13 @@
     </row>
     <row r="269" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>7</v>
@@ -5412,13 +5420,13 @@
     </row>
     <row r="270" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>7</v>
@@ -5426,13 +5434,13 @@
     </row>
     <row r="271" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>7</v>
@@ -5440,13 +5448,13 @@
     </row>
     <row r="272" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>7</v>
@@ -5454,13 +5462,13 @@
     </row>
     <row r="273" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>7</v>
@@ -5468,13 +5476,13 @@
     </row>
     <row r="274" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>7</v>
@@ -5482,49 +5490,49 @@
     </row>
     <row r="275" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B275" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D275" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="18"/>
-      <c r="D276" s="9"/>
+      <c r="B276" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="18"/>
+      <c r="C277" s="19"/>
       <c r="D277" s="9"/>
     </row>
-    <row r="278" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B278" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="278" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="19"/>
+      <c r="D278" s="9"/>
     </row>
     <row r="279" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>7</v>
@@ -5532,13 +5540,13 @@
     </row>
     <row r="280" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>7</v>
@@ -5546,13 +5554,13 @@
     </row>
     <row r="281" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>7</v>
@@ -5560,13 +5568,13 @@
     </row>
     <row r="282" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>7</v>
@@ -5574,13 +5582,13 @@
     </row>
     <row r="283" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>7</v>
@@ -5588,13 +5596,13 @@
     </row>
     <row r="284" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>7</v>
@@ -5602,13 +5610,13 @@
     </row>
     <row r="285" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>7</v>
@@ -5616,13 +5624,13 @@
     </row>
     <row r="286" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>7</v>
@@ -5630,13 +5638,13 @@
     </row>
     <row r="287" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>7</v>
@@ -5644,13 +5652,13 @@
     </row>
     <row r="288" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>7</v>
@@ -5658,13 +5666,13 @@
     </row>
     <row r="289" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>7</v>
@@ -5672,13 +5680,13 @@
     </row>
     <row r="290" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
@@ -5686,13 +5694,13 @@
     </row>
     <row r="291" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
@@ -5700,13 +5708,13 @@
     </row>
     <row r="292" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
@@ -5714,13 +5722,13 @@
     </row>
     <row r="293" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
@@ -5728,13 +5736,13 @@
     </row>
     <row r="294" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
@@ -5742,13 +5750,13 @@
     </row>
     <row r="295" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
@@ -5756,49 +5764,49 @@
     </row>
     <row r="296" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B296" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C296" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D296" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="18"/>
-      <c r="D297" s="9"/>
+      <c r="B297" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="18"/>
+      <c r="C298" s="19"/>
       <c r="D298" s="9"/>
     </row>
-    <row r="299" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B299" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D299" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="299" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="19"/>
+      <c r="D299" s="9"/>
     </row>
     <row r="300" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>7</v>
@@ -5806,13 +5814,13 @@
     </row>
     <row r="301" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>7</v>
@@ -5820,13 +5828,13 @@
     </row>
     <row r="302" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>7</v>
@@ -5834,13 +5842,13 @@
     </row>
     <row r="303" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>7</v>
@@ -5848,13 +5856,13 @@
     </row>
     <row r="304" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>7</v>
@@ -5862,13 +5870,13 @@
     </row>
     <row r="305" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>7</v>
@@ -5876,13 +5884,13 @@
     </row>
     <row r="306" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>7</v>
@@ -5890,13 +5898,13 @@
     </row>
     <row r="307" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>7</v>
@@ -5904,13 +5912,13 @@
     </row>
     <row r="308" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>7</v>
@@ -5918,13 +5926,13 @@
     </row>
     <row r="309" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>7</v>
@@ -5932,13 +5940,13 @@
     </row>
     <row r="310" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>7</v>
@@ -5946,13 +5954,13 @@
     </row>
     <row r="311" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>7</v>
@@ -5960,13 +5968,13 @@
     </row>
     <row r="312" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C312" s="24" t="s">
-        <v>307</v>
+        <v>295</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>7</v>
@@ -5974,13 +5982,13 @@
     </row>
     <row r="313" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>308</v>
+        <v>295</v>
+      </c>
+      <c r="C313" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>7</v>
@@ -5988,13 +5996,13 @@
     </row>
     <row r="314" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>7</v>
@@ -6002,13 +6010,13 @@
     </row>
     <row r="315" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>7</v>
@@ -6016,13 +6024,13 @@
     </row>
     <row r="316" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>7</v>
@@ -6030,13 +6038,13 @@
     </row>
     <row r="317" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>7</v>
@@ -6044,13 +6052,13 @@
     </row>
     <row r="318" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>7</v>
@@ -6058,13 +6066,13 @@
     </row>
     <row r="319" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>7</v>
@@ -6072,13 +6080,13 @@
     </row>
     <row r="320" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>7</v>
@@ -6086,13 +6094,13 @@
     </row>
     <row r="321" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B321" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B321" s="10" t="s">
-        <v>293</v>
-      </c>
       <c r="C321" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>7</v>
@@ -6100,13 +6108,13 @@
     </row>
     <row r="322" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>7</v>
@@ -6114,13 +6122,13 @@
     </row>
     <row r="323" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>7</v>
@@ -6128,13 +6136,13 @@
     </row>
     <row r="324" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>7</v>
@@ -6142,13 +6150,13 @@
     </row>
     <row r="325" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>7</v>
@@ -6156,13 +6164,13 @@
     </row>
     <row r="326" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>7</v>
@@ -6170,13 +6178,13 @@
     </row>
     <row r="327" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>7</v>
@@ -6184,13 +6192,13 @@
     </row>
     <row r="328" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>7</v>
@@ -6198,13 +6206,13 @@
     </row>
     <row r="329" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>7</v>
@@ -6212,13 +6220,13 @@
     </row>
     <row r="330" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>7</v>
@@ -6226,13 +6234,13 @@
     </row>
     <row r="331" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>7</v>
@@ -6240,13 +6248,13 @@
     </row>
     <row r="332" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>7</v>
@@ -6254,13 +6262,13 @@
     </row>
     <row r="333" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>7</v>
@@ -6268,13 +6276,13 @@
     </row>
     <row r="334" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>7</v>
@@ -6282,13 +6290,13 @@
     </row>
     <row r="335" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>7</v>
@@ -6296,49 +6304,49 @@
     </row>
     <row r="336" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B336" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C336" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D336" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="18"/>
-      <c r="D337" s="9"/>
+      <c r="B337" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="18"/>
+      <c r="C338" s="19"/>
       <c r="D338" s="9"/>
     </row>
-    <row r="339" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B339" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C339" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D339" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="339" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C339" s="19"/>
+      <c r="D339" s="9"/>
     </row>
     <row r="340" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>7</v>
@@ -6346,13 +6354,13 @@
     </row>
     <row r="341" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>7</v>
@@ -6360,13 +6368,13 @@
     </row>
     <row r="342" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>7</v>
@@ -6374,13 +6382,13 @@
     </row>
     <row r="343" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>7</v>
@@ -6388,13 +6396,13 @@
     </row>
     <row r="344" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>7</v>
@@ -6402,13 +6410,13 @@
     </row>
     <row r="345" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>7</v>
@@ -6416,13 +6424,13 @@
     </row>
     <row r="346" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>7</v>
@@ -6430,13 +6438,13 @@
     </row>
     <row r="347" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C347" s="24" t="s">
-        <v>341</v>
+        <v>334</v>
+      </c>
+      <c r="C347" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>7</v>
@@ -6444,13 +6452,13 @@
     </row>
     <row r="348" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C348" s="11" t="s">
-        <v>342</v>
+        <v>334</v>
+      </c>
+      <c r="C348" s="25" t="s">
+        <v>343</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>7</v>
@@ -6458,13 +6466,13 @@
     </row>
     <row r="349" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>7</v>
@@ -6472,13 +6480,13 @@
     </row>
     <row r="350" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>7</v>
@@ -6486,13 +6494,13 @@
     </row>
     <row r="351" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>7</v>
@@ -6500,13 +6508,13 @@
     </row>
     <row r="352" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>7</v>
@@ -6514,13 +6522,13 @@
     </row>
     <row r="353" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>7</v>
@@ -6528,13 +6536,13 @@
     </row>
     <row r="354" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>7</v>
@@ -6542,13 +6550,13 @@
     </row>
     <row r="355" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>7</v>
@@ -6556,49 +6564,49 @@
     </row>
     <row r="356" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B356" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C356" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D356" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="18"/>
-      <c r="D357" s="9"/>
+      <c r="B357" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C357" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="18"/>
+      <c r="C358" s="19"/>
       <c r="D358" s="9"/>
     </row>
-    <row r="359" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B359" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C359" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D359" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="359" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="19"/>
+      <c r="D359" s="9"/>
     </row>
     <row r="360" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -6606,13 +6614,13 @@
     </row>
     <row r="361" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>7</v>
@@ -6620,13 +6628,13 @@
     </row>
     <row r="362" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D362" s="9" t="s">
         <v>7</v>
@@ -6634,13 +6642,13 @@
     </row>
     <row r="363" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>7</v>
@@ -6648,13 +6656,13 @@
     </row>
     <row r="364" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>7</v>
@@ -6662,13 +6670,13 @@
     </row>
     <row r="365" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>7</v>
@@ -6676,13 +6684,13 @@
     </row>
     <row r="366" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>7</v>
@@ -6690,13 +6698,13 @@
     </row>
     <row r="367" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>7</v>
@@ -6704,13 +6712,13 @@
     </row>
     <row r="368" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>7</v>
@@ -6718,13 +6726,13 @@
     </row>
     <row r="369" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>7</v>
@@ -6732,13 +6740,13 @@
     </row>
     <row r="370" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>7</v>
@@ -6746,13 +6754,13 @@
     </row>
     <row r="371" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>7</v>
@@ -6760,13 +6768,13 @@
     </row>
     <row r="372" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>7</v>
@@ -6774,13 +6782,13 @@
     </row>
     <row r="373" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>7</v>
@@ -6788,13 +6796,13 @@
     </row>
     <row r="374" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>7</v>
@@ -6802,13 +6810,13 @@
     </row>
     <row r="375" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>7</v>
@@ -6816,13 +6824,13 @@
     </row>
     <row r="376" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>7</v>
@@ -6830,13 +6838,13 @@
     </row>
     <row r="377" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>7</v>
@@ -6844,13 +6852,13 @@
     </row>
     <row r="378" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>7</v>
@@ -6858,13 +6866,13 @@
     </row>
     <row r="379" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>7</v>
@@ -6872,13 +6880,13 @@
     </row>
     <row r="380" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>7</v>
@@ -6886,13 +6894,13 @@
     </row>
     <row r="381" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>7</v>
@@ -6900,13 +6908,13 @@
     </row>
     <row r="382" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>7</v>
@@ -6914,13 +6922,13 @@
     </row>
     <row r="383" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B383" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B383" s="10" t="s">
-        <v>351</v>
-      </c>
       <c r="C383" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>7</v>
@@ -6928,13 +6936,13 @@
     </row>
     <row r="384" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>7</v>
@@ -6942,13 +6950,13 @@
     </row>
     <row r="385" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>7</v>
@@ -6956,13 +6964,13 @@
     </row>
     <row r="386" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>7</v>
@@ -6970,13 +6978,13 @@
     </row>
     <row r="387" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>7</v>
@@ -6984,13 +6992,13 @@
     </row>
     <row r="388" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>7</v>
@@ -6998,13 +7006,13 @@
     </row>
     <row r="389" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>7</v>
@@ -7012,13 +7020,13 @@
     </row>
     <row r="390" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>7</v>
@@ -7026,13 +7034,13 @@
     </row>
     <row r="391" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>7</v>
@@ -7040,13 +7048,13 @@
     </row>
     <row r="392" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>7</v>
@@ -7054,13 +7062,13 @@
     </row>
     <row r="393" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>7</v>
@@ -7068,13 +7076,13 @@
     </row>
     <row r="394" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>7</v>
@@ -7082,13 +7090,13 @@
     </row>
     <row r="395" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>7</v>
@@ -7096,13 +7104,13 @@
     </row>
     <row r="396" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>7</v>
@@ -7110,13 +7118,13 @@
     </row>
     <row r="397" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>7</v>
@@ -7124,13 +7132,13 @@
     </row>
     <row r="398" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>7</v>
@@ -7138,13 +7146,13 @@
     </row>
     <row r="399" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>7</v>
@@ -7152,13 +7160,13 @@
     </row>
     <row r="400" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>7</v>
@@ -7166,13 +7174,13 @@
     </row>
     <row r="401" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>7</v>
@@ -7180,49 +7188,49 @@
     </row>
     <row r="402" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D402" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B402" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C402" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D402" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="18"/>
-      <c r="D403" s="9"/>
+      <c r="B403" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="18"/>
+      <c r="C404" s="19"/>
       <c r="D404" s="9"/>
     </row>
-    <row r="405" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B405" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C405" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D405" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="405" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C405" s="19"/>
+      <c r="D405" s="9"/>
     </row>
     <row r="406" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>7</v>
@@ -7230,13 +7238,13 @@
     </row>
     <row r="407" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>7</v>
@@ -7244,13 +7252,13 @@
     </row>
     <row r="408" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>7</v>
@@ -7258,13 +7266,13 @@
     </row>
     <row r="409" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>399</v>
+        <v>98</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>7</v>
@@ -7272,49 +7280,49 @@
     </row>
     <row r="410" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B410" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C410" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D410" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="18"/>
-      <c r="D411" s="9"/>
+      <c r="B411" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C411" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="18"/>
+      <c r="C412" s="19"/>
       <c r="D412" s="9"/>
     </row>
-    <row r="413" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C413" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D413" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="413" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C413" s="19"/>
+      <c r="D413" s="9"/>
     </row>
     <row r="414" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>7</v>
@@ -7322,13 +7330,13 @@
     </row>
     <row r="415" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>7</v>
@@ -7336,13 +7344,13 @@
     </row>
     <row r="416" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D416" s="9" t="s">
         <v>7</v>
@@ -7350,13 +7358,13 @@
     </row>
     <row r="417" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>7</v>
@@ -7364,13 +7372,13 @@
     </row>
     <row r="418" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>7</v>
@@ -7378,13 +7386,13 @@
     </row>
     <row r="419" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>7</v>
@@ -7392,13 +7400,13 @@
     </row>
     <row r="420" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>281</v>
+        <v>410</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>7</v>
@@ -7406,13 +7414,13 @@
     </row>
     <row r="421" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>7</v>
@@ -7420,13 +7428,13 @@
     </row>
     <row r="422" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>7</v>
@@ -7434,13 +7442,13 @@
     </row>
     <row r="423" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>7</v>
@@ -7448,13 +7456,13 @@
     </row>
     <row r="424" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>7</v>
@@ -7462,13 +7470,13 @@
     </row>
     <row r="425" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>7</v>
@@ -7476,13 +7484,13 @@
     </row>
     <row r="426" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>7</v>
@@ -7490,13 +7498,13 @@
     </row>
     <row r="427" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>7</v>
@@ -7504,13 +7512,13 @@
     </row>
     <row r="428" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>7</v>
@@ -7518,13 +7526,13 @@
     </row>
     <row r="429" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>7</v>
@@ -7532,13 +7540,13 @@
     </row>
     <row r="430" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>7</v>
@@ -7546,13 +7554,13 @@
     </row>
     <row r="431" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>7</v>
@@ -7560,13 +7568,13 @@
     </row>
     <row r="432" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>7</v>
@@ -7574,13 +7582,13 @@
     </row>
     <row r="433" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>7</v>
@@ -7588,13 +7596,13 @@
     </row>
     <row r="434" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>7</v>
@@ -7602,13 +7610,13 @@
     </row>
     <row r="435" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>7</v>
@@ -7616,13 +7624,13 @@
     </row>
     <row r="436" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>7</v>
@@ -7630,13 +7638,13 @@
     </row>
     <row r="437" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B437" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B437" s="10" t="s">
-        <v>401</v>
-      </c>
       <c r="C437" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>7</v>
@@ -7644,13 +7652,13 @@
     </row>
     <row r="438" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>7</v>
@@ -7658,13 +7666,13 @@
     </row>
     <row r="439" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>7</v>
@@ -7672,13 +7680,13 @@
     </row>
     <row r="440" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>7</v>
@@ -7686,13 +7694,13 @@
     </row>
     <row r="441" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>7</v>
@@ -7700,13 +7708,13 @@
     </row>
     <row r="442" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>7</v>
@@ -7714,13 +7722,13 @@
     </row>
     <row r="443" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>7</v>
@@ -7728,13 +7736,13 @@
     </row>
     <row r="444" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>7</v>
@@ -7742,13 +7750,13 @@
     </row>
     <row r="445" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>7</v>
@@ -7756,13 +7764,13 @@
     </row>
     <row r="446" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>7</v>
@@ -7770,41 +7778,41 @@
     </row>
     <row r="447" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="D447" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D447" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D448" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D448" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>7</v>
@@ -7812,13 +7820,13 @@
     </row>
     <row r="450" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>7</v>
@@ -7826,13 +7834,13 @@
     </row>
     <row r="451" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D451" s="9" t="s">
         <v>7</v>
@@ -7840,13 +7848,13 @@
     </row>
     <row r="452" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>7</v>
@@ -7854,13 +7862,13 @@
     </row>
     <row r="453" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>7</v>
@@ -7868,13 +7876,13 @@
     </row>
     <row r="454" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>7</v>
@@ -7882,13 +7890,13 @@
     </row>
     <row r="455" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>7</v>
@@ -7896,13 +7904,13 @@
     </row>
     <row r="456" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>7</v>
@@ -7910,13 +7918,13 @@
     </row>
     <row r="457" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>7</v>
@@ -7924,13 +7932,13 @@
     </row>
     <row r="458" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>7</v>
@@ -7938,13 +7946,13 @@
     </row>
     <row r="459" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>7</v>
@@ -7952,13 +7960,13 @@
     </row>
     <row r="460" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>7</v>
@@ -7966,13 +7974,13 @@
     </row>
     <row r="461" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>7</v>
@@ -7980,13 +7988,13 @@
     </row>
     <row r="462" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>7</v>
@@ -7994,13 +8002,13 @@
     </row>
     <row r="463" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>7</v>
@@ -8008,13 +8016,13 @@
     </row>
     <row r="464" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>7</v>
@@ -8022,13 +8030,13 @@
     </row>
     <row r="465" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>7</v>
@@ -8036,13 +8044,13 @@
     </row>
     <row r="466" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>7</v>
@@ -8050,13 +8058,13 @@
     </row>
     <row r="467" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>7</v>
@@ -8064,13 +8072,13 @@
     </row>
     <row r="468" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>7</v>
@@ -8078,13 +8086,13 @@
     </row>
     <row r="469" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>7</v>
@@ -8092,13 +8100,13 @@
     </row>
     <row r="470" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C470" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>7</v>
@@ -8106,13 +8114,13 @@
     </row>
     <row r="471" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>7</v>
@@ -8120,50 +8128,50 @@
     </row>
     <row r="472" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B472" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D472" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="n">
         <v>438</v>
       </c>
-      <c r="B472" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C472" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="D472" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="18"/>
-      <c r="D473" s="9"/>
+      <c r="B473" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C473" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D473" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="474" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B474" s="10"/>
-      <c r="C474" s="18"/>
+      <c r="C474" s="19"/>
       <c r="D474" s="9"/>
     </row>
-    <row r="475" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B475" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C475" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D475" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="475" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="10"/>
+      <c r="C475" s="19"/>
+      <c r="D475" s="9"/>
     </row>
     <row r="476" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C476" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>7</v>
@@ -8171,13 +8179,13 @@
     </row>
     <row r="477" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C477" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D477" s="9" t="s">
         <v>7</v>
@@ -8185,13 +8193,13 @@
     </row>
     <row r="478" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C478" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D478" s="9" t="s">
         <v>7</v>
@@ -8199,13 +8207,13 @@
     </row>
     <row r="479" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D479" s="9" t="s">
         <v>7</v>
@@ -8213,13 +8221,13 @@
     </row>
     <row r="480" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>7</v>
@@ -8227,13 +8235,13 @@
     </row>
     <row r="481" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>7</v>
@@ -8241,13 +8249,13 @@
     </row>
     <row r="482" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>7</v>
@@ -8255,13 +8263,13 @@
     </row>
     <row r="483" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>7</v>
@@ -8269,15 +8277,29 @@
     </row>
     <row r="484" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C484" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D484" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="B484" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C484" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="D484" s="9" t="s">
+      <c r="B485" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C485" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D485" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8319,415 +8341,415 @@
     <hyperlink ref="C39" r:id="rId34" display="Minimum no. of operations required to make an array palindrome"/>
     <hyperlink ref="C40" r:id="rId35" display="Median of 2 sorted arrays of equal size"/>
     <hyperlink ref="C41" r:id="rId36" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="C45" r:id="rId37" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="C46" r:id="rId38" display="Search an element in a matriix"/>
-    <hyperlink ref="C47" r:id="rId39" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="C48" r:id="rId40" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C49" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="C50" r:id="rId42" display="Maximum size rectangle"/>
-    <hyperlink ref="C51" r:id="rId43" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C52" r:id="rId44" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="C53" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C54" r:id="rId46" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C59" r:id="rId47" display="Reverse a String"/>
-    <hyperlink ref="C60" r:id="rId48" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C61" r:id="rId49" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C63" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C64" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C65" r:id="rId52" display="Count and Say problem"/>
-    <hyperlink ref="C66" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
-    <hyperlink ref="C67" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
-    <hyperlink ref="C68" r:id="rId55" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C69" r:id="rId56" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C70" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C71" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C72" r:id="rId59" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C73" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C74" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C75" r:id="rId62" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C76" r:id="rId63" display="Rabin Karp Algo"/>
-    <hyperlink ref="C77" r:id="rId64" display="KMP Algo"/>
-    <hyperlink ref="C78" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C79" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C80" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C81" r:id="rId68" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C82" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C83" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C84" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C85" r:id="rId72" display="Longest Common Prefix"/>
-    <hyperlink ref="C86" r:id="rId73" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C87" r:id="rId74" display="Find the first repeated word in string."/>
-    <hyperlink ref="C88" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C89" r:id="rId76" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C90" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C91" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C92" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C93" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C94" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C95" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C96" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C97" r:id="rId84" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C98" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C99" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C100" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C101" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C104" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C105" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C106" r:id="rId91" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C107" r:id="rId92" display="square root of an integer"/>
-    <hyperlink ref="C108" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C109" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C110" r:id="rId95" display="Find the repeating and the missing"/>
-    <hyperlink ref="C111" r:id="rId96" display="find majority element"/>
-    <hyperlink ref="C112" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C113" r:id="rId98" display="find a pair with a given difference"/>
-    <hyperlink ref="C114" r:id="rId99" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C115" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C116" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C117" r:id="rId102" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C118" r:id="rId103" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C119" r:id="rId104" display="Product array Puzzle"/>
-    <hyperlink ref="C120" r:id="rId105" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C121" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C122" r:id="rId107" display="Bishu and Soldiers"/>
-    <hyperlink ref="C123" r:id="rId108" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C124" r:id="rId109" display="Kth smallest number again"/>
-    <hyperlink ref="C125" r:id="rId110" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C126" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C127" r:id="rId112" display="Aggressive cows"/>
-    <hyperlink ref="C128" r:id="rId113" display="Book Allocation Problem"/>
-    <hyperlink ref="C129" r:id="rId114" display="EKOSPOJ:"/>
-    <hyperlink ref="C130" r:id="rId115" display="Job Scheduling Algo"/>
-    <hyperlink ref="C131" r:id="rId116" display="Missing Number in AP"/>
-    <hyperlink ref="C132" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C133" r:id="rId118" display="Painters Partition Problem:"/>
-    <hyperlink ref="C134" r:id="rId119" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C135" r:id="rId120" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C136" r:id="rId121" display="Subset Sums"/>
-    <hyperlink ref="C137" r:id="rId122" display="Findthe inversion count"/>
-    <hyperlink ref="C138" r:id="rId123" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C139" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C142" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C143" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C144" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C145" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C146" r:id="rId129" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C147" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C148" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C149" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C150" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C151" r:id="rId134" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C152" r:id="rId135" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C153" r:id="rId136" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C154" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C155" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C156" r:id="rId139" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C157" r:id="rId140" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C158" r:id="rId141" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C159" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C160" r:id="rId143" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C161" r:id="rId144" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C162" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C163" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C164" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C165" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C166" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C169" r:id="rId150" display="Flatten a Linked List"/>
-    <hyperlink ref="C170" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C171" r:id="rId152" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C172" r:id="rId153" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C173" r:id="rId154" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C174" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C175" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C176" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C177" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C180" r:id="rId159" display="level order traversal"/>
-    <hyperlink ref="C181" r:id="rId160" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C182" r:id="rId161" display="Height of a tree"/>
-    <hyperlink ref="C183" r:id="rId162" display="Diameter of a tree"/>
-    <hyperlink ref="C184" r:id="rId163" display="Mirror of a tree"/>
-    <hyperlink ref="C185" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C186" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C187" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C188" r:id="rId167" display="Left View of a tree"/>
-    <hyperlink ref="C189" r:id="rId168" display="Right View of Tree"/>
-    <hyperlink ref="C190" r:id="rId169" display="Top View of a tree"/>
-    <hyperlink ref="C191" r:id="rId170" display="Bottom View of a tree"/>
-    <hyperlink ref="C192" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C193" r:id="rId172" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C194" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C195" r:id="rId174" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C196" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C197" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C198" r:id="rId177" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C199" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C200" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C201" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C202" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C203" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C204" r:id="rId183" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C205" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C206" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C207" r:id="rId186" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C208" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C209" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C210" r:id="rId189" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C211" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C212" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C213" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C214" r:id="rId193" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C217" r:id="rId194" display="Fina a value in a BST"/>
-    <hyperlink ref="C218" r:id="rId195" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C219" r:id="rId196" display="Find min and max value in a BST"/>
-    <hyperlink ref="C220" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C221" r:id="rId198" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C222" r:id="rId199" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C223" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C224" r:id="rId201" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C225" r:id="rId202" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C226" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C227" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C228" r:id="rId205" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C229" r:id="rId206" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C230" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C231" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C232" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C233" r:id="rId210" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C234" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C235" r:id="rId212" display="Check preorder is valid or not"/>
-    <hyperlink ref="C236" r:id="rId213" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C237" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C238" r:id="rId215" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C241" r:id="rId216" display="Activity Selection Problem"/>
-    <hyperlink ref="C242" r:id="rId217" display="Job SequencingProblem"/>
-    <hyperlink ref="C243" r:id="rId218" display="Huffman Coding"/>
-    <hyperlink ref="C244" r:id="rId219" display="Water Connection Problem"/>
-    <hyperlink ref="C245" r:id="rId220" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C246" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C247" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C248" r:id="rId223" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C249" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C250" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C251" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C252" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C253" r:id="rId228" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C254" r:id="rId229" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C255" r:id="rId230" display="Maximum product subset of an array"/>
-    <hyperlink ref="C256" r:id="rId231" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C257" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C258" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C259" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C260" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C261" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C262" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C263" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C264" r:id="rId239" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C265" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C266" r:id="rId241" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C267" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C268" r:id="rId243" display="Picking Up Chicks"/>
-    <hyperlink ref="C269" r:id="rId244" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C270" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C271" r:id="rId246" display="K Centers Problem"/>
-    <hyperlink ref="C272" r:id="rId247" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C273" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C274" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C275" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C278" r:id="rId251" display="Rat in a maze Problem"/>
-    <hyperlink ref="C279" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C280" r:id="rId253" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C281" r:id="rId254" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C282" r:id="rId255" display="Sudoku Solver"/>
-    <hyperlink ref="C283" r:id="rId256" display="m Coloring Problem"/>
-    <hyperlink ref="C284" r:id="rId257" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C285" r:id="rId258" display="Subset Sum Problem"/>
-    <hyperlink ref="C286" r:id="rId259" display="The Knight’s tour problem"/>
-    <hyperlink ref="C287" r:id="rId260" display="Tug of War"/>
-    <hyperlink ref="C288" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C289" r:id="rId262" display="Combinational Sum"/>
-    <hyperlink ref="C290" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C291" r:id="rId264" display="Print all permutations of a string "/>
-    <hyperlink ref="C292" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C293" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C294" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C295" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C296" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C299" r:id="rId270" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C300" r:id="rId271" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C301" r:id="rId272" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C302" r:id="rId273" display="find the middle element of a stack"/>
-    <hyperlink ref="C303" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C304" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C305" r:id="rId276" display="Reverse a String using Stack"/>
-    <hyperlink ref="C306" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C307" r:id="rId278" display="Find the next Greater element"/>
-    <hyperlink ref="C308" r:id="rId279" display="The celebrity Problem"/>
-    <hyperlink ref="C309" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C310" r:id="rId281" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C311" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C312" r:id="rId283" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C313" r:id="rId284" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C314" r:id="rId285" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C315" r:id="rId286" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C316" r:id="rId287" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C317" r:id="rId288" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C318" r:id="rId289" display="Implement Stack using Queue"/>
-    <hyperlink ref="C319" r:id="rId290" display="Implement Stack using Deque"/>
-    <hyperlink ref="C320" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C321" r:id="rId292" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C322" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C323" r:id="rId294" display="Implement a Circular queue"/>
-    <hyperlink ref="C324" r:id="rId295" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C325" r:id="rId296" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C326" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C327" r:id="rId298" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C328" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C329" r:id="rId300" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C330" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C331" r:id="rId302" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C332" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C333" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C334" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C335" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C336" r:id="rId307" display="Next Smaller Element"/>
-    <hyperlink ref="C339" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C340" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C341" r:id="rId310" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C342" r:id="rId311" display="“k” largest element in an array"/>
-    <hyperlink ref="C343" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C344" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C345" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C346" r:id="rId315" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C347" r:id="rId316" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C348" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C349" r:id="rId318" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C350" r:id="rId319" display="Median in a stream of Integers"/>
-    <hyperlink ref="C351" r:id="rId320" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C352" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C353" r:id="rId322" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C354" r:id="rId323" display="Convert min heap to max heap"/>
-    <hyperlink ref="C355" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C356" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C359" r:id="rId326" display="Create a Graph, print it"/>
-    <hyperlink ref="C360" r:id="rId327" display="Implement BFS algorithm "/>
-    <hyperlink ref="C361" r:id="rId328" display="Implement DFS Algo "/>
-    <hyperlink ref="C362" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C363" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C364" r:id="rId331" display="Search in a Maze"/>
-    <hyperlink ref="C365" r:id="rId332" display="Minimum Step by Knight"/>
-    <hyperlink ref="C366" r:id="rId333" display="flood fill algo"/>
-    <hyperlink ref="C367" r:id="rId334" display="Clone a graph"/>
-    <hyperlink ref="C368" r:id="rId335" display="Making wired Connections"/>
-    <hyperlink ref="C369" r:id="rId336" display="word Ladder "/>
-    <hyperlink ref="C370" r:id="rId337" display="Dijkstra algo"/>
-    <hyperlink ref="C371" r:id="rId338" display="Implement Topological Sort "/>
-    <hyperlink ref="C372" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C373" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C374" r:id="rId341" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C375" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C376" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C377" r:id="rId344" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C378" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C379" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C380" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C381" r:id="rId348" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C382" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C383" r:id="rId350" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C384" r:id="rId351" display="Find bridge in a graph"/>
-    <hyperlink ref="C385" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C386" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C387" r:id="rId354" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C388" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C389" r:id="rId356" display="Journey to the Moon"/>
-    <hyperlink ref="C390" r:id="rId357" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C391" r:id="rId358" display="Oliver and the Game"/>
-    <hyperlink ref="C392" r:id="rId359" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C393" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C394" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C395" r:id="rId362" display="M-ColouringProblem"/>
-    <hyperlink ref="C396" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C397" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C398" r:id="rId365" display="Vertex Cover Problem"/>
-    <hyperlink ref="C399" r:id="rId366" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C400" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C401" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C402" r:id="rId369" display="Two Clique Problem"/>
-    <hyperlink ref="C405" r:id="rId370" display="Construct a trie from scratch"/>
-    <hyperlink ref="C406" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C407" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C408" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C409" r:id="rId374" display="Implement a Phone Directory"/>
-    <hyperlink ref="C410" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C413" r:id="rId376" display="Coin ChangeProblem"/>
-    <hyperlink ref="C414" r:id="rId377" display="Knapsack Problem"/>
-    <hyperlink ref="C415" r:id="rId378" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C416" r:id="rId379" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C417" r:id="rId380" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C418" r:id="rId381" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C419" r:id="rId382" display="Edit Distance"/>
-    <hyperlink ref="C420" r:id="rId383" display="Subset Sum Problem"/>
-    <hyperlink ref="C421" r:id="rId384" display="Friends Pairing Problem"/>
-    <hyperlink ref="C422" r:id="rId385" display="Gold Mine Problem"/>
-    <hyperlink ref="C423" r:id="rId386" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C424" r:id="rId387" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C425" r:id="rId388" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C426" r:id="rId389" display="Longest Common Subsequence"/>
-    <hyperlink ref="C427" r:id="rId390" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C428" r:id="rId391" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C429" r:id="rId392" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C430" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C431" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C432" r:id="rId395" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C433" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C434" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C435" r:id="rId398" display="Egg Dropping Problem"/>
-    <hyperlink ref="C436" r:id="rId399" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C437" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C438" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C439" r:id="rId402" display="Min Cost PathProblem"/>
-    <hyperlink ref="C440" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C441" r:id="rId404" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C442" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C443" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C444" r:id="rId407" display="Longest Common Substring"/>
-    <hyperlink ref="C445" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C446" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C447" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C448" r:id="rId411" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C449" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C450" r:id="rId413" display="Word Break Problem"/>
-    <hyperlink ref="C451" r:id="rId414" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C452" r:id="rId415" display="Partition problem"/>
-    <hyperlink ref="C453" r:id="rId416" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C454" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C455" r:id="rId418" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C456" r:id="rId419" display="Longest alternating subsequence"/>
-    <hyperlink ref="C457" r:id="rId420" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C458" r:id="rId421" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C459" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C460" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C461" r:id="rId424" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C462" r:id="rId425" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C463" r:id="rId426" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C464" r:id="rId427" display="Word Wrap Problem"/>
-    <hyperlink ref="C465" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C466" r:id="rId429" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C467" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C468" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C469" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C470" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C471" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C472" r:id="rId435" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C475" r:id="rId436" display="Count set bits in an integer"/>
-    <hyperlink ref="C476" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C477" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C478" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C479" r:id="rId440" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C480" r:id="rId441" display="Find position of the only set bit"/>
-    <hyperlink ref="C481" r:id="rId442" display="Copy set bits in a range"/>
-    <hyperlink ref="C482" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C483" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C484" r:id="rId445" display="Power Set"/>
+    <hyperlink ref="C46" r:id="rId37" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="C47" r:id="rId38" display="Search an element in a matriix"/>
+    <hyperlink ref="C48" r:id="rId39" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="C49" r:id="rId40" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="C50" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C51" r:id="rId42" display="Maximum size rectangle"/>
+    <hyperlink ref="C52" r:id="rId43" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C53" r:id="rId44" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="C54" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="C55" r:id="rId46" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C60" r:id="rId47" display="Reverse a String"/>
+    <hyperlink ref="C61" r:id="rId48" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C62" r:id="rId49" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C64" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C65" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C66" r:id="rId52" display="Count and Say problem"/>
+    <hyperlink ref="C67" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
+    <hyperlink ref="C68" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
+    <hyperlink ref="C69" r:id="rId55" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C70" r:id="rId56" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C71" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C72" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C73" r:id="rId59" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C74" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C75" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C76" r:id="rId62" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C77" r:id="rId63" display="Rabin Karp Algo"/>
+    <hyperlink ref="C78" r:id="rId64" display="KMP Algo"/>
+    <hyperlink ref="C79" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C80" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C81" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C82" r:id="rId68" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C83" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C84" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C85" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C86" r:id="rId72" display="Longest Common Prefix"/>
+    <hyperlink ref="C87" r:id="rId73" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C88" r:id="rId74" display="Find the first repeated word in string."/>
+    <hyperlink ref="C89" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C90" r:id="rId76" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C91" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C92" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C93" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C94" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C95" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C96" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C97" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C98" r:id="rId84" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C99" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C100" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C101" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C102" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C105" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C106" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C107" r:id="rId91" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C108" r:id="rId92" display="square root of an integer"/>
+    <hyperlink ref="C109" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C110" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C111" r:id="rId95" display="Find the repeating and the missing"/>
+    <hyperlink ref="C112" r:id="rId96" display="find majority element"/>
+    <hyperlink ref="C113" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C114" r:id="rId98" display="find a pair with a given difference"/>
+    <hyperlink ref="C115" r:id="rId99" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C116" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C117" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C118" r:id="rId102" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C119" r:id="rId103" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C120" r:id="rId104" display="Product array Puzzle"/>
+    <hyperlink ref="C121" r:id="rId105" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C122" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C123" r:id="rId107" display="Bishu and Soldiers"/>
+    <hyperlink ref="C124" r:id="rId108" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C125" r:id="rId109" display="Kth smallest number again"/>
+    <hyperlink ref="C126" r:id="rId110" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C127" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C128" r:id="rId112" display="Aggressive cows"/>
+    <hyperlink ref="C129" r:id="rId113" display="Book Allocation Problem"/>
+    <hyperlink ref="C130" r:id="rId114" display="EKOSPOJ:"/>
+    <hyperlink ref="C131" r:id="rId115" display="Job Scheduling Algo"/>
+    <hyperlink ref="C132" r:id="rId116" display="Missing Number in AP"/>
+    <hyperlink ref="C133" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C134" r:id="rId118" display="Painters Partition Problem:"/>
+    <hyperlink ref="C135" r:id="rId119" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C136" r:id="rId120" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C137" r:id="rId121" display="Subset Sums"/>
+    <hyperlink ref="C138" r:id="rId122" display="Findthe inversion count"/>
+    <hyperlink ref="C139" r:id="rId123" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C140" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C143" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C144" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C145" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C146" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C147" r:id="rId129" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C148" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C149" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C150" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C151" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C152" r:id="rId134" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C153" r:id="rId135" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C154" r:id="rId136" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C155" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C156" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C157" r:id="rId139" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C158" r:id="rId140" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C159" r:id="rId141" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C160" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C161" r:id="rId143" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C162" r:id="rId144" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C163" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C164" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C165" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C166" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C167" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C170" r:id="rId150" display="Flatten a Linked List"/>
+    <hyperlink ref="C171" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C172" r:id="rId152" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C173" r:id="rId153" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C174" r:id="rId154" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C175" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C176" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C177" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C178" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C181" r:id="rId159" display="level order traversal"/>
+    <hyperlink ref="C182" r:id="rId160" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C183" r:id="rId161" display="Height of a tree"/>
+    <hyperlink ref="C184" r:id="rId162" display="Diameter of a tree"/>
+    <hyperlink ref="C185" r:id="rId163" display="Mirror of a tree"/>
+    <hyperlink ref="C186" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C187" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C188" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C189" r:id="rId167" display="Left View of a tree"/>
+    <hyperlink ref="C190" r:id="rId168" display="Right View of Tree"/>
+    <hyperlink ref="C191" r:id="rId169" display="Top View of a tree"/>
+    <hyperlink ref="C192" r:id="rId170" display="Bottom View of a tree"/>
+    <hyperlink ref="C193" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C194" r:id="rId172" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C195" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C196" r:id="rId174" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C197" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C198" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C199" r:id="rId177" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C200" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C201" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C202" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C203" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C204" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C205" r:id="rId183" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C206" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C207" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C208" r:id="rId186" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C209" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C210" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C211" r:id="rId189" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C212" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C213" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C214" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C215" r:id="rId193" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C218" r:id="rId194" display="Fina a value in a BST"/>
+    <hyperlink ref="C219" r:id="rId195" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C220" r:id="rId196" display="Find min and max value in a BST"/>
+    <hyperlink ref="C221" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C222" r:id="rId198" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C223" r:id="rId199" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C224" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C225" r:id="rId201" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C226" r:id="rId202" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C227" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C228" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C229" r:id="rId205" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C230" r:id="rId206" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C231" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C232" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C233" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C234" r:id="rId210" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C235" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C236" r:id="rId212" display="Check preorder is valid or not"/>
+    <hyperlink ref="C237" r:id="rId213" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C238" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C239" r:id="rId215" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C242" r:id="rId216" display="Activity Selection Problem"/>
+    <hyperlink ref="C243" r:id="rId217" display="Job SequencingProblem"/>
+    <hyperlink ref="C244" r:id="rId218" display="Huffman Coding"/>
+    <hyperlink ref="C245" r:id="rId219" display="Water Connection Problem"/>
+    <hyperlink ref="C246" r:id="rId220" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C247" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C248" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C249" r:id="rId223" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C250" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C251" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C252" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C253" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C254" r:id="rId228" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C255" r:id="rId229" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C256" r:id="rId230" display="Maximum product subset of an array"/>
+    <hyperlink ref="C257" r:id="rId231" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C258" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C259" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C260" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C261" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C262" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C263" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C264" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C265" r:id="rId239" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C266" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C267" r:id="rId241" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C268" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C269" r:id="rId243" display="Picking Up Chicks"/>
+    <hyperlink ref="C270" r:id="rId244" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C271" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C272" r:id="rId246" display="K Centers Problem"/>
+    <hyperlink ref="C273" r:id="rId247" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C274" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C275" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C276" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C279" r:id="rId251" display="Rat in a maze Problem"/>
+    <hyperlink ref="C280" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C281" r:id="rId253" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C282" r:id="rId254" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C283" r:id="rId255" display="Sudoku Solver"/>
+    <hyperlink ref="C284" r:id="rId256" display="m Coloring Problem"/>
+    <hyperlink ref="C285" r:id="rId257" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C286" r:id="rId258" display="Subset Sum Problem"/>
+    <hyperlink ref="C287" r:id="rId259" display="The Knight’s tour problem"/>
+    <hyperlink ref="C288" r:id="rId260" display="Tug of War"/>
+    <hyperlink ref="C289" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C290" r:id="rId262" display="Combinational Sum"/>
+    <hyperlink ref="C291" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C292" r:id="rId264" display="Print all permutations of a string "/>
+    <hyperlink ref="C293" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C294" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C295" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C296" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C297" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C300" r:id="rId270" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C301" r:id="rId271" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C302" r:id="rId272" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C303" r:id="rId273" display="find the middle element of a stack"/>
+    <hyperlink ref="C304" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C305" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C306" r:id="rId276" display="Reverse a String using Stack"/>
+    <hyperlink ref="C307" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C308" r:id="rId278" display="Find the next Greater element"/>
+    <hyperlink ref="C309" r:id="rId279" display="The celebrity Problem"/>
+    <hyperlink ref="C310" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C311" r:id="rId281" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C312" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C313" r:id="rId283" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C314" r:id="rId284" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C315" r:id="rId285" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C316" r:id="rId286" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C317" r:id="rId287" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C318" r:id="rId288" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C319" r:id="rId289" display="Implement Stack using Queue"/>
+    <hyperlink ref="C320" r:id="rId290" display="Implement Stack using Deque"/>
+    <hyperlink ref="C321" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C322" r:id="rId292" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C323" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C324" r:id="rId294" display="Implement a Circular queue"/>
+    <hyperlink ref="C325" r:id="rId295" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C326" r:id="rId296" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C327" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C328" r:id="rId298" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C329" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C330" r:id="rId300" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C331" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C332" r:id="rId302" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C333" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C334" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C335" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C336" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C337" r:id="rId307" display="Next Smaller Element"/>
+    <hyperlink ref="C340" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C341" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C342" r:id="rId310" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C343" r:id="rId311" display="“k” largest element in an array"/>
+    <hyperlink ref="C344" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C345" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C346" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C347" r:id="rId315" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C348" r:id="rId316" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C349" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C350" r:id="rId318" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C351" r:id="rId319" display="Median in a stream of Integers"/>
+    <hyperlink ref="C352" r:id="rId320" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C353" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C354" r:id="rId322" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C355" r:id="rId323" display="Convert min heap to max heap"/>
+    <hyperlink ref="C356" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C357" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C360" r:id="rId326" display="Create a Graph, print it"/>
+    <hyperlink ref="C361" r:id="rId327" display="Implement BFS algorithm "/>
+    <hyperlink ref="C362" r:id="rId328" display="Implement DFS Algo "/>
+    <hyperlink ref="C363" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C364" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C365" r:id="rId331" display="Search in a Maze"/>
+    <hyperlink ref="C366" r:id="rId332" display="Minimum Step by Knight"/>
+    <hyperlink ref="C367" r:id="rId333" display="flood fill algo"/>
+    <hyperlink ref="C368" r:id="rId334" display="Clone a graph"/>
+    <hyperlink ref="C369" r:id="rId335" display="Making wired Connections"/>
+    <hyperlink ref="C370" r:id="rId336" display="word Ladder "/>
+    <hyperlink ref="C371" r:id="rId337" display="Dijkstra algo"/>
+    <hyperlink ref="C372" r:id="rId338" display="Implement Topological Sort "/>
+    <hyperlink ref="C373" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C374" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C375" r:id="rId341" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C376" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C377" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C378" r:id="rId344" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C379" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C380" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C381" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C382" r:id="rId348" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C383" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C384" r:id="rId350" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C385" r:id="rId351" display="Find bridge in a graph"/>
+    <hyperlink ref="C386" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C387" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C388" r:id="rId354" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C389" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C390" r:id="rId356" display="Journey to the Moon"/>
+    <hyperlink ref="C391" r:id="rId357" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C392" r:id="rId358" display="Oliver and the Game"/>
+    <hyperlink ref="C393" r:id="rId359" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C394" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C395" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C396" r:id="rId362" display="M-ColouringProblem"/>
+    <hyperlink ref="C397" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C398" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C399" r:id="rId365" display="Vertex Cover Problem"/>
+    <hyperlink ref="C400" r:id="rId366" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C401" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C402" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C403" r:id="rId369" display="Two Clique Problem"/>
+    <hyperlink ref="C406" r:id="rId370" display="Construct a trie from scratch"/>
+    <hyperlink ref="C407" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C408" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C409" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C410" r:id="rId374" display="Implement a Phone Directory"/>
+    <hyperlink ref="C411" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C414" r:id="rId376" display="Coin ChangeProblem"/>
+    <hyperlink ref="C415" r:id="rId377" display="Knapsack Problem"/>
+    <hyperlink ref="C416" r:id="rId378" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C417" r:id="rId379" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C418" r:id="rId380" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C419" r:id="rId381" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C420" r:id="rId382" display="Edit Distance"/>
+    <hyperlink ref="C421" r:id="rId383" display="Subset Sum Problem"/>
+    <hyperlink ref="C422" r:id="rId384" display="Friends Pairing Problem"/>
+    <hyperlink ref="C423" r:id="rId385" display="Gold Mine Problem"/>
+    <hyperlink ref="C424" r:id="rId386" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C425" r:id="rId387" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C426" r:id="rId388" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C427" r:id="rId389" display="Longest Common Subsequence"/>
+    <hyperlink ref="C428" r:id="rId390" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C429" r:id="rId391" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C430" r:id="rId392" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C431" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C432" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C433" r:id="rId395" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C434" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C435" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C436" r:id="rId398" display="Egg Dropping Problem"/>
+    <hyperlink ref="C437" r:id="rId399" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C438" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C439" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C440" r:id="rId402" display="Min Cost PathProblem"/>
+    <hyperlink ref="C441" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C442" r:id="rId404" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C443" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C444" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C445" r:id="rId407" display="Longest Common Substring"/>
+    <hyperlink ref="C446" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C447" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C448" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C449" r:id="rId411" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C450" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C451" r:id="rId413" display="Word Break Problem"/>
+    <hyperlink ref="C452" r:id="rId414" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C453" r:id="rId415" display="Partition problem"/>
+    <hyperlink ref="C454" r:id="rId416" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C455" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C456" r:id="rId418" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C457" r:id="rId419" display="Longest alternating subsequence"/>
+    <hyperlink ref="C458" r:id="rId420" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C459" r:id="rId421" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C460" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C461" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C462" r:id="rId424" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C463" r:id="rId425" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C464" r:id="rId426" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C465" r:id="rId427" display="Word Wrap Problem"/>
+    <hyperlink ref="C466" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C467" r:id="rId429" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C468" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C469" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C470" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C471" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C472" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C473" r:id="rId435" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C476" r:id="rId436" display="Count set bits in an integer"/>
+    <hyperlink ref="C477" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C478" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C479" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C480" r:id="rId440" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C481" r:id="rId441" display="Find position of the only set bit"/>
+    <hyperlink ref="C482" r:id="rId442" display="Copy set bits in a range"/>
+    <hyperlink ref="C483" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C484" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C485" r:id="rId445" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="478">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -163,6 +163,12 @@
     <t xml:space="preserve">Minimum Operations to Reduce X to Zero (PREFIX SUM)</t>
   </si>
   <si>
+    <t xml:space="preserve">LC1695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1695. Maximum Erasure Value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matrix</t>
   </si>
   <si>
@@ -206,6 +212,12 @@
   </si>
   <si>
     <t xml:space="preserve">73. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangle (DP or Memorization Recursion)</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
@@ -1644,7 +1656,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1725,11 +1737,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1827,13 +1855,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E485"/>
+  <dimension ref="A1:E488"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2397,108 +2425,99 @@
       <c r="D43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="19"/>
-      <c r="D44" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="10"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B46" s="10" t="s">
+      <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="B44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D44" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" s="24" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>54</v>
@@ -2509,135 +2528,133 @@
     </row>
     <row r="53" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="D55" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="D56" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="10"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="10"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>50</v>
-      </c>
       <c r="B63" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="19" t="s">
         <v>66</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>7</v>
@@ -2645,13 +2662,13 @@
     </row>
     <row r="64" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>7</v>
@@ -2659,55 +2676,55 @@
     </row>
     <row r="65" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>7</v>
@@ -2715,69 +2732,69 @@
     </row>
     <row r="69" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>7</v>
@@ -2785,27 +2802,27 @@
     </row>
     <row r="74" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>7</v>
@@ -2813,13 +2830,13 @@
     </row>
     <row r="76" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>7</v>
@@ -2827,13 +2844,13 @@
     </row>
     <row r="77" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>7</v>
@@ -2841,13 +2858,13 @@
     </row>
     <row r="78" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>7</v>
@@ -2855,41 +2872,41 @@
     </row>
     <row r="79" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="C79" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>7</v>
@@ -2897,41 +2914,41 @@
     </row>
     <row r="82" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>7</v>
@@ -2939,27 +2956,27 @@
     </row>
     <row r="85" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>7</v>
@@ -2967,13 +2984,13 @@
     </row>
     <row r="87" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>7</v>
@@ -2981,27 +2998,27 @@
     </row>
     <row r="88" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>7</v>
@@ -3009,13 +3026,13 @@
     </row>
     <row r="90" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>7</v>
@@ -3023,13 +3040,13 @@
     </row>
     <row r="91" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>7</v>
@@ -3037,13 +3054,13 @@
     </row>
     <row r="92" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>7</v>
@@ -3051,13 +3068,13 @@
     </row>
     <row r="93" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>7</v>
@@ -3065,13 +3082,13 @@
     </row>
     <row r="94" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>7</v>
@@ -3079,13 +3096,13 @@
     </row>
     <row r="95" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>7</v>
@@ -3093,13 +3110,13 @@
     </row>
     <row r="96" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>7</v>
@@ -3107,13 +3124,13 @@
     </row>
     <row r="97" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>7</v>
@@ -3121,13 +3138,13 @@
     </row>
     <row r="98" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>7</v>
@@ -3135,13 +3152,13 @@
     </row>
     <row r="99" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>7</v>
@@ -3149,13 +3166,13 @@
     </row>
     <row r="100" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>7</v>
@@ -3163,13 +3180,13 @@
     </row>
     <row r="101" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>7</v>
@@ -3177,74 +3194,74 @@
     </row>
     <row r="102" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="10"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="9"/>
+    <row r="103" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="10"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>7</v>
@@ -3252,13 +3269,13 @@
     </row>
     <row r="109" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>7</v>
@@ -3266,13 +3283,13 @@
     </row>
     <row r="110" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>7</v>
@@ -3280,13 +3297,13 @@
     </row>
     <row r="111" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>7</v>
@@ -3294,13 +3311,13 @@
     </row>
     <row r="112" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>7</v>
@@ -3308,13 +3325,13 @@
     </row>
     <row r="113" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>7</v>
@@ -3322,13 +3339,13 @@
     </row>
     <row r="114" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>7</v>
@@ -3336,13 +3353,13 @@
     </row>
     <row r="115" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>7</v>
@@ -3350,13 +3367,13 @@
     </row>
     <row r="116" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>7</v>
@@ -3364,13 +3381,13 @@
     </row>
     <row r="117" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>7</v>
@@ -3378,13 +3395,13 @@
     </row>
     <row r="118" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>7</v>
@@ -3392,13 +3409,13 @@
     </row>
     <row r="119" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>7</v>
@@ -3406,13 +3423,13 @@
     </row>
     <row r="120" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>7</v>
@@ -3420,13 +3437,13 @@
     </row>
     <row r="121" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>7</v>
@@ -3434,13 +3451,13 @@
     </row>
     <row r="122" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>7</v>
@@ -3448,13 +3465,13 @@
     </row>
     <row r="123" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>7</v>
@@ -3462,13 +3479,13 @@
     </row>
     <row r="124" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>7</v>
@@ -3476,13 +3493,13 @@
     </row>
     <row r="125" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="C125" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>7</v>
@@ -3490,13 +3507,13 @@
     </row>
     <row r="126" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>7</v>
@@ -3504,13 +3521,13 @@
     </row>
     <row r="127" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>7</v>
@@ -3518,13 +3535,13 @@
     </row>
     <row r="128" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>7</v>
@@ -3532,13 +3549,13 @@
     </row>
     <row r="129" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>7</v>
@@ -3546,13 +3563,13 @@
     </row>
     <row r="130" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>7</v>
@@ -3560,13 +3577,13 @@
     </row>
     <row r="131" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>7</v>
@@ -3574,13 +3591,13 @@
     </row>
     <row r="132" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>7</v>
@@ -3588,13 +3605,13 @@
     </row>
     <row r="133" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>7</v>
@@ -3602,13 +3619,13 @@
     </row>
     <row r="134" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>7</v>
@@ -3616,13 +3633,13 @@
     </row>
     <row r="135" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>7</v>
@@ -3630,13 +3647,13 @@
     </row>
     <row r="136" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>7</v>
@@ -3644,13 +3661,13 @@
     </row>
     <row r="137" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>7</v>
@@ -3658,13 +3675,13 @@
     </row>
     <row r="138" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>7</v>
@@ -3672,13 +3689,13 @@
     </row>
     <row r="139" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>7</v>
@@ -3686,101 +3703,101 @@
     </row>
     <row r="140" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="19"/>
-      <c r="D142" s="9"/>
+    <row r="141" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D145" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="D143" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="19"/>
+      <c r="D145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D146" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D147" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>7</v>
@@ -3788,13 +3805,13 @@
     </row>
     <row r="149" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>7</v>
@@ -3802,27 +3819,27 @@
     </row>
     <row r="150" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D150" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>7</v>
@@ -3830,13 +3847,13 @@
     </row>
     <row r="152" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>7</v>
@@ -3844,125 +3861,125 @@
     </row>
     <row r="153" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D153" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D154" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D155" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D156" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D157" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D157" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D158" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D158" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D159" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D160" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>7</v>
@@ -3970,27 +3987,27 @@
     </row>
     <row r="162" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D162" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D162" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>7</v>
@@ -3998,27 +4015,27 @@
     </row>
     <row r="164" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="C164" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D164" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>7</v>
@@ -4026,13 +4043,13 @@
     </row>
     <row r="166" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>7</v>
@@ -4040,40 +4057,40 @@
     </row>
     <row r="167" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D168" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C169" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D169" s="9" t="s">
@@ -4082,41 +4099,41 @@
     </row>
     <row r="170" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D170" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D170" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C171" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C171" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>174</v>
+        <v>147</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>7</v>
@@ -4124,27 +4141,27 @@
     </row>
     <row r="173" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D173" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>7</v>
@@ -4152,115 +4169,115 @@
     </row>
     <row r="175" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D175" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D176" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D177" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D178" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="19"/>
-      <c r="D180" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D181" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C183" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D183" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D181" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="19"/>
+      <c r="D183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>7</v>
@@ -4268,13 +4285,13 @@
     </row>
     <row r="185" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>7</v>
@@ -4282,27 +4299,27 @@
     </row>
     <row r="186" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D186" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>7</v>
@@ -4310,55 +4327,55 @@
     </row>
     <row r="188" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D188" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D188" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D189" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D189" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D190" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D190" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>7</v>
@@ -4366,13 +4383,13 @@
     </row>
     <row r="192" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>7</v>
@@ -4380,13 +4397,13 @@
     </row>
     <row r="193" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>7</v>
@@ -4394,69 +4411,69 @@
     </row>
     <row r="194" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D194" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D194" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D195" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D195" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D196" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D196" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D197" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D197" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>7</v>
@@ -4464,27 +4481,27 @@
     </row>
     <row r="199" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D199" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D199" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>7</v>
@@ -4492,13 +4509,13 @@
     </row>
     <row r="201" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>7</v>
@@ -4506,41 +4523,41 @@
     </row>
     <row r="202" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D202" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D202" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D203" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D203" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B204" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B204" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="C204" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>7</v>
@@ -4548,41 +4565,41 @@
     </row>
     <row r="205" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D205" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D205" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D206" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D206" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>7</v>
@@ -4590,41 +4607,41 @@
     </row>
     <row r="208" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D208" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D208" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D209" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D209" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>7</v>
@@ -4632,27 +4649,27 @@
     </row>
     <row r="211" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D211" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>7</v>
@@ -4660,107 +4677,107 @@
     </row>
     <row r="213" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D213" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D213" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D214" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D214" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="10"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="9"/>
-    </row>
-    <row r="217" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="10"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="9"/>
+    <row r="216" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="219" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="10"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="9"/>
+    </row>
+    <row r="220" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="10"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="9"/>
     </row>
     <row r="221" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>7</v>
@@ -4768,27 +4785,27 @@
     </row>
     <row r="222" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D222" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D222" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>7</v>
@@ -4796,27 +4813,27 @@
     </row>
     <row r="224" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C224" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D224" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D224" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D225" s="13" t="s">
         <v>7</v>
@@ -4824,13 +4841,13 @@
     </row>
     <row r="226" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>7</v>
@@ -4838,69 +4855,69 @@
     </row>
     <row r="227" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D227" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C227" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D227" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D228" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D228" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D229" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D229" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D230" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D230" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>7</v>
@@ -4908,41 +4925,41 @@
     </row>
     <row r="232" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D232" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D232" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D233" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D233" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>7</v>
@@ -4950,13 +4967,13 @@
     </row>
     <row r="235" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>7</v>
@@ -4964,13 +4981,13 @@
     </row>
     <row r="236" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>7</v>
@@ -4978,13 +4995,13 @@
     </row>
     <row r="237" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>7</v>
@@ -4992,13 +5009,13 @@
     </row>
     <row r="238" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>7</v>
@@ -5006,77 +5023,77 @@
     </row>
     <row r="239" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B239" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="C239" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="19"/>
-      <c r="D240" s="9"/>
-    </row>
-    <row r="241" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="19"/>
-      <c r="D241" s="9"/>
+      <c r="B241" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B244" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D244" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="243" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C243" s="19"/>
+      <c r="D243" s="9"/>
+    </row>
+    <row r="244" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="19"/>
+      <c r="D244" s="9"/>
     </row>
     <row r="245" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>7</v>
@@ -5084,13 +5101,13 @@
     </row>
     <row r="246" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>7</v>
@@ -5098,13 +5115,13 @@
     </row>
     <row r="247" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>7</v>
@@ -5112,13 +5129,13 @@
     </row>
     <row r="248" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>7</v>
@@ -5126,13 +5143,13 @@
     </row>
     <row r="249" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>7</v>
@@ -5140,13 +5157,13 @@
     </row>
     <row r="250" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>7</v>
@@ -5154,13 +5171,13 @@
     </row>
     <row r="251" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>7</v>
@@ -5168,13 +5185,13 @@
     </row>
     <row r="252" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>7</v>
@@ -5182,13 +5199,13 @@
     </row>
     <row r="253" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>7</v>
@@ -5196,13 +5213,13 @@
     </row>
     <row r="254" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>7</v>
@@ -5210,13 +5227,13 @@
     </row>
     <row r="255" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>7</v>
@@ -5224,13 +5241,13 @@
     </row>
     <row r="256" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>7</v>
@@ -5238,13 +5255,13 @@
     </row>
     <row r="257" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>7</v>
@@ -5252,13 +5269,13 @@
     </row>
     <row r="258" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>7</v>
@@ -5266,13 +5283,13 @@
     </row>
     <row r="259" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>7</v>
@@ -5280,13 +5297,13 @@
     </row>
     <row r="260" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>7</v>
@@ -5294,13 +5311,13 @@
     </row>
     <row r="261" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>7</v>
@@ -5308,13 +5325,13 @@
     </row>
     <row r="262" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>7</v>
@@ -5322,13 +5339,13 @@
     </row>
     <row r="263" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>7</v>
@@ -5336,13 +5353,13 @@
     </row>
     <row r="264" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>7</v>
@@ -5350,13 +5367,13 @@
     </row>
     <row r="265" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>7</v>
@@ -5364,13 +5381,13 @@
     </row>
     <row r="266" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>7</v>
@@ -5378,13 +5395,13 @@
     </row>
     <row r="267" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B267" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B267" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="C267" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>7</v>
@@ -5392,13 +5409,13 @@
     </row>
     <row r="268" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>7</v>
@@ -5406,13 +5423,13 @@
     </row>
     <row r="269" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>7</v>
@@ -5420,13 +5437,13 @@
     </row>
     <row r="270" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>7</v>
@@ -5434,13 +5451,13 @@
     </row>
     <row r="271" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>7</v>
@@ -5448,13 +5465,13 @@
     </row>
     <row r="272" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>7</v>
@@ -5462,13 +5479,13 @@
     </row>
     <row r="273" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>7</v>
@@ -5476,13 +5493,13 @@
     </row>
     <row r="274" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>7</v>
@@ -5490,13 +5507,13 @@
     </row>
     <row r="275" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>7</v>
@@ -5504,77 +5521,77 @@
     </row>
     <row r="276" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="19"/>
-      <c r="D277" s="9"/>
-    </row>
-    <row r="278" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="19"/>
-      <c r="D278" s="9"/>
+    <row r="277" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B280" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C280" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B281" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C281" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D281" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="280" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C280" s="19"/>
+      <c r="D280" s="9"/>
+    </row>
+    <row r="281" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C281" s="19"/>
+      <c r="D281" s="9"/>
     </row>
     <row r="282" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>7</v>
@@ -5582,13 +5599,13 @@
     </row>
     <row r="283" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>7</v>
@@ -5596,13 +5613,13 @@
     </row>
     <row r="284" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>7</v>
@@ -5610,13 +5627,13 @@
     </row>
     <row r="285" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>7</v>
@@ -5624,13 +5641,13 @@
     </row>
     <row r="286" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>7</v>
@@ -5638,13 +5655,13 @@
     </row>
     <row r="287" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>7</v>
@@ -5652,13 +5669,13 @@
     </row>
     <row r="288" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>7</v>
@@ -5666,13 +5683,13 @@
     </row>
     <row r="289" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>7</v>
@@ -5680,13 +5697,13 @@
     </row>
     <row r="290" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
@@ -5694,13 +5711,13 @@
     </row>
     <row r="291" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
@@ -5708,13 +5725,13 @@
     </row>
     <row r="292" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
@@ -5722,13 +5739,13 @@
     </row>
     <row r="293" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
@@ -5736,13 +5753,13 @@
     </row>
     <row r="294" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
@@ -5750,13 +5767,13 @@
     </row>
     <row r="295" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
@@ -5764,13 +5781,13 @@
     </row>
     <row r="296" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>7</v>
@@ -5778,77 +5795,77 @@
     </row>
     <row r="297" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="19"/>
-      <c r="D298" s="9"/>
-    </row>
-    <row r="299" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="19"/>
-      <c r="D299" s="9"/>
+    <row r="298" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C301" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="D301" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C302" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D302" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="301" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="19"/>
+      <c r="D301" s="9"/>
+    </row>
+    <row r="302" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="19"/>
+      <c r="D302" s="9"/>
     </row>
     <row r="303" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>7</v>
@@ -5856,13 +5873,13 @@
     </row>
     <row r="304" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>7</v>
@@ -5870,13 +5887,13 @@
     </row>
     <row r="305" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>7</v>
@@ -5884,13 +5901,13 @@
     </row>
     <row r="306" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>7</v>
@@ -5898,13 +5915,13 @@
     </row>
     <row r="307" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>7</v>
@@ -5912,13 +5929,13 @@
     </row>
     <row r="308" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>7</v>
@@ -5926,13 +5943,13 @@
     </row>
     <row r="309" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>7</v>
@@ -5940,13 +5957,13 @@
     </row>
     <row r="310" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>7</v>
@@ -5954,13 +5971,13 @@
     </row>
     <row r="311" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>7</v>
@@ -5968,13 +5985,13 @@
     </row>
     <row r="312" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>7</v>
@@ -5982,13 +5999,13 @@
     </row>
     <row r="313" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C313" s="25" t="s">
-        <v>309</v>
+        <v>299</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>7</v>
@@ -5996,13 +6013,13 @@
     </row>
     <row r="314" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>7</v>
@@ -6010,13 +6027,13 @@
     </row>
     <row r="315" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>7</v>
@@ -6024,13 +6041,13 @@
     </row>
     <row r="316" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C316" s="11" t="s">
-        <v>312</v>
+        <v>299</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>313</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>7</v>
@@ -6038,13 +6055,13 @@
     </row>
     <row r="317" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>7</v>
@@ -6052,13 +6069,13 @@
     </row>
     <row r="318" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>7</v>
@@ -6066,13 +6083,13 @@
     </row>
     <row r="319" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>7</v>
@@ -6080,13 +6097,13 @@
     </row>
     <row r="320" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>7</v>
@@ -6094,13 +6111,13 @@
     </row>
     <row r="321" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>7</v>
@@ -6108,13 +6125,13 @@
     </row>
     <row r="322" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>7</v>
@@ -6122,13 +6139,13 @@
     </row>
     <row r="323" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>7</v>
@@ -6136,13 +6153,13 @@
     </row>
     <row r="324" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>7</v>
@@ -6150,13 +6167,13 @@
     </row>
     <row r="325" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>7</v>
@@ -6164,13 +6181,13 @@
     </row>
     <row r="326" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B326" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B326" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="C326" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>7</v>
@@ -6178,13 +6195,13 @@
     </row>
     <row r="327" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>7</v>
@@ -6192,13 +6209,13 @@
     </row>
     <row r="328" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>7</v>
@@ -6206,13 +6223,13 @@
     </row>
     <row r="329" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>7</v>
@@ -6220,13 +6237,13 @@
     </row>
     <row r="330" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>7</v>
@@ -6234,13 +6251,13 @@
     </row>
     <row r="331" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>7</v>
@@ -6248,13 +6265,13 @@
     </row>
     <row r="332" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>7</v>
@@ -6262,13 +6279,13 @@
     </row>
     <row r="333" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>7</v>
@@ -6276,13 +6293,13 @@
     </row>
     <row r="334" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>7</v>
@@ -6290,13 +6307,13 @@
     </row>
     <row r="335" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>7</v>
@@ -6304,13 +6321,13 @@
     </row>
     <row r="336" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>7</v>
@@ -6318,77 +6335,77 @@
     </row>
     <row r="337" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="19"/>
-      <c r="D338" s="9"/>
-    </row>
-    <row r="339" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="19"/>
-      <c r="D339" s="9"/>
+    <row r="338" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B338" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C338" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B341" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C341" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D341" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B342" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C342" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D342" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="341" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C341" s="19"/>
+      <c r="D341" s="9"/>
+    </row>
+    <row r="342" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C342" s="19"/>
+      <c r="D342" s="9"/>
     </row>
     <row r="343" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>7</v>
@@ -6396,13 +6413,13 @@
     </row>
     <row r="344" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>7</v>
@@ -6410,13 +6427,13 @@
     </row>
     <row r="345" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>7</v>
@@ -6424,13 +6441,13 @@
     </row>
     <row r="346" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>7</v>
@@ -6438,13 +6455,13 @@
     </row>
     <row r="347" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>7</v>
@@ -6452,13 +6469,13 @@
     </row>
     <row r="348" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C348" s="25" t="s">
-        <v>343</v>
+        <v>338</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>7</v>
@@ -6466,13 +6483,13 @@
     </row>
     <row r="349" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>7</v>
@@ -6480,13 +6497,13 @@
     </row>
     <row r="350" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>7</v>
@@ -6494,13 +6511,13 @@
     </row>
     <row r="351" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C351" s="11" t="s">
-        <v>346</v>
+        <v>338</v>
+      </c>
+      <c r="C351" s="29" t="s">
+        <v>347</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>7</v>
@@ -6508,13 +6525,13 @@
     </row>
     <row r="352" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>7</v>
@@ -6522,13 +6539,13 @@
     </row>
     <row r="353" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>7</v>
@@ -6536,13 +6553,13 @@
     </row>
     <row r="354" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>7</v>
@@ -6550,13 +6567,13 @@
     </row>
     <row r="355" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>7</v>
@@ -6564,13 +6581,13 @@
     </row>
     <row r="356" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>7</v>
@@ -6578,77 +6595,77 @@
     </row>
     <row r="357" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="19"/>
-      <c r="D358" s="9"/>
-    </row>
-    <row r="359" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="19"/>
-      <c r="D359" s="9"/>
+    <row r="358" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C359" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D359" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B361" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D361" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B362" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C362" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="361" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C361" s="19"/>
+      <c r="D361" s="9"/>
+    </row>
+    <row r="362" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C362" s="19"/>
+      <c r="D362" s="9"/>
     </row>
     <row r="363" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>7</v>
@@ -6656,13 +6673,13 @@
     </row>
     <row r="364" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>7</v>
@@ -6670,13 +6687,13 @@
     </row>
     <row r="365" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>7</v>
@@ -6684,13 +6701,13 @@
     </row>
     <row r="366" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>7</v>
@@ -6698,13 +6715,13 @@
     </row>
     <row r="367" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>7</v>
@@ -6712,13 +6729,13 @@
     </row>
     <row r="368" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>7</v>
@@ -6726,13 +6743,13 @@
     </row>
     <row r="369" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>7</v>
@@ -6740,13 +6757,13 @@
     </row>
     <row r="370" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>7</v>
@@ -6754,13 +6771,13 @@
     </row>
     <row r="371" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>7</v>
@@ -6768,13 +6785,13 @@
     </row>
     <row r="372" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>7</v>
@@ -6782,13 +6799,13 @@
     </row>
     <row r="373" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>7</v>
@@ -6796,13 +6813,13 @@
     </row>
     <row r="374" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>7</v>
@@ -6810,13 +6827,13 @@
     </row>
     <row r="375" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>7</v>
@@ -6824,13 +6841,13 @@
     </row>
     <row r="376" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>7</v>
@@ -6838,13 +6855,13 @@
     </row>
     <row r="377" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>7</v>
@@ -6852,13 +6869,13 @@
     </row>
     <row r="378" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>7</v>
@@ -6866,13 +6883,13 @@
     </row>
     <row r="379" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>7</v>
@@ -6880,13 +6897,13 @@
     </row>
     <row r="380" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>7</v>
@@ -6894,13 +6911,13 @@
     </row>
     <row r="381" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>7</v>
@@ -6908,13 +6925,13 @@
     </row>
     <row r="382" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>7</v>
@@ -6922,13 +6939,13 @@
     </row>
     <row r="383" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>7</v>
@@ -6936,13 +6953,13 @@
     </row>
     <row r="384" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>7</v>
@@ -6950,13 +6967,13 @@
     </row>
     <row r="385" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>7</v>
@@ -6964,13 +6981,13 @@
     </row>
     <row r="386" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>7</v>
@@ -6978,13 +6995,13 @@
     </row>
     <row r="387" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>7</v>
@@ -6992,13 +7009,13 @@
     </row>
     <row r="388" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B388" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B388" s="10" t="s">
-        <v>353</v>
-      </c>
       <c r="C388" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>7</v>
@@ -7006,13 +7023,13 @@
     </row>
     <row r="389" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>7</v>
@@ -7020,13 +7037,13 @@
     </row>
     <row r="390" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>7</v>
@@ -7034,13 +7051,13 @@
     </row>
     <row r="391" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>7</v>
@@ -7048,13 +7065,13 @@
     </row>
     <row r="392" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>7</v>
@@ -7062,13 +7079,13 @@
     </row>
     <row r="393" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>7</v>
@@ -7076,13 +7093,13 @@
     </row>
     <row r="394" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>7</v>
@@ -7090,13 +7107,13 @@
     </row>
     <row r="395" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>7</v>
@@ -7104,13 +7121,13 @@
     </row>
     <row r="396" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>7</v>
@@ -7118,13 +7135,13 @@
     </row>
     <row r="397" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>7</v>
@@ -7132,13 +7149,13 @@
     </row>
     <row r="398" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>7</v>
@@ -7146,13 +7163,13 @@
     </row>
     <row r="399" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>7</v>
@@ -7160,13 +7177,13 @@
     </row>
     <row r="400" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>7</v>
@@ -7174,13 +7191,13 @@
     </row>
     <row r="401" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>7</v>
@@ -7188,13 +7205,13 @@
     </row>
     <row r="402" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>7</v>
@@ -7202,77 +7219,77 @@
     </row>
     <row r="403" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="19"/>
-      <c r="D404" s="9"/>
-    </row>
-    <row r="405" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="19"/>
-      <c r="D405" s="9"/>
+    <row r="404" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B407" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C407" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="D407" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B408" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C408" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D408" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="407" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C407" s="19"/>
+      <c r="D407" s="9"/>
+    </row>
+    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C408" s="19"/>
+      <c r="D408" s="9"/>
     </row>
     <row r="409" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>7</v>
@@ -7280,13 +7297,13 @@
     </row>
     <row r="410" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>7</v>
@@ -7294,77 +7311,77 @@
     </row>
     <row r="411" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="19"/>
-      <c r="D412" s="9"/>
-    </row>
-    <row r="413" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="19"/>
-      <c r="D413" s="9"/>
+    <row r="412" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D412" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C413" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C415" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D415" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C416" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D416" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="415" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C415" s="19"/>
+      <c r="D415" s="9"/>
+    </row>
+    <row r="416" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C416" s="19"/>
+      <c r="D416" s="9"/>
     </row>
     <row r="417" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>7</v>
@@ -7372,13 +7389,13 @@
     </row>
     <row r="418" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>7</v>
@@ -7386,13 +7403,13 @@
     </row>
     <row r="419" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>7</v>
@@ -7400,13 +7417,13 @@
     </row>
     <row r="420" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>7</v>
@@ -7414,13 +7431,13 @@
     </row>
     <row r="421" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>283</v>
+        <v>412</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>7</v>
@@ -7428,13 +7445,13 @@
     </row>
     <row r="422" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>7</v>
@@ -7442,13 +7459,13 @@
     </row>
     <row r="423" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>7</v>
@@ -7456,13 +7473,13 @@
     </row>
     <row r="424" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>413</v>
+        <v>287</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>7</v>
@@ -7470,13 +7487,13 @@
     </row>
     <row r="425" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>7</v>
@@ -7484,13 +7501,13 @@
     </row>
     <row r="426" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>7</v>
@@ -7498,13 +7515,13 @@
     </row>
     <row r="427" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>7</v>
@@ -7512,13 +7529,13 @@
     </row>
     <row r="428" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>7</v>
@@ -7526,13 +7543,13 @@
     </row>
     <row r="429" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>7</v>
@@ -7540,13 +7557,13 @@
     </row>
     <row r="430" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>7</v>
@@ -7554,13 +7571,13 @@
     </row>
     <row r="431" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>7</v>
@@ -7568,13 +7585,13 @@
     </row>
     <row r="432" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>7</v>
@@ -7582,13 +7599,13 @@
     </row>
     <row r="433" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>7</v>
@@ -7596,13 +7613,13 @@
     </row>
     <row r="434" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>7</v>
@@ -7610,13 +7627,13 @@
     </row>
     <row r="435" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>7</v>
@@ -7624,13 +7641,13 @@
     </row>
     <row r="436" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>7</v>
@@ -7638,13 +7655,13 @@
     </row>
     <row r="437" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>7</v>
@@ -7652,13 +7669,13 @@
     </row>
     <row r="438" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>7</v>
@@ -7666,13 +7683,13 @@
     </row>
     <row r="439" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>7</v>
@@ -7680,13 +7697,13 @@
     </row>
     <row r="440" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>7</v>
@@ -7694,13 +7711,13 @@
     </row>
     <row r="441" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>7</v>
@@ -7708,13 +7725,13 @@
     </row>
     <row r="442" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B442" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B442" s="10" t="s">
-        <v>403</v>
-      </c>
       <c r="C442" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>7</v>
@@ -7722,13 +7739,13 @@
     </row>
     <row r="443" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>7</v>
@@ -7736,13 +7753,13 @@
     </row>
     <row r="444" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>7</v>
@@ -7750,13 +7767,13 @@
     </row>
     <row r="445" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>7</v>
@@ -7764,13 +7781,13 @@
     </row>
     <row r="446" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>7</v>
@@ -7778,13 +7795,13 @@
     </row>
     <row r="447" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>7</v>
@@ -7792,27 +7809,27 @@
     </row>
     <row r="448" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="D448" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D448" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>7</v>
@@ -7820,13 +7837,13 @@
     </row>
     <row r="450" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>7</v>
@@ -7834,27 +7851,27 @@
     </row>
     <row r="451" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="D451" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D451" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>7</v>
@@ -7862,13 +7879,13 @@
     </row>
     <row r="453" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>7</v>
@@ -7876,13 +7893,13 @@
     </row>
     <row r="454" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>7</v>
@@ -7890,13 +7907,13 @@
     </row>
     <row r="455" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>7</v>
@@ -7904,13 +7921,13 @@
     </row>
     <row r="456" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>7</v>
@@ -7918,13 +7935,13 @@
     </row>
     <row r="457" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>7</v>
@@ -7932,13 +7949,13 @@
     </row>
     <row r="458" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>7</v>
@@ -7946,13 +7963,13 @@
     </row>
     <row r="459" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>7</v>
@@ -7960,13 +7977,13 @@
     </row>
     <row r="460" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>7</v>
@@ -7974,13 +7991,13 @@
     </row>
     <row r="461" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>7</v>
@@ -7988,13 +8005,13 @@
     </row>
     <row r="462" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>7</v>
@@ -8002,13 +8019,13 @@
     </row>
     <row r="463" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>7</v>
@@ -8016,13 +8033,13 @@
     </row>
     <row r="464" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>7</v>
@@ -8030,13 +8047,13 @@
     </row>
     <row r="465" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>7</v>
@@ -8044,13 +8061,13 @@
     </row>
     <row r="466" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>7</v>
@@ -8058,13 +8075,13 @@
     </row>
     <row r="467" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>7</v>
@@ -8072,13 +8089,13 @@
     </row>
     <row r="468" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>7</v>
@@ -8086,13 +8103,13 @@
     </row>
     <row r="469" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>7</v>
@@ -8100,13 +8117,13 @@
     </row>
     <row r="470" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C470" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>7</v>
@@ -8114,13 +8131,13 @@
     </row>
     <row r="471" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>7</v>
@@ -8128,13 +8145,13 @@
     </row>
     <row r="472" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>7</v>
@@ -8142,78 +8159,78 @@
     </row>
     <row r="473" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="19"/>
-      <c r="D474" s="9"/>
-    </row>
-    <row r="475" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B475" s="10"/>
-      <c r="C475" s="19"/>
-      <c r="D475" s="9"/>
+    <row r="474" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B474" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C474" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D474" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B475" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C475" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D475" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="476" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="C476" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B477" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C477" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D477" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B478" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C478" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D478" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="477" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="19"/>
+      <c r="D477" s="9"/>
+    </row>
+    <row r="478" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="10"/>
+      <c r="C478" s="19"/>
+      <c r="D478" s="9"/>
     </row>
     <row r="479" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="n">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D479" s="9" t="s">
         <v>7</v>
@@ -8221,13 +8238,13 @@
     </row>
     <row r="480" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>7</v>
@@ -8235,13 +8252,13 @@
     </row>
     <row r="481" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>7</v>
@@ -8249,13 +8266,13 @@
     </row>
     <row r="482" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>7</v>
@@ -8263,13 +8280,13 @@
     </row>
     <row r="483" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>7</v>
@@ -8277,13 +8294,13 @@
     </row>
     <row r="484" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D484" s="9" t="s">
         <v>7</v>
@@ -8291,15 +8308,57 @@
     </row>
     <row r="485" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C485" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D485" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C486" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D486" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C487" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D487" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="B485" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C485" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="D485" s="9" t="s">
+      <c r="B488" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C488" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D488" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8341,415 +8400,415 @@
     <hyperlink ref="C39" r:id="rId34" display="Minimum no. of operations required to make an array palindrome"/>
     <hyperlink ref="C40" r:id="rId35" display="Median of 2 sorted arrays of equal size"/>
     <hyperlink ref="C41" r:id="rId36" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="C46" r:id="rId37" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="C47" r:id="rId38" display="Search an element in a matriix"/>
-    <hyperlink ref="C48" r:id="rId39" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="C49" r:id="rId40" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C50" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="C51" r:id="rId42" display="Maximum size rectangle"/>
-    <hyperlink ref="C52" r:id="rId43" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C53" r:id="rId44" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="C54" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C55" r:id="rId46" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C60" r:id="rId47" display="Reverse a String"/>
-    <hyperlink ref="C61" r:id="rId48" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C62" r:id="rId49" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C64" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C65" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C66" r:id="rId52" display="Count and Say problem"/>
-    <hyperlink ref="C67" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
-    <hyperlink ref="C68" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
-    <hyperlink ref="C69" r:id="rId55" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C70" r:id="rId56" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C71" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C72" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C73" r:id="rId59" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C74" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C75" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C76" r:id="rId62" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C77" r:id="rId63" display="Rabin Karp Algo"/>
-    <hyperlink ref="C78" r:id="rId64" display="KMP Algo"/>
-    <hyperlink ref="C79" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C80" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C81" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C82" r:id="rId68" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C83" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C84" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C85" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C86" r:id="rId72" display="Longest Common Prefix"/>
-    <hyperlink ref="C87" r:id="rId73" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C88" r:id="rId74" display="Find the first repeated word in string."/>
-    <hyperlink ref="C89" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C90" r:id="rId76" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C91" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C92" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C93" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C94" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C95" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C96" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C97" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C98" r:id="rId84" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C99" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C100" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C101" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C102" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C105" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C106" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C107" r:id="rId91" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C108" r:id="rId92" display="square root of an integer"/>
-    <hyperlink ref="C109" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C110" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C111" r:id="rId95" display="Find the repeating and the missing"/>
-    <hyperlink ref="C112" r:id="rId96" display="find majority element"/>
-    <hyperlink ref="C113" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C114" r:id="rId98" display="find a pair with a given difference"/>
-    <hyperlink ref="C115" r:id="rId99" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C116" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C117" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C118" r:id="rId102" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C119" r:id="rId103" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C120" r:id="rId104" display="Product array Puzzle"/>
-    <hyperlink ref="C121" r:id="rId105" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C122" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C123" r:id="rId107" display="Bishu and Soldiers"/>
-    <hyperlink ref="C124" r:id="rId108" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C125" r:id="rId109" display="Kth smallest number again"/>
-    <hyperlink ref="C126" r:id="rId110" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C127" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C128" r:id="rId112" display="Aggressive cows"/>
-    <hyperlink ref="C129" r:id="rId113" display="Book Allocation Problem"/>
-    <hyperlink ref="C130" r:id="rId114" display="EKOSPOJ:"/>
-    <hyperlink ref="C131" r:id="rId115" display="Job Scheduling Algo"/>
-    <hyperlink ref="C132" r:id="rId116" display="Missing Number in AP"/>
-    <hyperlink ref="C133" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C134" r:id="rId118" display="Painters Partition Problem:"/>
-    <hyperlink ref="C135" r:id="rId119" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C136" r:id="rId120" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C137" r:id="rId121" display="Subset Sums"/>
-    <hyperlink ref="C138" r:id="rId122" display="Findthe inversion count"/>
-    <hyperlink ref="C139" r:id="rId123" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C140" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C143" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C144" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C145" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C146" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C147" r:id="rId129" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C148" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C149" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C150" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C151" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C152" r:id="rId134" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C153" r:id="rId135" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C154" r:id="rId136" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C155" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C156" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C157" r:id="rId139" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C158" r:id="rId140" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C159" r:id="rId141" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C160" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C161" r:id="rId143" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C162" r:id="rId144" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C163" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C164" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C165" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C166" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C167" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C170" r:id="rId150" display="Flatten a Linked List"/>
-    <hyperlink ref="C171" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C172" r:id="rId152" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C173" r:id="rId153" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C174" r:id="rId154" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C175" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C176" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C177" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C178" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C181" r:id="rId159" display="level order traversal"/>
-    <hyperlink ref="C182" r:id="rId160" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C183" r:id="rId161" display="Height of a tree"/>
-    <hyperlink ref="C184" r:id="rId162" display="Diameter of a tree"/>
-    <hyperlink ref="C185" r:id="rId163" display="Mirror of a tree"/>
-    <hyperlink ref="C186" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C187" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C188" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C189" r:id="rId167" display="Left View of a tree"/>
-    <hyperlink ref="C190" r:id="rId168" display="Right View of Tree"/>
-    <hyperlink ref="C191" r:id="rId169" display="Top View of a tree"/>
-    <hyperlink ref="C192" r:id="rId170" display="Bottom View of a tree"/>
-    <hyperlink ref="C193" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C194" r:id="rId172" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C195" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C196" r:id="rId174" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C197" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C198" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C199" r:id="rId177" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C200" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C201" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C202" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C203" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C204" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C205" r:id="rId183" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C206" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C207" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C208" r:id="rId186" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C209" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C210" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C211" r:id="rId189" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C212" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C213" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C214" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C215" r:id="rId193" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C218" r:id="rId194" display="Fina a value in a BST"/>
-    <hyperlink ref="C219" r:id="rId195" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C220" r:id="rId196" display="Find min and max value in a BST"/>
-    <hyperlink ref="C221" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C222" r:id="rId198" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C223" r:id="rId199" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C224" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C225" r:id="rId201" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C226" r:id="rId202" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C227" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C228" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C229" r:id="rId205" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C230" r:id="rId206" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C231" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C232" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C233" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C234" r:id="rId210" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C235" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C236" r:id="rId212" display="Check preorder is valid or not"/>
-    <hyperlink ref="C237" r:id="rId213" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C238" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C239" r:id="rId215" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C242" r:id="rId216" display="Activity Selection Problem"/>
-    <hyperlink ref="C243" r:id="rId217" display="Job SequencingProblem"/>
-    <hyperlink ref="C244" r:id="rId218" display="Huffman Coding"/>
-    <hyperlink ref="C245" r:id="rId219" display="Water Connection Problem"/>
-    <hyperlink ref="C246" r:id="rId220" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C247" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C248" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C249" r:id="rId223" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C250" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C251" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C252" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C253" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C254" r:id="rId228" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C255" r:id="rId229" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C256" r:id="rId230" display="Maximum product subset of an array"/>
-    <hyperlink ref="C257" r:id="rId231" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C258" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C259" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C260" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C261" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C262" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C263" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C264" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C265" r:id="rId239" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C266" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C267" r:id="rId241" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C268" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C269" r:id="rId243" display="Picking Up Chicks"/>
-    <hyperlink ref="C270" r:id="rId244" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C271" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C272" r:id="rId246" display="K Centers Problem"/>
-    <hyperlink ref="C273" r:id="rId247" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C274" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C275" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C276" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C279" r:id="rId251" display="Rat in a maze Problem"/>
-    <hyperlink ref="C280" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C281" r:id="rId253" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C282" r:id="rId254" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C283" r:id="rId255" display="Sudoku Solver"/>
-    <hyperlink ref="C284" r:id="rId256" display="m Coloring Problem"/>
-    <hyperlink ref="C285" r:id="rId257" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C286" r:id="rId258" display="Subset Sum Problem"/>
-    <hyperlink ref="C287" r:id="rId259" display="The Knight’s tour problem"/>
-    <hyperlink ref="C288" r:id="rId260" display="Tug of War"/>
-    <hyperlink ref="C289" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C290" r:id="rId262" display="Combinational Sum"/>
-    <hyperlink ref="C291" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C292" r:id="rId264" display="Print all permutations of a string "/>
-    <hyperlink ref="C293" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C294" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C295" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C296" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C297" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C300" r:id="rId270" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C301" r:id="rId271" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C302" r:id="rId272" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C303" r:id="rId273" display="find the middle element of a stack"/>
-    <hyperlink ref="C304" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C305" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C306" r:id="rId276" display="Reverse a String using Stack"/>
-    <hyperlink ref="C307" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C308" r:id="rId278" display="Find the next Greater element"/>
-    <hyperlink ref="C309" r:id="rId279" display="The celebrity Problem"/>
-    <hyperlink ref="C310" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C311" r:id="rId281" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C312" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C313" r:id="rId283" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C314" r:id="rId284" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C315" r:id="rId285" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C316" r:id="rId286" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C317" r:id="rId287" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C318" r:id="rId288" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C319" r:id="rId289" display="Implement Stack using Queue"/>
-    <hyperlink ref="C320" r:id="rId290" display="Implement Stack using Deque"/>
-    <hyperlink ref="C321" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C322" r:id="rId292" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C323" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C324" r:id="rId294" display="Implement a Circular queue"/>
-    <hyperlink ref="C325" r:id="rId295" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C326" r:id="rId296" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C327" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C328" r:id="rId298" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C329" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C330" r:id="rId300" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C331" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C332" r:id="rId302" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C333" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C334" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C335" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C336" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C337" r:id="rId307" display="Next Smaller Element"/>
-    <hyperlink ref="C340" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C341" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C342" r:id="rId310" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C343" r:id="rId311" display="“k” largest element in an array"/>
-    <hyperlink ref="C344" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C345" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C346" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C347" r:id="rId315" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C348" r:id="rId316" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C349" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C350" r:id="rId318" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C351" r:id="rId319" display="Median in a stream of Integers"/>
-    <hyperlink ref="C352" r:id="rId320" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C353" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C354" r:id="rId322" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C355" r:id="rId323" display="Convert min heap to max heap"/>
-    <hyperlink ref="C356" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C357" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C360" r:id="rId326" display="Create a Graph, print it"/>
-    <hyperlink ref="C361" r:id="rId327" display="Implement BFS algorithm "/>
-    <hyperlink ref="C362" r:id="rId328" display="Implement DFS Algo "/>
-    <hyperlink ref="C363" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C364" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C365" r:id="rId331" display="Search in a Maze"/>
-    <hyperlink ref="C366" r:id="rId332" display="Minimum Step by Knight"/>
-    <hyperlink ref="C367" r:id="rId333" display="flood fill algo"/>
-    <hyperlink ref="C368" r:id="rId334" display="Clone a graph"/>
-    <hyperlink ref="C369" r:id="rId335" display="Making wired Connections"/>
-    <hyperlink ref="C370" r:id="rId336" display="word Ladder "/>
-    <hyperlink ref="C371" r:id="rId337" display="Dijkstra algo"/>
-    <hyperlink ref="C372" r:id="rId338" display="Implement Topological Sort "/>
-    <hyperlink ref="C373" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C374" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C375" r:id="rId341" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C376" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C377" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C378" r:id="rId344" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C379" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C380" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C381" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C382" r:id="rId348" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C383" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C384" r:id="rId350" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C385" r:id="rId351" display="Find bridge in a graph"/>
-    <hyperlink ref="C386" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C387" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C388" r:id="rId354" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C389" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C390" r:id="rId356" display="Journey to the Moon"/>
-    <hyperlink ref="C391" r:id="rId357" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C392" r:id="rId358" display="Oliver and the Game"/>
-    <hyperlink ref="C393" r:id="rId359" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C394" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C395" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C396" r:id="rId362" display="M-ColouringProblem"/>
-    <hyperlink ref="C397" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C398" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C399" r:id="rId365" display="Vertex Cover Problem"/>
-    <hyperlink ref="C400" r:id="rId366" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C401" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C402" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C403" r:id="rId369" display="Two Clique Problem"/>
-    <hyperlink ref="C406" r:id="rId370" display="Construct a trie from scratch"/>
-    <hyperlink ref="C407" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C408" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C409" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C410" r:id="rId374" display="Implement a Phone Directory"/>
-    <hyperlink ref="C411" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C414" r:id="rId376" display="Coin ChangeProblem"/>
-    <hyperlink ref="C415" r:id="rId377" display="Knapsack Problem"/>
-    <hyperlink ref="C416" r:id="rId378" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C417" r:id="rId379" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C418" r:id="rId380" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C419" r:id="rId381" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C420" r:id="rId382" display="Edit Distance"/>
-    <hyperlink ref="C421" r:id="rId383" display="Subset Sum Problem"/>
-    <hyperlink ref="C422" r:id="rId384" display="Friends Pairing Problem"/>
-    <hyperlink ref="C423" r:id="rId385" display="Gold Mine Problem"/>
-    <hyperlink ref="C424" r:id="rId386" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C425" r:id="rId387" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C426" r:id="rId388" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C427" r:id="rId389" display="Longest Common Subsequence"/>
-    <hyperlink ref="C428" r:id="rId390" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C429" r:id="rId391" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C430" r:id="rId392" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C431" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C432" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C433" r:id="rId395" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C434" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C435" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C436" r:id="rId398" display="Egg Dropping Problem"/>
-    <hyperlink ref="C437" r:id="rId399" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C438" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C439" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C440" r:id="rId402" display="Min Cost PathProblem"/>
-    <hyperlink ref="C441" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C442" r:id="rId404" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C443" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C444" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C445" r:id="rId407" display="Longest Common Substring"/>
-    <hyperlink ref="C446" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C447" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C448" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C449" r:id="rId411" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C450" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C451" r:id="rId413" display="Word Break Problem"/>
-    <hyperlink ref="C452" r:id="rId414" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C453" r:id="rId415" display="Partition problem"/>
-    <hyperlink ref="C454" r:id="rId416" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C455" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C456" r:id="rId418" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C457" r:id="rId419" display="Longest alternating subsequence"/>
-    <hyperlink ref="C458" r:id="rId420" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C459" r:id="rId421" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C460" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C461" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C462" r:id="rId424" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C463" r:id="rId425" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C464" r:id="rId426" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C465" r:id="rId427" display="Word Wrap Problem"/>
-    <hyperlink ref="C466" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C467" r:id="rId429" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C468" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C469" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C470" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C471" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C472" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C473" r:id="rId435" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C476" r:id="rId436" display="Count set bits in an integer"/>
-    <hyperlink ref="C477" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C478" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C479" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C480" r:id="rId440" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C481" r:id="rId441" display="Find position of the only set bit"/>
-    <hyperlink ref="C482" r:id="rId442" display="Copy set bits in a range"/>
-    <hyperlink ref="C483" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C484" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C485" r:id="rId445" display="Power Set"/>
+    <hyperlink ref="C48" r:id="rId37" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="C49" r:id="rId38" display="Search an element in a matriix"/>
+    <hyperlink ref="C50" r:id="rId39" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="C51" r:id="rId40" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="C52" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C53" r:id="rId42" display="Maximum size rectangle"/>
+    <hyperlink ref="C54" r:id="rId43" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C55" r:id="rId44" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="C56" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="C57" r:id="rId46" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C63" r:id="rId47" display="Reverse a String"/>
+    <hyperlink ref="C64" r:id="rId48" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C65" r:id="rId49" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C67" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C68" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C69" r:id="rId52" display="Count and Say problem"/>
+    <hyperlink ref="C70" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
+    <hyperlink ref="C71" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
+    <hyperlink ref="C72" r:id="rId55" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C73" r:id="rId56" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C74" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C75" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C76" r:id="rId59" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C77" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C78" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C79" r:id="rId62" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C80" r:id="rId63" display="Rabin Karp Algo"/>
+    <hyperlink ref="C81" r:id="rId64" display="KMP Algo"/>
+    <hyperlink ref="C82" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C83" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C84" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C85" r:id="rId68" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C86" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C87" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C88" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C89" r:id="rId72" display="Longest Common Prefix"/>
+    <hyperlink ref="C90" r:id="rId73" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C91" r:id="rId74" display="Find the first repeated word in string."/>
+    <hyperlink ref="C92" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C93" r:id="rId76" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C94" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C95" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C96" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C97" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C98" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C99" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C100" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C101" r:id="rId84" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C102" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C103" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C104" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C105" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C108" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C109" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C110" r:id="rId91" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C111" r:id="rId92" display="square root of an integer"/>
+    <hyperlink ref="C112" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C113" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C114" r:id="rId95" display="Find the repeating and the missing"/>
+    <hyperlink ref="C115" r:id="rId96" display="find majority element"/>
+    <hyperlink ref="C116" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C117" r:id="rId98" display="find a pair with a given difference"/>
+    <hyperlink ref="C118" r:id="rId99" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C119" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C120" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C121" r:id="rId102" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C122" r:id="rId103" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C123" r:id="rId104" display="Product array Puzzle"/>
+    <hyperlink ref="C124" r:id="rId105" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C125" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C126" r:id="rId107" display="Bishu and Soldiers"/>
+    <hyperlink ref="C127" r:id="rId108" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C128" r:id="rId109" display="Kth smallest number again"/>
+    <hyperlink ref="C129" r:id="rId110" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C130" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C131" r:id="rId112" display="Aggressive cows"/>
+    <hyperlink ref="C132" r:id="rId113" display="Book Allocation Problem"/>
+    <hyperlink ref="C133" r:id="rId114" display="EKOSPOJ:"/>
+    <hyperlink ref="C134" r:id="rId115" display="Job Scheduling Algo"/>
+    <hyperlink ref="C135" r:id="rId116" display="Missing Number in AP"/>
+    <hyperlink ref="C136" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C137" r:id="rId118" display="Painters Partition Problem:"/>
+    <hyperlink ref="C138" r:id="rId119" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C139" r:id="rId120" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C140" r:id="rId121" display="Subset Sums"/>
+    <hyperlink ref="C141" r:id="rId122" display="Findthe inversion count"/>
+    <hyperlink ref="C142" r:id="rId123" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C143" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C146" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C147" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C148" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C149" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C150" r:id="rId129" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C151" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C152" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C153" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C154" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C155" r:id="rId134" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C156" r:id="rId135" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C157" r:id="rId136" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C158" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C159" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C160" r:id="rId139" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C161" r:id="rId140" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C162" r:id="rId141" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C163" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C164" r:id="rId143" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C165" r:id="rId144" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C166" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C167" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C168" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C169" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C170" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C173" r:id="rId150" display="Flatten a Linked List"/>
+    <hyperlink ref="C174" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C175" r:id="rId152" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C176" r:id="rId153" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C177" r:id="rId154" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C178" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C179" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C180" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C181" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C184" r:id="rId159" display="level order traversal"/>
+    <hyperlink ref="C185" r:id="rId160" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C186" r:id="rId161" display="Height of a tree"/>
+    <hyperlink ref="C187" r:id="rId162" display="Diameter of a tree"/>
+    <hyperlink ref="C188" r:id="rId163" display="Mirror of a tree"/>
+    <hyperlink ref="C189" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C190" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C191" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C192" r:id="rId167" display="Left View of a tree"/>
+    <hyperlink ref="C193" r:id="rId168" display="Right View of Tree"/>
+    <hyperlink ref="C194" r:id="rId169" display="Top View of a tree"/>
+    <hyperlink ref="C195" r:id="rId170" display="Bottom View of a tree"/>
+    <hyperlink ref="C196" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C197" r:id="rId172" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C198" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C199" r:id="rId174" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C200" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C201" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C202" r:id="rId177" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C203" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C204" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C205" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C206" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C207" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C208" r:id="rId183" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C209" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C210" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C211" r:id="rId186" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C212" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C213" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C214" r:id="rId189" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C215" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C216" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C217" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C218" r:id="rId193" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C221" r:id="rId194" display="Fina a value in a BST"/>
+    <hyperlink ref="C222" r:id="rId195" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C223" r:id="rId196" display="Find min and max value in a BST"/>
+    <hyperlink ref="C224" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C225" r:id="rId198" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C226" r:id="rId199" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C227" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C228" r:id="rId201" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C229" r:id="rId202" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C230" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C231" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C232" r:id="rId205" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C233" r:id="rId206" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C234" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C235" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C236" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C237" r:id="rId210" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C238" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C239" r:id="rId212" display="Check preorder is valid or not"/>
+    <hyperlink ref="C240" r:id="rId213" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C241" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C242" r:id="rId215" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C245" r:id="rId216" display="Activity Selection Problem"/>
+    <hyperlink ref="C246" r:id="rId217" display="Job SequencingProblem"/>
+    <hyperlink ref="C247" r:id="rId218" display="Huffman Coding"/>
+    <hyperlink ref="C248" r:id="rId219" display="Water Connection Problem"/>
+    <hyperlink ref="C249" r:id="rId220" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C250" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C251" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C252" r:id="rId223" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C253" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C254" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C255" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C256" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C257" r:id="rId228" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C258" r:id="rId229" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C259" r:id="rId230" display="Maximum product subset of an array"/>
+    <hyperlink ref="C260" r:id="rId231" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C261" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C262" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C263" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C264" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C265" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C266" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C267" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C268" r:id="rId239" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C269" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C270" r:id="rId241" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C271" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C272" r:id="rId243" display="Picking Up Chicks"/>
+    <hyperlink ref="C273" r:id="rId244" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C274" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C275" r:id="rId246" display="K Centers Problem"/>
+    <hyperlink ref="C276" r:id="rId247" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C277" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C278" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C279" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C282" r:id="rId251" display="Rat in a maze Problem"/>
+    <hyperlink ref="C283" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C284" r:id="rId253" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C285" r:id="rId254" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C286" r:id="rId255" display="Sudoku Solver"/>
+    <hyperlink ref="C287" r:id="rId256" display="m Coloring Problem"/>
+    <hyperlink ref="C288" r:id="rId257" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C289" r:id="rId258" display="Subset Sum Problem"/>
+    <hyperlink ref="C290" r:id="rId259" display="The Knight’s tour problem"/>
+    <hyperlink ref="C291" r:id="rId260" display="Tug of War"/>
+    <hyperlink ref="C292" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C293" r:id="rId262" display="Combinational Sum"/>
+    <hyperlink ref="C294" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C295" r:id="rId264" display="Print all permutations of a string "/>
+    <hyperlink ref="C296" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C297" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C298" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C299" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C300" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C303" r:id="rId270" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C304" r:id="rId271" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C305" r:id="rId272" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C306" r:id="rId273" display="find the middle element of a stack"/>
+    <hyperlink ref="C307" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C308" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C309" r:id="rId276" display="Reverse a String using Stack"/>
+    <hyperlink ref="C310" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C311" r:id="rId278" display="Find the next Greater element"/>
+    <hyperlink ref="C312" r:id="rId279" display="The celebrity Problem"/>
+    <hyperlink ref="C313" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C314" r:id="rId281" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C315" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C316" r:id="rId283" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C317" r:id="rId284" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C318" r:id="rId285" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C319" r:id="rId286" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C320" r:id="rId287" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C321" r:id="rId288" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C322" r:id="rId289" display="Implement Stack using Queue"/>
+    <hyperlink ref="C323" r:id="rId290" display="Implement Stack using Deque"/>
+    <hyperlink ref="C324" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C325" r:id="rId292" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C326" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C327" r:id="rId294" display="Implement a Circular queue"/>
+    <hyperlink ref="C328" r:id="rId295" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C329" r:id="rId296" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C330" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C331" r:id="rId298" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C332" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C333" r:id="rId300" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C334" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C335" r:id="rId302" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C336" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C337" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C338" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C339" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C340" r:id="rId307" display="Next Smaller Element"/>
+    <hyperlink ref="C343" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C344" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C345" r:id="rId310" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C346" r:id="rId311" display="“k” largest element in an array"/>
+    <hyperlink ref="C347" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C348" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C349" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C350" r:id="rId315" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C351" r:id="rId316" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C352" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C353" r:id="rId318" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C354" r:id="rId319" display="Median in a stream of Integers"/>
+    <hyperlink ref="C355" r:id="rId320" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C356" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C357" r:id="rId322" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C358" r:id="rId323" display="Convert min heap to max heap"/>
+    <hyperlink ref="C359" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C360" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C363" r:id="rId326" display="Create a Graph, print it"/>
+    <hyperlink ref="C364" r:id="rId327" display="Implement BFS algorithm "/>
+    <hyperlink ref="C365" r:id="rId328" display="Implement DFS Algo "/>
+    <hyperlink ref="C366" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C367" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C368" r:id="rId331" display="Search in a Maze"/>
+    <hyperlink ref="C369" r:id="rId332" display="Minimum Step by Knight"/>
+    <hyperlink ref="C370" r:id="rId333" display="flood fill algo"/>
+    <hyperlink ref="C371" r:id="rId334" display="Clone a graph"/>
+    <hyperlink ref="C372" r:id="rId335" display="Making wired Connections"/>
+    <hyperlink ref="C373" r:id="rId336" display="word Ladder "/>
+    <hyperlink ref="C374" r:id="rId337" display="Dijkstra algo"/>
+    <hyperlink ref="C375" r:id="rId338" display="Implement Topological Sort "/>
+    <hyperlink ref="C376" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C377" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C378" r:id="rId341" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C379" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C380" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C381" r:id="rId344" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C382" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C383" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C384" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C385" r:id="rId348" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C386" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C387" r:id="rId350" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C388" r:id="rId351" display="Find bridge in a graph"/>
+    <hyperlink ref="C389" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C390" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C391" r:id="rId354" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C392" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C393" r:id="rId356" display="Journey to the Moon"/>
+    <hyperlink ref="C394" r:id="rId357" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C395" r:id="rId358" display="Oliver and the Game"/>
+    <hyperlink ref="C396" r:id="rId359" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C397" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C398" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C399" r:id="rId362" display="M-ColouringProblem"/>
+    <hyperlink ref="C400" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C401" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C402" r:id="rId365" display="Vertex Cover Problem"/>
+    <hyperlink ref="C403" r:id="rId366" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C404" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C405" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C406" r:id="rId369" display="Two Clique Problem"/>
+    <hyperlink ref="C409" r:id="rId370" display="Construct a trie from scratch"/>
+    <hyperlink ref="C410" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C411" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C412" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C413" r:id="rId374" display="Implement a Phone Directory"/>
+    <hyperlink ref="C414" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C417" r:id="rId376" display="Coin ChangeProblem"/>
+    <hyperlink ref="C418" r:id="rId377" display="Knapsack Problem"/>
+    <hyperlink ref="C419" r:id="rId378" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C420" r:id="rId379" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C421" r:id="rId380" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C422" r:id="rId381" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C423" r:id="rId382" display="Edit Distance"/>
+    <hyperlink ref="C424" r:id="rId383" display="Subset Sum Problem"/>
+    <hyperlink ref="C425" r:id="rId384" display="Friends Pairing Problem"/>
+    <hyperlink ref="C426" r:id="rId385" display="Gold Mine Problem"/>
+    <hyperlink ref="C427" r:id="rId386" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C428" r:id="rId387" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C429" r:id="rId388" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C430" r:id="rId389" display="Longest Common Subsequence"/>
+    <hyperlink ref="C431" r:id="rId390" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C432" r:id="rId391" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C433" r:id="rId392" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C434" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C435" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C436" r:id="rId395" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C437" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C438" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C439" r:id="rId398" display="Egg Dropping Problem"/>
+    <hyperlink ref="C440" r:id="rId399" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C441" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C442" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C443" r:id="rId402" display="Min Cost PathProblem"/>
+    <hyperlink ref="C444" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C445" r:id="rId404" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C446" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C447" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C448" r:id="rId407" display="Longest Common Substring"/>
+    <hyperlink ref="C449" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C450" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C451" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C452" r:id="rId411" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C453" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C454" r:id="rId413" display="Word Break Problem"/>
+    <hyperlink ref="C455" r:id="rId414" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C456" r:id="rId415" display="Partition problem"/>
+    <hyperlink ref="C457" r:id="rId416" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C458" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C459" r:id="rId418" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C460" r:id="rId419" display="Longest alternating subsequence"/>
+    <hyperlink ref="C461" r:id="rId420" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C462" r:id="rId421" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C463" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C464" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C465" r:id="rId424" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C466" r:id="rId425" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C467" r:id="rId426" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C468" r:id="rId427" display="Word Wrap Problem"/>
+    <hyperlink ref="C469" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C470" r:id="rId429" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C471" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C472" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C473" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C474" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C475" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C476" r:id="rId435" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C479" r:id="rId436" display="Count set bits in an integer"/>
+    <hyperlink ref="C480" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C481" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C482" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C483" r:id="rId440" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C484" r:id="rId441" display="Find position of the only set bit"/>
+    <hyperlink ref="C485" r:id="rId442" display="Copy set bits in a range"/>
+    <hyperlink ref="C486" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C487" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C488" r:id="rId445" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1550,7 +1550,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1578,7 +1578,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5EB91E"/>
-        <bgColor rgb="FF808000"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
@@ -1591,6 +1591,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF5EB91E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1656,7 +1662,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1757,11 +1763,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1770,6 +1776,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1800,7 +1810,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1831,7 +1841,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF5EB91E"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1858,10 +1868,10 @@
   <dimension ref="A1:E488"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2480,7 +2490,7 @@
       <c r="C49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2578,7 +2588,7 @@
       <c r="C56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2754,7 +2764,7 @@
       <c r="C70" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3939,7 +3949,7 @@
       <c r="C158" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="D158" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4149,7 +4159,7 @@
       <c r="C173" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D173" s="26" t="s">
+      <c r="D173" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4247,7 +4257,7 @@
       <c r="C180" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D180" s="27" t="s">
+      <c r="D180" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4261,7 +4271,7 @@
       <c r="C181" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D181" s="28" t="s">
+      <c r="D181" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4587,7 +4597,7 @@
       <c r="C206" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D206" s="27" t="s">
+      <c r="D206" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4860,7 +4870,7 @@
       <c r="B227" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="29" t="s">
+      <c r="C227" s="30" t="s">
         <v>228</v>
       </c>
       <c r="D227" s="13" t="s">
@@ -6046,7 +6056,7 @@
       <c r="B316" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C316" s="29" t="s">
+      <c r="C316" s="30" t="s">
         <v>313</v>
       </c>
       <c r="D316" s="9" t="s">
@@ -6516,7 +6526,7 @@
       <c r="B351" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C351" s="29" t="s">
+      <c r="C351" s="30" t="s">
         <v>347</v>
       </c>
       <c r="D351" s="9" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1662,7 +1662,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1729,10 +1729,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1867,11 +1863,11 @@
   </sheetPr>
   <dimension ref="A1:E488"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2070,7 +2066,7 @@
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2420,7 +2416,7 @@
       <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -2432,7 +2428,7 @@
       <c r="C43" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -2441,30 +2437,30 @@
       <c r="B44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" s="24" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21" t="s">
+      <c r="D44" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" s="23" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="10"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="23"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="10"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="23"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -2490,7 +2486,7 @@
       <c r="C49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2574,7 +2570,7 @@
       <c r="C55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2588,7 +2584,7 @@
       <c r="C56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2649,11 +2645,11 @@
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="23"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10"/>
-      <c r="C62" s="19"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2701,7 @@
       <c r="B66" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D66" s="12" t="s">
@@ -2764,7 +2760,7 @@
       <c r="C70" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3260,7 +3256,7 @@
     </row>
     <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="10"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,7 +3764,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="19"/>
+      <c r="C145" s="18"/>
       <c r="D145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,7 +3945,7 @@
       <c r="C158" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4128,7 +4124,7 @@
       <c r="B171" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D171" s="12" t="s">
@@ -4142,7 +4138,7 @@
       <c r="B172" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C172" s="19" t="s">
+      <c r="C172" s="18" t="s">
         <v>175</v>
       </c>
       <c r="D172" s="9" t="s">
@@ -4159,7 +4155,7 @@
       <c r="C173" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D173" s="27" t="s">
+      <c r="D173" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4257,7 +4253,7 @@
       <c r="C180" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D180" s="28" t="s">
+      <c r="D180" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4271,12 +4267,12 @@
       <c r="C181" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D181" s="29" t="s">
+      <c r="D181" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="19"/>
+      <c r="C183" s="18"/>
       <c r="D183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4597,7 +4593,7 @@
       <c r="C206" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D206" s="28" t="s">
+      <c r="D206" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4771,12 +4767,12 @@
     </row>
     <row r="219" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="10"/>
-      <c r="C219" s="19"/>
+      <c r="C219" s="18"/>
       <c r="D219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="10"/>
-      <c r="C220" s="19"/>
+      <c r="C220" s="18"/>
       <c r="D220" s="9"/>
     </row>
     <row r="221" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,7 +4866,7 @@
       <c r="B227" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="30" t="s">
+      <c r="C227" s="29" t="s">
         <v>228</v>
       </c>
       <c r="D227" s="13" t="s">
@@ -5088,11 +5084,11 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="19"/>
+      <c r="C243" s="18"/>
       <c r="D243" s="9"/>
     </row>
     <row r="244" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="19"/>
+      <c r="C244" s="18"/>
       <c r="D244" s="9"/>
     </row>
     <row r="245" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,11 +5582,11 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="19"/>
+      <c r="C280" s="18"/>
       <c r="D280" s="9"/>
     </row>
     <row r="281" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="19"/>
+      <c r="C281" s="18"/>
       <c r="D281" s="9"/>
     </row>
     <row r="282" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,11 +5856,11 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="19"/>
+      <c r="C301" s="18"/>
       <c r="D301" s="9"/>
     </row>
     <row r="302" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="19"/>
+      <c r="C302" s="18"/>
       <c r="D302" s="9"/>
     </row>
     <row r="303" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6056,7 +6052,7 @@
       <c r="B316" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C316" s="30" t="s">
+      <c r="C316" s="29" t="s">
         <v>313</v>
       </c>
       <c r="D316" s="9" t="s">
@@ -6400,11 +6396,11 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="19"/>
+      <c r="C341" s="18"/>
       <c r="D341" s="9"/>
     </row>
     <row r="342" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="19"/>
+      <c r="C342" s="18"/>
       <c r="D342" s="9"/>
     </row>
     <row r="343" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,7 +6522,7 @@
       <c r="B351" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C351" s="30" t="s">
+      <c r="C351" s="29" t="s">
         <v>347</v>
       </c>
       <c r="D351" s="9" t="s">
@@ -6660,11 +6656,11 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="19"/>
+      <c r="C361" s="18"/>
       <c r="D361" s="9"/>
     </row>
     <row r="362" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="19"/>
+      <c r="C362" s="18"/>
       <c r="D362" s="9"/>
     </row>
     <row r="363" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7284,11 +7280,11 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="19"/>
+      <c r="C407" s="18"/>
       <c r="D407" s="9"/>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="19"/>
+      <c r="C408" s="18"/>
       <c r="D408" s="9"/>
     </row>
     <row r="409" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,11 +7372,11 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="19"/>
+      <c r="C415" s="18"/>
       <c r="D415" s="9"/>
     </row>
     <row r="416" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="19"/>
+      <c r="C416" s="18"/>
       <c r="D416" s="9"/>
     </row>
     <row r="417" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,12 +8220,12 @@
       </c>
     </row>
     <row r="477" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="19"/>
+      <c r="C477" s="18"/>
       <c r="D477" s="9"/>
     </row>
     <row r="478" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="10"/>
-      <c r="C478" s="19"/>
+      <c r="C478" s="18"/>
       <c r="D478" s="9"/>
     </row>
     <row r="479" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="480">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1421,6 +1421,12 @@
   </si>
   <si>
     <t xml:space="preserve">Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Paths</t>
   </si>
   <si>
     <t xml:space="preserve">Bit Manipulation</t>
@@ -1662,7 +1668,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1783,6 +1789,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1861,13 +1871,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E488"/>
+  <dimension ref="A1:E489"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A464" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C466" activeCellId="0" sqref="C466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -8219,38 +8229,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="18"/>
-      <c r="D477" s="9"/>
+    <row r="477" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C477" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D477" s="30"/>
     </row>
     <row r="478" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B478" s="10"/>
       <c r="C478" s="18"/>
       <c r="D478" s="9"/>
     </row>
-    <row r="479" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B479" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C479" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D479" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="479" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="10"/>
+      <c r="C479" s="18"/>
+      <c r="D479" s="9"/>
     </row>
     <row r="480" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>7</v>
@@ -8258,13 +8266,13 @@
     </row>
     <row r="481" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>7</v>
@@ -8272,13 +8280,13 @@
     </row>
     <row r="482" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>7</v>
@@ -8286,13 +8294,13 @@
     </row>
     <row r="483" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>7</v>
@@ -8300,13 +8308,13 @@
     </row>
     <row r="484" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D484" s="9" t="s">
         <v>7</v>
@@ -8314,13 +8322,13 @@
     </row>
     <row r="485" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>7</v>
@@ -8328,13 +8336,13 @@
     </row>
     <row r="486" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>7</v>
@@ -8342,13 +8350,13 @@
     </row>
     <row r="487" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D487" s="9" t="s">
         <v>7</v>
@@ -8356,15 +8364,29 @@
     </row>
     <row r="488" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B488" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C488" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D488" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="B488" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C488" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="D488" s="9" t="s">
+      <c r="B489" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C489" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D489" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8805,16 +8827,16 @@
     <hyperlink ref="C474" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
     <hyperlink ref="C475" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
     <hyperlink ref="C476" r:id="rId435" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C479" r:id="rId436" display="Count set bits in an integer"/>
-    <hyperlink ref="C480" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C481" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C482" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C483" r:id="rId440" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C484" r:id="rId441" display="Find position of the only set bit"/>
-    <hyperlink ref="C485" r:id="rId442" display="Copy set bits in a range"/>
-    <hyperlink ref="C486" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C487" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C488" r:id="rId445" display="Power Set"/>
+    <hyperlink ref="C480" r:id="rId436" display="Count set bits in an integer"/>
+    <hyperlink ref="C481" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C482" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C483" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C484" r:id="rId440" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C485" r:id="rId441" display="Find position of the only set bit"/>
+    <hyperlink ref="C486" r:id="rId442" display="Copy set bits in a range"/>
+    <hyperlink ref="C487" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C488" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C489" r:id="rId445" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="482">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t xml:space="preserve">1695. Maximum Erasure Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169. Majority Element</t>
   </si>
   <si>
     <t xml:space="preserve">Matrix</t>
@@ -1668,7 +1674,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1757,12 +1763,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1873,11 +1883,11 @@
   </sheetPr>
   <dimension ref="A1:E489"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A464" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C466" activeCellId="0" sqref="C466"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2455,32 +2465,36 @@
       </c>
     </row>
     <row r="45" s="23" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19"/>
+      <c r="A45" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="B45" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="D45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="10"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="10"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="22"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>7</v>
@@ -2491,12 +2505,12 @@
         <v>38</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2505,10 +2519,10 @@
         <v>39</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>7</v>
@@ -2519,10 +2533,10 @@
         <v>40</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>7</v>
@@ -2533,10 +2547,10 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>7</v>
@@ -2547,10 +2561,10 @@
         <v>42</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>7</v>
@@ -2561,10 +2575,10 @@
         <v>43</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>7</v>
@@ -2575,10 +2589,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>7</v>
@@ -2589,12 +2603,12 @@
         <v>45</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2603,10 +2617,10 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>7</v>
@@ -2614,13 +2628,13 @@
     </row>
     <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>7</v>
@@ -2628,13 +2642,13 @@
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>7</v>
@@ -2642,20 +2656,20 @@
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10"/>
@@ -2667,10 +2681,10 @@
         <v>47</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>7</v>
@@ -2681,10 +2695,10 @@
         <v>48</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>7</v>
@@ -2695,10 +2709,10 @@
         <v>49</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>7</v>
@@ -2709,10 +2723,10 @@
         <v>50</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>7</v>
@@ -2723,10 +2737,10 @@
         <v>51</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>7</v>
@@ -2737,10 +2751,10 @@
         <v>52</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>7</v>
@@ -2751,10 +2765,10 @@
         <v>53</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>7</v>
@@ -2765,12 +2779,12 @@
         <v>54</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2779,10 +2793,10 @@
         <v>55</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>7</v>
@@ -2793,10 +2807,10 @@
         <v>56</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>7</v>
@@ -2807,10 +2821,10 @@
         <v>57</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>7</v>
@@ -2821,10 +2835,10 @@
         <v>58</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>7</v>
@@ -2835,10 +2849,10 @@
         <v>59</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>7</v>
@@ -2849,10 +2863,10 @@
         <v>60</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>7</v>
@@ -2863,10 +2877,10 @@
         <v>61</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>7</v>
@@ -2877,10 +2891,10 @@
         <v>62</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>7</v>
@@ -2891,10 +2905,10 @@
         <v>63</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
@@ -2905,10 +2919,10 @@
         <v>64</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>7</v>
@@ -2919,10 +2933,10 @@
         <v>65</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>7</v>
@@ -2933,10 +2947,10 @@
         <v>66</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>7</v>
@@ -2947,10 +2961,10 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>7</v>
@@ -2961,10 +2975,10 @@
         <v>68</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>7</v>
@@ -2975,10 +2989,10 @@
         <v>69</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>7</v>
@@ -2989,10 +3003,10 @@
         <v>70</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>7</v>
@@ -3003,10 +3017,10 @@
         <v>71</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>7</v>
@@ -3017,10 +3031,10 @@
         <v>72</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>7</v>
@@ -3031,10 +3045,10 @@
         <v>73</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>7</v>
@@ -3045,10 +3059,10 @@
         <v>74</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>7</v>
@@ -3059,10 +3073,10 @@
         <v>75</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>7</v>
@@ -3073,10 +3087,10 @@
         <v>76</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>7</v>
@@ -3087,10 +3101,10 @@
         <v>77</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>7</v>
@@ -3101,10 +3115,10 @@
         <v>78</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>7</v>
@@ -3115,10 +3129,10 @@
         <v>79</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>7</v>
@@ -3129,10 +3143,10 @@
         <v>80</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>7</v>
@@ -3143,10 +3157,10 @@
         <v>81</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>7</v>
@@ -3157,10 +3171,10 @@
         <v>82</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>7</v>
@@ -3171,10 +3185,10 @@
         <v>83</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>7</v>
@@ -3185,10 +3199,10 @@
         <v>84</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>7</v>
@@ -3199,10 +3213,10 @@
         <v>85</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>7</v>
@@ -3213,10 +3227,10 @@
         <v>86</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>7</v>
@@ -3227,10 +3241,10 @@
         <v>87</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>7</v>
@@ -3241,10 +3255,10 @@
         <v>88</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>7</v>
@@ -3255,10 +3269,10 @@
         <v>89</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>7</v>
@@ -3274,10 +3288,10 @@
         <v>90</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>7</v>
@@ -3288,10 +3302,10 @@
         <v>91</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>7</v>
@@ -3302,10 +3316,10 @@
         <v>92</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>7</v>
@@ -3316,10 +3330,10 @@
         <v>93</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>7</v>
@@ -3330,10 +3344,10 @@
         <v>94</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>7</v>
@@ -3344,10 +3358,10 @@
         <v>95</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>7</v>
@@ -3358,10 +3372,10 @@
         <v>96</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>7</v>
@@ -3372,10 +3386,10 @@
         <v>97</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>7</v>
@@ -3386,10 +3400,10 @@
         <v>98</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>7</v>
@@ -3400,10 +3414,10 @@
         <v>99</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>7</v>
@@ -3414,10 +3428,10 @@
         <v>100</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>7</v>
@@ -3428,10 +3442,10 @@
         <v>101</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>7</v>
@@ -3442,10 +3456,10 @@
         <v>102</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>7</v>
@@ -3456,10 +3470,10 @@
         <v>103</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>7</v>
@@ -3470,10 +3484,10 @@
         <v>104</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>7</v>
@@ -3484,10 +3498,10 @@
         <v>105</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>7</v>
@@ -3498,10 +3512,10 @@
         <v>106</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>7</v>
@@ -3512,10 +3526,10 @@
         <v>107</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>7</v>
@@ -3526,10 +3540,10 @@
         <v>108</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>7</v>
@@ -3540,10 +3554,10 @@
         <v>109</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>7</v>
@@ -3554,10 +3568,10 @@
         <v>110</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>7</v>
@@ -3568,10 +3582,10 @@
         <v>111</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>7</v>
@@ -3582,10 +3596,10 @@
         <v>112</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>7</v>
@@ -3596,10 +3610,10 @@
         <v>113</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>7</v>
@@ -3610,10 +3624,10 @@
         <v>114</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>7</v>
@@ -3624,10 +3638,10 @@
         <v>115</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>7</v>
@@ -3638,10 +3652,10 @@
         <v>116</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>7</v>
@@ -3652,10 +3666,10 @@
         <v>117</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>7</v>
@@ -3666,10 +3680,10 @@
         <v>118</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>7</v>
@@ -3680,10 +3694,10 @@
         <v>119</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>7</v>
@@ -3694,10 +3708,10 @@
         <v>120</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>7</v>
@@ -3708,10 +3722,10 @@
         <v>121</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>7</v>
@@ -3722,10 +3736,10 @@
         <v>122</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>7</v>
@@ -3736,10 +3750,10 @@
         <v>123</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>7</v>
@@ -3750,10 +3764,10 @@
         <v>124</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>7</v>
@@ -3764,10 +3778,10 @@
         <v>125</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>7</v>
@@ -3782,10 +3796,10 @@
         <v>126</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>7</v>
@@ -3796,10 +3810,10 @@
         <v>127</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>7</v>
@@ -3810,10 +3824,10 @@
         <v>128</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>7</v>
@@ -3824,10 +3838,10 @@
         <v>129</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>7</v>
@@ -3838,10 +3852,10 @@
         <v>130</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>7</v>
@@ -3852,10 +3866,10 @@
         <v>131</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>7</v>
@@ -3866,10 +3880,10 @@
         <v>132</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>7</v>
@@ -3880,10 +3894,10 @@
         <v>133</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>7</v>
@@ -3894,10 +3908,10 @@
         <v>134</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>7</v>
@@ -3908,10 +3922,10 @@
         <v>135</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>7</v>
@@ -3922,10 +3936,10 @@
         <v>136</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D156" s="13" t="s">
         <v>7</v>
@@ -3936,10 +3950,10 @@
         <v>137</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>7</v>
@@ -3950,12 +3964,12 @@
         <v>138</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D158" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D158" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3964,10 +3978,10 @@
         <v>139</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>7</v>
@@ -3978,10 +3992,10 @@
         <v>140</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>7</v>
@@ -3992,10 +4006,10 @@
         <v>141</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>7</v>
@@ -4006,10 +4020,10 @@
         <v>142</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>7</v>
@@ -4020,10 +4034,10 @@
         <v>143</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>7</v>
@@ -4034,10 +4048,10 @@
         <v>144</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>7</v>
@@ -4048,10 +4062,10 @@
         <v>145</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>7</v>
@@ -4062,10 +4076,10 @@
         <v>146</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>7</v>
@@ -4076,10 +4090,10 @@
         <v>147</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>7</v>
@@ -4090,10 +4104,10 @@
         <v>148</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>7</v>
@@ -4104,10 +4118,10 @@
         <v>149</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>7</v>
@@ -4118,10 +4132,10 @@
         <v>150</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>7</v>
@@ -4132,13 +4146,13 @@
         <v>151</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,10 +4160,10 @@
         <v>152</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>7</v>
@@ -4160,12 +4174,12 @@
         <v>153</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D173" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4174,10 +4188,10 @@
         <v>154</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>7</v>
@@ -4188,10 +4202,10 @@
         <v>155</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>7</v>
@@ -4202,10 +4216,10 @@
         <v>156</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>7</v>
@@ -4216,10 +4230,10 @@
         <v>157</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>7</v>
@@ -4230,10 +4244,10 @@
         <v>158</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D178" s="12" t="s">
         <v>7</v>
@@ -4244,10 +4258,10 @@
         <v>159</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>7</v>
@@ -4258,12 +4272,12 @@
         <v>160</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D180" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4272,12 +4286,12 @@
         <v>161</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D181" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D181" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4290,10 +4304,10 @@
         <v>162</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>7</v>
@@ -4304,10 +4318,10 @@
         <v>163</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>7</v>
@@ -4318,10 +4332,10 @@
         <v>164</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>7</v>
@@ -4332,10 +4346,10 @@
         <v>165</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>7</v>
@@ -4346,10 +4360,10 @@
         <v>166</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>7</v>
@@ -4360,10 +4374,10 @@
         <v>167</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D189" s="13" t="s">
         <v>7</v>
@@ -4374,10 +4388,10 @@
         <v>168</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D190" s="13" t="s">
         <v>7</v>
@@ -4388,10 +4402,10 @@
         <v>169</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>7</v>
@@ -4402,10 +4416,10 @@
         <v>170</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>7</v>
@@ -4416,10 +4430,10 @@
         <v>171</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>7</v>
@@ -4430,10 +4444,10 @@
         <v>172</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>7</v>
@@ -4444,10 +4458,10 @@
         <v>173</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>7</v>
@@ -4458,10 +4472,10 @@
         <v>174</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>7</v>
@@ -4472,10 +4486,10 @@
         <v>175</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>7</v>
@@ -4486,10 +4500,10 @@
         <v>176</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>7</v>
@@ -4500,10 +4514,10 @@
         <v>177</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>7</v>
@@ -4514,10 +4528,10 @@
         <v>178</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>7</v>
@@ -4528,10 +4542,10 @@
         <v>179</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>7</v>
@@ -4542,10 +4556,10 @@
         <v>180</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D202" s="12" t="s">
         <v>7</v>
@@ -4556,10 +4570,10 @@
         <v>181</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>7</v>
@@ -4570,10 +4584,10 @@
         <v>182</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>7</v>
@@ -4584,10 +4598,10 @@
         <v>183</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D205" s="15" t="s">
         <v>7</v>
@@ -4598,12 +4612,12 @@
         <v>184</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D206" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D206" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4612,10 +4626,10 @@
         <v>185</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>7</v>
@@ -4626,10 +4640,10 @@
         <v>186</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>7</v>
@@ -4640,10 +4654,10 @@
         <v>187</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>7</v>
@@ -4654,10 +4668,10 @@
         <v>188</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>7</v>
@@ -4668,10 +4682,10 @@
         <v>189</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>7</v>
@@ -4682,10 +4696,10 @@
         <v>190</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>7</v>
@@ -4696,10 +4710,10 @@
         <v>191</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>7</v>
@@ -4710,10 +4724,10 @@
         <v>192</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D214" s="13" t="s">
         <v>7</v>
@@ -4724,10 +4738,10 @@
         <v>193</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>7</v>
@@ -4738,10 +4752,10 @@
         <v>194</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>7</v>
@@ -4752,10 +4766,10 @@
         <v>195</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>7</v>
@@ -4766,10 +4780,10 @@
         <v>196</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>7</v>
@@ -4790,10 +4804,10 @@
         <v>197</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>7</v>
@@ -4804,10 +4818,10 @@
         <v>198</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>7</v>
@@ -4818,10 +4832,10 @@
         <v>199</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>7</v>
@@ -4832,10 +4846,10 @@
         <v>200</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>7</v>
@@ -4846,10 +4860,10 @@
         <v>201</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D225" s="13" t="s">
         <v>7</v>
@@ -4860,10 +4874,10 @@
         <v>202</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>7</v>
@@ -4874,10 +4888,10 @@
         <v>203</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C227" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="C227" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="D227" s="13" t="s">
         <v>7</v>
@@ -4888,10 +4902,10 @@
         <v>204</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D228" s="13" t="s">
         <v>7</v>
@@ -4902,10 +4916,10 @@
         <v>205</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>7</v>
@@ -4916,10 +4930,10 @@
         <v>206</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>7</v>
@@ -4930,10 +4944,10 @@
         <v>207</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>7</v>
@@ -4944,10 +4958,10 @@
         <v>208</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D232" s="15" t="s">
         <v>7</v>
@@ -4958,10 +4972,10 @@
         <v>209</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>7</v>
@@ -4972,10 +4986,10 @@
         <v>210</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>7</v>
@@ -4986,10 +5000,10 @@
         <v>211</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>7</v>
@@ -5000,10 +5014,10 @@
         <v>212</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>7</v>
@@ -5014,10 +5028,10 @@
         <v>213</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>7</v>
@@ -5028,10 +5042,10 @@
         <v>214</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>7</v>
@@ -5042,10 +5056,10 @@
         <v>215</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>7</v>
@@ -5056,10 +5070,10 @@
         <v>216</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>7</v>
@@ -5070,10 +5084,10 @@
         <v>217</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>7</v>
@@ -5084,10 +5098,10 @@
         <v>218</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>7</v>
@@ -5106,10 +5120,10 @@
         <v>219</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>7</v>
@@ -5120,10 +5134,10 @@
         <v>220</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>7</v>
@@ -5134,10 +5148,10 @@
         <v>221</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>7</v>
@@ -5148,10 +5162,10 @@
         <v>222</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>7</v>
@@ -5162,10 +5176,10 @@
         <v>223</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>7</v>
@@ -5176,10 +5190,10 @@
         <v>224</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>7</v>
@@ -5190,10 +5204,10 @@
         <v>225</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>7</v>
@@ -5204,10 +5218,10 @@
         <v>226</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>7</v>
@@ -5218,10 +5232,10 @@
         <v>227</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>7</v>
@@ -5232,10 +5246,10 @@
         <v>228</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>7</v>
@@ -5246,10 +5260,10 @@
         <v>229</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>7</v>
@@ -5260,10 +5274,10 @@
         <v>230</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>7</v>
@@ -5274,10 +5288,10 @@
         <v>231</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>7</v>
@@ -5288,10 +5302,10 @@
         <v>232</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>7</v>
@@ -5302,10 +5316,10 @@
         <v>233</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>7</v>
@@ -5316,10 +5330,10 @@
         <v>234</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>7</v>
@@ -5330,10 +5344,10 @@
         <v>235</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>7</v>
@@ -5344,10 +5358,10 @@
         <v>236</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>7</v>
@@ -5358,10 +5372,10 @@
         <v>237</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>7</v>
@@ -5372,10 +5386,10 @@
         <v>238</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>7</v>
@@ -5386,10 +5400,10 @@
         <v>239</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>7</v>
@@ -5400,10 +5414,10 @@
         <v>240</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>7</v>
@@ -5414,10 +5428,10 @@
         <v>241</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>7</v>
@@ -5428,10 +5442,10 @@
         <v>242</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>7</v>
@@ -5442,10 +5456,10 @@
         <v>243</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>7</v>
@@ -5456,10 +5470,10 @@
         <v>244</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>7</v>
@@ -5470,10 +5484,10 @@
         <v>245</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>7</v>
@@ -5484,10 +5498,10 @@
         <v>246</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>7</v>
@@ -5498,10 +5512,10 @@
         <v>247</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>7</v>
@@ -5512,10 +5526,10 @@
         <v>248</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>7</v>
@@ -5526,10 +5540,10 @@
         <v>249</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>7</v>
@@ -5540,10 +5554,10 @@
         <v>250</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>7</v>
@@ -5554,10 +5568,10 @@
         <v>251</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>7</v>
@@ -5568,10 +5582,10 @@
         <v>252</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>7</v>
@@ -5582,10 +5596,10 @@
         <v>253</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>7</v>
@@ -5604,10 +5618,10 @@
         <v>254</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>7</v>
@@ -5618,10 +5632,10 @@
         <v>255</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>7</v>
@@ -5632,10 +5646,10 @@
         <v>256</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>7</v>
@@ -5646,10 +5660,10 @@
         <v>257</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>7</v>
@@ -5660,10 +5674,10 @@
         <v>258</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>7</v>
@@ -5674,10 +5688,10 @@
         <v>259</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>7</v>
@@ -5688,10 +5702,10 @@
         <v>260</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>7</v>
@@ -5702,10 +5716,10 @@
         <v>261</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>7</v>
@@ -5716,10 +5730,10 @@
         <v>262</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
@@ -5730,10 +5744,10 @@
         <v>263</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
@@ -5744,10 +5758,10 @@
         <v>264</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
@@ -5758,10 +5772,10 @@
         <v>265</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
@@ -5772,10 +5786,10 @@
         <v>266</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
@@ -5786,10 +5800,10 @@
         <v>267</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
@@ -5800,10 +5814,10 @@
         <v>268</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>7</v>
@@ -5814,10 +5828,10 @@
         <v>269</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>7</v>
@@ -5828,10 +5842,10 @@
         <v>270</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>7</v>
@@ -5842,10 +5856,10 @@
         <v>271</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>7</v>
@@ -5856,10 +5870,10 @@
         <v>272</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>7</v>
@@ -5878,10 +5892,10 @@
         <v>273</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>7</v>
@@ -5892,10 +5906,10 @@
         <v>274</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>7</v>
@@ -5906,10 +5920,10 @@
         <v>275</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>7</v>
@@ -5920,10 +5934,10 @@
         <v>276</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>7</v>
@@ -5934,10 +5948,10 @@
         <v>277</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>7</v>
@@ -5948,10 +5962,10 @@
         <v>278</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>7</v>
@@ -5962,10 +5976,10 @@
         <v>279</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>7</v>
@@ -5976,10 +5990,10 @@
         <v>280</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>7</v>
@@ -5990,10 +6004,10 @@
         <v>281</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>7</v>
@@ -6004,10 +6018,10 @@
         <v>282</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>7</v>
@@ -6018,10 +6032,10 @@
         <v>283</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>7</v>
@@ -6032,10 +6046,10 @@
         <v>284</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>7</v>
@@ -6046,10 +6060,10 @@
         <v>285</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>7</v>
@@ -6060,10 +6074,10 @@
         <v>286</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C316" s="29" t="s">
-        <v>313</v>
+        <v>301</v>
+      </c>
+      <c r="C316" s="30" t="s">
+        <v>315</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>7</v>
@@ -6074,10 +6088,10 @@
         <v>287</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>7</v>
@@ -6088,10 +6102,10 @@
         <v>288</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>7</v>
@@ -6102,10 +6116,10 @@
         <v>289</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>7</v>
@@ -6116,10 +6130,10 @@
         <v>290</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>7</v>
@@ -6130,10 +6144,10 @@
         <v>291</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>7</v>
@@ -6144,10 +6158,10 @@
         <v>292</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>7</v>
@@ -6158,10 +6172,10 @@
         <v>293</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>7</v>
@@ -6172,10 +6186,10 @@
         <v>294</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>7</v>
@@ -6186,10 +6200,10 @@
         <v>295</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>7</v>
@@ -6200,10 +6214,10 @@
         <v>296</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>7</v>
@@ -6214,10 +6228,10 @@
         <v>297</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>7</v>
@@ -6228,10 +6242,10 @@
         <v>298</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>7</v>
@@ -6242,10 +6256,10 @@
         <v>299</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>7</v>
@@ -6256,10 +6270,10 @@
         <v>300</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>7</v>
@@ -6270,10 +6284,10 @@
         <v>301</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>7</v>
@@ -6284,10 +6298,10 @@
         <v>302</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>7</v>
@@ -6298,10 +6312,10 @@
         <v>303</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>7</v>
@@ -6312,10 +6326,10 @@
         <v>304</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>7</v>
@@ -6326,10 +6340,10 @@
         <v>305</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>7</v>
@@ -6340,10 +6354,10 @@
         <v>306</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>7</v>
@@ -6354,10 +6368,10 @@
         <v>307</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>7</v>
@@ -6368,10 +6382,10 @@
         <v>308</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>7</v>
@@ -6382,10 +6396,10 @@
         <v>309</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>7</v>
@@ -6396,10 +6410,10 @@
         <v>310</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>7</v>
@@ -6418,10 +6432,10 @@
         <v>311</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>7</v>
@@ -6432,10 +6446,10 @@
         <v>312</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>7</v>
@@ -6446,10 +6460,10 @@
         <v>313</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>7</v>
@@ -6460,10 +6474,10 @@
         <v>314</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>7</v>
@@ -6474,10 +6488,10 @@
         <v>315</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>7</v>
@@ -6488,10 +6502,10 @@
         <v>316</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>7</v>
@@ -6502,10 +6516,10 @@
         <v>317</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>7</v>
@@ -6516,10 +6530,10 @@
         <v>318</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>7</v>
@@ -6530,10 +6544,10 @@
         <v>319</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C351" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
+      </c>
+      <c r="C351" s="30" t="s">
+        <v>349</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>7</v>
@@ -6544,10 +6558,10 @@
         <v>320</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>7</v>
@@ -6558,10 +6572,10 @@
         <v>321</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>7</v>
@@ -6572,10 +6586,10 @@
         <v>322</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>7</v>
@@ -6586,10 +6600,10 @@
         <v>323</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>7</v>
@@ -6600,10 +6614,10 @@
         <v>324</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>7</v>
@@ -6614,10 +6628,10 @@
         <v>325</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>7</v>
@@ -6628,10 +6642,10 @@
         <v>326</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>7</v>
@@ -6642,10 +6656,10 @@
         <v>327</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>7</v>
@@ -6656,10 +6670,10 @@
         <v>328</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -6678,10 +6692,10 @@
         <v>329</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>7</v>
@@ -6692,10 +6706,10 @@
         <v>330</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>7</v>
@@ -6706,10 +6720,10 @@
         <v>331</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>7</v>
@@ -6720,10 +6734,10 @@
         <v>332</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>7</v>
@@ -6734,10 +6748,10 @@
         <v>333</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>7</v>
@@ -6748,10 +6762,10 @@
         <v>334</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>7</v>
@@ -6762,10 +6776,10 @@
         <v>335</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>7</v>
@@ -6776,10 +6790,10 @@
         <v>336</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>7</v>
@@ -6790,10 +6804,10 @@
         <v>337</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>7</v>
@@ -6804,10 +6818,10 @@
         <v>338</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>7</v>
@@ -6818,10 +6832,10 @@
         <v>339</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>7</v>
@@ -6832,10 +6846,10 @@
         <v>340</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>7</v>
@@ -6846,10 +6860,10 @@
         <v>341</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>7</v>
@@ -6860,10 +6874,10 @@
         <v>342</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>7</v>
@@ -6874,10 +6888,10 @@
         <v>343</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>7</v>
@@ -6888,10 +6902,10 @@
         <v>344</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>7</v>
@@ -6902,10 +6916,10 @@
         <v>345</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>7</v>
@@ -6916,10 +6930,10 @@
         <v>346</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>7</v>
@@ -6930,10 +6944,10 @@
         <v>347</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>7</v>
@@ -6944,10 +6958,10 @@
         <v>348</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>7</v>
@@ -6958,10 +6972,10 @@
         <v>349</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>7</v>
@@ -6972,10 +6986,10 @@
         <v>350</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>7</v>
@@ -6986,10 +7000,10 @@
         <v>351</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>7</v>
@@ -7000,10 +7014,10 @@
         <v>352</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>7</v>
@@ -7014,10 +7028,10 @@
         <v>353</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>7</v>
@@ -7028,10 +7042,10 @@
         <v>354</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>7</v>
@@ -7042,10 +7056,10 @@
         <v>355</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>7</v>
@@ -7056,10 +7070,10 @@
         <v>356</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>7</v>
@@ -7070,10 +7084,10 @@
         <v>357</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>7</v>
@@ -7084,10 +7098,10 @@
         <v>358</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>7</v>
@@ -7098,10 +7112,10 @@
         <v>359</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>7</v>
@@ -7112,10 +7126,10 @@
         <v>360</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>7</v>
@@ -7126,10 +7140,10 @@
         <v>361</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>7</v>
@@ -7140,10 +7154,10 @@
         <v>362</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>7</v>
@@ -7154,10 +7168,10 @@
         <v>363</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>7</v>
@@ -7168,10 +7182,10 @@
         <v>364</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>7</v>
@@ -7182,10 +7196,10 @@
         <v>365</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>7</v>
@@ -7196,10 +7210,10 @@
         <v>366</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>7</v>
@@ -7210,10 +7224,10 @@
         <v>367</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>7</v>
@@ -7224,10 +7238,10 @@
         <v>368</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>7</v>
@@ -7238,10 +7252,10 @@
         <v>369</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>7</v>
@@ -7252,10 +7266,10 @@
         <v>370</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>7</v>
@@ -7266,10 +7280,10 @@
         <v>371</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>7</v>
@@ -7280,10 +7294,10 @@
         <v>372</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>7</v>
@@ -7302,10 +7316,10 @@
         <v>373</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>7</v>
@@ -7316,10 +7330,10 @@
         <v>374</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>7</v>
@@ -7330,10 +7344,10 @@
         <v>375</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>7</v>
@@ -7344,10 +7358,10 @@
         <v>376</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>7</v>
@@ -7358,10 +7372,10 @@
         <v>377</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>7</v>
@@ -7372,10 +7386,10 @@
         <v>378</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>7</v>
@@ -7394,10 +7408,10 @@
         <v>379</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>7</v>
@@ -7408,10 +7422,10 @@
         <v>380</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>7</v>
@@ -7422,10 +7436,10 @@
         <v>381</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>7</v>
@@ -7436,10 +7450,10 @@
         <v>382</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>7</v>
@@ -7450,10 +7464,10 @@
         <v>383</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>7</v>
@@ -7464,10 +7478,10 @@
         <v>384</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>7</v>
@@ -7478,10 +7492,10 @@
         <v>385</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>7</v>
@@ -7492,10 +7506,10 @@
         <v>386</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>7</v>
@@ -7506,10 +7520,10 @@
         <v>387</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>7</v>
@@ -7520,10 +7534,10 @@
         <v>388</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>7</v>
@@ -7534,10 +7548,10 @@
         <v>389</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>7</v>
@@ -7548,10 +7562,10 @@
         <v>390</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>7</v>
@@ -7562,10 +7576,10 @@
         <v>391</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>7</v>
@@ -7576,10 +7590,10 @@
         <v>392</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>7</v>
@@ -7590,10 +7604,10 @@
         <v>393</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>7</v>
@@ -7604,10 +7618,10 @@
         <v>394</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>7</v>
@@ -7618,10 +7632,10 @@
         <v>395</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>7</v>
@@ -7632,10 +7646,10 @@
         <v>396</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>7</v>
@@ -7646,10 +7660,10 @@
         <v>397</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>7</v>
@@ -7660,10 +7674,10 @@
         <v>398</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>7</v>
@@ -7674,10 +7688,10 @@
         <v>399</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>7</v>
@@ -7688,10 +7702,10 @@
         <v>400</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>7</v>
@@ -7702,10 +7716,10 @@
         <v>401</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>7</v>
@@ -7716,10 +7730,10 @@
         <v>402</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>7</v>
@@ -7730,10 +7744,10 @@
         <v>403</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>7</v>
@@ -7744,10 +7758,10 @@
         <v>404</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>7</v>
@@ -7758,10 +7772,10 @@
         <v>405</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>7</v>
@@ -7772,10 +7786,10 @@
         <v>406</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>7</v>
@@ -7786,10 +7800,10 @@
         <v>407</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>7</v>
@@ -7800,10 +7814,10 @@
         <v>408</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>7</v>
@@ -7814,10 +7828,10 @@
         <v>409</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>7</v>
@@ -7828,10 +7842,10 @@
         <v>410</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>7</v>
@@ -7842,10 +7856,10 @@
         <v>411</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>7</v>
@@ -7856,10 +7870,10 @@
         <v>412</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>7</v>
@@ -7870,10 +7884,10 @@
         <v>413</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D451" s="12" t="s">
         <v>7</v>
@@ -7884,10 +7898,10 @@
         <v>414</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>7</v>
@@ -7898,10 +7912,10 @@
         <v>415</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>7</v>
@@ -7912,10 +7926,10 @@
         <v>416</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>7</v>
@@ -7926,10 +7940,10 @@
         <v>417</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>7</v>
@@ -7940,10 +7954,10 @@
         <v>418</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>7</v>
@@ -7954,10 +7968,10 @@
         <v>419</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>7</v>
@@ -7968,10 +7982,10 @@
         <v>420</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>7</v>
@@ -7982,10 +7996,10 @@
         <v>421</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>7</v>
@@ -7996,10 +8010,10 @@
         <v>422</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>7</v>
@@ -8010,10 +8024,10 @@
         <v>423</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>7</v>
@@ -8024,10 +8038,10 @@
         <v>424</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>7</v>
@@ -8038,10 +8052,10 @@
         <v>425</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>7</v>
@@ -8052,10 +8066,10 @@
         <v>426</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>7</v>
@@ -8066,10 +8080,10 @@
         <v>427</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>7</v>
@@ -8080,10 +8094,10 @@
         <v>428</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>7</v>
@@ -8094,10 +8108,10 @@
         <v>429</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>7</v>
@@ -8108,10 +8122,10 @@
         <v>430</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>7</v>
@@ -8122,10 +8136,10 @@
         <v>431</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>7</v>
@@ -8136,10 +8150,10 @@
         <v>432</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C470" s="11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>7</v>
@@ -8150,10 +8164,10 @@
         <v>433</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>7</v>
@@ -8164,10 +8178,10 @@
         <v>434</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>7</v>
@@ -8178,10 +8192,10 @@
         <v>435</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>7</v>
@@ -8192,10 +8206,10 @@
         <v>436</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C474" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>7</v>
@@ -8206,10 +8220,10 @@
         <v>437</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>7</v>
@@ -8220,10 +8234,10 @@
         <v>438</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C476" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>7</v>
@@ -8231,15 +8245,15 @@
     </row>
     <row r="477" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C477" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D477" s="30"/>
+        <v>470</v>
+      </c>
+      <c r="D477" s="31"/>
     </row>
     <row r="478" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="18"/>
@@ -8255,10 +8269,10 @@
         <v>439</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D480" s="9" t="s">
         <v>7</v>
@@ -8269,10 +8283,10 @@
         <v>440</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>7</v>
@@ -8283,10 +8297,10 @@
         <v>441</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>7</v>
@@ -8297,10 +8311,10 @@
         <v>442</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>7</v>
@@ -8311,10 +8325,10 @@
         <v>443</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D484" s="9" t="s">
         <v>7</v>
@@ -8325,10 +8339,10 @@
         <v>444</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>7</v>
@@ -8339,10 +8353,10 @@
         <v>445</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>7</v>
@@ -8353,10 +8367,10 @@
         <v>446</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D487" s="9" t="s">
         <v>7</v>
@@ -8367,10 +8381,10 @@
         <v>447</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D488" s="9" t="s">
         <v>7</v>
@@ -8381,10 +8395,10 @@
         <v>448</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C489" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D489" s="9" t="s">
         <v>7</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="484">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">169. Majority Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Two Sum</t>
   </si>
   <si>
     <t xml:space="preserve">Matrix</t>
@@ -1881,13 +1887,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2476,67 +2482,65 @@
       </c>
       <c r="D45" s="22"/>
     </row>
-    <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="10"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="24"/>
+    <row r="46" s="23" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="10"/>
       <c r="C47" s="16"/>
       <c r="D47" s="24"/>
     </row>
-    <row r="48" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="48" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>7</v>
@@ -2544,27 +2548,27 @@
     </row>
     <row r="52" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>7</v>
@@ -2572,13 +2576,13 @@
     </row>
     <row r="54" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>7</v>
@@ -2586,57 +2590,57 @@
     </row>
     <row r="55" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="B58" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2645,7 +2649,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>65</v>
@@ -2659,46 +2663,46 @@
         <v>66</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="13"/>
+      <c r="D60" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="24"/>
+    </row>
+    <row r="63" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="10"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>7</v>
@@ -2706,41 +2710,41 @@
     </row>
     <row r="65" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="B66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>51</v>
-      </c>
       <c r="B67" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>7</v>
@@ -2748,125 +2752,125 @@
     </row>
     <row r="68" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>7</v>
@@ -2874,13 +2878,13 @@
     </row>
     <row r="77" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>7</v>
@@ -2888,13 +2892,13 @@
     </row>
     <row r="78" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>7</v>
@@ -2902,13 +2906,13 @@
     </row>
     <row r="79" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
@@ -2916,13 +2920,13 @@
     </row>
     <row r="80" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>7</v>
@@ -2930,13 +2934,13 @@
     </row>
     <row r="81" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>7</v>
@@ -2944,55 +2948,55 @@
     </row>
     <row r="82" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>7</v>
@@ -3000,13 +3004,13 @@
     </row>
     <row r="86" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="C86" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>7</v>
@@ -3014,13 +3018,13 @@
     </row>
     <row r="87" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>7</v>
@@ -3028,41 +3032,41 @@
     </row>
     <row r="88" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D89" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>7</v>
@@ -3070,13 +3074,13 @@
     </row>
     <row r="91" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>7</v>
@@ -3084,13 +3088,13 @@
     </row>
     <row r="92" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>7</v>
@@ -3098,13 +3102,13 @@
     </row>
     <row r="93" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>7</v>
@@ -3112,13 +3116,13 @@
     </row>
     <row r="94" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>7</v>
@@ -3126,13 +3130,13 @@
     </row>
     <row r="95" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>7</v>
@@ -3140,13 +3144,13 @@
     </row>
     <row r="96" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>7</v>
@@ -3154,13 +3158,13 @@
     </row>
     <row r="97" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>7</v>
@@ -3168,13 +3172,13 @@
     </row>
     <row r="98" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>7</v>
@@ -3182,13 +3186,13 @@
     </row>
     <row r="99" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>7</v>
@@ -3196,13 +3200,13 @@
     </row>
     <row r="100" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>7</v>
@@ -3210,13 +3214,13 @@
     </row>
     <row r="101" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>7</v>
@@ -3224,13 +3228,13 @@
     </row>
     <row r="102" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>7</v>
@@ -3238,13 +3242,13 @@
     </row>
     <row r="103" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>7</v>
@@ -3252,13 +3256,13 @@
     </row>
     <row r="104" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>7</v>
@@ -3266,46 +3270,46 @@
     </row>
     <row r="105" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="10"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="9"/>
-    </row>
-    <row r="108" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="11" t="s">
+      <c r="B106" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D106" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="10"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>7</v>
@@ -3313,13 +3317,13 @@
     </row>
     <row r="110" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>7</v>
@@ -3327,13 +3331,13 @@
     </row>
     <row r="111" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>7</v>
@@ -3341,13 +3345,13 @@
     </row>
     <row r="112" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>7</v>
@@ -3355,13 +3359,13 @@
     </row>
     <row r="113" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>7</v>
@@ -3369,13 +3373,13 @@
     </row>
     <row r="114" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>7</v>
@@ -3383,13 +3387,13 @@
     </row>
     <row r="115" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>7</v>
@@ -3397,13 +3401,13 @@
     </row>
     <row r="116" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>7</v>
@@ -3411,13 +3415,13 @@
     </row>
     <row r="117" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>7</v>
@@ -3425,13 +3429,13 @@
     </row>
     <row r="118" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>7</v>
@@ -3439,13 +3443,13 @@
     </row>
     <row r="119" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>7</v>
@@ -3453,13 +3457,13 @@
     </row>
     <row r="120" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>7</v>
@@ -3467,13 +3471,13 @@
     </row>
     <row r="121" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>7</v>
@@ -3481,13 +3485,13 @@
     </row>
     <row r="122" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>7</v>
@@ -3495,13 +3499,13 @@
     </row>
     <row r="123" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>7</v>
@@ -3509,13 +3513,13 @@
     </row>
     <row r="124" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>7</v>
@@ -3523,13 +3527,13 @@
     </row>
     <row r="125" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>7</v>
@@ -3537,13 +3541,13 @@
     </row>
     <row r="126" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>7</v>
@@ -3551,13 +3555,13 @@
     </row>
     <row r="127" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>7</v>
@@ -3565,13 +3569,13 @@
     </row>
     <row r="128" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>7</v>
@@ -3579,13 +3583,13 @@
     </row>
     <row r="129" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>7</v>
@@ -3593,13 +3597,13 @@
     </row>
     <row r="130" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>7</v>
@@ -3607,13 +3611,13 @@
     </row>
     <row r="131" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>7</v>
@@ -3621,13 +3625,13 @@
     </row>
     <row r="132" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="C132" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>7</v>
@@ -3635,13 +3639,13 @@
     </row>
     <row r="133" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>7</v>
@@ -3649,13 +3653,13 @@
     </row>
     <row r="134" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>7</v>
@@ -3663,13 +3667,13 @@
     </row>
     <row r="135" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>7</v>
@@ -3677,13 +3681,13 @@
     </row>
     <row r="136" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>7</v>
@@ -3691,13 +3695,13 @@
     </row>
     <row r="137" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>7</v>
@@ -3705,13 +3709,13 @@
     </row>
     <row r="138" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>7</v>
@@ -3719,13 +3723,13 @@
     </row>
     <row r="139" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>7</v>
@@ -3733,13 +3737,13 @@
     </row>
     <row r="140" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>7</v>
@@ -3747,13 +3751,13 @@
     </row>
     <row r="141" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>7</v>
@@ -3761,13 +3765,13 @@
     </row>
     <row r="142" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>7</v>
@@ -3775,73 +3779,73 @@
     </row>
     <row r="143" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="18"/>
-      <c r="D145" s="9"/>
-    </row>
-    <row r="146" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" s="11" t="s">
+      <c r="B144" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D146" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D144" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="18"/>
+      <c r="D146" s="9"/>
     </row>
     <row r="147" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D147" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D148" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>7</v>
@@ -3849,13 +3853,13 @@
     </row>
     <row r="150" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>7</v>
@@ -3863,13 +3867,13 @@
     </row>
     <row r="151" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>7</v>
@@ -3877,13 +3881,13 @@
     </row>
     <row r="152" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>7</v>
@@ -3891,41 +3895,41 @@
     </row>
     <row r="153" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D153" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D154" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D154" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>7</v>
@@ -3933,27 +3937,27 @@
     </row>
     <row r="156" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D156" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D156" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>7</v>
@@ -3961,69 +3965,69 @@
     </row>
     <row r="158" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D158" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D159" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D160" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D160" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D161" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>7</v>
@@ -4031,55 +4035,55 @@
     </row>
     <row r="163" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D163" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D164" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D165" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>7</v>
@@ -4087,13 +4091,13 @@
     </row>
     <row r="167" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>7</v>
@@ -4101,13 +4105,13 @@
     </row>
     <row r="168" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>7</v>
@@ -4115,13 +4119,13 @@
     </row>
     <row r="169" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>7</v>
@@ -4129,97 +4133,97 @@
     </row>
     <row r="170" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B170" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="B171" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B171" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D171" s="12" t="s">
+      <c r="C171" s="11" t="s">
         <v>176</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C172" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D172" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D173" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D174" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D174" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D175" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>7</v>
@@ -4227,27 +4231,27 @@
     </row>
     <row r="177" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D177" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D178" s="12" t="s">
         <v>7</v>
@@ -4255,13 +4259,13 @@
     </row>
     <row r="179" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>7</v>
@@ -4269,73 +4273,73 @@
     </row>
     <row r="180" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D180" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D180" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D181" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B181" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D181" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="18"/>
-      <c r="D183" s="9"/>
-    </row>
-    <row r="184" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C184" s="11" t="s">
+      <c r="B182" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C182" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D184" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="D182" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="18"/>
+      <c r="D184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D185" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D185" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>7</v>
@@ -4343,55 +4347,55 @@
     </row>
     <row r="187" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D187" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D188" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D188" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D189" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D189" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D190" s="13" t="s">
         <v>7</v>
@@ -4399,13 +4403,13 @@
     </row>
     <row r="191" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>7</v>
@@ -4413,27 +4417,27 @@
     </row>
     <row r="192" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D192" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D192" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>7</v>
@@ -4441,41 +4445,41 @@
     </row>
     <row r="194" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D194" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D194" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D195" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D195" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>7</v>
@@ -4483,13 +4487,13 @@
     </row>
     <row r="197" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>7</v>
@@ -4497,27 +4501,27 @@
     </row>
     <row r="198" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D198" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D198" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>7</v>
@@ -4525,13 +4529,13 @@
     </row>
     <row r="200" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>7</v>
@@ -4539,13 +4543,13 @@
     </row>
     <row r="201" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>7</v>
@@ -4553,41 +4557,41 @@
     </row>
     <row r="202" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D202" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D202" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D203" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D203" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>7</v>
@@ -4595,55 +4599,55 @@
     </row>
     <row r="205" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D205" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D206" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D206" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D207" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D207" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>7</v>
@@ -4651,69 +4655,69 @@
     </row>
     <row r="209" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D209" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D210" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D210" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B211" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>187</v>
-      </c>
       <c r="C211" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D211" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D211" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D212" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D212" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>7</v>
@@ -4721,107 +4725,107 @@
     </row>
     <row r="214" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D214" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D214" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D215" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D215" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D216" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D216" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D217" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D217" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B218" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="10"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="9"/>
+      <c r="B219" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="10"/>
       <c r="C220" s="18"/>
       <c r="D220" s="9"/>
     </row>
-    <row r="221" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B221" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C221" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="221" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="10"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>7</v>
@@ -4829,13 +4833,13 @@
     </row>
     <row r="223" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>7</v>
@@ -4843,13 +4847,13 @@
     </row>
     <row r="224" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>7</v>
@@ -4857,55 +4861,55 @@
     </row>
     <row r="225" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D225" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D225" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D226" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D226" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C227" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D227" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="D228" s="13" t="s">
         <v>7</v>
@@ -4913,27 +4917,27 @@
     </row>
     <row r="229" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D229" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D229" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>7</v>
@@ -4941,13 +4945,13 @@
     </row>
     <row r="231" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>7</v>
@@ -4955,27 +4959,27 @@
     </row>
     <row r="232" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D232" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>7</v>
@@ -4983,27 +4987,27 @@
     </row>
     <row r="234" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D234" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D234" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>7</v>
@@ -5011,13 +5015,13 @@
     </row>
     <row r="236" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>7</v>
@@ -5025,13 +5029,13 @@
     </row>
     <row r="237" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>7</v>
@@ -5039,13 +5043,13 @@
     </row>
     <row r="238" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>7</v>
@@ -5053,13 +5057,13 @@
     </row>
     <row r="239" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>7</v>
@@ -5067,13 +5071,13 @@
     </row>
     <row r="240" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>7</v>
@@ -5081,13 +5085,13 @@
     </row>
     <row r="241" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>7</v>
@@ -5095,49 +5099,49 @@
     </row>
     <row r="242" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B242" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="18"/>
-      <c r="D243" s="9"/>
+      <c r="B243" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C244" s="18"/>
       <c r="D244" s="9"/>
     </row>
-    <row r="245" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D245" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="245" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="18"/>
+      <c r="D245" s="9"/>
     </row>
     <row r="246" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>7</v>
@@ -5145,13 +5149,13 @@
     </row>
     <row r="247" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>7</v>
@@ -5159,13 +5163,13 @@
     </row>
     <row r="248" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>7</v>
@@ -5173,13 +5177,13 @@
     </row>
     <row r="249" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>7</v>
@@ -5187,13 +5191,13 @@
     </row>
     <row r="250" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>7</v>
@@ -5201,13 +5205,13 @@
     </row>
     <row r="251" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>7</v>
@@ -5215,13 +5219,13 @@
     </row>
     <row r="252" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>7</v>
@@ -5229,13 +5233,13 @@
     </row>
     <row r="253" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>7</v>
@@ -5243,13 +5247,13 @@
     </row>
     <row r="254" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>7</v>
@@ -5257,13 +5261,13 @@
     </row>
     <row r="255" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>7</v>
@@ -5271,13 +5275,13 @@
     </row>
     <row r="256" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>7</v>
@@ -5285,13 +5289,13 @@
     </row>
     <row r="257" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>7</v>
@@ -5299,13 +5303,13 @@
     </row>
     <row r="258" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>7</v>
@@ -5313,13 +5317,13 @@
     </row>
     <row r="259" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>7</v>
@@ -5327,13 +5331,13 @@
     </row>
     <row r="260" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>7</v>
@@ -5341,13 +5345,13 @@
     </row>
     <row r="261" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>7</v>
@@ -5355,13 +5359,13 @@
     </row>
     <row r="262" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>7</v>
@@ -5369,13 +5373,13 @@
     </row>
     <row r="263" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>7</v>
@@ -5383,13 +5387,13 @@
     </row>
     <row r="264" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>7</v>
@@ -5397,13 +5401,13 @@
     </row>
     <row r="265" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>7</v>
@@ -5411,13 +5415,13 @@
     </row>
     <row r="266" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>7</v>
@@ -5425,13 +5429,13 @@
     </row>
     <row r="267" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>7</v>
@@ -5439,13 +5443,13 @@
     </row>
     <row r="268" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>7</v>
@@ -5453,13 +5457,13 @@
     </row>
     <row r="269" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>7</v>
@@ -5467,13 +5471,13 @@
     </row>
     <row r="270" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>7</v>
@@ -5481,13 +5485,13 @@
     </row>
     <row r="271" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>7</v>
@@ -5495,13 +5499,13 @@
     </row>
     <row r="272" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>7</v>
@@ -5509,13 +5513,13 @@
     </row>
     <row r="273" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>7</v>
@@ -5523,13 +5527,13 @@
     </row>
     <row r="274" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B274" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B274" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="C274" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>7</v>
@@ -5537,13 +5541,13 @@
     </row>
     <row r="275" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>7</v>
@@ -5551,13 +5555,13 @@
     </row>
     <row r="276" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>7</v>
@@ -5565,13 +5569,13 @@
     </row>
     <row r="277" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>7</v>
@@ -5579,13 +5583,13 @@
     </row>
     <row r="278" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>7</v>
@@ -5593,49 +5597,49 @@
     </row>
     <row r="279" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B279" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C279" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D279" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="18"/>
-      <c r="D280" s="9"/>
+      <c r="B280" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C281" s="18"/>
       <c r="D281" s="9"/>
     </row>
-    <row r="282" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B282" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D282" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="282" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="18"/>
+      <c r="D282" s="9"/>
     </row>
     <row r="283" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>7</v>
@@ -5643,13 +5647,13 @@
     </row>
     <row r="284" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>7</v>
@@ -5657,13 +5661,13 @@
     </row>
     <row r="285" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>7</v>
@@ -5671,13 +5675,13 @@
     </row>
     <row r="286" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>7</v>
@@ -5685,13 +5689,13 @@
     </row>
     <row r="287" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>7</v>
@@ -5699,13 +5703,13 @@
     </row>
     <row r="288" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>7</v>
@@ -5713,13 +5717,13 @@
     </row>
     <row r="289" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>7</v>
@@ -5727,13 +5731,13 @@
     </row>
     <row r="290" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
@@ -5741,13 +5745,13 @@
     </row>
     <row r="291" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
@@ -5755,13 +5759,13 @@
     </row>
     <row r="292" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
@@ -5769,13 +5773,13 @@
     </row>
     <row r="293" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
@@ -5783,13 +5787,13 @@
     </row>
     <row r="294" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
@@ -5797,13 +5801,13 @@
     </row>
     <row r="295" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
@@ -5811,13 +5815,13 @@
     </row>
     <row r="296" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>7</v>
@@ -5825,13 +5829,13 @@
     </row>
     <row r="297" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>7</v>
@@ -5839,13 +5843,13 @@
     </row>
     <row r="298" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>7</v>
@@ -5853,13 +5857,13 @@
     </row>
     <row r="299" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>7</v>
@@ -5867,49 +5871,49 @@
     </row>
     <row r="300" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B300" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C300" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D300" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="18"/>
-      <c r="D301" s="9"/>
+      <c r="B301" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="18"/>
       <c r="D302" s="9"/>
     </row>
-    <row r="303" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C303" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D303" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="303" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="18"/>
+      <c r="D303" s="9"/>
     </row>
     <row r="304" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>7</v>
@@ -5917,13 +5921,13 @@
     </row>
     <row r="305" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>7</v>
@@ -5931,13 +5935,13 @@
     </row>
     <row r="306" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>7</v>
@@ -5945,13 +5949,13 @@
     </row>
     <row r="307" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>7</v>
@@ -5959,13 +5963,13 @@
     </row>
     <row r="308" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>7</v>
@@ -5973,13 +5977,13 @@
     </row>
     <row r="309" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>7</v>
@@ -5987,13 +5991,13 @@
     </row>
     <row r="310" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>7</v>
@@ -6001,13 +6005,13 @@
     </row>
     <row r="311" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>7</v>
@@ -6015,13 +6019,13 @@
     </row>
     <row r="312" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>7</v>
@@ -6029,13 +6033,13 @@
     </row>
     <row r="313" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>7</v>
@@ -6043,13 +6047,13 @@
     </row>
     <row r="314" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>7</v>
@@ -6057,13 +6061,13 @@
     </row>
     <row r="315" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>7</v>
@@ -6071,13 +6075,13 @@
     </row>
     <row r="316" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C316" s="30" t="s">
-        <v>315</v>
+        <v>303</v>
+      </c>
+      <c r="C316" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>7</v>
@@ -6085,13 +6089,13 @@
     </row>
     <row r="317" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C317" s="11" t="s">
-        <v>316</v>
+        <v>303</v>
+      </c>
+      <c r="C317" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>7</v>
@@ -6099,13 +6103,13 @@
     </row>
     <row r="318" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>7</v>
@@ -6113,13 +6117,13 @@
     </row>
     <row r="319" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>7</v>
@@ -6127,13 +6131,13 @@
     </row>
     <row r="320" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>7</v>
@@ -6141,13 +6145,13 @@
     </row>
     <row r="321" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>7</v>
@@ -6155,13 +6159,13 @@
     </row>
     <row r="322" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>7</v>
@@ -6169,13 +6173,13 @@
     </row>
     <row r="323" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>7</v>
@@ -6183,13 +6187,13 @@
     </row>
     <row r="324" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>7</v>
@@ -6197,13 +6201,13 @@
     </row>
     <row r="325" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>7</v>
@@ -6211,13 +6215,13 @@
     </row>
     <row r="326" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>7</v>
@@ -6225,13 +6229,13 @@
     </row>
     <row r="327" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>7</v>
@@ -6239,13 +6243,13 @@
     </row>
     <row r="328" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>7</v>
@@ -6253,13 +6257,13 @@
     </row>
     <row r="329" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>7</v>
@@ -6267,13 +6271,13 @@
     </row>
     <row r="330" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>7</v>
@@ -6281,13 +6285,13 @@
     </row>
     <row r="331" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>7</v>
@@ -6295,13 +6299,13 @@
     </row>
     <row r="332" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>7</v>
@@ -6309,13 +6313,13 @@
     </row>
     <row r="333" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B333" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B333" s="10" t="s">
-        <v>301</v>
-      </c>
       <c r="C333" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>7</v>
@@ -6323,13 +6327,13 @@
     </row>
     <row r="334" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>7</v>
@@ -6337,13 +6341,13 @@
     </row>
     <row r="335" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>7</v>
@@ -6351,13 +6355,13 @@
     </row>
     <row r="336" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>7</v>
@@ -6365,13 +6369,13 @@
     </row>
     <row r="337" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>7</v>
@@ -6379,13 +6383,13 @@
     </row>
     <row r="338" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>7</v>
@@ -6393,13 +6397,13 @@
     </row>
     <row r="339" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>7</v>
@@ -6407,49 +6411,49 @@
     </row>
     <row r="340" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B340" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C340" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B340" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C340" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D340" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="18"/>
-      <c r="D341" s="9"/>
+      <c r="B341" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C341" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C342" s="18"/>
       <c r="D342" s="9"/>
     </row>
-    <row r="343" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B343" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C343" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D343" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="343" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C343" s="18"/>
+      <c r="D343" s="9"/>
     </row>
     <row r="344" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>7</v>
@@ -6457,13 +6461,13 @@
     </row>
     <row r="345" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>7</v>
@@ -6471,13 +6475,13 @@
     </row>
     <row r="346" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>7</v>
@@ -6485,13 +6489,13 @@
     </row>
     <row r="347" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>7</v>
@@ -6499,13 +6503,13 @@
     </row>
     <row r="348" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>7</v>
@@ -6513,13 +6517,13 @@
     </row>
     <row r="349" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>7</v>
@@ -6527,13 +6531,13 @@
     </row>
     <row r="350" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>7</v>
@@ -6541,13 +6545,13 @@
     </row>
     <row r="351" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C351" s="30" t="s">
-        <v>349</v>
+        <v>342</v>
+      </c>
+      <c r="C351" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>7</v>
@@ -6555,13 +6559,13 @@
     </row>
     <row r="352" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C352" s="11" t="s">
-        <v>350</v>
+        <v>342</v>
+      </c>
+      <c r="C352" s="30" t="s">
+        <v>351</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>7</v>
@@ -6569,13 +6573,13 @@
     </row>
     <row r="353" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>7</v>
@@ -6583,13 +6587,13 @@
     </row>
     <row r="354" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>7</v>
@@ -6597,13 +6601,13 @@
     </row>
     <row r="355" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>7</v>
@@ -6611,13 +6615,13 @@
     </row>
     <row r="356" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>7</v>
@@ -6625,13 +6629,13 @@
     </row>
     <row r="357" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>7</v>
@@ -6639,13 +6643,13 @@
     </row>
     <row r="358" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>7</v>
@@ -6653,13 +6657,13 @@
     </row>
     <row r="359" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>7</v>
@@ -6667,49 +6671,49 @@
     </row>
     <row r="360" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B360" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C360" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D360" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="18"/>
-      <c r="D361" s="9"/>
+      <c r="B361" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="18"/>
       <c r="D362" s="9"/>
     </row>
-    <row r="363" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B363" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C363" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="D363" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="363" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C363" s="18"/>
+      <c r="D363" s="9"/>
     </row>
     <row r="364" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>7</v>
@@ -6717,13 +6721,13 @@
     </row>
     <row r="365" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>7</v>
@@ -6731,13 +6735,13 @@
     </row>
     <row r="366" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>7</v>
@@ -6745,13 +6749,13 @@
     </row>
     <row r="367" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>7</v>
@@ -6759,13 +6763,13 @@
     </row>
     <row r="368" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>7</v>
@@ -6773,13 +6777,13 @@
     </row>
     <row r="369" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>7</v>
@@ -6787,13 +6791,13 @@
     </row>
     <row r="370" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>7</v>
@@ -6801,13 +6805,13 @@
     </row>
     <row r="371" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>7</v>
@@ -6815,13 +6819,13 @@
     </row>
     <row r="372" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>7</v>
@@ -6829,13 +6833,13 @@
     </row>
     <row r="373" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>7</v>
@@ -6843,13 +6847,13 @@
     </row>
     <row r="374" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>7</v>
@@ -6857,13 +6861,13 @@
     </row>
     <row r="375" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>7</v>
@@ -6871,13 +6875,13 @@
     </row>
     <row r="376" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>7</v>
@@ -6885,13 +6889,13 @@
     </row>
     <row r="377" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>7</v>
@@ -6899,13 +6903,13 @@
     </row>
     <row r="378" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>7</v>
@@ -6913,13 +6917,13 @@
     </row>
     <row r="379" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>7</v>
@@ -6927,13 +6931,13 @@
     </row>
     <row r="380" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>7</v>
@@ -6941,13 +6945,13 @@
     </row>
     <row r="381" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>7</v>
@@ -6955,13 +6959,13 @@
     </row>
     <row r="382" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>7</v>
@@ -6969,13 +6973,13 @@
     </row>
     <row r="383" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>7</v>
@@ -6983,13 +6987,13 @@
     </row>
     <row r="384" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>7</v>
@@ -6997,13 +7001,13 @@
     </row>
     <row r="385" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>7</v>
@@ -7011,13 +7015,13 @@
     </row>
     <row r="386" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>7</v>
@@ -7025,13 +7029,13 @@
     </row>
     <row r="387" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>7</v>
@@ -7039,13 +7043,13 @@
     </row>
     <row r="388" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>7</v>
@@ -7053,13 +7057,13 @@
     </row>
     <row r="389" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>7</v>
@@ -7067,13 +7071,13 @@
     </row>
     <row r="390" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>7</v>
@@ -7081,13 +7085,13 @@
     </row>
     <row r="391" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>7</v>
@@ -7095,13 +7099,13 @@
     </row>
     <row r="392" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>7</v>
@@ -7109,13 +7113,13 @@
     </row>
     <row r="393" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>7</v>
@@ -7123,13 +7127,13 @@
     </row>
     <row r="394" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>7</v>
@@ -7137,13 +7141,13 @@
     </row>
     <row r="395" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B395" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B395" s="10" t="s">
-        <v>359</v>
-      </c>
       <c r="C395" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>7</v>
@@ -7151,13 +7155,13 @@
     </row>
     <row r="396" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>7</v>
@@ -7165,13 +7169,13 @@
     </row>
     <row r="397" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>7</v>
@@ -7179,13 +7183,13 @@
     </row>
     <row r="398" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>7</v>
@@ -7193,13 +7197,13 @@
     </row>
     <row r="399" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>7</v>
@@ -7207,13 +7211,13 @@
     </row>
     <row r="400" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>7</v>
@@ -7221,13 +7225,13 @@
     </row>
     <row r="401" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>7</v>
@@ -7235,13 +7239,13 @@
     </row>
     <row r="402" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>7</v>
@@ -7249,13 +7253,13 @@
     </row>
     <row r="403" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>7</v>
@@ -7263,13 +7267,13 @@
     </row>
     <row r="404" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>7</v>
@@ -7277,13 +7281,13 @@
     </row>
     <row r="405" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>7</v>
@@ -7291,49 +7295,49 @@
     </row>
     <row r="406" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D406" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B406" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C406" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D406" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="18"/>
-      <c r="D407" s="9"/>
+      <c r="B407" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D407" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C408" s="18"/>
       <c r="D408" s="9"/>
     </row>
-    <row r="409" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B409" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C409" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D409" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C409" s="18"/>
+      <c r="D409" s="9"/>
     </row>
     <row r="410" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>7</v>
@@ -7341,13 +7345,13 @@
     </row>
     <row r="411" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>7</v>
@@ -7355,13 +7359,13 @@
     </row>
     <row r="412" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>7</v>
@@ -7369,13 +7373,13 @@
     </row>
     <row r="413" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>407</v>
+        <v>106</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>7</v>
@@ -7383,49 +7387,49 @@
     </row>
     <row r="414" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C414" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B414" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C414" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="D414" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="18"/>
-      <c r="D415" s="9"/>
+      <c r="B415" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="416" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="18"/>
       <c r="D416" s="9"/>
     </row>
-    <row r="417" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C417" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D417" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="417" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C417" s="18"/>
+      <c r="D417" s="9"/>
     </row>
     <row r="418" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>7</v>
@@ -7433,13 +7437,13 @@
     </row>
     <row r="419" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>7</v>
@@ -7447,13 +7451,13 @@
     </row>
     <row r="420" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>7</v>
@@ -7461,13 +7465,13 @@
     </row>
     <row r="421" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>7</v>
@@ -7475,13 +7479,13 @@
     </row>
     <row r="422" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>7</v>
@@ -7489,13 +7493,13 @@
     </row>
     <row r="423" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>7</v>
@@ -7503,13 +7507,13 @@
     </row>
     <row r="424" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>7</v>
@@ -7517,13 +7521,13 @@
     </row>
     <row r="425" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>417</v>
+        <v>291</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>7</v>
@@ -7531,13 +7535,13 @@
     </row>
     <row r="426" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>7</v>
@@ -7545,13 +7549,13 @@
     </row>
     <row r="427" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>7</v>
@@ -7559,13 +7563,13 @@
     </row>
     <row r="428" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>7</v>
@@ -7573,13 +7577,13 @@
     </row>
     <row r="429" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>7</v>
@@ -7587,13 +7591,13 @@
     </row>
     <row r="430" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>7</v>
@@ -7601,13 +7605,13 @@
     </row>
     <row r="431" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>7</v>
@@ -7615,13 +7619,13 @@
     </row>
     <row r="432" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>7</v>
@@ -7629,13 +7633,13 @@
     </row>
     <row r="433" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>7</v>
@@ -7643,13 +7647,13 @@
     </row>
     <row r="434" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>7</v>
@@ -7657,13 +7661,13 @@
     </row>
     <row r="435" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>7</v>
@@ -7671,13 +7675,13 @@
     </row>
     <row r="436" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>7</v>
@@ -7685,13 +7689,13 @@
     </row>
     <row r="437" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>7</v>
@@ -7699,13 +7703,13 @@
     </row>
     <row r="438" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>7</v>
@@ -7713,13 +7717,13 @@
     </row>
     <row r="439" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>7</v>
@@ -7727,13 +7731,13 @@
     </row>
     <row r="440" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>7</v>
@@ -7741,13 +7745,13 @@
     </row>
     <row r="441" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>7</v>
@@ -7755,13 +7759,13 @@
     </row>
     <row r="442" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>7</v>
@@ -7769,13 +7773,13 @@
     </row>
     <row r="443" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>7</v>
@@ -7783,13 +7787,13 @@
     </row>
     <row r="444" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>7</v>
@@ -7797,13 +7801,13 @@
     </row>
     <row r="445" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>7</v>
@@ -7811,13 +7815,13 @@
     </row>
     <row r="446" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>7</v>
@@ -7825,13 +7829,13 @@
     </row>
     <row r="447" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>7</v>
@@ -7839,13 +7843,13 @@
     </row>
     <row r="448" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>7</v>
@@ -7853,13 +7857,13 @@
     </row>
     <row r="449" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B449" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B449" s="10" t="s">
-        <v>409</v>
-      </c>
       <c r="C449" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>7</v>
@@ -7867,13 +7871,13 @@
     </row>
     <row r="450" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>7</v>
@@ -7881,41 +7885,41 @@
     </row>
     <row r="451" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D451" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D451" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="D452" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D452" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D453" s="9" t="s">
         <v>7</v>
@@ -7923,13 +7927,13 @@
     </row>
     <row r="454" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>7</v>
@@ -7937,13 +7941,13 @@
     </row>
     <row r="455" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>7</v>
@@ -7951,13 +7955,13 @@
     </row>
     <row r="456" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>7</v>
@@ -7965,13 +7969,13 @@
     </row>
     <row r="457" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>7</v>
@@ -7979,13 +7983,13 @@
     </row>
     <row r="458" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>7</v>
@@ -7993,13 +7997,13 @@
     </row>
     <row r="459" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>7</v>
@@ -8007,13 +8011,13 @@
     </row>
     <row r="460" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>7</v>
@@ -8021,13 +8025,13 @@
     </row>
     <row r="461" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>7</v>
@@ -8035,13 +8039,13 @@
     </row>
     <row r="462" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>7</v>
@@ -8049,13 +8053,13 @@
     </row>
     <row r="463" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>7</v>
@@ -8063,13 +8067,13 @@
     </row>
     <row r="464" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>7</v>
@@ -8077,13 +8081,13 @@
     </row>
     <row r="465" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>7</v>
@@ -8091,13 +8095,13 @@
     </row>
     <row r="466" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>7</v>
@@ -8105,13 +8109,13 @@
     </row>
     <row r="467" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>7</v>
@@ -8119,13 +8123,13 @@
     </row>
     <row r="468" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>7</v>
@@ -8133,13 +8137,13 @@
     </row>
     <row r="469" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>7</v>
@@ -8147,13 +8151,13 @@
     </row>
     <row r="470" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C470" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>7</v>
@@ -8161,13 +8165,13 @@
     </row>
     <row r="471" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>7</v>
@@ -8175,13 +8179,13 @@
     </row>
     <row r="472" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>7</v>
@@ -8189,13 +8193,13 @@
     </row>
     <row r="473" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>7</v>
@@ -8203,13 +8207,13 @@
     </row>
     <row r="474" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C474" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>7</v>
@@ -8217,13 +8221,13 @@
     </row>
     <row r="475" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>7</v>
@@ -8231,62 +8235,62 @@
     </row>
     <row r="476" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B476" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C476" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D476" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="n">
         <v>438</v>
       </c>
-      <c r="B476" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C476" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D476" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="B477" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C477" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="D477" s="31"/>
-    </row>
-    <row r="478" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="18"/>
-      <c r="D478" s="9"/>
+      <c r="D477" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C478" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D478" s="31"/>
     </row>
     <row r="479" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B479" s="10"/>
       <c r="C479" s="18"/>
       <c r="D479" s="9"/>
     </row>
-    <row r="480" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B480" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C480" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D480" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="480" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="10"/>
+      <c r="C480" s="18"/>
+      <c r="D480" s="9"/>
     </row>
     <row r="481" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D481" s="9" t="s">
         <v>7</v>
@@ -8294,13 +8298,13 @@
     </row>
     <row r="482" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>7</v>
@@ -8308,13 +8312,13 @@
     </row>
     <row r="483" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>7</v>
@@ -8322,13 +8326,13 @@
     </row>
     <row r="484" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D484" s="9" t="s">
         <v>7</v>
@@ -8336,13 +8340,13 @@
     </row>
     <row r="485" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>7</v>
@@ -8350,13 +8354,13 @@
     </row>
     <row r="486" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>7</v>
@@ -8364,13 +8368,13 @@
     </row>
     <row r="487" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D487" s="9" t="s">
         <v>7</v>
@@ -8378,13 +8382,13 @@
     </row>
     <row r="488" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D488" s="9" t="s">
         <v>7</v>
@@ -8392,15 +8396,29 @@
     </row>
     <row r="489" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C489" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D489" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="B489" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C489" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D489" s="9" t="s">
+      <c r="B490" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C490" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D490" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8442,415 +8460,415 @@
     <hyperlink ref="C39" r:id="rId34" display="Minimum no. of operations required to make an array palindrome"/>
     <hyperlink ref="C40" r:id="rId35" display="Median of 2 sorted arrays of equal size"/>
     <hyperlink ref="C41" r:id="rId36" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="C48" r:id="rId37" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="C49" r:id="rId38" display="Search an element in a matriix"/>
-    <hyperlink ref="C50" r:id="rId39" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="C51" r:id="rId40" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C52" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="C53" r:id="rId42" display="Maximum size rectangle"/>
-    <hyperlink ref="C54" r:id="rId43" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C55" r:id="rId44" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="C56" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C57" r:id="rId46" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C63" r:id="rId47" display="Reverse a String"/>
-    <hyperlink ref="C64" r:id="rId48" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C65" r:id="rId49" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C67" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C68" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C69" r:id="rId52" display="Count and Say problem"/>
-    <hyperlink ref="C70" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
-    <hyperlink ref="C71" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
-    <hyperlink ref="C72" r:id="rId55" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C73" r:id="rId56" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C74" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C75" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C76" r:id="rId59" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C77" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C78" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C79" r:id="rId62" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C80" r:id="rId63" display="Rabin Karp Algo"/>
-    <hyperlink ref="C81" r:id="rId64" display="KMP Algo"/>
-    <hyperlink ref="C82" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C83" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C84" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C85" r:id="rId68" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C86" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C87" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C88" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C89" r:id="rId72" display="Longest Common Prefix"/>
-    <hyperlink ref="C90" r:id="rId73" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C91" r:id="rId74" display="Find the first repeated word in string."/>
-    <hyperlink ref="C92" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C93" r:id="rId76" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C94" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C95" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C96" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C97" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C98" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C99" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C100" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C101" r:id="rId84" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C102" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C103" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C104" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C105" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C108" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C109" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C110" r:id="rId91" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C111" r:id="rId92" display="square root of an integer"/>
-    <hyperlink ref="C112" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C113" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C114" r:id="rId95" display="Find the repeating and the missing"/>
-    <hyperlink ref="C115" r:id="rId96" display="find majority element"/>
-    <hyperlink ref="C116" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C117" r:id="rId98" display="find a pair with a given difference"/>
-    <hyperlink ref="C118" r:id="rId99" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C119" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C120" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C121" r:id="rId102" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C122" r:id="rId103" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C123" r:id="rId104" display="Product array Puzzle"/>
-    <hyperlink ref="C124" r:id="rId105" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C125" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C126" r:id="rId107" display="Bishu and Soldiers"/>
-    <hyperlink ref="C127" r:id="rId108" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C128" r:id="rId109" display="Kth smallest number again"/>
-    <hyperlink ref="C129" r:id="rId110" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C130" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C131" r:id="rId112" display="Aggressive cows"/>
-    <hyperlink ref="C132" r:id="rId113" display="Book Allocation Problem"/>
-    <hyperlink ref="C133" r:id="rId114" display="EKOSPOJ:"/>
-    <hyperlink ref="C134" r:id="rId115" display="Job Scheduling Algo"/>
-    <hyperlink ref="C135" r:id="rId116" display="Missing Number in AP"/>
-    <hyperlink ref="C136" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C137" r:id="rId118" display="Painters Partition Problem:"/>
-    <hyperlink ref="C138" r:id="rId119" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C139" r:id="rId120" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C140" r:id="rId121" display="Subset Sums"/>
-    <hyperlink ref="C141" r:id="rId122" display="Findthe inversion count"/>
-    <hyperlink ref="C142" r:id="rId123" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C143" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C146" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C147" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C148" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C149" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C150" r:id="rId129" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C151" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C152" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C153" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C154" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C155" r:id="rId134" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C156" r:id="rId135" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C157" r:id="rId136" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C158" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C159" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C160" r:id="rId139" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C161" r:id="rId140" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C162" r:id="rId141" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C163" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C164" r:id="rId143" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C165" r:id="rId144" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C166" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C167" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C168" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C169" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C170" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C173" r:id="rId150" display="Flatten a Linked List"/>
-    <hyperlink ref="C174" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C175" r:id="rId152" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C176" r:id="rId153" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C177" r:id="rId154" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C178" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C179" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C180" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C181" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C184" r:id="rId159" display="level order traversal"/>
-    <hyperlink ref="C185" r:id="rId160" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C186" r:id="rId161" display="Height of a tree"/>
-    <hyperlink ref="C187" r:id="rId162" display="Diameter of a tree"/>
-    <hyperlink ref="C188" r:id="rId163" display="Mirror of a tree"/>
-    <hyperlink ref="C189" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C190" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C191" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C192" r:id="rId167" display="Left View of a tree"/>
-    <hyperlink ref="C193" r:id="rId168" display="Right View of Tree"/>
-    <hyperlink ref="C194" r:id="rId169" display="Top View of a tree"/>
-    <hyperlink ref="C195" r:id="rId170" display="Bottom View of a tree"/>
-    <hyperlink ref="C196" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C197" r:id="rId172" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C198" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C199" r:id="rId174" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C200" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C201" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C202" r:id="rId177" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C203" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C204" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C205" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C206" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C207" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C208" r:id="rId183" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C209" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C210" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C211" r:id="rId186" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C212" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C213" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C214" r:id="rId189" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C215" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C216" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C217" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C218" r:id="rId193" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C221" r:id="rId194" display="Fina a value in a BST"/>
-    <hyperlink ref="C222" r:id="rId195" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C223" r:id="rId196" display="Find min and max value in a BST"/>
-    <hyperlink ref="C224" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C225" r:id="rId198" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C226" r:id="rId199" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C227" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C228" r:id="rId201" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C229" r:id="rId202" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C230" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C231" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C232" r:id="rId205" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C233" r:id="rId206" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C234" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C235" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C236" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C237" r:id="rId210" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C238" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C239" r:id="rId212" display="Check preorder is valid or not"/>
-    <hyperlink ref="C240" r:id="rId213" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C241" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C242" r:id="rId215" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C245" r:id="rId216" display="Activity Selection Problem"/>
-    <hyperlink ref="C246" r:id="rId217" display="Job SequencingProblem"/>
-    <hyperlink ref="C247" r:id="rId218" display="Huffman Coding"/>
-    <hyperlink ref="C248" r:id="rId219" display="Water Connection Problem"/>
-    <hyperlink ref="C249" r:id="rId220" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C250" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C251" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C252" r:id="rId223" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C253" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C254" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C255" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C256" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C257" r:id="rId228" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C258" r:id="rId229" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C259" r:id="rId230" display="Maximum product subset of an array"/>
-    <hyperlink ref="C260" r:id="rId231" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C261" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C262" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C263" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C264" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C265" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C266" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C267" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C268" r:id="rId239" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C269" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C270" r:id="rId241" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C271" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C272" r:id="rId243" display="Picking Up Chicks"/>
-    <hyperlink ref="C273" r:id="rId244" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C274" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C275" r:id="rId246" display="K Centers Problem"/>
-    <hyperlink ref="C276" r:id="rId247" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C277" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C278" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C279" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C282" r:id="rId251" display="Rat in a maze Problem"/>
-    <hyperlink ref="C283" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C284" r:id="rId253" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C285" r:id="rId254" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C286" r:id="rId255" display="Sudoku Solver"/>
-    <hyperlink ref="C287" r:id="rId256" display="m Coloring Problem"/>
-    <hyperlink ref="C288" r:id="rId257" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C289" r:id="rId258" display="Subset Sum Problem"/>
-    <hyperlink ref="C290" r:id="rId259" display="The Knight’s tour problem"/>
-    <hyperlink ref="C291" r:id="rId260" display="Tug of War"/>
-    <hyperlink ref="C292" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C293" r:id="rId262" display="Combinational Sum"/>
-    <hyperlink ref="C294" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C295" r:id="rId264" display="Print all permutations of a string "/>
-    <hyperlink ref="C296" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C297" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C298" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C299" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C300" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C303" r:id="rId270" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C304" r:id="rId271" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C305" r:id="rId272" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C306" r:id="rId273" display="find the middle element of a stack"/>
-    <hyperlink ref="C307" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C308" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C309" r:id="rId276" display="Reverse a String using Stack"/>
-    <hyperlink ref="C310" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C311" r:id="rId278" display="Find the next Greater element"/>
-    <hyperlink ref="C312" r:id="rId279" display="The celebrity Problem"/>
-    <hyperlink ref="C313" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C314" r:id="rId281" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C315" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C316" r:id="rId283" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C317" r:id="rId284" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C318" r:id="rId285" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C319" r:id="rId286" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C320" r:id="rId287" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C321" r:id="rId288" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C322" r:id="rId289" display="Implement Stack using Queue"/>
-    <hyperlink ref="C323" r:id="rId290" display="Implement Stack using Deque"/>
-    <hyperlink ref="C324" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C325" r:id="rId292" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C326" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C327" r:id="rId294" display="Implement a Circular queue"/>
-    <hyperlink ref="C328" r:id="rId295" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C329" r:id="rId296" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C330" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C331" r:id="rId298" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C332" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C333" r:id="rId300" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C334" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C335" r:id="rId302" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C336" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C337" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C338" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C339" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C340" r:id="rId307" display="Next Smaller Element"/>
-    <hyperlink ref="C343" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C344" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C345" r:id="rId310" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C346" r:id="rId311" display="“k” largest element in an array"/>
-    <hyperlink ref="C347" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C348" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C349" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C350" r:id="rId315" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C351" r:id="rId316" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C352" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C353" r:id="rId318" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C354" r:id="rId319" display="Median in a stream of Integers"/>
-    <hyperlink ref="C355" r:id="rId320" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C356" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C357" r:id="rId322" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C358" r:id="rId323" display="Convert min heap to max heap"/>
-    <hyperlink ref="C359" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C360" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C363" r:id="rId326" display="Create a Graph, print it"/>
-    <hyperlink ref="C364" r:id="rId327" display="Implement BFS algorithm "/>
-    <hyperlink ref="C365" r:id="rId328" display="Implement DFS Algo "/>
-    <hyperlink ref="C366" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C367" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C368" r:id="rId331" display="Search in a Maze"/>
-    <hyperlink ref="C369" r:id="rId332" display="Minimum Step by Knight"/>
-    <hyperlink ref="C370" r:id="rId333" display="flood fill algo"/>
-    <hyperlink ref="C371" r:id="rId334" display="Clone a graph"/>
-    <hyperlink ref="C372" r:id="rId335" display="Making wired Connections"/>
-    <hyperlink ref="C373" r:id="rId336" display="word Ladder "/>
-    <hyperlink ref="C374" r:id="rId337" display="Dijkstra algo"/>
-    <hyperlink ref="C375" r:id="rId338" display="Implement Topological Sort "/>
-    <hyperlink ref="C376" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C377" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C378" r:id="rId341" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C379" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C380" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C381" r:id="rId344" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C382" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C383" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C384" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C385" r:id="rId348" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C386" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C387" r:id="rId350" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C388" r:id="rId351" display="Find bridge in a graph"/>
-    <hyperlink ref="C389" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C390" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C391" r:id="rId354" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C392" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C393" r:id="rId356" display="Journey to the Moon"/>
-    <hyperlink ref="C394" r:id="rId357" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C395" r:id="rId358" display="Oliver and the Game"/>
-    <hyperlink ref="C396" r:id="rId359" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C397" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C398" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C399" r:id="rId362" display="M-ColouringProblem"/>
-    <hyperlink ref="C400" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C401" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C402" r:id="rId365" display="Vertex Cover Problem"/>
-    <hyperlink ref="C403" r:id="rId366" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C404" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C405" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C406" r:id="rId369" display="Two Clique Problem"/>
-    <hyperlink ref="C409" r:id="rId370" display="Construct a trie from scratch"/>
-    <hyperlink ref="C410" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C411" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C412" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C413" r:id="rId374" display="Implement a Phone Directory"/>
-    <hyperlink ref="C414" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C417" r:id="rId376" display="Coin ChangeProblem"/>
-    <hyperlink ref="C418" r:id="rId377" display="Knapsack Problem"/>
-    <hyperlink ref="C419" r:id="rId378" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C420" r:id="rId379" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C421" r:id="rId380" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C422" r:id="rId381" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C423" r:id="rId382" display="Edit Distance"/>
-    <hyperlink ref="C424" r:id="rId383" display="Subset Sum Problem"/>
-    <hyperlink ref="C425" r:id="rId384" display="Friends Pairing Problem"/>
-    <hyperlink ref="C426" r:id="rId385" display="Gold Mine Problem"/>
-    <hyperlink ref="C427" r:id="rId386" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C428" r:id="rId387" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C429" r:id="rId388" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C430" r:id="rId389" display="Longest Common Subsequence"/>
-    <hyperlink ref="C431" r:id="rId390" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C432" r:id="rId391" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C433" r:id="rId392" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C434" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C435" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C436" r:id="rId395" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C437" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C438" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C439" r:id="rId398" display="Egg Dropping Problem"/>
-    <hyperlink ref="C440" r:id="rId399" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C441" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C442" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C443" r:id="rId402" display="Min Cost PathProblem"/>
-    <hyperlink ref="C444" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C445" r:id="rId404" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C446" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C447" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C448" r:id="rId407" display="Longest Common Substring"/>
-    <hyperlink ref="C449" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C450" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C451" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C452" r:id="rId411" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C453" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C454" r:id="rId413" display="Word Break Problem"/>
-    <hyperlink ref="C455" r:id="rId414" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C456" r:id="rId415" display="Partition problem"/>
-    <hyperlink ref="C457" r:id="rId416" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C458" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C459" r:id="rId418" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C460" r:id="rId419" display="Longest alternating subsequence"/>
-    <hyperlink ref="C461" r:id="rId420" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C462" r:id="rId421" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C463" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C464" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C465" r:id="rId424" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C466" r:id="rId425" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C467" r:id="rId426" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C468" r:id="rId427" display="Word Wrap Problem"/>
-    <hyperlink ref="C469" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C470" r:id="rId429" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C471" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C472" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C473" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C474" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C475" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C476" r:id="rId435" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C480" r:id="rId436" display="Count set bits in an integer"/>
-    <hyperlink ref="C481" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C482" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C483" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C484" r:id="rId440" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C485" r:id="rId441" display="Find position of the only set bit"/>
-    <hyperlink ref="C486" r:id="rId442" display="Copy set bits in a range"/>
-    <hyperlink ref="C487" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C488" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C489" r:id="rId445" display="Power Set"/>
+    <hyperlink ref="C49" r:id="rId37" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="C50" r:id="rId38" display="Search an element in a matriix"/>
+    <hyperlink ref="C51" r:id="rId39" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="C52" r:id="rId40" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="C53" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C54" r:id="rId42" display="Maximum size rectangle"/>
+    <hyperlink ref="C55" r:id="rId43" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C56" r:id="rId44" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="C57" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="C58" r:id="rId46" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C64" r:id="rId47" display="Reverse a String"/>
+    <hyperlink ref="C65" r:id="rId48" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C66" r:id="rId49" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C68" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C69" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C70" r:id="rId52" display="Count and Say problem"/>
+    <hyperlink ref="C71" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
+    <hyperlink ref="C72" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
+    <hyperlink ref="C73" r:id="rId55" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C74" r:id="rId56" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C75" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C76" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C77" r:id="rId59" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C78" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C79" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C80" r:id="rId62" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C81" r:id="rId63" display="Rabin Karp Algo"/>
+    <hyperlink ref="C82" r:id="rId64" display="KMP Algo"/>
+    <hyperlink ref="C83" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C84" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C85" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C86" r:id="rId68" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C87" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C88" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C89" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C90" r:id="rId72" display="Longest Common Prefix"/>
+    <hyperlink ref="C91" r:id="rId73" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C92" r:id="rId74" display="Find the first repeated word in string."/>
+    <hyperlink ref="C93" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C94" r:id="rId76" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C95" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C96" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C97" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C98" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C99" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C100" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C101" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C102" r:id="rId84" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C103" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C104" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C105" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C106" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C109" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C110" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C111" r:id="rId91" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C112" r:id="rId92" display="square root of an integer"/>
+    <hyperlink ref="C113" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C114" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C115" r:id="rId95" display="Find the repeating and the missing"/>
+    <hyperlink ref="C116" r:id="rId96" display="find majority element"/>
+    <hyperlink ref="C117" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C118" r:id="rId98" display="find a pair with a given difference"/>
+    <hyperlink ref="C119" r:id="rId99" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C120" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C121" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C122" r:id="rId102" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C123" r:id="rId103" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C124" r:id="rId104" display="Product array Puzzle"/>
+    <hyperlink ref="C125" r:id="rId105" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C126" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C127" r:id="rId107" display="Bishu and Soldiers"/>
+    <hyperlink ref="C128" r:id="rId108" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C129" r:id="rId109" display="Kth smallest number again"/>
+    <hyperlink ref="C130" r:id="rId110" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C131" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C132" r:id="rId112" display="Aggressive cows"/>
+    <hyperlink ref="C133" r:id="rId113" display="Book Allocation Problem"/>
+    <hyperlink ref="C134" r:id="rId114" display="EKOSPOJ:"/>
+    <hyperlink ref="C135" r:id="rId115" display="Job Scheduling Algo"/>
+    <hyperlink ref="C136" r:id="rId116" display="Missing Number in AP"/>
+    <hyperlink ref="C137" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C138" r:id="rId118" display="Painters Partition Problem:"/>
+    <hyperlink ref="C139" r:id="rId119" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C140" r:id="rId120" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C141" r:id="rId121" display="Subset Sums"/>
+    <hyperlink ref="C142" r:id="rId122" display="Findthe inversion count"/>
+    <hyperlink ref="C143" r:id="rId123" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C144" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C147" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C148" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C149" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C150" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C151" r:id="rId129" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C152" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C153" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C154" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C155" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C156" r:id="rId134" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C157" r:id="rId135" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C158" r:id="rId136" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C159" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C160" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C161" r:id="rId139" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C162" r:id="rId140" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C163" r:id="rId141" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C164" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C165" r:id="rId143" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C166" r:id="rId144" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C167" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C168" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C169" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C170" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C171" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C174" r:id="rId150" display="Flatten a Linked List"/>
+    <hyperlink ref="C175" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C176" r:id="rId152" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C177" r:id="rId153" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C178" r:id="rId154" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C179" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C180" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C181" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C182" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C185" r:id="rId159" display="level order traversal"/>
+    <hyperlink ref="C186" r:id="rId160" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C187" r:id="rId161" display="Height of a tree"/>
+    <hyperlink ref="C188" r:id="rId162" display="Diameter of a tree"/>
+    <hyperlink ref="C189" r:id="rId163" display="Mirror of a tree"/>
+    <hyperlink ref="C190" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C191" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C192" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C193" r:id="rId167" display="Left View of a tree"/>
+    <hyperlink ref="C194" r:id="rId168" display="Right View of Tree"/>
+    <hyperlink ref="C195" r:id="rId169" display="Top View of a tree"/>
+    <hyperlink ref="C196" r:id="rId170" display="Bottom View of a tree"/>
+    <hyperlink ref="C197" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C198" r:id="rId172" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C199" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C200" r:id="rId174" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C201" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C202" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C203" r:id="rId177" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C204" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C205" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C206" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C207" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C208" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C209" r:id="rId183" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C210" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C211" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C212" r:id="rId186" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C213" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C214" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C215" r:id="rId189" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C216" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C217" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C218" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C219" r:id="rId193" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C222" r:id="rId194" display="Fina a value in a BST"/>
+    <hyperlink ref="C223" r:id="rId195" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C224" r:id="rId196" display="Find min and max value in a BST"/>
+    <hyperlink ref="C225" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C226" r:id="rId198" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C227" r:id="rId199" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C228" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C229" r:id="rId201" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C230" r:id="rId202" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C231" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C232" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C233" r:id="rId205" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C234" r:id="rId206" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C235" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C236" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C237" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C238" r:id="rId210" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C239" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C240" r:id="rId212" display="Check preorder is valid or not"/>
+    <hyperlink ref="C241" r:id="rId213" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C242" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C243" r:id="rId215" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C246" r:id="rId216" display="Activity Selection Problem"/>
+    <hyperlink ref="C247" r:id="rId217" display="Job SequencingProblem"/>
+    <hyperlink ref="C248" r:id="rId218" display="Huffman Coding"/>
+    <hyperlink ref="C249" r:id="rId219" display="Water Connection Problem"/>
+    <hyperlink ref="C250" r:id="rId220" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C251" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C252" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C253" r:id="rId223" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C254" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C255" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C256" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C257" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C258" r:id="rId228" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C259" r:id="rId229" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C260" r:id="rId230" display="Maximum product subset of an array"/>
+    <hyperlink ref="C261" r:id="rId231" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C262" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C263" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C264" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C265" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C266" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C267" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C268" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C269" r:id="rId239" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C270" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C271" r:id="rId241" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C272" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C273" r:id="rId243" display="Picking Up Chicks"/>
+    <hyperlink ref="C274" r:id="rId244" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C275" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C276" r:id="rId246" display="K Centers Problem"/>
+    <hyperlink ref="C277" r:id="rId247" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C278" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C279" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C280" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C283" r:id="rId251" display="Rat in a maze Problem"/>
+    <hyperlink ref="C284" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C285" r:id="rId253" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C286" r:id="rId254" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C287" r:id="rId255" display="Sudoku Solver"/>
+    <hyperlink ref="C288" r:id="rId256" display="m Coloring Problem"/>
+    <hyperlink ref="C289" r:id="rId257" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C290" r:id="rId258" display="Subset Sum Problem"/>
+    <hyperlink ref="C291" r:id="rId259" display="The Knight’s tour problem"/>
+    <hyperlink ref="C292" r:id="rId260" display="Tug of War"/>
+    <hyperlink ref="C293" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C294" r:id="rId262" display="Combinational Sum"/>
+    <hyperlink ref="C295" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C296" r:id="rId264" display="Print all permutations of a string "/>
+    <hyperlink ref="C297" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C298" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C299" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C300" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C301" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C304" r:id="rId270" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C305" r:id="rId271" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C306" r:id="rId272" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C307" r:id="rId273" display="find the middle element of a stack"/>
+    <hyperlink ref="C308" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C309" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C310" r:id="rId276" display="Reverse a String using Stack"/>
+    <hyperlink ref="C311" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C312" r:id="rId278" display="Find the next Greater element"/>
+    <hyperlink ref="C313" r:id="rId279" display="The celebrity Problem"/>
+    <hyperlink ref="C314" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C315" r:id="rId281" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C316" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C317" r:id="rId283" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C318" r:id="rId284" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C319" r:id="rId285" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C320" r:id="rId286" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C321" r:id="rId287" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C322" r:id="rId288" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C323" r:id="rId289" display="Implement Stack using Queue"/>
+    <hyperlink ref="C324" r:id="rId290" display="Implement Stack using Deque"/>
+    <hyperlink ref="C325" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C326" r:id="rId292" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C327" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C328" r:id="rId294" display="Implement a Circular queue"/>
+    <hyperlink ref="C329" r:id="rId295" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C330" r:id="rId296" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C331" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C332" r:id="rId298" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C333" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C334" r:id="rId300" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C335" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C336" r:id="rId302" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C337" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C338" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C339" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C340" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C341" r:id="rId307" display="Next Smaller Element"/>
+    <hyperlink ref="C344" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C345" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C346" r:id="rId310" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C347" r:id="rId311" display="“k” largest element in an array"/>
+    <hyperlink ref="C348" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C349" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C350" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C351" r:id="rId315" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C352" r:id="rId316" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C353" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C354" r:id="rId318" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C355" r:id="rId319" display="Median in a stream of Integers"/>
+    <hyperlink ref="C356" r:id="rId320" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C357" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C358" r:id="rId322" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C359" r:id="rId323" display="Convert min heap to max heap"/>
+    <hyperlink ref="C360" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C361" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C364" r:id="rId326" display="Create a Graph, print it"/>
+    <hyperlink ref="C365" r:id="rId327" display="Implement BFS algorithm "/>
+    <hyperlink ref="C366" r:id="rId328" display="Implement DFS Algo "/>
+    <hyperlink ref="C367" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C368" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C369" r:id="rId331" display="Search in a Maze"/>
+    <hyperlink ref="C370" r:id="rId332" display="Minimum Step by Knight"/>
+    <hyperlink ref="C371" r:id="rId333" display="flood fill algo"/>
+    <hyperlink ref="C372" r:id="rId334" display="Clone a graph"/>
+    <hyperlink ref="C373" r:id="rId335" display="Making wired Connections"/>
+    <hyperlink ref="C374" r:id="rId336" display="word Ladder "/>
+    <hyperlink ref="C375" r:id="rId337" display="Dijkstra algo"/>
+    <hyperlink ref="C376" r:id="rId338" display="Implement Topological Sort "/>
+    <hyperlink ref="C377" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C378" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C379" r:id="rId341" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C380" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C381" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C382" r:id="rId344" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C383" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C384" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C385" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C386" r:id="rId348" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C387" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C388" r:id="rId350" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C389" r:id="rId351" display="Find bridge in a graph"/>
+    <hyperlink ref="C390" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C391" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C392" r:id="rId354" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C393" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C394" r:id="rId356" display="Journey to the Moon"/>
+    <hyperlink ref="C395" r:id="rId357" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C396" r:id="rId358" display="Oliver and the Game"/>
+    <hyperlink ref="C397" r:id="rId359" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C398" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C399" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C400" r:id="rId362" display="M-ColouringProblem"/>
+    <hyperlink ref="C401" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C402" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C403" r:id="rId365" display="Vertex Cover Problem"/>
+    <hyperlink ref="C404" r:id="rId366" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C405" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C406" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C407" r:id="rId369" display="Two Clique Problem"/>
+    <hyperlink ref="C410" r:id="rId370" display="Construct a trie from scratch"/>
+    <hyperlink ref="C411" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C412" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C413" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C414" r:id="rId374" display="Implement a Phone Directory"/>
+    <hyperlink ref="C415" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C418" r:id="rId376" display="Coin ChangeProblem"/>
+    <hyperlink ref="C419" r:id="rId377" display="Knapsack Problem"/>
+    <hyperlink ref="C420" r:id="rId378" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C421" r:id="rId379" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C422" r:id="rId380" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C423" r:id="rId381" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C424" r:id="rId382" display="Edit Distance"/>
+    <hyperlink ref="C425" r:id="rId383" display="Subset Sum Problem"/>
+    <hyperlink ref="C426" r:id="rId384" display="Friends Pairing Problem"/>
+    <hyperlink ref="C427" r:id="rId385" display="Gold Mine Problem"/>
+    <hyperlink ref="C428" r:id="rId386" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C429" r:id="rId387" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C430" r:id="rId388" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C431" r:id="rId389" display="Longest Common Subsequence"/>
+    <hyperlink ref="C432" r:id="rId390" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C433" r:id="rId391" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C434" r:id="rId392" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C435" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C436" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C437" r:id="rId395" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C438" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C439" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C440" r:id="rId398" display="Egg Dropping Problem"/>
+    <hyperlink ref="C441" r:id="rId399" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C442" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C443" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C444" r:id="rId402" display="Min Cost PathProblem"/>
+    <hyperlink ref="C445" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C446" r:id="rId404" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C447" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C448" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C449" r:id="rId407" display="Longest Common Substring"/>
+    <hyperlink ref="C450" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C451" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C452" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C453" r:id="rId411" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C454" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C455" r:id="rId413" display="Word Break Problem"/>
+    <hyperlink ref="C456" r:id="rId414" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C457" r:id="rId415" display="Partition problem"/>
+    <hyperlink ref="C458" r:id="rId416" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C459" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C460" r:id="rId418" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C461" r:id="rId419" display="Longest alternating subsequence"/>
+    <hyperlink ref="C462" r:id="rId420" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C463" r:id="rId421" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C464" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C465" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C466" r:id="rId424" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C467" r:id="rId425" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C468" r:id="rId426" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C469" r:id="rId427" display="Word Wrap Problem"/>
+    <hyperlink ref="C470" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C471" r:id="rId429" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C472" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C473" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C474" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C475" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C476" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C477" r:id="rId435" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C481" r:id="rId436" display="Count set bits in an integer"/>
+    <hyperlink ref="C482" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C483" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C484" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C485" r:id="rId440" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C486" r:id="rId441" display="Find position of the only set bit"/>
+    <hyperlink ref="C487" r:id="rId442" display="Copy set bits in a range"/>
+    <hyperlink ref="C488" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C489" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C490" r:id="rId445" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="486">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -172,7 +172,13 @@
     <t xml:space="preserve">LC169</t>
   </si>
   <si>
-    <t xml:space="preserve">169. Majority Element</t>
+    <t xml:space="preserve">169. Majority Element &gt;1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majority Element II &gt;1/3</t>
   </si>
   <si>
     <t xml:space="preserve">LC1</t>
@@ -1680,7 +1686,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1775,6 +1781,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1887,13 +1897,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E491"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2492,69 +2502,67 @@
       <c r="C46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="10"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="24"/>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" s="23" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="10"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>7</v>
@@ -2562,27 +2570,27 @@
     </row>
     <row r="53" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>7</v>
@@ -2590,13 +2598,13 @@
     </row>
     <row r="55" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>7</v>
@@ -2604,57 +2612,57 @@
     </row>
     <row r="56" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B59" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2663,7 +2671,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>67</v>
@@ -2677,46 +2685,46 @@
         <v>68</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="13"/>
+      <c r="D61" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="24"/>
+      <c r="A62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="10"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>7</v>
@@ -2724,41 +2732,41 @@
     </row>
     <row r="66" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="B67" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>51</v>
-      </c>
       <c r="B68" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>7</v>
@@ -2766,125 +2774,125 @@
     </row>
     <row r="69" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>7</v>
@@ -2892,13 +2900,13 @@
     </row>
     <row r="78" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>7</v>
@@ -2906,13 +2914,13 @@
     </row>
     <row r="79" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
@@ -2920,13 +2928,13 @@
     </row>
     <row r="80" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>7</v>
@@ -2934,13 +2942,13 @@
     </row>
     <row r="81" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>7</v>
@@ -2948,13 +2956,13 @@
     </row>
     <row r="82" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>7</v>
@@ -2962,55 +2970,55 @@
     </row>
     <row r="83" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>7</v>
@@ -3018,13 +3026,13 @@
     </row>
     <row r="87" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>7</v>
@@ -3032,13 +3040,13 @@
     </row>
     <row r="88" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>7</v>
@@ -3046,41 +3054,41 @@
     </row>
     <row r="89" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="C89" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D89" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>7</v>
@@ -3088,13 +3096,13 @@
     </row>
     <row r="92" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>7</v>
@@ -3102,13 +3110,13 @@
     </row>
     <row r="93" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>7</v>
@@ -3116,13 +3124,13 @@
     </row>
     <row r="94" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>7</v>
@@ -3130,13 +3138,13 @@
     </row>
     <row r="95" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>7</v>
@@ -3144,13 +3152,13 @@
     </row>
     <row r="96" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>7</v>
@@ -3158,13 +3166,13 @@
     </row>
     <row r="97" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>7</v>
@@ -3172,13 +3180,13 @@
     </row>
     <row r="98" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>7</v>
@@ -3186,13 +3194,13 @@
     </row>
     <row r="99" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>7</v>
@@ -3200,13 +3208,13 @@
     </row>
     <row r="100" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>7</v>
@@ -3214,13 +3222,13 @@
     </row>
     <row r="101" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>7</v>
@@ -3228,13 +3236,13 @@
     </row>
     <row r="102" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>7</v>
@@ -3242,13 +3250,13 @@
     </row>
     <row r="103" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>7</v>
@@ -3256,13 +3264,13 @@
     </row>
     <row r="104" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>7</v>
@@ -3270,13 +3278,13 @@
     </row>
     <row r="105" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>7</v>
@@ -3284,46 +3292,46 @@
     </row>
     <row r="106" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="10"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="9"/>
-    </row>
-    <row r="109" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" s="11" t="s">
+      <c r="B107" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D107" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="10"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>7</v>
@@ -3331,13 +3339,13 @@
     </row>
     <row r="111" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>7</v>
@@ -3345,13 +3353,13 @@
     </row>
     <row r="112" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>7</v>
@@ -3359,13 +3367,13 @@
     </row>
     <row r="113" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>7</v>
@@ -3373,13 +3381,13 @@
     </row>
     <row r="114" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>7</v>
@@ -3387,13 +3395,13 @@
     </row>
     <row r="115" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>7</v>
@@ -3401,13 +3409,13 @@
     </row>
     <row r="116" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>7</v>
@@ -3415,13 +3423,13 @@
     </row>
     <row r="117" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>7</v>
@@ -3429,13 +3437,13 @@
     </row>
     <row r="118" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>7</v>
@@ -3443,13 +3451,13 @@
     </row>
     <row r="119" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>7</v>
@@ -3457,13 +3465,13 @@
     </row>
     <row r="120" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>7</v>
@@ -3471,13 +3479,13 @@
     </row>
     <row r="121" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>7</v>
@@ -3485,13 +3493,13 @@
     </row>
     <row r="122" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>7</v>
@@ -3499,13 +3507,13 @@
     </row>
     <row r="123" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>7</v>
@@ -3513,13 +3521,13 @@
     </row>
     <row r="124" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>7</v>
@@ -3527,13 +3535,13 @@
     </row>
     <row r="125" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>7</v>
@@ -3541,13 +3549,13 @@
     </row>
     <row r="126" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>7</v>
@@ -3555,13 +3563,13 @@
     </row>
     <row r="127" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>7</v>
@@ -3569,13 +3577,13 @@
     </row>
     <row r="128" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>7</v>
@@ -3583,13 +3591,13 @@
     </row>
     <row r="129" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>7</v>
@@ -3597,13 +3605,13 @@
     </row>
     <row r="130" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>7</v>
@@ -3611,13 +3619,13 @@
     </row>
     <row r="131" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>7</v>
@@ -3625,13 +3633,13 @@
     </row>
     <row r="132" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>7</v>
@@ -3639,13 +3647,13 @@
     </row>
     <row r="133" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>7</v>
@@ -3653,13 +3661,13 @@
     </row>
     <row r="134" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>7</v>
@@ -3667,13 +3675,13 @@
     </row>
     <row r="135" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="C135" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>7</v>
@@ -3681,13 +3689,13 @@
     </row>
     <row r="136" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>7</v>
@@ -3695,13 +3703,13 @@
     </row>
     <row r="137" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>7</v>
@@ -3709,13 +3717,13 @@
     </row>
     <row r="138" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>7</v>
@@ -3723,13 +3731,13 @@
     </row>
     <row r="139" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>7</v>
@@ -3737,13 +3745,13 @@
     </row>
     <row r="140" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>7</v>
@@ -3751,13 +3759,13 @@
     </row>
     <row r="141" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>7</v>
@@ -3765,13 +3773,13 @@
     </row>
     <row r="142" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>7</v>
@@ -3779,13 +3787,13 @@
     </row>
     <row r="143" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>7</v>
@@ -3793,73 +3801,73 @@
     </row>
     <row r="144" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="18"/>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C147" s="11" t="s">
+      <c r="B145" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D147" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D145" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="18"/>
+      <c r="D147" s="9"/>
     </row>
     <row r="148" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D148" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D149" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>7</v>
@@ -3867,13 +3875,13 @@
     </row>
     <row r="151" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>7</v>
@@ -3881,13 +3889,13 @@
     </row>
     <row r="152" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>7</v>
@@ -3895,13 +3903,13 @@
     </row>
     <row r="153" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>7</v>
@@ -3909,41 +3917,41 @@
     </row>
     <row r="154" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D154" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D154" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D155" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D155" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>7</v>
@@ -3951,27 +3959,27 @@
     </row>
     <row r="157" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D157" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D158" s="13" t="s">
         <v>7</v>
@@ -3979,69 +3987,69 @@
     </row>
     <row r="159" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D159" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D159" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D160" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D161" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D162" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>7</v>
@@ -4049,55 +4057,55 @@
     </row>
     <row r="164" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D164" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D165" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D165" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D166" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D166" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>7</v>
@@ -4105,13 +4113,13 @@
     </row>
     <row r="168" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>7</v>
@@ -4119,13 +4127,13 @@
     </row>
     <row r="169" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>7</v>
@@ -4133,13 +4141,13 @@
     </row>
     <row r="170" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>7</v>
@@ -4147,97 +4155,97 @@
     </row>
     <row r="171" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B171" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
-        <v>151</v>
-      </c>
       <c r="B172" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D172" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>178</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C173" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D173" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D174" s="27" t="s">
+      <c r="C174" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D175" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D175" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D176" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>7</v>
@@ -4245,27 +4253,27 @@
     </row>
     <row r="178" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D178" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>7</v>
@@ -4273,13 +4281,13 @@
     </row>
     <row r="180" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>7</v>
@@ -4287,73 +4295,73 @@
     </row>
     <row r="181" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D181" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D181" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B182" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D182" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="18"/>
-      <c r="D184" s="9"/>
-    </row>
-    <row r="185" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C185" s="11" t="s">
+      <c r="B183" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D185" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="D183" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="18"/>
+      <c r="D185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D186" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D186" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>7</v>
@@ -4361,55 +4369,55 @@
     </row>
     <row r="188" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D188" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D188" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D189" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D189" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D190" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D190" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>7</v>
@@ -4417,13 +4425,13 @@
     </row>
     <row r="192" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>7</v>
@@ -4431,27 +4439,27 @@
     </row>
     <row r="193" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D193" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>7</v>
@@ -4459,41 +4467,41 @@
     </row>
     <row r="195" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D195" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D195" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D196" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>7</v>
@@ -4501,13 +4509,13 @@
     </row>
     <row r="198" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>7</v>
@@ -4515,27 +4523,27 @@
     </row>
     <row r="199" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D199" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D199" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>7</v>
@@ -4543,13 +4551,13 @@
     </row>
     <row r="201" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>7</v>
@@ -4557,13 +4565,13 @@
     </row>
     <row r="202" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>7</v>
@@ -4571,41 +4579,41 @@
     </row>
     <row r="203" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D203" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D203" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D204" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D204" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>7</v>
@@ -4613,55 +4621,55 @@
     </row>
     <row r="206" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D206" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D207" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D207" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D208" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D208" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>7</v>
@@ -4669,69 +4677,69 @@
     </row>
     <row r="210" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D210" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D210" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D211" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D211" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D212" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D212" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D213" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D213" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B214" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B214" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="C214" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>7</v>
@@ -4739,107 +4747,107 @@
     </row>
     <row r="215" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D215" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D215" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D216" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D216" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D217" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D217" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D218" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D218" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B219" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="10"/>
-      <c r="C220" s="18"/>
-      <c r="D220" s="9"/>
+      <c r="B220" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="10"/>
       <c r="C221" s="18"/>
       <c r="D221" s="9"/>
     </row>
-    <row r="222" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B222" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="222" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="10"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="9"/>
     </row>
     <row r="223" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>7</v>
@@ -4847,13 +4855,13 @@
     </row>
     <row r="224" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>7</v>
@@ -4861,13 +4869,13 @@
     </row>
     <row r="225" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>7</v>
@@ -4875,55 +4883,55 @@
     </row>
     <row r="226" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D226" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D227" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D227" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C228" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="D228" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D228" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="C229" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="D229" s="13" t="s">
         <v>7</v>
@@ -4931,27 +4939,27 @@
     </row>
     <row r="230" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D230" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D230" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>7</v>
@@ -4959,13 +4967,13 @@
     </row>
     <row r="232" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>7</v>
@@ -4973,27 +4981,27 @@
     </row>
     <row r="233" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D233" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D233" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D234" s="15" t="s">
         <v>7</v>
@@ -5001,27 +5009,27 @@
     </row>
     <row r="235" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D235" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D235" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>7</v>
@@ -5029,13 +5037,13 @@
     </row>
     <row r="237" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>7</v>
@@ -5043,13 +5051,13 @@
     </row>
     <row r="238" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>7</v>
@@ -5057,13 +5065,13 @@
     </row>
     <row r="239" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>7</v>
@@ -5071,13 +5079,13 @@
     </row>
     <row r="240" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>7</v>
@@ -5085,13 +5093,13 @@
     </row>
     <row r="241" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>7</v>
@@ -5099,13 +5107,13 @@
     </row>
     <row r="242" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>7</v>
@@ -5113,49 +5121,49 @@
     </row>
     <row r="243" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B243" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="18"/>
-      <c r="D244" s="9"/>
+      <c r="B244" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C245" s="18"/>
       <c r="D245" s="9"/>
     </row>
-    <row r="246" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B246" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D246" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="246" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="18"/>
+      <c r="D246" s="9"/>
     </row>
     <row r="247" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>7</v>
@@ -5163,13 +5171,13 @@
     </row>
     <row r="248" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>7</v>
@@ -5177,13 +5185,13 @@
     </row>
     <row r="249" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>7</v>
@@ -5191,13 +5199,13 @@
     </row>
     <row r="250" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>7</v>
@@ -5205,13 +5213,13 @@
     </row>
     <row r="251" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>7</v>
@@ -5219,13 +5227,13 @@
     </row>
     <row r="252" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>7</v>
@@ -5233,13 +5241,13 @@
     </row>
     <row r="253" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>7</v>
@@ -5247,13 +5255,13 @@
     </row>
     <row r="254" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>7</v>
@@ -5261,13 +5269,13 @@
     </row>
     <row r="255" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>7</v>
@@ -5275,13 +5283,13 @@
     </row>
     <row r="256" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>7</v>
@@ -5289,13 +5297,13 @@
     </row>
     <row r="257" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>7</v>
@@ -5303,13 +5311,13 @@
     </row>
     <row r="258" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>7</v>
@@ -5317,13 +5325,13 @@
     </row>
     <row r="259" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>7</v>
@@ -5331,13 +5339,13 @@
     </row>
     <row r="260" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>7</v>
@@ -5345,13 +5353,13 @@
     </row>
     <row r="261" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>7</v>
@@ -5359,13 +5367,13 @@
     </row>
     <row r="262" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>7</v>
@@ -5373,13 +5381,13 @@
     </row>
     <row r="263" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>7</v>
@@ -5387,13 +5395,13 @@
     </row>
     <row r="264" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>7</v>
@@ -5401,13 +5409,13 @@
     </row>
     <row r="265" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>7</v>
@@ -5415,13 +5423,13 @@
     </row>
     <row r="266" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>7</v>
@@ -5429,13 +5437,13 @@
     </row>
     <row r="267" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>7</v>
@@ -5443,13 +5451,13 @@
     </row>
     <row r="268" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>7</v>
@@ -5457,13 +5465,13 @@
     </row>
     <row r="269" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>7</v>
@@ -5471,13 +5479,13 @@
     </row>
     <row r="270" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>7</v>
@@ -5485,13 +5493,13 @@
     </row>
     <row r="271" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>7</v>
@@ -5499,13 +5507,13 @@
     </row>
     <row r="272" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>7</v>
@@ -5513,13 +5521,13 @@
     </row>
     <row r="273" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>7</v>
@@ -5527,13 +5535,13 @@
     </row>
     <row r="274" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>7</v>
@@ -5541,13 +5549,13 @@
     </row>
     <row r="275" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>7</v>
@@ -5555,13 +5563,13 @@
     </row>
     <row r="276" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>7</v>
@@ -5569,13 +5577,13 @@
     </row>
     <row r="277" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B277" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B277" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="C277" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>7</v>
@@ -5583,13 +5591,13 @@
     </row>
     <row r="278" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>7</v>
@@ -5597,13 +5605,13 @@
     </row>
     <row r="279" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>7</v>
@@ -5611,49 +5619,49 @@
     </row>
     <row r="280" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B280" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C280" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="18"/>
-      <c r="D281" s="9"/>
+      <c r="B281" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="18"/>
       <c r="D282" s="9"/>
     </row>
-    <row r="283" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B283" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C283" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D283" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="283" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C283" s="18"/>
+      <c r="D283" s="9"/>
     </row>
     <row r="284" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>7</v>
@@ -5661,13 +5669,13 @@
     </row>
     <row r="285" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>7</v>
@@ -5675,13 +5683,13 @@
     </row>
     <row r="286" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>7</v>
@@ -5689,13 +5697,13 @@
     </row>
     <row r="287" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>7</v>
@@ -5703,13 +5711,13 @@
     </row>
     <row r="288" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>7</v>
@@ -5717,13 +5725,13 @@
     </row>
     <row r="289" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>7</v>
@@ -5731,13 +5739,13 @@
     </row>
     <row r="290" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
@@ -5745,13 +5753,13 @@
     </row>
     <row r="291" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
@@ -5759,13 +5767,13 @@
     </row>
     <row r="292" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
@@ -5773,13 +5781,13 @@
     </row>
     <row r="293" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
@@ -5787,13 +5795,13 @@
     </row>
     <row r="294" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
@@ -5801,13 +5809,13 @@
     </row>
     <row r="295" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
@@ -5815,13 +5823,13 @@
     </row>
     <row r="296" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>7</v>
@@ -5829,13 +5837,13 @@
     </row>
     <row r="297" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>7</v>
@@ -5843,13 +5851,13 @@
     </row>
     <row r="298" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>7</v>
@@ -5857,13 +5865,13 @@
     </row>
     <row r="299" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>7</v>
@@ -5871,13 +5879,13 @@
     </row>
     <row r="300" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>7</v>
@@ -5885,49 +5893,49 @@
     </row>
     <row r="301" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B301" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C301" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D301" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="18"/>
-      <c r="D302" s="9"/>
+      <c r="B302" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="18"/>
       <c r="D303" s="9"/>
     </row>
-    <row r="304" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C304" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D304" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="304" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="18"/>
+      <c r="D304" s="9"/>
     </row>
     <row r="305" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>7</v>
@@ -5935,13 +5943,13 @@
     </row>
     <row r="306" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>7</v>
@@ -5949,13 +5957,13 @@
     </row>
     <row r="307" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>7</v>
@@ -5963,13 +5971,13 @@
     </row>
     <row r="308" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>7</v>
@@ -5977,13 +5985,13 @@
     </row>
     <row r="309" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>7</v>
@@ -5991,13 +5999,13 @@
     </row>
     <row r="310" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>7</v>
@@ -6005,13 +6013,13 @@
     </row>
     <row r="311" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>7</v>
@@ -6019,13 +6027,13 @@
     </row>
     <row r="312" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>7</v>
@@ -6033,13 +6041,13 @@
     </row>
     <row r="313" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>7</v>
@@ -6047,13 +6055,13 @@
     </row>
     <row r="314" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>7</v>
@@ -6061,13 +6069,13 @@
     </row>
     <row r="315" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>7</v>
@@ -6075,13 +6083,13 @@
     </row>
     <row r="316" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>7</v>
@@ -6089,13 +6097,13 @@
     </row>
     <row r="317" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C317" s="30" t="s">
-        <v>317</v>
+        <v>305</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>7</v>
@@ -6103,13 +6111,13 @@
     </row>
     <row r="318" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C318" s="11" t="s">
-        <v>318</v>
+        <v>305</v>
+      </c>
+      <c r="C318" s="31" t="s">
+        <v>319</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>7</v>
@@ -6117,13 +6125,13 @@
     </row>
     <row r="319" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>7</v>
@@ -6131,13 +6139,13 @@
     </row>
     <row r="320" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>7</v>
@@ -6145,13 +6153,13 @@
     </row>
     <row r="321" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>7</v>
@@ -6159,13 +6167,13 @@
     </row>
     <row r="322" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>7</v>
@@ -6173,13 +6181,13 @@
     </row>
     <row r="323" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>7</v>
@@ -6187,13 +6195,13 @@
     </row>
     <row r="324" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>7</v>
@@ -6201,13 +6209,13 @@
     </row>
     <row r="325" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>7</v>
@@ -6215,13 +6223,13 @@
     </row>
     <row r="326" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>7</v>
@@ -6229,13 +6237,13 @@
     </row>
     <row r="327" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>7</v>
@@ -6243,13 +6251,13 @@
     </row>
     <row r="328" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>7</v>
@@ -6257,13 +6265,13 @@
     </row>
     <row r="329" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>7</v>
@@ -6271,13 +6279,13 @@
     </row>
     <row r="330" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>7</v>
@@ -6285,13 +6293,13 @@
     </row>
     <row r="331" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>7</v>
@@ -6299,13 +6307,13 @@
     </row>
     <row r="332" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>7</v>
@@ -6313,13 +6321,13 @@
     </row>
     <row r="333" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>7</v>
@@ -6327,13 +6335,13 @@
     </row>
     <row r="334" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>7</v>
@@ -6341,13 +6349,13 @@
     </row>
     <row r="335" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>7</v>
@@ -6355,13 +6363,13 @@
     </row>
     <row r="336" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B336" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B336" s="10" t="s">
-        <v>303</v>
-      </c>
       <c r="C336" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>7</v>
@@ -6369,13 +6377,13 @@
     </row>
     <row r="337" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>7</v>
@@ -6383,13 +6391,13 @@
     </row>
     <row r="338" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>7</v>
@@ -6397,13 +6405,13 @@
     </row>
     <row r="339" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>7</v>
@@ -6411,13 +6419,13 @@
     </row>
     <row r="340" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>7</v>
@@ -6425,49 +6433,49 @@
     </row>
     <row r="341" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C341" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B341" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C341" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D341" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="18"/>
-      <c r="D342" s="9"/>
+      <c r="B342" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C342" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="18"/>
       <c r="D343" s="9"/>
     </row>
-    <row r="344" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B344" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C344" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D344" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="344" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C344" s="18"/>
+      <c r="D344" s="9"/>
     </row>
     <row r="345" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>7</v>
@@ -6475,13 +6483,13 @@
     </row>
     <row r="346" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>7</v>
@@ -6489,13 +6497,13 @@
     </row>
     <row r="347" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>7</v>
@@ -6503,13 +6511,13 @@
     </row>
     <row r="348" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>7</v>
@@ -6517,13 +6525,13 @@
     </row>
     <row r="349" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>7</v>
@@ -6531,13 +6539,13 @@
     </row>
     <row r="350" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>7</v>
@@ -6545,13 +6553,13 @@
     </row>
     <row r="351" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>7</v>
@@ -6559,13 +6567,13 @@
     </row>
     <row r="352" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C352" s="30" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>7</v>
@@ -6573,13 +6581,13 @@
     </row>
     <row r="353" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C353" s="11" t="s">
-        <v>352</v>
+        <v>344</v>
+      </c>
+      <c r="C353" s="31" t="s">
+        <v>353</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>7</v>
@@ -6587,13 +6595,13 @@
     </row>
     <row r="354" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>7</v>
@@ -6601,13 +6609,13 @@
     </row>
     <row r="355" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>7</v>
@@ -6615,13 +6623,13 @@
     </row>
     <row r="356" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>7</v>
@@ -6629,13 +6637,13 @@
     </row>
     <row r="357" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>7</v>
@@ -6643,13 +6651,13 @@
     </row>
     <row r="358" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>7</v>
@@ -6657,13 +6665,13 @@
     </row>
     <row r="359" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>7</v>
@@ -6671,13 +6679,13 @@
     </row>
     <row r="360" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -6685,49 +6693,49 @@
     </row>
     <row r="361" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B361" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="D361" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="18"/>
-      <c r="D362" s="9"/>
+      <c r="B362" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C363" s="18"/>
       <c r="D363" s="9"/>
     </row>
-    <row r="364" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B364" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D364" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="364" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C364" s="18"/>
+      <c r="D364" s="9"/>
     </row>
     <row r="365" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>7</v>
@@ -6735,13 +6743,13 @@
     </row>
     <row r="366" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>7</v>
@@ -6749,13 +6757,13 @@
     </row>
     <row r="367" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>7</v>
@@ -6763,13 +6771,13 @@
     </row>
     <row r="368" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>7</v>
@@ -6777,13 +6785,13 @@
     </row>
     <row r="369" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>7</v>
@@ -6791,13 +6799,13 @@
     </row>
     <row r="370" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>7</v>
@@ -6805,13 +6813,13 @@
     </row>
     <row r="371" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D371" s="9" t="s">
         <v>7</v>
@@ -6819,13 +6827,13 @@
     </row>
     <row r="372" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>7</v>
@@ -6833,13 +6841,13 @@
     </row>
     <row r="373" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>7</v>
@@ -6847,13 +6855,13 @@
     </row>
     <row r="374" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>7</v>
@@ -6861,13 +6869,13 @@
     </row>
     <row r="375" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>7</v>
@@ -6875,13 +6883,13 @@
     </row>
     <row r="376" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>7</v>
@@ -6889,13 +6897,13 @@
     </row>
     <row r="377" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D377" s="9" t="s">
         <v>7</v>
@@ -6903,13 +6911,13 @@
     </row>
     <row r="378" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>7</v>
@@ -6917,13 +6925,13 @@
     </row>
     <row r="379" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D379" s="9" t="s">
         <v>7</v>
@@ -6931,13 +6939,13 @@
     </row>
     <row r="380" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>7</v>
@@ -6945,13 +6953,13 @@
     </row>
     <row r="381" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>7</v>
@@ -6959,13 +6967,13 @@
     </row>
     <row r="382" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>7</v>
@@ -6973,13 +6981,13 @@
     </row>
     <row r="383" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>7</v>
@@ -6987,13 +6995,13 @@
     </row>
     <row r="384" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>7</v>
@@ -7001,13 +7009,13 @@
     </row>
     <row r="385" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D385" s="9" t="s">
         <v>7</v>
@@ -7015,13 +7023,13 @@
     </row>
     <row r="386" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>7</v>
@@ -7029,13 +7037,13 @@
     </row>
     <row r="387" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>7</v>
@@ -7043,13 +7051,13 @@
     </row>
     <row r="388" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>7</v>
@@ -7057,13 +7065,13 @@
     </row>
     <row r="389" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>7</v>
@@ -7071,13 +7079,13 @@
     </row>
     <row r="390" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>7</v>
@@ -7085,13 +7093,13 @@
     </row>
     <row r="391" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D391" s="9" t="s">
         <v>7</v>
@@ -7099,13 +7107,13 @@
     </row>
     <row r="392" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>7</v>
@@ -7113,13 +7121,13 @@
     </row>
     <row r="393" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>7</v>
@@ -7127,13 +7135,13 @@
     </row>
     <row r="394" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>7</v>
@@ -7141,13 +7149,13 @@
     </row>
     <row r="395" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>7</v>
@@ -7155,13 +7163,13 @@
     </row>
     <row r="396" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>7</v>
@@ -7169,13 +7177,13 @@
     </row>
     <row r="397" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>7</v>
@@ -7183,13 +7191,13 @@
     </row>
     <row r="398" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B398" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B398" s="10" t="s">
-        <v>361</v>
-      </c>
       <c r="C398" s="11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>7</v>
@@ -7197,13 +7205,13 @@
     </row>
     <row r="399" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>7</v>
@@ -7211,13 +7219,13 @@
     </row>
     <row r="400" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>7</v>
@@ -7225,13 +7233,13 @@
     </row>
     <row r="401" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>7</v>
@@ -7239,13 +7247,13 @@
     </row>
     <row r="402" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>7</v>
@@ -7253,13 +7261,13 @@
     </row>
     <row r="403" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>7</v>
@@ -7267,13 +7275,13 @@
     </row>
     <row r="404" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>7</v>
@@ -7281,13 +7289,13 @@
     </row>
     <row r="405" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>7</v>
@@ -7295,13 +7303,13 @@
     </row>
     <row r="406" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>7</v>
@@ -7309,49 +7317,49 @@
     </row>
     <row r="407" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D407" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B407" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C407" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D407" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="18"/>
-      <c r="D408" s="9"/>
+      <c r="B408" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C408" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C409" s="18"/>
       <c r="D409" s="9"/>
     </row>
-    <row r="410" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B410" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C410" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D410" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="410" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C410" s="18"/>
+      <c r="D410" s="9"/>
     </row>
     <row r="411" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>7</v>
@@ -7359,13 +7367,13 @@
     </row>
     <row r="412" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>7</v>
@@ -7373,13 +7381,13 @@
     </row>
     <row r="413" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>106</v>
+        <v>410</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>7</v>
@@ -7387,13 +7395,13 @@
     </row>
     <row r="414" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>409</v>
+        <v>108</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>7</v>
@@ -7401,49 +7409,49 @@
     </row>
     <row r="415" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B415" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C415" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D415" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="18"/>
-      <c r="D416" s="9"/>
+      <c r="B416" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="417" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="18"/>
       <c r="D417" s="9"/>
     </row>
-    <row r="418" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C418" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="D418" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="418" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C418" s="18"/>
+      <c r="D418" s="9"/>
     </row>
     <row r="419" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>7</v>
@@ -7451,13 +7459,13 @@
     </row>
     <row r="420" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>7</v>
@@ -7465,13 +7473,13 @@
     </row>
     <row r="421" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>7</v>
@@ -7479,13 +7487,13 @@
     </row>
     <row r="422" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>7</v>
@@ -7493,13 +7501,13 @@
     </row>
     <row r="423" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>7</v>
@@ -7507,13 +7515,13 @@
     </row>
     <row r="424" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>7</v>
@@ -7521,13 +7529,13 @@
     </row>
     <row r="425" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>291</v>
+        <v>420</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>7</v>
@@ -7535,13 +7543,13 @@
     </row>
     <row r="426" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>419</v>
+        <v>293</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>7</v>
@@ -7549,13 +7557,13 @@
     </row>
     <row r="427" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>7</v>
@@ -7563,13 +7571,13 @@
     </row>
     <row r="428" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>7</v>
@@ -7577,13 +7585,13 @@
     </row>
     <row r="429" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>7</v>
@@ -7591,13 +7599,13 @@
     </row>
     <row r="430" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>7</v>
@@ -7605,13 +7613,13 @@
     </row>
     <row r="431" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>7</v>
@@ -7619,13 +7627,13 @@
     </row>
     <row r="432" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>7</v>
@@ -7633,13 +7641,13 @@
     </row>
     <row r="433" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>7</v>
@@ -7647,13 +7655,13 @@
     </row>
     <row r="434" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>7</v>
@@ -7661,13 +7669,13 @@
     </row>
     <row r="435" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>7</v>
@@ -7675,13 +7683,13 @@
     </row>
     <row r="436" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>7</v>
@@ -7689,13 +7697,13 @@
     </row>
     <row r="437" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>7</v>
@@ -7703,13 +7711,13 @@
     </row>
     <row r="438" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>7</v>
@@ -7717,13 +7725,13 @@
     </row>
     <row r="439" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>7</v>
@@ -7731,13 +7739,13 @@
     </row>
     <row r="440" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>7</v>
@@ -7745,13 +7753,13 @@
     </row>
     <row r="441" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>7</v>
@@ -7759,13 +7767,13 @@
     </row>
     <row r="442" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>7</v>
@@ -7773,13 +7781,13 @@
     </row>
     <row r="443" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>7</v>
@@ -7787,13 +7795,13 @@
     </row>
     <row r="444" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>7</v>
@@ -7801,13 +7809,13 @@
     </row>
     <row r="445" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>7</v>
@@ -7815,13 +7823,13 @@
     </row>
     <row r="446" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>7</v>
@@ -7829,13 +7837,13 @@
     </row>
     <row r="447" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>7</v>
@@ -7843,13 +7851,13 @@
     </row>
     <row r="448" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D448" s="9" t="s">
         <v>7</v>
@@ -7857,13 +7865,13 @@
     </row>
     <row r="449" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D449" s="9" t="s">
         <v>7</v>
@@ -7871,13 +7879,13 @@
     </row>
     <row r="450" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>7</v>
@@ -7885,13 +7893,13 @@
     </row>
     <row r="451" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D451" s="9" t="s">
         <v>7</v>
@@ -7899,41 +7907,41 @@
     </row>
     <row r="452" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B452" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B452" s="10" t="s">
-        <v>411</v>
-      </c>
       <c r="C452" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="D452" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D452" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D453" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D453" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>7</v>
@@ -7941,13 +7949,13 @@
     </row>
     <row r="455" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D455" s="9" t="s">
         <v>7</v>
@@ -7955,13 +7963,13 @@
     </row>
     <row r="456" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D456" s="9" t="s">
         <v>7</v>
@@ -7969,13 +7977,13 @@
     </row>
     <row r="457" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D457" s="9" t="s">
         <v>7</v>
@@ -7983,13 +7991,13 @@
     </row>
     <row r="458" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>7</v>
@@ -7997,13 +8005,13 @@
     </row>
     <row r="459" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>7</v>
@@ -8011,13 +8019,13 @@
     </row>
     <row r="460" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D460" s="9" t="s">
         <v>7</v>
@@ -8025,13 +8033,13 @@
     </row>
     <row r="461" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D461" s="9" t="s">
         <v>7</v>
@@ -8039,13 +8047,13 @@
     </row>
     <row r="462" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D462" s="9" t="s">
         <v>7</v>
@@ -8053,13 +8061,13 @@
     </row>
     <row r="463" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>7</v>
@@ -8067,13 +8075,13 @@
     </row>
     <row r="464" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D464" s="9" t="s">
         <v>7</v>
@@ -8081,13 +8089,13 @@
     </row>
     <row r="465" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D465" s="9" t="s">
         <v>7</v>
@@ -8095,13 +8103,13 @@
     </row>
     <row r="466" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>7</v>
@@ -8109,13 +8117,13 @@
     </row>
     <row r="467" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D467" s="9" t="s">
         <v>7</v>
@@ -8123,13 +8131,13 @@
     </row>
     <row r="468" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>7</v>
@@ -8137,13 +8145,13 @@
     </row>
     <row r="469" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D469" s="9" t="s">
         <v>7</v>
@@ -8151,13 +8159,13 @@
     </row>
     <row r="470" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C470" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>7</v>
@@ -8165,13 +8173,13 @@
     </row>
     <row r="471" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D471" s="9" t="s">
         <v>7</v>
@@ -8179,13 +8187,13 @@
     </row>
     <row r="472" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>7</v>
@@ -8193,13 +8201,13 @@
     </row>
     <row r="473" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D473" s="9" t="s">
         <v>7</v>
@@ -8207,13 +8215,13 @@
     </row>
     <row r="474" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C474" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>7</v>
@@ -8221,13 +8229,13 @@
     </row>
     <row r="475" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>7</v>
@@ -8235,13 +8243,13 @@
     </row>
     <row r="476" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C476" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>7</v>
@@ -8249,62 +8257,62 @@
     </row>
     <row r="477" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C477" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D477" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="n">
         <v>438</v>
       </c>
-      <c r="B477" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C477" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="D477" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="B478" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C478" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="D478" s="31"/>
-    </row>
-    <row r="479" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="18"/>
-      <c r="D479" s="9"/>
+      <c r="D478" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C479" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D479" s="32"/>
     </row>
     <row r="480" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B480" s="10"/>
       <c r="C480" s="18"/>
       <c r="D480" s="9"/>
     </row>
-    <row r="481" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B481" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C481" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D481" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="481" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="10"/>
+      <c r="C481" s="18"/>
+      <c r="D481" s="9"/>
     </row>
     <row r="482" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D482" s="9" t="s">
         <v>7</v>
@@ -8312,13 +8320,13 @@
     </row>
     <row r="483" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>7</v>
@@ -8326,13 +8334,13 @@
     </row>
     <row r="484" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D484" s="9" t="s">
         <v>7</v>
@@ -8340,13 +8348,13 @@
     </row>
     <row r="485" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>7</v>
@@ -8354,13 +8362,13 @@
     </row>
     <row r="486" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>7</v>
@@ -8368,13 +8376,13 @@
     </row>
     <row r="487" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D487" s="9" t="s">
         <v>7</v>
@@ -8382,13 +8390,13 @@
     </row>
     <row r="488" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D488" s="9" t="s">
         <v>7</v>
@@ -8396,13 +8404,13 @@
     </row>
     <row r="489" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C489" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D489" s="9" t="s">
         <v>7</v>
@@ -8410,15 +8418,29 @@
     </row>
     <row r="490" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C490" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D490" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="B490" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C490" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="D490" s="9" t="s">
+      <c r="B491" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C491" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D491" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8460,415 +8482,415 @@
     <hyperlink ref="C39" r:id="rId34" display="Minimum no. of operations required to make an array palindrome"/>
     <hyperlink ref="C40" r:id="rId35" display="Median of 2 sorted arrays of equal size"/>
     <hyperlink ref="C41" r:id="rId36" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="C49" r:id="rId37" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="C50" r:id="rId38" display="Search an element in a matriix"/>
-    <hyperlink ref="C51" r:id="rId39" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="C52" r:id="rId40" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C53" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="C54" r:id="rId42" display="Maximum size rectangle"/>
-    <hyperlink ref="C55" r:id="rId43" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C56" r:id="rId44" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="C57" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C58" r:id="rId46" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C64" r:id="rId47" display="Reverse a String"/>
-    <hyperlink ref="C65" r:id="rId48" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C66" r:id="rId49" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C68" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C69" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C70" r:id="rId52" display="Count and Say problem"/>
-    <hyperlink ref="C71" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
-    <hyperlink ref="C72" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
-    <hyperlink ref="C73" r:id="rId55" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C74" r:id="rId56" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C75" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C76" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C77" r:id="rId59" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C78" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C79" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C80" r:id="rId62" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C81" r:id="rId63" display="Rabin Karp Algo"/>
-    <hyperlink ref="C82" r:id="rId64" display="KMP Algo"/>
-    <hyperlink ref="C83" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C84" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C85" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C86" r:id="rId68" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C87" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C88" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C89" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C90" r:id="rId72" display="Longest Common Prefix"/>
-    <hyperlink ref="C91" r:id="rId73" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C92" r:id="rId74" display="Find the first repeated word in string."/>
-    <hyperlink ref="C93" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C94" r:id="rId76" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C95" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C96" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C97" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C98" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C99" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C100" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C101" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C102" r:id="rId84" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C103" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C104" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C105" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C106" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C109" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C110" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C111" r:id="rId91" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C112" r:id="rId92" display="square root of an integer"/>
-    <hyperlink ref="C113" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C114" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C115" r:id="rId95" display="Find the repeating and the missing"/>
-    <hyperlink ref="C116" r:id="rId96" display="find majority element"/>
-    <hyperlink ref="C117" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C118" r:id="rId98" display="find a pair with a given difference"/>
-    <hyperlink ref="C119" r:id="rId99" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C120" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C121" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C122" r:id="rId102" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C123" r:id="rId103" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C124" r:id="rId104" display="Product array Puzzle"/>
-    <hyperlink ref="C125" r:id="rId105" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C126" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C127" r:id="rId107" display="Bishu and Soldiers"/>
-    <hyperlink ref="C128" r:id="rId108" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C129" r:id="rId109" display="Kth smallest number again"/>
-    <hyperlink ref="C130" r:id="rId110" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C131" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C132" r:id="rId112" display="Aggressive cows"/>
-    <hyperlink ref="C133" r:id="rId113" display="Book Allocation Problem"/>
-    <hyperlink ref="C134" r:id="rId114" display="EKOSPOJ:"/>
-    <hyperlink ref="C135" r:id="rId115" display="Job Scheduling Algo"/>
-    <hyperlink ref="C136" r:id="rId116" display="Missing Number in AP"/>
-    <hyperlink ref="C137" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C138" r:id="rId118" display="Painters Partition Problem:"/>
-    <hyperlink ref="C139" r:id="rId119" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C140" r:id="rId120" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C141" r:id="rId121" display="Subset Sums"/>
-    <hyperlink ref="C142" r:id="rId122" display="Findthe inversion count"/>
-    <hyperlink ref="C143" r:id="rId123" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C144" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C147" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C148" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C149" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C150" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C151" r:id="rId129" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C152" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C153" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C154" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C155" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C156" r:id="rId134" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C157" r:id="rId135" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C158" r:id="rId136" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C159" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C160" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C161" r:id="rId139" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C162" r:id="rId140" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C163" r:id="rId141" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C164" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C165" r:id="rId143" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C166" r:id="rId144" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C167" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C168" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C169" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C170" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C171" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C174" r:id="rId150" display="Flatten a Linked List"/>
-    <hyperlink ref="C175" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C176" r:id="rId152" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C177" r:id="rId153" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C178" r:id="rId154" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C179" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C180" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C181" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C182" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C185" r:id="rId159" display="level order traversal"/>
-    <hyperlink ref="C186" r:id="rId160" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C187" r:id="rId161" display="Height of a tree"/>
-    <hyperlink ref="C188" r:id="rId162" display="Diameter of a tree"/>
-    <hyperlink ref="C189" r:id="rId163" display="Mirror of a tree"/>
-    <hyperlink ref="C190" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C191" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C192" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C193" r:id="rId167" display="Left View of a tree"/>
-    <hyperlink ref="C194" r:id="rId168" display="Right View of Tree"/>
-    <hyperlink ref="C195" r:id="rId169" display="Top View of a tree"/>
-    <hyperlink ref="C196" r:id="rId170" display="Bottom View of a tree"/>
-    <hyperlink ref="C197" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C198" r:id="rId172" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C199" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C200" r:id="rId174" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C201" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C202" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C203" r:id="rId177" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C204" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C205" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C206" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C207" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C208" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C209" r:id="rId183" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C210" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C211" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C212" r:id="rId186" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C213" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C214" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C215" r:id="rId189" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C216" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C217" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C218" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C219" r:id="rId193" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C222" r:id="rId194" display="Fina a value in a BST"/>
-    <hyperlink ref="C223" r:id="rId195" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C224" r:id="rId196" display="Find min and max value in a BST"/>
-    <hyperlink ref="C225" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C226" r:id="rId198" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C227" r:id="rId199" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C228" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C229" r:id="rId201" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C230" r:id="rId202" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C231" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C232" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C233" r:id="rId205" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C234" r:id="rId206" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C235" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C236" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C237" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C238" r:id="rId210" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C239" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C240" r:id="rId212" display="Check preorder is valid or not"/>
-    <hyperlink ref="C241" r:id="rId213" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C242" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C243" r:id="rId215" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C246" r:id="rId216" display="Activity Selection Problem"/>
-    <hyperlink ref="C247" r:id="rId217" display="Job SequencingProblem"/>
-    <hyperlink ref="C248" r:id="rId218" display="Huffman Coding"/>
-    <hyperlink ref="C249" r:id="rId219" display="Water Connection Problem"/>
-    <hyperlink ref="C250" r:id="rId220" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C251" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C252" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C253" r:id="rId223" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C254" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C255" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C256" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C257" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C258" r:id="rId228" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C259" r:id="rId229" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C260" r:id="rId230" display="Maximum product subset of an array"/>
-    <hyperlink ref="C261" r:id="rId231" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C262" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C263" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C264" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C265" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C266" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C267" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C268" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C269" r:id="rId239" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C270" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C271" r:id="rId241" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C272" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C273" r:id="rId243" display="Picking Up Chicks"/>
-    <hyperlink ref="C274" r:id="rId244" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C275" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C276" r:id="rId246" display="K Centers Problem"/>
-    <hyperlink ref="C277" r:id="rId247" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C278" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C279" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C280" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C283" r:id="rId251" display="Rat in a maze Problem"/>
-    <hyperlink ref="C284" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C285" r:id="rId253" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C286" r:id="rId254" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C287" r:id="rId255" display="Sudoku Solver"/>
-    <hyperlink ref="C288" r:id="rId256" display="m Coloring Problem"/>
-    <hyperlink ref="C289" r:id="rId257" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C290" r:id="rId258" display="Subset Sum Problem"/>
-    <hyperlink ref="C291" r:id="rId259" display="The Knight’s tour problem"/>
-    <hyperlink ref="C292" r:id="rId260" display="Tug of War"/>
-    <hyperlink ref="C293" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C294" r:id="rId262" display="Combinational Sum"/>
-    <hyperlink ref="C295" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C296" r:id="rId264" display="Print all permutations of a string "/>
-    <hyperlink ref="C297" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C298" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C299" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C300" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C301" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C304" r:id="rId270" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C305" r:id="rId271" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C306" r:id="rId272" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C307" r:id="rId273" display="find the middle element of a stack"/>
-    <hyperlink ref="C308" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C309" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C310" r:id="rId276" display="Reverse a String using Stack"/>
-    <hyperlink ref="C311" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C312" r:id="rId278" display="Find the next Greater element"/>
-    <hyperlink ref="C313" r:id="rId279" display="The celebrity Problem"/>
-    <hyperlink ref="C314" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C315" r:id="rId281" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C316" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C317" r:id="rId283" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C318" r:id="rId284" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C319" r:id="rId285" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C320" r:id="rId286" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C321" r:id="rId287" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C322" r:id="rId288" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C323" r:id="rId289" display="Implement Stack using Queue"/>
-    <hyperlink ref="C324" r:id="rId290" display="Implement Stack using Deque"/>
-    <hyperlink ref="C325" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C326" r:id="rId292" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C327" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C328" r:id="rId294" display="Implement a Circular queue"/>
-    <hyperlink ref="C329" r:id="rId295" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C330" r:id="rId296" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C331" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C332" r:id="rId298" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C333" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C334" r:id="rId300" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C335" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C336" r:id="rId302" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C337" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C338" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C339" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C340" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C341" r:id="rId307" display="Next Smaller Element"/>
-    <hyperlink ref="C344" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C345" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C346" r:id="rId310" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C347" r:id="rId311" display="“k” largest element in an array"/>
-    <hyperlink ref="C348" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C349" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C350" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C351" r:id="rId315" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C352" r:id="rId316" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C353" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C354" r:id="rId318" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C355" r:id="rId319" display="Median in a stream of Integers"/>
-    <hyperlink ref="C356" r:id="rId320" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C357" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C358" r:id="rId322" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C359" r:id="rId323" display="Convert min heap to max heap"/>
-    <hyperlink ref="C360" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C361" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C364" r:id="rId326" display="Create a Graph, print it"/>
-    <hyperlink ref="C365" r:id="rId327" display="Implement BFS algorithm "/>
-    <hyperlink ref="C366" r:id="rId328" display="Implement DFS Algo "/>
-    <hyperlink ref="C367" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C368" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C369" r:id="rId331" display="Search in a Maze"/>
-    <hyperlink ref="C370" r:id="rId332" display="Minimum Step by Knight"/>
-    <hyperlink ref="C371" r:id="rId333" display="flood fill algo"/>
-    <hyperlink ref="C372" r:id="rId334" display="Clone a graph"/>
-    <hyperlink ref="C373" r:id="rId335" display="Making wired Connections"/>
-    <hyperlink ref="C374" r:id="rId336" display="word Ladder "/>
-    <hyperlink ref="C375" r:id="rId337" display="Dijkstra algo"/>
-    <hyperlink ref="C376" r:id="rId338" display="Implement Topological Sort "/>
-    <hyperlink ref="C377" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C378" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C379" r:id="rId341" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C380" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C381" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C382" r:id="rId344" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C383" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C384" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C385" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C386" r:id="rId348" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C387" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C388" r:id="rId350" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C389" r:id="rId351" display="Find bridge in a graph"/>
-    <hyperlink ref="C390" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C391" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C392" r:id="rId354" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C393" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C394" r:id="rId356" display="Journey to the Moon"/>
-    <hyperlink ref="C395" r:id="rId357" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C396" r:id="rId358" display="Oliver and the Game"/>
-    <hyperlink ref="C397" r:id="rId359" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C398" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C399" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C400" r:id="rId362" display="M-ColouringProblem"/>
-    <hyperlink ref="C401" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C402" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C403" r:id="rId365" display="Vertex Cover Problem"/>
-    <hyperlink ref="C404" r:id="rId366" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C405" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C406" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C407" r:id="rId369" display="Two Clique Problem"/>
-    <hyperlink ref="C410" r:id="rId370" display="Construct a trie from scratch"/>
-    <hyperlink ref="C411" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C412" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C413" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C414" r:id="rId374" display="Implement a Phone Directory"/>
-    <hyperlink ref="C415" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C418" r:id="rId376" display="Coin ChangeProblem"/>
-    <hyperlink ref="C419" r:id="rId377" display="Knapsack Problem"/>
-    <hyperlink ref="C420" r:id="rId378" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C421" r:id="rId379" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C422" r:id="rId380" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C423" r:id="rId381" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C424" r:id="rId382" display="Edit Distance"/>
-    <hyperlink ref="C425" r:id="rId383" display="Subset Sum Problem"/>
-    <hyperlink ref="C426" r:id="rId384" display="Friends Pairing Problem"/>
-    <hyperlink ref="C427" r:id="rId385" display="Gold Mine Problem"/>
-    <hyperlink ref="C428" r:id="rId386" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C429" r:id="rId387" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C430" r:id="rId388" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C431" r:id="rId389" display="Longest Common Subsequence"/>
-    <hyperlink ref="C432" r:id="rId390" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C433" r:id="rId391" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C434" r:id="rId392" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C435" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C436" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C437" r:id="rId395" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C438" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C439" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C440" r:id="rId398" display="Egg Dropping Problem"/>
-    <hyperlink ref="C441" r:id="rId399" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C442" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C443" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C444" r:id="rId402" display="Min Cost PathProblem"/>
-    <hyperlink ref="C445" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C446" r:id="rId404" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C447" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C448" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C449" r:id="rId407" display="Longest Common Substring"/>
-    <hyperlink ref="C450" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C451" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C452" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C453" r:id="rId411" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C454" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C455" r:id="rId413" display="Word Break Problem"/>
-    <hyperlink ref="C456" r:id="rId414" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C457" r:id="rId415" display="Partition problem"/>
-    <hyperlink ref="C458" r:id="rId416" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C459" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C460" r:id="rId418" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C461" r:id="rId419" display="Longest alternating subsequence"/>
-    <hyperlink ref="C462" r:id="rId420" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C463" r:id="rId421" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C464" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C465" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C466" r:id="rId424" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C467" r:id="rId425" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C468" r:id="rId426" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C469" r:id="rId427" display="Word Wrap Problem"/>
-    <hyperlink ref="C470" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C471" r:id="rId429" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C472" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C473" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C474" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C475" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C476" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C477" r:id="rId435" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C481" r:id="rId436" display="Count set bits in an integer"/>
-    <hyperlink ref="C482" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C483" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C484" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C485" r:id="rId440" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C486" r:id="rId441" display="Find position of the only set bit"/>
-    <hyperlink ref="C487" r:id="rId442" display="Copy set bits in a range"/>
-    <hyperlink ref="C488" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C489" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C490" r:id="rId445" display="Power Set"/>
+    <hyperlink ref="C50" r:id="rId37" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="C51" r:id="rId38" display="Search an element in a matriix"/>
+    <hyperlink ref="C52" r:id="rId39" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="C53" r:id="rId40" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="C54" r:id="rId41" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C55" r:id="rId42" display="Maximum size rectangle"/>
+    <hyperlink ref="C56" r:id="rId43" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C57" r:id="rId44" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="C58" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="C59" r:id="rId46" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C65" r:id="rId47" display="Reverse a String"/>
+    <hyperlink ref="C66" r:id="rId48" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C67" r:id="rId49" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C69" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C70" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C71" r:id="rId52" display="Count and Say problem"/>
+    <hyperlink ref="C72" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] (_DP_)"/>
+    <hyperlink ref="C73" r:id="rId54" display="Find Longest Recurring Subsequence in String (_DP_)"/>
+    <hyperlink ref="C74" r:id="rId55" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C75" r:id="rId56" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C76" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C77" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C78" r:id="rId59" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C79" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C80" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C81" r:id="rId62" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C82" r:id="rId63" display="Rabin Karp Algo"/>
+    <hyperlink ref="C83" r:id="rId64" display="KMP Algo"/>
+    <hyperlink ref="C84" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C85" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C86" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C87" r:id="rId68" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C88" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C89" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C90" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C91" r:id="rId72" display="Longest Common Prefix"/>
+    <hyperlink ref="C92" r:id="rId73" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C93" r:id="rId74" display="Find the first repeated word in string."/>
+    <hyperlink ref="C94" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C95" r:id="rId76" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C96" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C97" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C98" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C99" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C100" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C101" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C102" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C103" r:id="rId84" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C104" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C105" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C106" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C107" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C110" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C111" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C112" r:id="rId91" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C113" r:id="rId92" display="square root of an integer"/>
+    <hyperlink ref="C114" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C115" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C116" r:id="rId95" display="Find the repeating and the missing"/>
+    <hyperlink ref="C117" r:id="rId96" display="find majority element"/>
+    <hyperlink ref="C118" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C119" r:id="rId98" display="find a pair with a given difference"/>
+    <hyperlink ref="C120" r:id="rId99" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C121" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C122" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C123" r:id="rId102" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C124" r:id="rId103" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C125" r:id="rId104" display="Product array Puzzle"/>
+    <hyperlink ref="C126" r:id="rId105" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C127" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C128" r:id="rId107" display="Bishu and Soldiers"/>
+    <hyperlink ref="C129" r:id="rId108" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C130" r:id="rId109" display="Kth smallest number again"/>
+    <hyperlink ref="C131" r:id="rId110" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C132" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C133" r:id="rId112" display="Aggressive cows"/>
+    <hyperlink ref="C134" r:id="rId113" display="Book Allocation Problem"/>
+    <hyperlink ref="C135" r:id="rId114" display="EKOSPOJ:"/>
+    <hyperlink ref="C136" r:id="rId115" display="Job Scheduling Algo"/>
+    <hyperlink ref="C137" r:id="rId116" display="Missing Number in AP"/>
+    <hyperlink ref="C138" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C139" r:id="rId118" display="Painters Partition Problem:"/>
+    <hyperlink ref="C140" r:id="rId119" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C141" r:id="rId120" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C142" r:id="rId121" display="Subset Sums"/>
+    <hyperlink ref="C143" r:id="rId122" display="Findthe inversion count"/>
+    <hyperlink ref="C144" r:id="rId123" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C145" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C148" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C149" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C150" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C151" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C152" r:id="rId129" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C153" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C154" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C155" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C156" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C157" r:id="rId134" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C158" r:id="rId135" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C159" r:id="rId136" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C160" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C161" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C162" r:id="rId139" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C163" r:id="rId140" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C164" r:id="rId141" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C165" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C166" r:id="rId143" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C167" r:id="rId144" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C168" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C169" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C170" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C171" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C172" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C175" r:id="rId150" display="Flatten a Linked List"/>
+    <hyperlink ref="C176" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C177" r:id="rId152" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C178" r:id="rId153" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C179" r:id="rId154" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C180" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C181" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C182" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C183" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C186" r:id="rId159" display="level order traversal"/>
+    <hyperlink ref="C187" r:id="rId160" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C188" r:id="rId161" display="Height of a tree"/>
+    <hyperlink ref="C189" r:id="rId162" display="Diameter of a tree"/>
+    <hyperlink ref="C190" r:id="rId163" display="Mirror of a tree"/>
+    <hyperlink ref="C191" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C192" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C193" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C194" r:id="rId167" display="Left View of a tree"/>
+    <hyperlink ref="C195" r:id="rId168" display="Right View of Tree"/>
+    <hyperlink ref="C196" r:id="rId169" display="Top View of a tree"/>
+    <hyperlink ref="C197" r:id="rId170" display="Bottom View of a tree"/>
+    <hyperlink ref="C198" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C199" r:id="rId172" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C200" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C201" r:id="rId174" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C202" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C203" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C204" r:id="rId177" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C205" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C206" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C207" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C208" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C209" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C210" r:id="rId183" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C211" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C212" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C213" r:id="rId186" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C214" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C215" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C216" r:id="rId189" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C217" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C218" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C219" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C220" r:id="rId193" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C223" r:id="rId194" display="Fina a value in a BST"/>
+    <hyperlink ref="C224" r:id="rId195" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C225" r:id="rId196" display="Find min and max value in a BST"/>
+    <hyperlink ref="C226" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C227" r:id="rId198" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C228" r:id="rId199" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C229" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C230" r:id="rId201" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C231" r:id="rId202" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C232" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C233" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C234" r:id="rId205" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C235" r:id="rId206" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C236" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C237" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C238" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C239" r:id="rId210" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C240" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C241" r:id="rId212" display="Check preorder is valid or not"/>
+    <hyperlink ref="C242" r:id="rId213" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C243" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C244" r:id="rId215" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C247" r:id="rId216" display="Activity Selection Problem"/>
+    <hyperlink ref="C248" r:id="rId217" display="Job SequencingProblem"/>
+    <hyperlink ref="C249" r:id="rId218" display="Huffman Coding"/>
+    <hyperlink ref="C250" r:id="rId219" display="Water Connection Problem"/>
+    <hyperlink ref="C251" r:id="rId220" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C252" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C253" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C254" r:id="rId223" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C255" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C256" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C257" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C258" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C259" r:id="rId228" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C260" r:id="rId229" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C261" r:id="rId230" display="Maximum product subset of an array"/>
+    <hyperlink ref="C262" r:id="rId231" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C263" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C264" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C265" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C266" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C267" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C268" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C269" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C270" r:id="rId239" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C271" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C272" r:id="rId241" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C273" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C274" r:id="rId243" display="Picking Up Chicks"/>
+    <hyperlink ref="C275" r:id="rId244" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C276" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C277" r:id="rId246" display="K Centers Problem"/>
+    <hyperlink ref="C278" r:id="rId247" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C279" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C280" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C281" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C284" r:id="rId251" display="Rat in a maze Problem"/>
+    <hyperlink ref="C285" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C286" r:id="rId253" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C287" r:id="rId254" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C288" r:id="rId255" display="Sudoku Solver"/>
+    <hyperlink ref="C289" r:id="rId256" display="m Coloring Problem"/>
+    <hyperlink ref="C290" r:id="rId257" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C291" r:id="rId258" display="Subset Sum Problem"/>
+    <hyperlink ref="C292" r:id="rId259" display="The Knight’s tour problem"/>
+    <hyperlink ref="C293" r:id="rId260" display="Tug of War"/>
+    <hyperlink ref="C294" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C295" r:id="rId262" display="Combinational Sum"/>
+    <hyperlink ref="C296" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C297" r:id="rId264" display="Print all permutations of a string "/>
+    <hyperlink ref="C298" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C299" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C300" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C301" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C302" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C305" r:id="rId270" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C306" r:id="rId271" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C307" r:id="rId272" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C308" r:id="rId273" display="find the middle element of a stack"/>
+    <hyperlink ref="C309" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C310" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C311" r:id="rId276" display="Reverse a String using Stack"/>
+    <hyperlink ref="C312" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C313" r:id="rId278" display="Find the next Greater element"/>
+    <hyperlink ref="C314" r:id="rId279" display="The celebrity Problem"/>
+    <hyperlink ref="C315" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C316" r:id="rId281" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C317" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C318" r:id="rId283" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C319" r:id="rId284" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C320" r:id="rId285" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C321" r:id="rId286" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C322" r:id="rId287" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C323" r:id="rId288" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C324" r:id="rId289" display="Implement Stack using Queue"/>
+    <hyperlink ref="C325" r:id="rId290" display="Implement Stack using Deque"/>
+    <hyperlink ref="C326" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C327" r:id="rId292" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C328" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C329" r:id="rId294" display="Implement a Circular queue"/>
+    <hyperlink ref="C330" r:id="rId295" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C331" r:id="rId296" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C332" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C333" r:id="rId298" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C334" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C335" r:id="rId300" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C336" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C337" r:id="rId302" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C338" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C339" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C340" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C341" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C342" r:id="rId307" display="Next Smaller Element"/>
+    <hyperlink ref="C345" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C346" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C347" r:id="rId310" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C348" r:id="rId311" display="“k” largest element in an array"/>
+    <hyperlink ref="C349" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C350" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C351" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C352" r:id="rId315" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C353" r:id="rId316" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C354" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C355" r:id="rId318" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C356" r:id="rId319" display="Median in a stream of Integers"/>
+    <hyperlink ref="C357" r:id="rId320" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C358" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C359" r:id="rId322" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C360" r:id="rId323" display="Convert min heap to max heap"/>
+    <hyperlink ref="C361" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C362" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C365" r:id="rId326" display="Create a Graph, print it"/>
+    <hyperlink ref="C366" r:id="rId327" display="Implement BFS algorithm "/>
+    <hyperlink ref="C367" r:id="rId328" display="Implement DFS Algo "/>
+    <hyperlink ref="C368" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C369" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C370" r:id="rId331" display="Search in a Maze"/>
+    <hyperlink ref="C371" r:id="rId332" display="Minimum Step by Knight"/>
+    <hyperlink ref="C372" r:id="rId333" display="flood fill algo"/>
+    <hyperlink ref="C373" r:id="rId334" display="Clone a graph"/>
+    <hyperlink ref="C374" r:id="rId335" display="Making wired Connections"/>
+    <hyperlink ref="C375" r:id="rId336" display="word Ladder "/>
+    <hyperlink ref="C376" r:id="rId337" display="Dijkstra algo"/>
+    <hyperlink ref="C377" r:id="rId338" display="Implement Topological Sort "/>
+    <hyperlink ref="C378" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C379" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C380" r:id="rId341" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C381" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C382" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C383" r:id="rId344" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C384" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C385" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C386" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C387" r:id="rId348" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C388" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C389" r:id="rId350" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C390" r:id="rId351" display="Find bridge in a graph"/>
+    <hyperlink ref="C391" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C392" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C393" r:id="rId354" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C394" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C395" r:id="rId356" display="Journey to the Moon"/>
+    <hyperlink ref="C396" r:id="rId357" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C397" r:id="rId358" display="Oliver and the Game"/>
+    <hyperlink ref="C398" r:id="rId359" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C399" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C400" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C401" r:id="rId362" display="M-ColouringProblem"/>
+    <hyperlink ref="C402" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C403" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C404" r:id="rId365" display="Vertex Cover Problem"/>
+    <hyperlink ref="C405" r:id="rId366" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C406" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C407" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C408" r:id="rId369" display="Two Clique Problem"/>
+    <hyperlink ref="C411" r:id="rId370" display="Construct a trie from scratch"/>
+    <hyperlink ref="C412" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C413" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C414" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C415" r:id="rId374" display="Implement a Phone Directory"/>
+    <hyperlink ref="C416" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C419" r:id="rId376" display="Coin ChangeProblem"/>
+    <hyperlink ref="C420" r:id="rId377" display="Knapsack Problem"/>
+    <hyperlink ref="C421" r:id="rId378" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C422" r:id="rId379" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C423" r:id="rId380" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C424" r:id="rId381" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C425" r:id="rId382" display="Edit Distance"/>
+    <hyperlink ref="C426" r:id="rId383" display="Subset Sum Problem"/>
+    <hyperlink ref="C427" r:id="rId384" display="Friends Pairing Problem"/>
+    <hyperlink ref="C428" r:id="rId385" display="Gold Mine Problem"/>
+    <hyperlink ref="C429" r:id="rId386" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C430" r:id="rId387" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C431" r:id="rId388" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C432" r:id="rId389" display="Longest Common Subsequence"/>
+    <hyperlink ref="C433" r:id="rId390" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C434" r:id="rId391" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C435" r:id="rId392" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C436" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C437" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C438" r:id="rId395" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C439" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C440" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C441" r:id="rId398" display="Egg Dropping Problem"/>
+    <hyperlink ref="C442" r:id="rId399" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C443" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C444" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C445" r:id="rId402" display="Min Cost PathProblem"/>
+    <hyperlink ref="C446" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C447" r:id="rId404" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C448" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C449" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C450" r:id="rId407" display="Longest Common Substring"/>
+    <hyperlink ref="C451" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C452" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C453" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C454" r:id="rId411" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C455" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C456" r:id="rId413" display="Word Break Problem"/>
+    <hyperlink ref="C457" r:id="rId414" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C458" r:id="rId415" display="Partition problem"/>
+    <hyperlink ref="C459" r:id="rId416" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C460" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C461" r:id="rId418" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C462" r:id="rId419" display="Longest alternating subsequence"/>
+    <hyperlink ref="C463" r:id="rId420" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C464" r:id="rId421" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C465" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C466" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C467" r:id="rId424" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C468" r:id="rId425" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C469" r:id="rId426" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C470" r:id="rId427" display="Word Wrap Problem"/>
+    <hyperlink ref="C471" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C472" r:id="rId429" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C473" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C474" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C475" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C476" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C477" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C478" r:id="rId435" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C482" r:id="rId436" display="Count set bits in an integer"/>
+    <hyperlink ref="C483" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C484" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C485" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C486" r:id="rId440" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C487" r:id="rId441" display="Find position of the only set bit"/>
+    <hyperlink ref="C488" r:id="rId442" display="Copy set bits in a range"/>
+    <hyperlink ref="C489" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C490" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C491" r:id="rId445" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="488">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t xml:space="preserve">1. Two Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Sum</t>
   </si>
   <si>
     <t xml:space="preserve">Matrix</t>
@@ -1897,13 +1903,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E491"/>
+  <dimension ref="A1:E492"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2517,66 +2523,64 @@
       <c r="D47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="10"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10"/>
       <c r="C49" s="16"/>
       <c r="D49" s="25"/>
     </row>
-    <row r="50" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="50" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>7</v>
@@ -2584,27 +2588,27 @@
     </row>
     <row r="54" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>7</v>
@@ -2612,13 +2616,13 @@
     </row>
     <row r="56" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>7</v>
@@ -2626,57 +2630,57 @@
     </row>
     <row r="57" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B60" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2685,7 +2689,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>69</v>
@@ -2699,46 +2703,46 @@
         <v>70</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="13"/>
+      <c r="D62" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="10"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="10"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>7</v>
@@ -2746,41 +2750,41 @@
     </row>
     <row r="67" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="B68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>51</v>
-      </c>
       <c r="B69" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>7</v>
@@ -2788,125 +2792,125 @@
     </row>
     <row r="70" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>7</v>
@@ -2914,13 +2918,13 @@
     </row>
     <row r="79" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
@@ -2928,13 +2932,13 @@
     </row>
     <row r="80" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>7</v>
@@ -2942,13 +2946,13 @@
     </row>
     <row r="81" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>7</v>
@@ -2956,13 +2960,13 @@
     </row>
     <row r="82" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>7</v>
@@ -2970,13 +2974,13 @@
     </row>
     <row r="83" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>7</v>
@@ -2984,55 +2988,55 @@
     </row>
     <row r="84" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>7</v>
@@ -3040,13 +3044,13 @@
     </row>
     <row r="88" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>7</v>
@@ -3054,13 +3058,13 @@
     </row>
     <row r="89" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>7</v>
@@ -3068,41 +3072,41 @@
     </row>
     <row r="90" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D91" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="C92" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>7</v>
@@ -3110,13 +3114,13 @@
     </row>
     <row r="93" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>7</v>
@@ -3124,13 +3128,13 @@
     </row>
     <row r="94" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>7</v>
@@ -3138,13 +3142,13 @@
     </row>
     <row r="95" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>7</v>
@@ -3152,13 +3156,13 @@
     </row>
     <row r="96" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>7</v>
@@ -3166,13 +3170,13 @@
     </row>
     <row r="97" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>7</v>
@@ -3180,13 +3184,13 @@
     </row>
     <row r="98" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>7</v>
@@ -3194,13 +3198,13 @@
     </row>
     <row r="99" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>7</v>
@@ -3208,13 +3212,13 @@
     </row>
     <row r="100" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>7</v>
@@ -3222,13 +3226,13 @@
     </row>
     <row r="101" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>7</v>
@@ -3236,13 +3240,13 @@
     </row>
     <row r="102" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>7</v>
@@ -3250,13 +3254,13 @@
     </row>
     <row r="103" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>7</v>
@@ -3264,13 +3268,13 @@
     </row>
     <row r="104" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>7</v>
@@ -3278,13 +3282,13 @@
     </row>
     <row r="105" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>7</v>
@@ -3292,13 +3296,13 @@
     </row>
     <row r="106" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>7</v>
@@ -3306,46 +3310,46 @@
     </row>
     <row r="107" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="10"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="9"/>
-    </row>
-    <row r="110" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" s="11" t="s">
+      <c r="B108" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D108" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="10"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>7</v>
@@ -3353,13 +3357,13 @@
     </row>
     <row r="112" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>7</v>
@@ -3367,13 +3371,13 @@
     </row>
     <row r="113" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>7</v>
@@ -3381,13 +3385,13 @@
     </row>
     <row r="114" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>7</v>
@@ -3395,13 +3399,13 @@
     </row>
     <row r="115" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>7</v>
@@ -3409,13 +3413,13 @@
     </row>
     <row r="116" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>7</v>
@@ -3423,13 +3427,13 @@
     </row>
     <row r="117" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>7</v>
@@ -3437,13 +3441,13 @@
     </row>
     <row r="118" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>7</v>
@@ -3451,13 +3455,13 @@
     </row>
     <row r="119" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>7</v>
@@ -3465,13 +3469,13 @@
     </row>
     <row r="120" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>7</v>
@@ -3479,13 +3483,13 @@
     </row>
     <row r="121" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>7</v>
@@ -3493,13 +3497,13 @@
     </row>
     <row r="122" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>7</v>
@@ -3507,13 +3511,13 @@
     </row>
     <row r="123" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>7</v>
@@ -3521,13 +3525,13 @@
     </row>
     <row r="124" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>7</v>
@@ -3535,13 +3539,13 @@
     </row>
     <row r="125" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>7</v>
@@ -3549,13 +3553,13 @@
     </row>
     <row r="126" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>7</v>
@@ -3563,13 +3567,13 @@
     </row>
     <row r="127" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>7</v>
@@ -3577,13 +3581,13 @@
     </row>
     <row r="128" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>7</v>
@@ -3591,13 +3595,13 @@
     </row>
     <row r="129" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>7</v>
@@ -3605,13 +3609,13 @@
     </row>
     <row r="130" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>7</v>
@@ -3619,13 +3623,13 @@
     </row>
     <row r="131" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>7</v>
@@ -3633,13 +3637,13 @@
     </row>
     <row r="132" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>7</v>
@@ -3647,13 +3651,13 @@
     </row>
     <row r="133" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>7</v>
@@ -3661,13 +3665,13 @@
     </row>
     <row r="134" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>7</v>
@@ -3675,13 +3679,13 @@
     </row>
     <row r="135" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>7</v>
@@ -3689,13 +3693,13 @@
     </row>
     <row r="136" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>7</v>
@@ -3703,13 +3707,13 @@
     </row>
     <row r="137" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>7</v>
@@ -3717,13 +3721,13 @@
     </row>
     <row r="138" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="C138" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>7</v>
@@ -3731,13 +3735,13 @@
     </row>
     <row r="139" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>7</v>
@@ -3745,13 +3749,13 @@
     </row>
     <row r="140" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>7</v>
@@ -3759,13 +3763,13 @@
     </row>
     <row r="141" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>7</v>
@@ -3773,13 +3777,13 @@
     </row>
     <row r="142" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>7</v>
@@ -3787,13 +3791,13 @@
     </row>
     <row r="143" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>7</v>
@@ -3801,13 +3805,13 @@
     </row>
     <row r="144" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>7</v>
@@ -3815,73 +3819,73 @@
     </row>
     <row r="145" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="18"/>
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C148" s="11" t="s">
+      <c r="B146" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D148" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D146" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="18"/>
+      <c r="D148" s="9"/>
     </row>
     <row r="149" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D149" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D149" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D150" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>7</v>
@@ -3889,13 +3893,13 @@
     </row>
     <row r="152" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>7</v>
@@ -3903,13 +3907,13 @@
     </row>
     <row r="153" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>7</v>
@@ -3917,13 +3921,13 @@
     </row>
     <row r="154" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>7</v>
@@ -3931,41 +3935,41 @@
     </row>
     <row r="155" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D155" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D156" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>7</v>
@@ -3973,27 +3977,27 @@
     </row>
     <row r="158" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D158" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D158" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D159" s="13" t="s">
         <v>7</v>
@@ -4001,69 +4005,69 @@
     </row>
     <row r="160" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D160" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D160" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D161" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D162" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D163" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D163" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>7</v>
@@ -4071,55 +4075,55 @@
     </row>
     <row r="165" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D165" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D165" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D166" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D166" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D167" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D167" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>7</v>
@@ -4127,13 +4131,13 @@
     </row>
     <row r="169" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>7</v>
@@ -4141,13 +4145,13 @@
     </row>
     <row r="170" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>7</v>
@@ -4155,13 +4159,13 @@
     </row>
     <row r="171" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>7</v>
@@ -4169,97 +4173,97 @@
     </row>
     <row r="172" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
-        <v>151</v>
-      </c>
       <c r="B173" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C173" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D173" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>180</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D174" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D175" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D176" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D176" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B177" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B177" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="C177" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D177" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D177" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>7</v>
@@ -4267,27 +4271,27 @@
     </row>
     <row r="179" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D179" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>7</v>
@@ -4295,13 +4299,13 @@
     </row>
     <row r="181" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>7</v>
@@ -4309,73 +4313,73 @@
     </row>
     <row r="182" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D182" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D182" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B183" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D183" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="18"/>
-      <c r="D185" s="9"/>
-    </row>
-    <row r="186" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C186" s="11" t="s">
+      <c r="B184" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C184" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D186" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="D184" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="18"/>
+      <c r="D186" s="9"/>
     </row>
     <row r="187" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D187" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D187" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>7</v>
@@ -4383,55 +4387,55 @@
     </row>
     <row r="189" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D189" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D189" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D190" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D190" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D191" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D191" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>7</v>
@@ -4439,13 +4443,13 @@
     </row>
     <row r="193" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>7</v>
@@ -4453,27 +4457,27 @@
     </row>
     <row r="194" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D194" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D194" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>7</v>
@@ -4481,41 +4485,41 @@
     </row>
     <row r="196" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D196" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D196" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D197" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D197" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>7</v>
@@ -4523,13 +4527,13 @@
     </row>
     <row r="199" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>7</v>
@@ -4537,27 +4541,27 @@
     </row>
     <row r="200" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D200" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D200" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>7</v>
@@ -4565,13 +4569,13 @@
     </row>
     <row r="202" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>7</v>
@@ -4579,13 +4583,13 @@
     </row>
     <row r="203" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>7</v>
@@ -4593,41 +4597,41 @@
     </row>
     <row r="204" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D204" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D205" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D205" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>7</v>
@@ -4635,55 +4639,55 @@
     </row>
     <row r="207" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D207" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D208" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D208" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D209" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D209" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>7</v>
@@ -4691,69 +4695,69 @@
     </row>
     <row r="211" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D211" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D211" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D212" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D212" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D213" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D213" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D214" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D214" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>7</v>
@@ -4761,107 +4765,107 @@
     </row>
     <row r="216" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D216" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D216" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B217" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B217" s="10" t="s">
-        <v>191</v>
-      </c>
       <c r="C217" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D217" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D217" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D218" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D218" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D219" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D219" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B220" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="10"/>
-      <c r="C221" s="18"/>
-      <c r="D221" s="9"/>
+      <c r="B221" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="10"/>
       <c r="C222" s="18"/>
       <c r="D222" s="9"/>
     </row>
-    <row r="223" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B223" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="223" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="10"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="9"/>
     </row>
     <row r="224" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>7</v>
@@ -4869,13 +4873,13 @@
     </row>
     <row r="225" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>7</v>
@@ -4883,13 +4887,13 @@
     </row>
     <row r="226" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>7</v>
@@ -4897,55 +4901,55 @@
     </row>
     <row r="227" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D227" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D228" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D228" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C229" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="D229" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D229" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="C230" s="31" t="s">
+        <v>236</v>
       </c>
       <c r="D230" s="13" t="s">
         <v>7</v>
@@ -4953,27 +4957,27 @@
     </row>
     <row r="231" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D231" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D231" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>7</v>
@@ -4981,13 +4985,13 @@
     </row>
     <row r="233" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>7</v>
@@ -4995,27 +4999,27 @@
     </row>
     <row r="234" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D234" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D234" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>7</v>
@@ -5023,27 +5027,27 @@
     </row>
     <row r="236" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D236" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D236" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>7</v>
@@ -5051,13 +5055,13 @@
     </row>
     <row r="238" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>7</v>
@@ -5065,13 +5069,13 @@
     </row>
     <row r="239" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>7</v>
@@ -5079,13 +5083,13 @@
     </row>
     <row r="240" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>7</v>
@@ -5093,13 +5097,13 @@
     </row>
     <row r="241" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>7</v>
@@ -5107,13 +5111,13 @@
     </row>
     <row r="242" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>7</v>
@@ -5121,13 +5125,13 @@
     </row>
     <row r="243" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>7</v>
@@ -5135,49 +5139,49 @@
     </row>
     <row r="244" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B244" s="10" t="s">
-